--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-17.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="287">
   <si>
     <t>League</t>
   </si>
@@ -217,9 +217,18 @@
     <t>Croatian 1 HNL</t>
   </si>
   <si>
+    <t>Ukrainian Premier League</t>
+  </si>
+  <si>
     <t>Norwegian Eliteserien</t>
   </si>
   <si>
+    <t>Estonian Premier League</t>
+  </si>
+  <si>
+    <t>Slovenian Premier League</t>
+  </si>
+  <si>
     <t>South African Premier Division</t>
   </si>
   <si>
@@ -256,6 +265,9 @@
     <t>13:00:00</t>
   </si>
   <si>
+    <t>13:30:00</t>
+  </si>
+  <si>
     <t>14:00:00</t>
   </si>
   <si>
@@ -304,12 +316,21 @@
     <t>Dinamo Zagreb</t>
   </si>
   <si>
+    <t>Oleksandria</t>
+  </si>
+  <si>
     <t>Brann</t>
   </si>
   <si>
     <t>Molde</t>
   </si>
   <si>
+    <t>Tallinna FC Flora</t>
+  </si>
+  <si>
+    <t>Olimpija</t>
+  </si>
+  <si>
     <t>ENPPI</t>
   </si>
   <si>
@@ -382,12 +403,21 @@
     <t>Varazdin</t>
   </si>
   <si>
+    <t>Obolon-Brovar Kiev</t>
+  </si>
+  <si>
     <t>Ham-Kam</t>
   </si>
   <si>
     <t>Odds BK</t>
   </si>
   <si>
+    <t>Paide Linnameeskond</t>
+  </si>
+  <si>
+    <t>NK Maribor</t>
+  </si>
+  <si>
     <t>El Daklyeh</t>
   </si>
   <si>
@@ -460,12 +490,21 @@
     <t>33190957</t>
   </si>
   <si>
+    <t>33195824</t>
+  </si>
+  <si>
     <t>33192456</t>
   </si>
   <si>
     <t>33192457</t>
   </si>
   <si>
+    <t>33195401</t>
+  </si>
+  <si>
+    <t>33195282</t>
+  </si>
+  <si>
     <t>33188348</t>
   </si>
   <si>
@@ -538,12 +577,21 @@
     <t>1.227573964</t>
   </si>
   <si>
+    <t>1.227677794</t>
+  </si>
+  <si>
     <t>1.227598814</t>
   </si>
   <si>
     <t>1.227598724</t>
   </si>
   <si>
+    <t>1.227657737</t>
+  </si>
+  <si>
+    <t>1.227657422</t>
+  </si>
+  <si>
     <t>1.227523635</t>
   </si>
   <si>
@@ -616,12 +664,21 @@
     <t>1.227574009</t>
   </si>
   <si>
+    <t>1.227677839</t>
+  </si>
+  <si>
     <t>1.227598859</t>
   </si>
   <si>
     <t>1.227598769</t>
   </si>
   <si>
+    <t>1.227657782</t>
+  </si>
+  <si>
+    <t>1.227657467</t>
+  </si>
+  <si>
     <t>1.227523680</t>
   </si>
   <si>
@@ -688,6 +745,39 @@
     <t>1.227584849</t>
   </si>
   <si>
+    <t>1.227569708</t>
+  </si>
+  <si>
+    <t>1.227574048</t>
+  </si>
+  <si>
+    <t>1.227677878</t>
+  </si>
+  <si>
+    <t>1.227598898</t>
+  </si>
+  <si>
+    <t>1.227598808</t>
+  </si>
+  <si>
+    <t>1.227657821</t>
+  </si>
+  <si>
+    <t>1.227657506</t>
+  </si>
+  <si>
+    <t>1.227523719</t>
+  </si>
+  <si>
+    <t>1.227439618</t>
+  </si>
+  <si>
+    <t>1.227416403</t>
+  </si>
+  <si>
+    <t>1.227416493</t>
+  </si>
+  <si>
     <t>1.227394501</t>
   </si>
   <si>
@@ -697,12 +787,63 @@
     <t>1.227649427</t>
   </si>
   <si>
+    <t>1.227600178</t>
+  </si>
+  <si>
     <t>1.227583318</t>
   </si>
   <si>
     <t>1.227382559</t>
   </si>
   <si>
+    <t>1.227598978</t>
+  </si>
+  <si>
+    <t>1.227599746</t>
+  </si>
+  <si>
+    <t>1.227600070</t>
+  </si>
+  <si>
+    <t>1.227599962</t>
+  </si>
+  <si>
+    <t>1.227599854</t>
+  </si>
+  <si>
+    <t>1.227569633</t>
+  </si>
+  <si>
+    <t>1.227573973</t>
+  </si>
+  <si>
+    <t>1.227677803</t>
+  </si>
+  <si>
+    <t>1.227598823</t>
+  </si>
+  <si>
+    <t>1.227598733</t>
+  </si>
+  <si>
+    <t>1.227657746</t>
+  </si>
+  <si>
+    <t>1.227657431</t>
+  </si>
+  <si>
+    <t>1.227523644</t>
+  </si>
+  <si>
+    <t>1.227439543</t>
+  </si>
+  <si>
+    <t>1.227416328</t>
+  </si>
+  <si>
+    <t>1.227416418</t>
+  </si>
+  <si>
     <t>1.227394512</t>
   </si>
   <si>
@@ -712,10 +853,28 @@
     <t>1.227649437</t>
   </si>
   <si>
+    <t>1.227600188</t>
+  </si>
+  <si>
     <t>1.227583328</t>
   </si>
   <si>
     <t>1.227382484</t>
+  </si>
+  <si>
+    <t>1.227598988</t>
+  </si>
+  <si>
+    <t>1.227599756</t>
+  </si>
+  <si>
+    <t>1.227600080</t>
+  </si>
+  <si>
+    <t>1.227599972</t>
+  </si>
+  <si>
+    <t>1.227599864</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1232,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BM27"/>
+  <dimension ref="A1:BM30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1281,175 +1440,175 @@
         <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F2">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="G2">
+        <v>3.6</v>
+      </c>
+      <c r="H2">
+        <v>2.46</v>
+      </c>
+      <c r="I2">
+        <v>2.84</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>3.75</v>
+      </c>
+      <c r="L2">
+        <v>1.65</v>
+      </c>
+      <c r="M2">
+        <v>1.85</v>
+      </c>
+      <c r="N2">
+        <v>2.16</v>
+      </c>
+      <c r="O2">
+        <v>2.54</v>
+      </c>
+      <c r="P2">
+        <v>1.84</v>
+      </c>
+      <c r="Q2">
+        <v>2.16</v>
+      </c>
+      <c r="R2">
+        <v>1.87</v>
+      </c>
+      <c r="S2">
+        <v>2.2</v>
+      </c>
+      <c r="T2">
+        <v>8</v>
+      </c>
+      <c r="U2">
+        <v>980</v>
+      </c>
+      <c r="V2">
+        <v>7</v>
+      </c>
+      <c r="W2">
+        <v>980</v>
+      </c>
+      <c r="X2">
+        <v>3.5</v>
+      </c>
+      <c r="Y2">
+        <v>19</v>
+      </c>
+      <c r="Z2">
+        <v>3.9</v>
+      </c>
+      <c r="AA2">
+        <v>46</v>
+      </c>
+      <c r="AB2">
+        <v>8</v>
+      </c>
+      <c r="AC2">
+        <v>980</v>
+      </c>
+      <c r="AD2">
+        <v>5.7</v>
+      </c>
+      <c r="AE2">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AF2">
+        <v>9</v>
+      </c>
+      <c r="AG2">
+        <v>980</v>
+      </c>
+      <c r="AH2">
+        <v>3.85</v>
+      </c>
+      <c r="AI2">
+        <v>38</v>
+      </c>
+      <c r="AJ2">
+        <v>3.65</v>
+      </c>
+      <c r="AK2">
+        <v>25</v>
+      </c>
+      <c r="AL2">
+        <v>3.45</v>
+      </c>
+      <c r="AM2">
+        <v>980</v>
+      </c>
+      <c r="AN2">
+        <v>3.65</v>
+      </c>
+      <c r="AO2">
+        <v>980</v>
+      </c>
+      <c r="AP2">
+        <v>4</v>
+      </c>
+      <c r="AQ2">
+        <v>65</v>
+      </c>
+      <c r="AR2">
+        <v>4</v>
+      </c>
+      <c r="AS2">
+        <v>70</v>
+      </c>
+      <c r="AT2">
+        <v>3.95</v>
+      </c>
+      <c r="AU2">
+        <v>50</v>
+      </c>
+      <c r="AV2">
+        <v>4</v>
+      </c>
+      <c r="AW2">
+        <v>75</v>
+      </c>
+      <c r="AX2">
         <v>4.1</v>
       </c>
-      <c r="H2">
-        <v>2.42</v>
-      </c>
-      <c r="I2">
-        <v>3.1</v>
-      </c>
-      <c r="J2">
-        <v>2.7</v>
-      </c>
-      <c r="K2">
-        <v>4.1</v>
-      </c>
-      <c r="L2">
-        <v>1.58</v>
-      </c>
-      <c r="M2">
-        <v>1.87</v>
-      </c>
-      <c r="N2">
-        <v>2.14</v>
-      </c>
-      <c r="O2">
-        <v>2.72</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
       <c r="AY2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ2">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="BA2">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="BB2">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="BC2">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="BD2">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="BE2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="BG2">
         <v>5202561</v>
@@ -1461,16 +1620,16 @@
         <v>58805</v>
       </c>
       <c r="BJ2" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="BK2" t="s">
-        <v>198</v>
-      </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
-      <c r="BM2">
-        <v>0</v>
+        <v>214</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>243</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:65">
@@ -1478,175 +1637,175 @@
         <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E3" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F3">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="G3">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="H3">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="I3">
-        <v>900</v>
+        <v>26</v>
       </c>
       <c r="J3">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="K3">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L3">
-        <v>1.89</v>
+        <v>2.38</v>
       </c>
       <c r="M3">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="N3">
-        <v>1.32</v>
+        <v>1.52</v>
       </c>
       <c r="O3">
-        <v>2.12</v>
+        <v>1.72</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR3">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AS3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AT3">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AU3">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AV3">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AW3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX3">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AY3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ3">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="BA3">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="BB3">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="BC3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD3">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="BE3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF3" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="BG3">
         <v>52628041</v>
@@ -1658,16 +1817,16 @@
         <v>58805</v>
       </c>
       <c r="BJ3" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="BK3" t="s">
-        <v>199</v>
-      </c>
-      <c r="BL3">
-        <v>0</v>
-      </c>
-      <c r="BM3">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>244</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:65">
@@ -1675,219 +1834,219 @@
         <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F4">
-        <v>1.34</v>
+        <v>1.86</v>
       </c>
       <c r="G4">
-        <v>1.36</v>
+        <v>2.18</v>
       </c>
       <c r="H4">
+        <v>4.4</v>
+      </c>
+      <c r="I4">
+        <v>5.9</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>3.65</v>
+      </c>
+      <c r="L4">
+        <v>1.48</v>
+      </c>
+      <c r="M4">
+        <v>1.67</v>
+      </c>
+      <c r="N4">
+        <v>2.48</v>
+      </c>
+      <c r="O4">
+        <v>3.1</v>
+      </c>
+      <c r="P4">
+        <v>1.01</v>
+      </c>
+      <c r="Q4">
+        <v>2.58</v>
+      </c>
+      <c r="R4">
+        <v>1.63</v>
+      </c>
+      <c r="S4">
+        <v>1.87</v>
+      </c>
+      <c r="T4">
+        <v>1.5</v>
+      </c>
+      <c r="U4">
         <v>9.199999999999999</v>
       </c>
-      <c r="I4">
+      <c r="V4">
+        <v>2.58</v>
+      </c>
+      <c r="W4">
+        <v>14</v>
+      </c>
+      <c r="X4">
+        <v>2.72</v>
+      </c>
+      <c r="Y4">
+        <v>1000</v>
+      </c>
+      <c r="Z4">
+        <v>4</v>
+      </c>
+      <c r="AA4">
+        <v>1000</v>
+      </c>
+      <c r="AB4">
+        <v>2.7</v>
+      </c>
+      <c r="AC4">
+        <v>7.2</v>
+      </c>
+      <c r="AD4">
+        <v>2.9</v>
+      </c>
+      <c r="AE4">
+        <v>8.4</v>
+      </c>
+      <c r="AF4">
+        <v>5.5</v>
+      </c>
+      <c r="AG4">
+        <v>25</v>
+      </c>
+      <c r="AH4">
+        <v>4.8</v>
+      </c>
+      <c r="AI4">
+        <v>1000</v>
+      </c>
+      <c r="AJ4">
+        <v>2.8</v>
+      </c>
+      <c r="AK4">
         <v>11.5</v>
       </c>
-      <c r="J4">
+      <c r="AL4">
+        <v>3.1</v>
+      </c>
+      <c r="AM4">
+        <v>13</v>
+      </c>
+      <c r="AN4">
+        <v>7.8</v>
+      </c>
+      <c r="AO4">
+        <v>1000</v>
+      </c>
+      <c r="AP4">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AQ4">
+        <v>1000</v>
+      </c>
+      <c r="AR4">
+        <v>4.2</v>
+      </c>
+      <c r="AS4">
+        <v>1000</v>
+      </c>
+      <c r="AT4">
+        <v>4.4</v>
+      </c>
+      <c r="AU4">
+        <v>32</v>
+      </c>
+      <c r="AV4">
         <v>5.7</v>
       </c>
-      <c r="K4">
-        <v>7.2</v>
-      </c>
-      <c r="L4">
-        <v>2.58</v>
-      </c>
-      <c r="M4">
-        <v>3</v>
-      </c>
-      <c r="N4">
-        <v>1.5</v>
-      </c>
-      <c r="O4">
-        <v>1.63</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
       <c r="AW4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX4">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AY4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD4">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="BE4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF4" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="BG4">
-        <v>31317</v>
+        <v>5618507</v>
       </c>
       <c r="BH4">
-        <v>163203</v>
+        <v>9460511</v>
       </c>
       <c r="BI4">
         <v>58805</v>
       </c>
       <c r="BJ4" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="BK4" t="s">
-        <v>200</v>
-      </c>
-      <c r="BL4">
-        <v>0</v>
-      </c>
-      <c r="BM4">
-        <v>0</v>
+        <v>216</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>245</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:65">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F5">
+        <v>1.34</v>
+      </c>
+      <c r="G5">
         <v>1.37</v>
-      </c>
-      <c r="G5">
-        <v>1.38</v>
       </c>
       <c r="H5">
         <v>9.4</v>
@@ -1899,1595 +2058,1595 @@
         <v>5.8</v>
       </c>
       <c r="K5">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="L5">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="M5">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="N5">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="O5">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AS5">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AT5">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AU5">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AV5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AW5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AX5">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AY5">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AZ5">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="BA5">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="BB5">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="BC5">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="BD5">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="BE5">
-        <v>0</v>
+        <v>930</v>
       </c>
       <c r="BF5" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="BG5">
-        <v>31321</v>
+        <v>31317</v>
       </c>
       <c r="BH5">
-        <v>10833201</v>
+        <v>163203</v>
       </c>
       <c r="BI5">
         <v>58805</v>
       </c>
       <c r="BJ5" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="BK5" t="s">
-        <v>201</v>
-      </c>
-      <c r="BL5">
-        <v>0</v>
-      </c>
-      <c r="BM5">
-        <v>0</v>
+        <v>217</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>246</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:65">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E6" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F6">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="G6">
-        <v>1.92</v>
+        <v>1.38</v>
       </c>
       <c r="H6">
-        <v>5.5</v>
+        <v>9.6</v>
       </c>
       <c r="I6">
-        <v>870</v>
+        <v>12</v>
       </c>
       <c r="J6">
-        <v>2.92</v>
+        <v>5.8</v>
       </c>
       <c r="K6">
-        <v>3.3</v>
+        <v>6.6</v>
       </c>
       <c r="L6">
-        <v>1.33</v>
+        <v>2.64</v>
       </c>
       <c r="M6">
-        <v>1.45</v>
+        <v>3.05</v>
       </c>
       <c r="N6">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="O6">
-        <v>4</v>
+        <v>1.61</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AO6">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AR6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AS6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AT6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AU6">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AV6">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AW6">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AX6">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AY6">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AZ6">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="BA6">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="BB6">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BC6">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="BD6">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BE6">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="BF6" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="BG6">
-        <v>5259327</v>
+        <v>31321</v>
       </c>
       <c r="BH6">
-        <v>5907009</v>
+        <v>10833201</v>
       </c>
       <c r="BI6">
         <v>58805</v>
       </c>
       <c r="BJ6" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="BK6" t="s">
-        <v>202</v>
-      </c>
-      <c r="BL6">
-        <v>0</v>
-      </c>
-      <c r="BM6">
-        <v>0</v>
+        <v>218</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>247</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:65">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E7" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F7">
-        <v>2.56</v>
+        <v>1.06</v>
       </c>
       <c r="G7">
         <v>480</v>
       </c>
       <c r="H7">
-        <v>2.96</v>
+        <v>1.06</v>
       </c>
       <c r="I7">
         <v>870</v>
       </c>
       <c r="J7">
+        <v>1.22</v>
+      </c>
+      <c r="K7">
+        <v>1000</v>
+      </c>
+      <c r="L7">
+        <v>1.2</v>
+      </c>
+      <c r="M7">
+        <v>110</v>
+      </c>
+      <c r="N7">
+        <v>1.03</v>
+      </c>
+      <c r="O7">
+        <v>6</v>
+      </c>
+      <c r="P7">
+        <v>1.12</v>
+      </c>
+      <c r="Q7">
+        <v>20</v>
+      </c>
+      <c r="R7">
+        <v>1.12</v>
+      </c>
+      <c r="S7">
+        <v>20</v>
+      </c>
+      <c r="T7">
         <v>1.49</v>
       </c>
-      <c r="K7">
-        <v>3.7</v>
-      </c>
-      <c r="L7">
-        <v>1.48</v>
-      </c>
-      <c r="M7">
-        <v>1.65</v>
-      </c>
-      <c r="N7">
-        <v>2.52</v>
-      </c>
-      <c r="O7">
-        <v>4.3</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
       <c r="U7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AK7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AO7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD7">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="BE7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF7" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="BG7">
-        <v>10492935</v>
+        <v>10748720</v>
       </c>
       <c r="BH7">
-        <v>7024303</v>
+        <v>5407316</v>
       </c>
       <c r="BI7">
         <v>58805</v>
       </c>
       <c r="BJ7" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="BK7" t="s">
-        <v>203</v>
-      </c>
-      <c r="BL7">
-        <v>0</v>
-      </c>
-      <c r="BM7">
-        <v>0</v>
+        <v>219</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>248</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:65">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E8" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F8">
-        <v>2.62</v>
+        <v>1.43</v>
       </c>
       <c r="G8">
-        <v>3.75</v>
+        <v>480</v>
       </c>
       <c r="H8">
-        <v>2.6</v>
+        <v>1.58</v>
       </c>
       <c r="I8">
-        <v>3.9</v>
+        <v>870</v>
       </c>
       <c r="J8">
-        <v>2.78</v>
+        <v>1.21</v>
       </c>
       <c r="K8">
-        <v>4.3</v>
+        <v>330</v>
       </c>
       <c r="L8">
-        <v>1.06</v>
+        <v>1.51</v>
       </c>
       <c r="M8">
-        <v>2</v>
+        <v>3.15</v>
       </c>
       <c r="N8">
-        <v>2</v>
+        <v>1.47</v>
       </c>
       <c r="O8">
+        <v>2.98</v>
+      </c>
+      <c r="P8">
+        <v>1.12</v>
+      </c>
+      <c r="Q8">
+        <v>20</v>
+      </c>
+      <c r="R8">
+        <v>1.12</v>
+      </c>
+      <c r="S8">
+        <v>20</v>
+      </c>
+      <c r="T8">
+        <v>12.5</v>
+      </c>
+      <c r="U8">
+        <v>1000</v>
+      </c>
+      <c r="V8">
+        <v>11</v>
+      </c>
+      <c r="W8">
+        <v>1000</v>
+      </c>
+      <c r="X8">
+        <v>17</v>
+      </c>
+      <c r="Y8">
+        <v>1000</v>
+      </c>
+      <c r="Z8">
+        <v>32</v>
+      </c>
+      <c r="AA8">
+        <v>1000</v>
+      </c>
+      <c r="AB8">
+        <v>10</v>
+      </c>
+      <c r="AC8">
+        <v>1000</v>
+      </c>
+      <c r="AD8">
+        <v>6.8</v>
+      </c>
+      <c r="AE8">
+        <v>1000</v>
+      </c>
+      <c r="AF8">
+        <v>10</v>
+      </c>
+      <c r="AG8">
+        <v>1000</v>
+      </c>
+      <c r="AH8">
+        <v>24</v>
+      </c>
+      <c r="AI8">
+        <v>1000</v>
+      </c>
+      <c r="AJ8">
+        <v>14.5</v>
+      </c>
+      <c r="AK8">
+        <v>1000</v>
+      </c>
+      <c r="AL8">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AM8">
+        <v>1000</v>
+      </c>
+      <c r="AN8">
+        <v>13.5</v>
+      </c>
+      <c r="AO8">
+        <v>1000</v>
+      </c>
+      <c r="AP8">
+        <v>29</v>
+      </c>
+      <c r="AQ8">
+        <v>1000</v>
+      </c>
+      <c r="AR8">
+        <v>29</v>
+      </c>
+      <c r="AS8">
+        <v>1000</v>
+      </c>
+      <c r="AT8">
         <v>21</v>
       </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-      <c r="AM8">
-        <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>0</v>
-      </c>
-      <c r="AS8">
-        <v>0</v>
-      </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
       <c r="AU8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV8">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AW8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX8">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AY8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD8">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BE8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF8" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="BG8">
-        <v>38281353</v>
+        <v>489147</v>
       </c>
       <c r="BH8">
-        <v>12678248</v>
+        <v>44625</v>
       </c>
       <c r="BI8">
         <v>58805</v>
       </c>
       <c r="BJ8" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="BK8" t="s">
-        <v>204</v>
-      </c>
-      <c r="BL8">
-        <v>0</v>
-      </c>
-      <c r="BM8">
-        <v>0</v>
+        <v>220</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>249</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:65">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E9" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F9">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="G9">
-        <v>2.36</v>
+        <v>1.84</v>
       </c>
       <c r="H9">
-        <v>4.2</v>
+        <v>6.8</v>
       </c>
       <c r="I9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J9">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="K9">
-        <v>4.6</v>
+        <v>3.45</v>
       </c>
       <c r="L9">
         <v>1.36</v>
       </c>
       <c r="M9">
-        <v>1.75</v>
+        <v>1.47</v>
       </c>
       <c r="N9">
-        <v>2.34</v>
+        <v>3.15</v>
       </c>
       <c r="O9">
         <v>3.75</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AK9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AO9">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AQ9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AU9">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AV9">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AW9">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AX9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA9">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BB9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD9">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="BE9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF9" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="BG9">
-        <v>364672</v>
+        <v>5259327</v>
       </c>
       <c r="BH9">
-        <v>7219493</v>
+        <v>5907009</v>
       </c>
       <c r="BI9">
         <v>58805</v>
       </c>
       <c r="BJ9" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="BK9" t="s">
-        <v>205</v>
-      </c>
-      <c r="BL9">
-        <v>0</v>
-      </c>
-      <c r="BM9">
-        <v>0</v>
+        <v>221</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>250</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:65">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E10" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F10">
+        <v>2.64</v>
+      </c>
+      <c r="G10">
+        <v>3.1</v>
+      </c>
+      <c r="H10">
+        <v>3.05</v>
+      </c>
+      <c r="I10">
+        <v>3.65</v>
+      </c>
+      <c r="J10">
+        <v>2.72</v>
+      </c>
+      <c r="K10">
+        <v>3.4</v>
+      </c>
+      <c r="L10">
+        <v>1.51</v>
+      </c>
+      <c r="M10">
+        <v>1.63</v>
+      </c>
+      <c r="N10">
+        <v>2.58</v>
+      </c>
+      <c r="O10">
+        <v>2.98</v>
+      </c>
+      <c r="P10">
+        <v>2.04</v>
+      </c>
+      <c r="Q10">
+        <v>2.42</v>
+      </c>
+      <c r="R10">
+        <v>1.7</v>
+      </c>
+      <c r="S10">
+        <v>1.96</v>
+      </c>
+      <c r="T10">
+        <v>6.6</v>
+      </c>
+      <c r="U10">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="V10">
+        <v>7.6</v>
+      </c>
+      <c r="W10">
+        <v>10</v>
+      </c>
+      <c r="X10">
+        <v>16</v>
+      </c>
+      <c r="Y10">
+        <v>22</v>
+      </c>
+      <c r="Z10">
+        <v>6.2</v>
+      </c>
+      <c r="AA10">
+        <v>70</v>
+      </c>
+      <c r="AB10">
+        <v>6.8</v>
+      </c>
+      <c r="AC10">
+        <v>9</v>
+      </c>
+      <c r="AD10">
+        <v>5.9</v>
+      </c>
+      <c r="AE10">
+        <v>7.8</v>
+      </c>
+      <c r="AF10">
+        <v>12</v>
+      </c>
+      <c r="AG10">
+        <v>16.5</v>
+      </c>
+      <c r="AH10">
+        <v>6.2</v>
+      </c>
+      <c r="AI10">
+        <v>55</v>
+      </c>
+      <c r="AJ10">
+        <v>13</v>
+      </c>
+      <c r="AK10">
+        <v>17.5</v>
+      </c>
+      <c r="AL10">
         <v>11</v>
       </c>
-      <c r="G10">
-        <v>21</v>
-      </c>
-      <c r="H10">
-        <v>1.26</v>
-      </c>
-      <c r="I10">
-        <v>1.29</v>
-      </c>
-      <c r="J10">
-        <v>5.9</v>
-      </c>
-      <c r="K10">
+      <c r="AM10">
         <v>15</v>
       </c>
-      <c r="L10">
-        <v>2.12</v>
-      </c>
-      <c r="M10">
-        <v>3.45</v>
-      </c>
-      <c r="N10">
-        <v>1.4</v>
-      </c>
-      <c r="O10">
-        <v>1.9</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AM10">
-        <v>0</v>
-      </c>
       <c r="AN10">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AP10">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AU10">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AV10">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AW10">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AX10">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AY10">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="AZ10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BA10">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BB10">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="BC10">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="BD10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BE10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF10" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="BG10">
-        <v>13133</v>
+        <v>10492935</v>
       </c>
       <c r="BH10">
-        <v>52458346</v>
+        <v>7024303</v>
       </c>
       <c r="BI10">
         <v>58805</v>
       </c>
       <c r="BJ10" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="BK10" t="s">
-        <v>206</v>
-      </c>
-      <c r="BL10">
-        <v>0</v>
-      </c>
-      <c r="BM10">
-        <v>0</v>
+        <v>222</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>251</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:65">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E11" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F11">
-        <v>2.44</v>
+        <v>2.66</v>
       </c>
       <c r="G11">
-        <v>2.46</v>
+        <v>3.8</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>2.66</v>
       </c>
       <c r="I11">
-        <v>3.05</v>
+        <v>3.8</v>
       </c>
       <c r="J11">
-        <v>3.85</v>
+        <v>2.78</v>
       </c>
       <c r="K11">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="L11">
-        <v>2.4</v>
+        <v>1.33</v>
       </c>
       <c r="M11">
-        <v>2.52</v>
+        <v>1.82</v>
       </c>
       <c r="N11">
-        <v>1.66</v>
+        <v>2.2</v>
       </c>
       <c r="O11">
-        <v>1.71</v>
+        <v>3.95</v>
       </c>
       <c r="P11">
-        <v>1.59</v>
+        <v>1.12</v>
       </c>
       <c r="Q11">
-        <v>1.64</v>
+        <v>20</v>
       </c>
       <c r="R11">
-        <v>2.58</v>
+        <v>1.12</v>
       </c>
       <c r="S11">
-        <v>2.7</v>
+        <v>20</v>
       </c>
       <c r="T11">
-        <v>18.5</v>
+        <v>7</v>
       </c>
       <c r="U11">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="V11">
-        <v>14.5</v>
+        <v>1.1</v>
       </c>
       <c r="W11">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="X11">
-        <v>20</v>
+        <v>1.1</v>
       </c>
       <c r="Y11">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Z11">
-        <v>36</v>
+        <v>1.1</v>
       </c>
       <c r="AA11">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB11">
-        <v>13</v>
+        <v>1.1</v>
       </c>
       <c r="AC11">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AD11">
-        <v>8.4</v>
+        <v>1.1</v>
       </c>
       <c r="AE11">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AF11">
-        <v>12</v>
+        <v>1.1</v>
       </c>
       <c r="AG11">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH11">
-        <v>25</v>
+        <v>1.1</v>
       </c>
       <c r="AI11">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ11">
-        <v>16.5</v>
+        <v>1.1</v>
       </c>
       <c r="AK11">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AL11">
-        <v>10.5</v>
+        <v>1.1</v>
       </c>
       <c r="AM11">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AN11">
-        <v>13.5</v>
+        <v>1.1</v>
       </c>
       <c r="AO11">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AP11">
-        <v>30</v>
+        <v>1.1</v>
       </c>
       <c r="AQ11">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AR11">
-        <v>29</v>
+        <v>1.1</v>
       </c>
       <c r="AS11">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AT11">
-        <v>20</v>
+        <v>1.1</v>
       </c>
       <c r="AU11">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AV11">
-        <v>26</v>
+        <v>1.1</v>
       </c>
       <c r="AW11">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AX11">
-        <v>46</v>
+        <v>1.1</v>
       </c>
       <c r="AY11">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AZ11">
-        <v>12</v>
+        <v>1.1</v>
       </c>
       <c r="BA11">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="BB11">
-        <v>16</v>
+        <v>1.1</v>
       </c>
       <c r="BC11">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="BD11">
-        <v>120</v>
+        <v>1.1</v>
       </c>
       <c r="BE11">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="BF11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="BG11">
-        <v>5774350</v>
+        <v>38281353</v>
       </c>
       <c r="BH11">
-        <v>1096</v>
+        <v>12678248</v>
       </c>
       <c r="BI11">
         <v>58805</v>
       </c>
       <c r="BJ11" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="BK11" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="BL11" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="BM11" t="s">
-        <v>229</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:65">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E12" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F12">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="G12">
-        <v>1.7</v>
+        <v>2.44</v>
       </c>
       <c r="H12">
-        <v>5.3</v>
+        <v>3.95</v>
       </c>
       <c r="I12">
-        <v>5.5</v>
+        <v>7.2</v>
       </c>
       <c r="J12">
-        <v>4.5</v>
+        <v>2.98</v>
       </c>
       <c r="K12">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="L12">
-        <v>2.56</v>
+        <v>1.32</v>
       </c>
       <c r="M12">
-        <v>2.62</v>
+        <v>1.93</v>
       </c>
       <c r="N12">
-        <v>1.62</v>
+        <v>2.08</v>
       </c>
       <c r="O12">
-        <v>1.64</v>
+        <v>4.1</v>
       </c>
       <c r="P12">
-        <v>1.66</v>
+        <v>1.12</v>
       </c>
       <c r="Q12">
-        <v>1.7</v>
+        <v>20</v>
       </c>
       <c r="R12">
-        <v>2.42</v>
+        <v>1.12</v>
       </c>
       <c r="S12">
-        <v>2.5</v>
+        <v>20</v>
       </c>
       <c r="T12">
-        <v>20</v>
+        <v>1.1</v>
       </c>
       <c r="U12">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="V12">
-        <v>22</v>
+        <v>1.1</v>
       </c>
       <c r="W12">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="X12">
-        <v>38</v>
+        <v>2.6</v>
       </c>
       <c r="Y12">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="Z12">
-        <v>85</v>
+        <v>4.4</v>
       </c>
       <c r="AA12">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB12">
-        <v>11</v>
+        <v>1.1</v>
       </c>
       <c r="AC12">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AD12">
-        <v>9.800000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AE12">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AF12">
-        <v>18.5</v>
+        <v>5</v>
       </c>
       <c r="AG12">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AH12">
-        <v>46</v>
+        <v>7.4</v>
       </c>
       <c r="AI12">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ12">
-        <v>11</v>
+        <v>1.1</v>
       </c>
       <c r="AK12">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AL12">
-        <v>9.199999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="AM12">
-        <v>9.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="AN12">
-        <v>16.5</v>
+        <v>5</v>
       </c>
       <c r="AO12">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AP12">
-        <v>46</v>
+        <v>13.5</v>
       </c>
       <c r="AQ12">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AR12">
-        <v>16</v>
+        <v>4.9</v>
       </c>
       <c r="AS12">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AT12">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AU12">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AV12">
-        <v>24</v>
+        <v>14.5</v>
       </c>
       <c r="AW12">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AX12">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="AY12">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AZ12">
-        <v>6.8</v>
+        <v>1.01</v>
       </c>
       <c r="BA12">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="BB12">
-        <v>36</v>
+        <v>1.01</v>
       </c>
       <c r="BC12">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="BD12">
-        <v>100</v>
+        <v>1.1</v>
       </c>
       <c r="BE12">
         <v>1000</v>
       </c>
       <c r="BF12" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="BG12">
-        <v>47999</v>
+        <v>364672</v>
       </c>
       <c r="BH12">
-        <v>2426</v>
+        <v>7219493</v>
       </c>
       <c r="BI12">
         <v>58805</v>
       </c>
       <c r="BJ12" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="BK12" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="BL12" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="BM12" t="s">
-        <v>230</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:65">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E13" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F13">
-        <v>2.02</v>
+        <v>13.5</v>
       </c>
       <c r="G13">
-        <v>3.35</v>
+        <v>15</v>
       </c>
       <c r="H13">
-        <v>2.64</v>
+        <v>1.25</v>
       </c>
       <c r="I13">
-        <v>5.5</v>
+        <v>1.29</v>
       </c>
       <c r="J13">
-        <v>3.1</v>
+        <v>6.6</v>
       </c>
       <c r="K13">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="L13">
-        <v>1.58</v>
+        <v>2</v>
       </c>
       <c r="M13">
-        <v>2.64</v>
+        <v>3.25</v>
       </c>
       <c r="N13">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="O13">
-        <v>2.72</v>
+        <v>1.99</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -3616,22 +3775,22 @@
         <v>0</v>
       </c>
       <c r="BF13" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="BG13">
-        <v>5129869</v>
+        <v>13133</v>
       </c>
       <c r="BH13">
-        <v>2019917</v>
+        <v>52458346</v>
       </c>
       <c r="BI13">
         <v>58805</v>
       </c>
       <c r="BJ13" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="BK13" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="BL13">
         <v>0</v>
@@ -3642,199 +3801,199 @@
     </row>
     <row r="14" spans="1:65">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E14" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F14">
-        <v>1.04</v>
+        <v>2.46</v>
       </c>
       <c r="G14">
-        <v>1000</v>
+        <v>2.48</v>
       </c>
       <c r="H14">
-        <v>1.04</v>
+        <v>2.98</v>
       </c>
       <c r="I14">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="J14">
-        <v>1.01</v>
+        <v>3.85</v>
       </c>
       <c r="K14">
-        <v>1000</v>
+        <v>3.9</v>
       </c>
       <c r="L14">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="M14">
-        <v>1000</v>
+        <v>2.5</v>
       </c>
       <c r="N14">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="O14">
-        <v>6.4</v>
+        <v>1.72</v>
       </c>
       <c r="P14">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="Q14">
-        <v>1000</v>
+        <v>1.64</v>
       </c>
       <c r="R14">
-        <v>1.01</v>
+        <v>2.58</v>
       </c>
       <c r="S14">
-        <v>1000</v>
+        <v>2.68</v>
       </c>
       <c r="T14">
-        <v>1.18</v>
+        <v>18.5</v>
       </c>
       <c r="U14">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="V14">
-        <v>2.62</v>
+        <v>14.5</v>
       </c>
       <c r="W14">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="X14">
-        <v>2.94</v>
+        <v>20</v>
       </c>
       <c r="Y14">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Z14">
-        <v>3.65</v>
+        <v>40</v>
       </c>
       <c r="AA14">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB14">
-        <v>2.82</v>
+        <v>13</v>
       </c>
       <c r="AC14">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AD14">
-        <v>3.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AE14">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AF14">
-        <v>3.45</v>
+        <v>12</v>
       </c>
       <c r="AG14">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH14">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="AI14">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AJ14">
-        <v>3.35</v>
+        <v>16.5</v>
       </c>
       <c r="AK14">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AL14">
-        <v>3.8</v>
+        <v>10.5</v>
       </c>
       <c r="AM14">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AN14">
-        <v>5.4</v>
+        <v>13.5</v>
       </c>
       <c r="AO14">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AP14">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="AQ14">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AR14">
-        <v>3.65</v>
+        <v>30</v>
       </c>
       <c r="AS14">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AT14">
-        <v>5.9</v>
+        <v>20</v>
       </c>
       <c r="AU14">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AV14">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="AW14">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AX14">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="AY14">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AZ14">
-        <v>1.01</v>
+        <v>12</v>
       </c>
       <c r="BA14">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="BB14">
-        <v>1.01</v>
+        <v>15.5</v>
       </c>
       <c r="BC14">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="BD14">
-        <v>14.5</v>
+        <v>120</v>
       </c>
       <c r="BE14">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="BF14" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="BG14">
-        <v>5327095</v>
+        <v>5774350</v>
       </c>
       <c r="BH14">
-        <v>5336581</v>
+        <v>1096</v>
       </c>
       <c r="BI14">
         <v>58805</v>
       </c>
       <c r="BJ14" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="BK14" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="BL14" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="BM14" t="s">
-        <v>231</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:65">
@@ -3842,196 +4001,196 @@
         <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E15" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F15">
-        <v>1.05</v>
+        <v>1.69</v>
       </c>
       <c r="G15">
-        <v>480</v>
+        <v>1.7</v>
       </c>
       <c r="H15">
-        <v>1.04</v>
+        <v>5.2</v>
       </c>
       <c r="I15">
-        <v>870</v>
+        <v>5.3</v>
       </c>
       <c r="J15">
-        <v>2.76</v>
+        <v>4.5</v>
       </c>
       <c r="K15">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="L15">
-        <v>1.33</v>
+        <v>2.52</v>
       </c>
       <c r="M15">
-        <v>2.04</v>
+        <v>2.62</v>
       </c>
       <c r="N15">
-        <v>1.96</v>
+        <v>1.62</v>
       </c>
       <c r="O15">
-        <v>4</v>
+        <v>1.66</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ15">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AK15">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AL15">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AM15">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AO15">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AP15">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AR15">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AS15">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AT15">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AU15">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AV15">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AW15">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AX15">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AY15">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AZ15">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="BA15">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="BB15">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="BC15">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="BD15">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="BE15">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="BF15" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="BG15">
-        <v>8717595</v>
+        <v>47999</v>
       </c>
       <c r="BH15">
-        <v>5615116</v>
+        <v>2426</v>
       </c>
       <c r="BI15">
         <v>58805</v>
       </c>
       <c r="BJ15" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="BK15" t="s">
-        <v>211</v>
-      </c>
-      <c r="BL15">
-        <v>0</v>
-      </c>
-      <c r="BM15">
-        <v>0</v>
+        <v>227</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>255</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:65">
@@ -4039,46 +4198,46 @@
         <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E16" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F16">
-        <v>1.16</v>
+        <v>2.12</v>
       </c>
       <c r="G16">
-        <v>480</v>
+        <v>2.64</v>
       </c>
       <c r="H16">
-        <v>1.05</v>
+        <v>3.2</v>
       </c>
       <c r="I16">
-        <v>870</v>
+        <v>4.6</v>
       </c>
       <c r="J16">
-        <v>1.21</v>
+        <v>3.15</v>
       </c>
       <c r="K16">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="L16">
-        <v>1.47</v>
+        <v>1.85</v>
       </c>
       <c r="M16">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="N16">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="O16">
-        <v>3.1</v>
+        <v>2.18</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -4207,22 +4366,22 @@
         <v>0</v>
       </c>
       <c r="BF16" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="BG16">
-        <v>25894882</v>
+        <v>5129869</v>
       </c>
       <c r="BH16">
-        <v>44232344</v>
+        <v>2019917</v>
       </c>
       <c r="BI16">
         <v>58805</v>
       </c>
       <c r="BJ16" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="BK16" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="BL16">
         <v>0</v>
@@ -4233,2019 +4392,2019 @@
     </row>
     <row r="17" spans="1:65">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E17" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F17">
-        <v>2.26</v>
+        <v>1.05</v>
       </c>
       <c r="G17">
-        <v>2.36</v>
+        <v>900</v>
       </c>
       <c r="H17">
-        <v>3.35</v>
+        <v>1.04</v>
       </c>
       <c r="I17">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="J17">
-        <v>3.2</v>
+        <v>1.01</v>
       </c>
       <c r="K17">
-        <v>3.55</v>
+        <v>1000</v>
       </c>
       <c r="L17">
-        <v>1.77</v>
+        <v>1.2</v>
       </c>
       <c r="M17">
-        <v>1.99</v>
+        <v>990</v>
       </c>
       <c r="N17">
-        <v>2</v>
+        <v>1.03</v>
       </c>
       <c r="O17">
-        <v>2.3</v>
+        <v>990</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ17">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AK17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL17">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AM17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN17">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AO17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP17">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR17">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT17">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV17">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX17">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ17">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB17">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD17">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="BE17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF17" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="BG17">
-        <v>198134</v>
+        <v>5327095</v>
       </c>
       <c r="BH17">
-        <v>36860494</v>
+        <v>5336581</v>
       </c>
       <c r="BI17">
         <v>58805</v>
       </c>
       <c r="BJ17" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="BK17" t="s">
-        <v>213</v>
-      </c>
-      <c r="BL17">
-        <v>0</v>
-      </c>
-      <c r="BM17">
-        <v>0</v>
+        <v>229</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>256</v>
+      </c>
+      <c r="BM17" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:65">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E18" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F18">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="G18">
-        <v>2.58</v>
+        <v>1.86</v>
       </c>
       <c r="H18">
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="I18">
-        <v>11.5</v>
+        <v>7.8</v>
       </c>
       <c r="J18">
-        <v>2.58</v>
+        <v>3.35</v>
       </c>
       <c r="K18">
-        <v>330</v>
+        <v>3.7</v>
       </c>
       <c r="L18">
-        <v>1.72</v>
+        <v>1.61</v>
       </c>
       <c r="M18">
-        <v>1.99</v>
+        <v>1.73</v>
       </c>
       <c r="N18">
-        <v>2</v>
+        <v>2.36</v>
       </c>
       <c r="O18">
-        <v>2.4</v>
+        <v>2.64</v>
       </c>
       <c r="P18">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="Y18">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AB18">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="AC18">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD18">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="AE18">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AF18">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AG18">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AH18">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AI18">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AJ18">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AK18">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AL18">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AM18">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AN18">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AO18">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AP18">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AQ18">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AR18">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AS18">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AT18">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AU18">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AV18">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="AW18">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AX18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AY18">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AZ18">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="BA18">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="BB18">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="BC18">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="BD18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BE18">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BF18" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="BG18">
-        <v>4701919</v>
+        <v>8717595</v>
       </c>
       <c r="BH18">
-        <v>198124</v>
+        <v>5615116</v>
       </c>
       <c r="BI18">
         <v>58805</v>
       </c>
       <c r="BJ18" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="BK18" t="s">
-        <v>214</v>
-      </c>
-      <c r="BL18" t="s">
-        <v>227</v>
-      </c>
-      <c r="BM18" t="s">
-        <v>232</v>
+        <v>230</v>
+      </c>
+      <c r="BL18">
+        <v>0</v>
+      </c>
+      <c r="BM18">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:65">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D19" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E19" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F19">
-        <v>1.79</v>
+        <v>2.26</v>
       </c>
       <c r="G19">
-        <v>2.02</v>
+        <v>3.65</v>
       </c>
       <c r="H19">
-        <v>4.9</v>
+        <v>2.92</v>
       </c>
       <c r="I19">
-        <v>6.4</v>
+        <v>4.1</v>
       </c>
       <c r="J19">
-        <v>2.88</v>
+        <v>2.62</v>
       </c>
       <c r="K19">
-        <v>3.75</v>
+        <v>4.7</v>
       </c>
       <c r="L19">
-        <v>1.56</v>
+        <v>1.39</v>
       </c>
       <c r="M19">
-        <v>1.77</v>
+        <v>2.12</v>
       </c>
       <c r="N19">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="O19">
-        <v>2.8</v>
+        <v>3.55</v>
       </c>
       <c r="P19">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="Y19">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB19">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AC19">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AD19">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="AE19">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AF19">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="AG19">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AH19">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AI19">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ19">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AK19">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AL19">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="AM19">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AN19">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="AO19">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AP19">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AQ19">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AR19">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AS19">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AT19">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="AU19">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AV19">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AW19">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AX19">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AY19">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AZ19">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="BA19">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="BB19">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="BC19">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BD19">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="BE19">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BF19" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="BG19">
-        <v>220949</v>
+        <v>25894882</v>
       </c>
       <c r="BH19">
-        <v>5994579</v>
+        <v>44232344</v>
       </c>
       <c r="BI19">
         <v>58805</v>
       </c>
       <c r="BJ19" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="BK19" t="s">
-        <v>215</v>
-      </c>
-      <c r="BL19" t="s">
-        <v>228</v>
-      </c>
-      <c r="BM19" t="s">
-        <v>233</v>
+        <v>231</v>
+      </c>
+      <c r="BL19">
+        <v>0</v>
+      </c>
+      <c r="BM19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:65">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E20" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="F20">
-        <v>1.35</v>
+        <v>2.34</v>
       </c>
       <c r="G20">
-        <v>1.8</v>
+        <v>2.48</v>
       </c>
       <c r="H20">
-        <v>2.28</v>
+        <v>3.25</v>
       </c>
       <c r="I20">
-        <v>870</v>
+        <v>3.65</v>
       </c>
       <c r="J20">
-        <v>2.28</v>
+        <v>3.35</v>
       </c>
       <c r="K20">
-        <v>330</v>
+        <v>3.6</v>
       </c>
       <c r="L20">
-        <v>1.07</v>
+        <v>1.82</v>
       </c>
       <c r="M20">
+        <v>1.98</v>
+      </c>
+      <c r="N20">
+        <v>2.02</v>
+      </c>
+      <c r="O20">
+        <v>2.22</v>
+      </c>
+      <c r="P20">
+        <v>1.78</v>
+      </c>
+      <c r="Q20">
+        <v>1.99</v>
+      </c>
+      <c r="R20">
+        <v>2.02</v>
+      </c>
+      <c r="S20">
+        <v>2.3</v>
+      </c>
+      <c r="T20">
+        <v>10</v>
+      </c>
+      <c r="U20">
+        <v>14</v>
+      </c>
+      <c r="V20">
+        <v>10</v>
+      </c>
+      <c r="W20">
+        <v>14</v>
+      </c>
+      <c r="X20">
+        <v>18.5</v>
+      </c>
+      <c r="Y20">
+        <v>25</v>
+      </c>
+      <c r="Z20">
+        <v>6.2</v>
+      </c>
+      <c r="AA20">
+        <v>65</v>
+      </c>
+      <c r="AB20">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC20">
+        <v>11</v>
+      </c>
+      <c r="AD20">
+        <v>6.4</v>
+      </c>
+      <c r="AE20">
+        <v>8.4</v>
+      </c>
+      <c r="AF20">
+        <v>11.5</v>
+      </c>
+      <c r="AG20">
+        <v>15.5</v>
+      </c>
+      <c r="AH20">
+        <v>6</v>
+      </c>
+      <c r="AI20">
+        <v>44</v>
+      </c>
+      <c r="AJ20">
+        <v>12</v>
+      </c>
+      <c r="AK20">
+        <v>16.5</v>
+      </c>
+      <c r="AL20">
+        <v>9.6</v>
+      </c>
+      <c r="AM20">
+        <v>12.5</v>
+      </c>
+      <c r="AN20">
+        <v>15</v>
+      </c>
+      <c r="AO20">
         <v>21</v>
       </c>
-      <c r="N20">
-        <v>1.05</v>
-      </c>
-      <c r="O20">
-        <v>18</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-      <c r="AH20">
-        <v>0</v>
-      </c>
-      <c r="AI20">
-        <v>0</v>
-      </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
-      <c r="AK20">
-        <v>0</v>
-      </c>
-      <c r="AL20">
-        <v>0</v>
-      </c>
-      <c r="AM20">
-        <v>0</v>
-      </c>
-      <c r="AN20">
-        <v>0</v>
-      </c>
-      <c r="AO20">
-        <v>0</v>
-      </c>
       <c r="AP20">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AQ20">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AR20">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AS20">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AT20">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AU20">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AV20">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AW20">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AX20">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AY20">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AZ20">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="BA20">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="BB20">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BC20">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="BD20">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="BE20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF20" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="BG20">
-        <v>361329</v>
+        <v>198134</v>
       </c>
       <c r="BH20">
-        <v>356589</v>
+        <v>36860494</v>
       </c>
       <c r="BI20">
         <v>58805</v>
       </c>
       <c r="BJ20" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="BK20" t="s">
-        <v>216</v>
-      </c>
-      <c r="BL20">
-        <v>0</v>
-      </c>
-      <c r="BM20">
-        <v>0</v>
+        <v>232</v>
+      </c>
+      <c r="BL20" t="s">
+        <v>257</v>
+      </c>
+      <c r="BM20" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:65">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E21" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F21">
-        <v>1.67</v>
+        <v>1.9</v>
       </c>
       <c r="G21">
-        <v>1.81</v>
+        <v>2.1</v>
       </c>
       <c r="H21">
-        <v>5.3</v>
+        <v>4</v>
       </c>
       <c r="I21">
-        <v>7</v>
+        <v>5.2</v>
       </c>
       <c r="J21">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="K21">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="L21">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="M21">
+        <v>1.95</v>
+      </c>
+      <c r="N21">
         <v>2.04</v>
       </c>
-      <c r="N21">
-        <v>1.96</v>
-      </c>
       <c r="O21">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ21">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK21">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AL21">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AM21">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AP21">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AQ21">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AR21">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AS21">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AT21">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AU21">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AV21">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AW21">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AX21">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="AY21">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AZ21">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="BA21">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="BB21">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="BC21">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="BD21">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="BE21">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF21" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="BG21">
-        <v>22498185</v>
+        <v>4701919</v>
       </c>
       <c r="BH21">
-        <v>198137</v>
+        <v>198124</v>
       </c>
       <c r="BI21">
         <v>58805</v>
       </c>
       <c r="BJ21" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="BK21" t="s">
-        <v>217</v>
-      </c>
-      <c r="BL21">
-        <v>0</v>
-      </c>
-      <c r="BM21">
-        <v>0</v>
+        <v>233</v>
+      </c>
+      <c r="BL21" t="s">
+        <v>258</v>
+      </c>
+      <c r="BM21" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:65">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E22" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="F22">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="G22">
-        <v>2.58</v>
+        <v>2</v>
       </c>
       <c r="H22">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="I22">
-        <v>13.5</v>
+        <v>6.4</v>
       </c>
       <c r="J22">
-        <v>2.72</v>
+        <v>2.88</v>
       </c>
       <c r="K22">
-        <v>5.9</v>
+        <v>3.75</v>
       </c>
       <c r="L22">
-        <v>1.4</v>
+        <v>1.56</v>
       </c>
       <c r="M22">
-        <v>1.94</v>
+        <v>1.77</v>
       </c>
       <c r="N22">
+        <v>2.3</v>
+      </c>
+      <c r="O22">
+        <v>2.8</v>
+      </c>
+      <c r="P22">
+        <v>2.08</v>
+      </c>
+      <c r="Q22">
+        <v>2.5</v>
+      </c>
+      <c r="R22">
+        <v>1.67</v>
+      </c>
+      <c r="S22">
+        <v>1.92</v>
+      </c>
+      <c r="T22">
+        <v>1.7</v>
+      </c>
+      <c r="U22">
+        <v>980</v>
+      </c>
+      <c r="V22">
+        <v>2.02</v>
+      </c>
+      <c r="W22">
+        <v>980</v>
+      </c>
+      <c r="X22">
+        <v>2.4</v>
+      </c>
+      <c r="Y22">
+        <v>1000</v>
+      </c>
+      <c r="Z22">
+        <v>3.1</v>
+      </c>
+      <c r="AA22">
+        <v>1000</v>
+      </c>
+      <c r="AB22">
+        <v>2.7</v>
+      </c>
+      <c r="AC22">
+        <v>980</v>
+      </c>
+      <c r="AD22">
         <v>2.06</v>
       </c>
-      <c r="O22">
-        <v>3.5</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
-      <c r="AC22">
-        <v>0</v>
-      </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
       <c r="AE22">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ22">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AK22">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL22">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AM22">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AN22">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AO22">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AP22">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AQ22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR22">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AS22">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AT22">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="AU22">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AV22">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AW22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX22">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AY22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ22">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="BA22">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="BB22">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="BC22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD22">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BE22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF22" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="BG22">
-        <v>5287007</v>
+        <v>220949</v>
       </c>
       <c r="BH22">
-        <v>10901767</v>
+        <v>5994579</v>
       </c>
       <c r="BI22">
         <v>58805</v>
       </c>
       <c r="BJ22" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="BK22" t="s">
-        <v>218</v>
-      </c>
-      <c r="BL22">
-        <v>0</v>
-      </c>
-      <c r="BM22">
-        <v>0</v>
+        <v>234</v>
+      </c>
+      <c r="BL22" t="s">
+        <v>259</v>
+      </c>
+      <c r="BM22" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:65">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D23" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E23" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F23">
-        <v>3.05</v>
+        <v>1.4</v>
       </c>
       <c r="G23">
-        <v>3.4</v>
+        <v>1.45</v>
       </c>
       <c r="H23">
-        <v>2.66</v>
+        <v>7.4</v>
       </c>
       <c r="I23">
-        <v>2.92</v>
+        <v>16</v>
       </c>
       <c r="J23">
-        <v>3.05</v>
+        <v>4.5</v>
       </c>
       <c r="K23">
-        <v>3.35</v>
+        <v>6</v>
       </c>
       <c r="L23">
-        <v>1.58</v>
+        <v>1.98</v>
       </c>
       <c r="M23">
-        <v>1.67</v>
+        <v>2.22</v>
       </c>
       <c r="N23">
-        <v>2.5</v>
+        <v>1.81</v>
       </c>
       <c r="O23">
-        <v>2.74</v>
+        <v>2.04</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA23">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AG23">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AI23">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ23">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AK23">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AL23">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AM23">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AN23">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AO23">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP23">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ23">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR23">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS23">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AT23">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AU23">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AV23">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AW23">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX23">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY23">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ23">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BA23">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="BB23">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BC23">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD23">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="BE23">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF23" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="BG23">
-        <v>198144</v>
+        <v>361329</v>
       </c>
       <c r="BH23">
-        <v>198136</v>
+        <v>356589</v>
       </c>
       <c r="BI23">
         <v>58805</v>
       </c>
       <c r="BJ23" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="BK23" t="s">
-        <v>219</v>
-      </c>
-      <c r="BL23">
-        <v>0</v>
-      </c>
-      <c r="BM23">
-        <v>0</v>
+        <v>235</v>
+      </c>
+      <c r="BL23" t="s">
+        <v>260</v>
+      </c>
+      <c r="BM23" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:65">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D24" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E24" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="F24">
+        <v>1.71</v>
+      </c>
+      <c r="G24">
+        <v>1.77</v>
+      </c>
+      <c r="H24">
+        <v>5.8</v>
+      </c>
+      <c r="I24">
+        <v>6.4</v>
+      </c>
+      <c r="J24">
+        <v>3.8</v>
+      </c>
+      <c r="K24">
+        <v>4</v>
+      </c>
+      <c r="L24">
+        <v>1.75</v>
+      </c>
+      <c r="M24">
+        <v>1.89</v>
+      </c>
+      <c r="N24">
+        <v>2.12</v>
+      </c>
+      <c r="O24">
+        <v>2.34</v>
+      </c>
+      <c r="P24">
+        <v>2.02</v>
+      </c>
+      <c r="Q24">
+        <v>2.26</v>
+      </c>
+      <c r="R24">
         <v>1.8</v>
       </c>
-      <c r="G24">
-        <v>2.96</v>
-      </c>
-      <c r="H24">
-        <v>2.9</v>
-      </c>
-      <c r="I24">
-        <v>9.6</v>
-      </c>
-      <c r="J24">
-        <v>2.94</v>
-      </c>
-      <c r="K24">
+      <c r="S24">
+        <v>1.99</v>
+      </c>
+      <c r="T24">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="U24">
+        <v>14.5</v>
+      </c>
+      <c r="V24">
+        <v>12.5</v>
+      </c>
+      <c r="W24">
+        <v>21</v>
+      </c>
+      <c r="X24">
+        <v>4.1</v>
+      </c>
+      <c r="Y24">
+        <v>55</v>
+      </c>
+      <c r="Z24">
+        <v>4.4</v>
+      </c>
+      <c r="AA24">
+        <v>200</v>
+      </c>
+      <c r="AB24">
+        <v>6.2</v>
+      </c>
+      <c r="AC24">
+        <v>9</v>
+      </c>
+      <c r="AD24">
+        <v>7.2</v>
+      </c>
+      <c r="AE24">
         <v>10.5</v>
       </c>
-      <c r="L24">
-        <v>1.4</v>
-      </c>
-      <c r="M24">
-        <v>2.3</v>
-      </c>
-      <c r="N24">
-        <v>1.76</v>
-      </c>
-      <c r="O24">
+      <c r="AF24">
+        <v>17</v>
+      </c>
+      <c r="AG24">
+        <v>29</v>
+      </c>
+      <c r="AH24">
+        <v>4.3</v>
+      </c>
+      <c r="AI24">
+        <v>120</v>
+      </c>
+      <c r="AJ24">
+        <v>7.8</v>
+      </c>
+      <c r="AK24">
+        <v>11.5</v>
+      </c>
+      <c r="AL24">
+        <v>8.6</v>
+      </c>
+      <c r="AM24">
+        <v>12.5</v>
+      </c>
+      <c r="AN24">
+        <v>17.5</v>
+      </c>
+      <c r="AO24">
+        <v>30</v>
+      </c>
+      <c r="AP24">
+        <v>4.3</v>
+      </c>
+      <c r="AQ24">
+        <v>130</v>
+      </c>
+      <c r="AR24">
+        <v>12.5</v>
+      </c>
+      <c r="AS24">
+        <v>21</v>
+      </c>
+      <c r="AT24">
+        <v>14.5</v>
+      </c>
+      <c r="AU24">
+        <v>25</v>
+      </c>
+      <c r="AV24">
+        <v>4.1</v>
+      </c>
+      <c r="AW24">
+        <v>55</v>
+      </c>
+      <c r="AX24">
+        <v>4.4</v>
+      </c>
+      <c r="AY24">
+        <v>200</v>
+      </c>
+      <c r="AZ24">
         <v>3.45</v>
       </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
-      <c r="AE24">
-        <v>0</v>
-      </c>
-      <c r="AF24">
-        <v>0</v>
-      </c>
-      <c r="AG24">
-        <v>0</v>
-      </c>
-      <c r="AH24">
-        <v>0</v>
-      </c>
-      <c r="AI24">
-        <v>0</v>
-      </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
-      <c r="AK24">
-        <v>0</v>
-      </c>
-      <c r="AL24">
-        <v>0</v>
-      </c>
-      <c r="AM24">
-        <v>0</v>
-      </c>
-      <c r="AN24">
-        <v>0</v>
-      </c>
-      <c r="AO24">
-        <v>0</v>
-      </c>
-      <c r="AP24">
-        <v>0</v>
-      </c>
-      <c r="AQ24">
-        <v>0</v>
-      </c>
-      <c r="AR24">
-        <v>0</v>
-      </c>
-      <c r="AS24">
-        <v>0</v>
-      </c>
-      <c r="AT24">
-        <v>0</v>
-      </c>
-      <c r="AU24">
-        <v>0</v>
-      </c>
-      <c r="AV24">
-        <v>0</v>
-      </c>
-      <c r="AW24">
-        <v>0</v>
-      </c>
-      <c r="AX24">
-        <v>0</v>
-      </c>
-      <c r="AY24">
-        <v>0</v>
-      </c>
-      <c r="AZ24">
-        <v>0</v>
-      </c>
       <c r="BA24">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="BB24">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="BC24">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="BD24">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="BE24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF24" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="BG24">
-        <v>900849</v>
+        <v>22498185</v>
       </c>
       <c r="BH24">
-        <v>22018255</v>
+        <v>198137</v>
       </c>
       <c r="BI24">
         <v>58805</v>
       </c>
       <c r="BJ24" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="BK24" t="s">
-        <v>220</v>
-      </c>
-      <c r="BL24">
-        <v>0</v>
-      </c>
-      <c r="BM24">
-        <v>0</v>
+        <v>236</v>
+      </c>
+      <c r="BL24" t="s">
+        <v>261</v>
+      </c>
+      <c r="BM24" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:65">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D25" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E25" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F25">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="G25">
-        <v>480</v>
+        <v>2.08</v>
       </c>
       <c r="H25">
-        <v>1.05</v>
+        <v>4.4</v>
       </c>
       <c r="I25">
-        <v>870</v>
+        <v>5</v>
       </c>
       <c r="J25">
-        <v>1.2</v>
+        <v>3.35</v>
       </c>
       <c r="K25">
-        <v>330</v>
+        <v>3.65</v>
       </c>
       <c r="L25">
-        <v>1.2</v>
+        <v>1.64</v>
       </c>
       <c r="M25">
+        <v>1.74</v>
+      </c>
+      <c r="N25">
+        <v>2.34</v>
+      </c>
+      <c r="O25">
+        <v>2.58</v>
+      </c>
+      <c r="P25">
+        <v>2.1</v>
+      </c>
+      <c r="Q25">
+        <v>2.38</v>
+      </c>
+      <c r="R25">
+        <v>1.8</v>
+      </c>
+      <c r="S25">
+        <v>2</v>
+      </c>
+      <c r="T25">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="U25">
+        <v>11</v>
+      </c>
+      <c r="V25">
+        <v>11.5</v>
+      </c>
+      <c r="W25">
+        <v>14.5</v>
+      </c>
+      <c r="X25">
+        <v>25</v>
+      </c>
+      <c r="Y25">
         <v>36</v>
       </c>
-      <c r="N25">
-        <v>1.03</v>
-      </c>
-      <c r="O25">
-        <v>6</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
       <c r="Z25">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AJ25">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AK25">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AL25">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AM25">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AN25">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AO25">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AP25">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AQ25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AR25">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AS25">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AT25">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AU25">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AV25">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AW25">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AX25">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AY25">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AZ25">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="BA25">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="BB25">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="BC25">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="BD25">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BE25">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF25" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="BG25">
-        <v>6290900</v>
+        <v>5287007</v>
       </c>
       <c r="BH25">
-        <v>1067928</v>
+        <v>10901767</v>
       </c>
       <c r="BI25">
         <v>58805</v>
       </c>
       <c r="BJ25" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="BK25" t="s">
-        <v>221</v>
-      </c>
-      <c r="BL25">
-        <v>0</v>
-      </c>
-      <c r="BM25">
-        <v>0</v>
+        <v>237</v>
+      </c>
+      <c r="BL25" t="s">
+        <v>262</v>
+      </c>
+      <c r="BM25" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:65">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E26" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="F26">
-        <v>1.63</v>
+        <v>3.05</v>
       </c>
       <c r="G26">
-        <v>1.67</v>
+        <v>3.3</v>
       </c>
       <c r="H26">
+        <v>2.68</v>
+      </c>
+      <c r="I26">
+        <v>2.9</v>
+      </c>
+      <c r="J26">
+        <v>3.05</v>
+      </c>
+      <c r="K26">
+        <v>3.35</v>
+      </c>
+      <c r="L26">
+        <v>1.58</v>
+      </c>
+      <c r="M26">
+        <v>1.66</v>
+      </c>
+      <c r="N26">
+        <v>2.52</v>
+      </c>
+      <c r="O26">
+        <v>2.74</v>
+      </c>
+      <c r="P26">
+        <v>2.02</v>
+      </c>
+      <c r="Q26">
+        <v>2.22</v>
+      </c>
+      <c r="R26">
+        <v>1.81</v>
+      </c>
+      <c r="S26">
+        <v>1.97</v>
+      </c>
+      <c r="T26">
+        <v>7.2</v>
+      </c>
+      <c r="U26">
+        <v>9.6</v>
+      </c>
+      <c r="V26">
+        <v>7.2</v>
+      </c>
+      <c r="W26">
+        <v>9.6</v>
+      </c>
+      <c r="X26">
+        <v>13</v>
+      </c>
+      <c r="Y26">
+        <v>18</v>
+      </c>
+      <c r="Z26">
         <v>6.4</v>
       </c>
-      <c r="I26">
+      <c r="AA26">
+        <v>48</v>
+      </c>
+      <c r="AB26">
         <v>7.8</v>
       </c>
-      <c r="J26">
-        <v>4.1</v>
-      </c>
-      <c r="K26">
-        <v>4.7</v>
-      </c>
-      <c r="L26">
-        <v>1.88</v>
-      </c>
-      <c r="M26">
-        <v>2</v>
-      </c>
-      <c r="N26">
-        <v>2</v>
-      </c>
-      <c r="O26">
-        <v>2.14</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
-      <c r="Y26">
-        <v>0</v>
-      </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AA26">
-        <v>0</v>
-      </c>
-      <c r="AB26">
-        <v>0</v>
-      </c>
       <c r="AC26">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ26">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AK26">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL26">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AM26">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AN26">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AO26">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AP26">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AQ26">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AR26">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AS26">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AT26">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AU26">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AV26">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AW26">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AX26">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AY26">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AZ26">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="BA26">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="BB26">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="BC26">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="BD26">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="BE26">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF26" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="BG26">
-        <v>198138</v>
+        <v>198144</v>
       </c>
       <c r="BH26">
-        <v>198126</v>
+        <v>198136</v>
       </c>
       <c r="BI26">
         <v>58805</v>
       </c>
       <c r="BJ26" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="BK26" t="s">
-        <v>222</v>
-      </c>
-      <c r="BL26">
-        <v>0</v>
-      </c>
-      <c r="BM26">
-        <v>0</v>
+        <v>238</v>
+      </c>
+      <c r="BL26" t="s">
+        <v>263</v>
+      </c>
+      <c r="BM26" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="27" spans="1:65">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D27" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E27" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F27">
-        <v>1.74</v>
+        <v>2.02</v>
       </c>
       <c r="G27">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="H27">
-        <v>3.95</v>
+        <v>3.2</v>
       </c>
       <c r="I27">
-        <v>8.4</v>
+        <v>870</v>
       </c>
       <c r="J27">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="K27">
-        <v>5.9</v>
+        <v>4.2</v>
       </c>
       <c r="L27">
-        <v>1.41</v>
+        <v>1.64</v>
       </c>
       <c r="M27">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="N27">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="O27">
-        <v>3.4</v>
+        <v>2.58</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -6374,27 +6533,618 @@
         <v>0</v>
       </c>
       <c r="BF27" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="BG27">
-        <v>10632891</v>
+        <v>900849</v>
       </c>
       <c r="BH27">
-        <v>5284708</v>
+        <v>22018255</v>
       </c>
       <c r="BI27">
         <v>58805</v>
       </c>
       <c r="BJ27" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="BK27" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="BL27">
         <v>0</v>
       </c>
       <c r="BM27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:65">
+      <c r="A28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" t="s">
+        <v>153</v>
+      </c>
+      <c r="F28">
+        <v>1.86</v>
+      </c>
+      <c r="G28">
+        <v>480</v>
+      </c>
+      <c r="H28">
+        <v>1.05</v>
+      </c>
+      <c r="I28">
+        <v>870</v>
+      </c>
+      <c r="J28">
+        <v>1.2</v>
+      </c>
+      <c r="K28">
+        <v>330</v>
+      </c>
+      <c r="L28">
+        <v>1.2</v>
+      </c>
+      <c r="M28">
+        <v>36</v>
+      </c>
+      <c r="N28">
+        <v>1.03</v>
+      </c>
+      <c r="O28">
+        <v>6</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
+        <v>0</v>
+      </c>
+      <c r="AT28">
+        <v>0</v>
+      </c>
+      <c r="AU28">
+        <v>0</v>
+      </c>
+      <c r="AV28">
+        <v>0</v>
+      </c>
+      <c r="AW28">
+        <v>0</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28">
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <v>0</v>
+      </c>
+      <c r="BB28">
+        <v>0</v>
+      </c>
+      <c r="BC28">
+        <v>0</v>
+      </c>
+      <c r="BD28">
+        <v>0</v>
+      </c>
+      <c r="BE28">
+        <v>0</v>
+      </c>
+      <c r="BF28" t="s">
+        <v>182</v>
+      </c>
+      <c r="BG28">
+        <v>6290900</v>
+      </c>
+      <c r="BH28">
+        <v>1067928</v>
+      </c>
+      <c r="BI28">
+        <v>58805</v>
+      </c>
+      <c r="BJ28" t="s">
+        <v>211</v>
+      </c>
+      <c r="BK28" t="s">
+        <v>240</v>
+      </c>
+      <c r="BL28">
+        <v>0</v>
+      </c>
+      <c r="BM28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:65">
+      <c r="A29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" t="s">
+        <v>154</v>
+      </c>
+      <c r="F29">
+        <v>1.6</v>
+      </c>
+      <c r="G29">
+        <v>1.65</v>
+      </c>
+      <c r="H29">
+        <v>6.4</v>
+      </c>
+      <c r="I29">
+        <v>7.8</v>
+      </c>
+      <c r="J29">
+        <v>4</v>
+      </c>
+      <c r="K29">
+        <v>4.7</v>
+      </c>
+      <c r="L29">
+        <v>1.87</v>
+      </c>
+      <c r="M29">
+        <v>2</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="O29">
+        <v>2.16</v>
+      </c>
+      <c r="P29">
+        <v>2.02</v>
+      </c>
+      <c r="Q29">
+        <v>2.22</v>
+      </c>
+      <c r="R29">
+        <v>1.81</v>
+      </c>
+      <c r="S29">
+        <v>1.98</v>
+      </c>
+      <c r="T29">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="U29">
+        <v>16</v>
+      </c>
+      <c r="V29">
+        <v>15</v>
+      </c>
+      <c r="W29">
+        <v>25</v>
+      </c>
+      <c r="X29">
+        <v>42</v>
+      </c>
+      <c r="Y29">
+        <v>70</v>
+      </c>
+      <c r="Z29">
+        <v>4.4</v>
+      </c>
+      <c r="AA29">
+        <v>250</v>
+      </c>
+      <c r="AB29">
+        <v>5.8</v>
+      </c>
+      <c r="AC29">
+        <v>9</v>
+      </c>
+      <c r="AD29">
+        <v>7.8</v>
+      </c>
+      <c r="AE29">
+        <v>11.5</v>
+      </c>
+      <c r="AF29">
+        <v>21</v>
+      </c>
+      <c r="AG29">
+        <v>34</v>
+      </c>
+      <c r="AH29">
+        <v>4.3</v>
+      </c>
+      <c r="AI29">
+        <v>140</v>
+      </c>
+      <c r="AJ29">
+        <v>6.6</v>
+      </c>
+      <c r="AK29">
+        <v>10.5</v>
+      </c>
+      <c r="AL29">
+        <v>8.4</v>
+      </c>
+      <c r="AM29">
+        <v>12.5</v>
+      </c>
+      <c r="AN29">
+        <v>20</v>
+      </c>
+      <c r="AO29">
+        <v>32</v>
+      </c>
+      <c r="AP29">
+        <v>4.3</v>
+      </c>
+      <c r="AQ29">
+        <v>140</v>
+      </c>
+      <c r="AR29">
+        <v>11</v>
+      </c>
+      <c r="AS29">
+        <v>18.5</v>
+      </c>
+      <c r="AT29">
+        <v>13</v>
+      </c>
+      <c r="AU29">
+        <v>22</v>
+      </c>
+      <c r="AV29">
+        <v>29</v>
+      </c>
+      <c r="AW29">
+        <v>55</v>
+      </c>
+      <c r="AX29">
+        <v>4.3</v>
+      </c>
+      <c r="AY29">
+        <v>200</v>
+      </c>
+      <c r="AZ29">
+        <v>3.3</v>
+      </c>
+      <c r="BA29">
+        <v>12.5</v>
+      </c>
+      <c r="BB29">
+        <v>4.3</v>
+      </c>
+      <c r="BC29">
+        <v>190</v>
+      </c>
+      <c r="BD29">
+        <v>4.4</v>
+      </c>
+      <c r="BE29">
+        <v>1000</v>
+      </c>
+      <c r="BF29" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG29">
+        <v>198138</v>
+      </c>
+      <c r="BH29">
+        <v>198126</v>
+      </c>
+      <c r="BI29">
+        <v>58805</v>
+      </c>
+      <c r="BJ29" t="s">
+        <v>212</v>
+      </c>
+      <c r="BK29" t="s">
+        <v>241</v>
+      </c>
+      <c r="BL29" t="s">
+        <v>264</v>
+      </c>
+      <c r="BM29" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="30" spans="1:65">
+      <c r="A30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F30">
+        <v>1.77</v>
+      </c>
+      <c r="G30">
+        <v>1.97</v>
+      </c>
+      <c r="H30">
+        <v>4.3</v>
+      </c>
+      <c r="I30">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J30">
+        <v>3.2</v>
+      </c>
+      <c r="K30">
+        <v>4.9</v>
+      </c>
+      <c r="L30">
+        <v>1.62</v>
+      </c>
+      <c r="M30">
+        <v>1.84</v>
+      </c>
+      <c r="N30">
+        <v>2.2</v>
+      </c>
+      <c r="O30">
+        <v>2.6</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30">
+        <v>0</v>
+      </c>
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <v>0</v>
+      </c>
+      <c r="AQ30">
+        <v>0</v>
+      </c>
+      <c r="AR30">
+        <v>0</v>
+      </c>
+      <c r="AS30">
+        <v>0</v>
+      </c>
+      <c r="AT30">
+        <v>0</v>
+      </c>
+      <c r="AU30">
+        <v>0</v>
+      </c>
+      <c r="AV30">
+        <v>0</v>
+      </c>
+      <c r="AW30">
+        <v>0</v>
+      </c>
+      <c r="AX30">
+        <v>0</v>
+      </c>
+      <c r="AY30">
+        <v>0</v>
+      </c>
+      <c r="AZ30">
+        <v>0</v>
+      </c>
+      <c r="BA30">
+        <v>0</v>
+      </c>
+      <c r="BB30">
+        <v>0</v>
+      </c>
+      <c r="BC30">
+        <v>0</v>
+      </c>
+      <c r="BD30">
+        <v>0</v>
+      </c>
+      <c r="BE30">
+        <v>0</v>
+      </c>
+      <c r="BF30" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG30">
+        <v>10632891</v>
+      </c>
+      <c r="BH30">
+        <v>5284708</v>
+      </c>
+      <c r="BI30">
+        <v>58805</v>
+      </c>
+      <c r="BJ30" t="s">
+        <v>213</v>
+      </c>
+      <c r="BK30" t="s">
+        <v>242</v>
+      </c>
+      <c r="BL30">
+        <v>0</v>
+      </c>
+      <c r="BM30">
         <v>0</v>
       </c>
     </row>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-17.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="326">
   <si>
     <t>League</t>
   </si>
@@ -211,13 +211,16 @@
     <t>IDMercado_Correct_Score</t>
   </si>
   <si>
+    <t>Ukrainian Premier League</t>
+  </si>
+  <si>
     <t>Egyptian Premier</t>
   </si>
   <si>
     <t>Croatian 1 HNL</t>
   </si>
   <si>
-    <t>Ukrainian Premier League</t>
+    <t>Armenian Premier League</t>
   </si>
   <si>
     <t>Norwegian Eliteserien</t>
@@ -232,12 +235,15 @@
     <t>South African Premier Division</t>
   </si>
   <si>
+    <t>English National League</t>
+  </si>
+  <si>
+    <t>UEFA Champions League</t>
+  </si>
+  <si>
     <t>Scottish Premiership</t>
   </si>
   <si>
-    <t>UEFA Champions League</t>
-  </si>
-  <si>
     <t>Chilean Primera Division</t>
   </si>
   <si>
@@ -256,6 +262,9 @@
     <t>2024-04-17</t>
   </si>
   <si>
+    <t>09:30:00</t>
+  </si>
+  <si>
     <t>11:00:00</t>
   </si>
   <si>
@@ -274,6 +283,9 @@
     <t>14:30:00</t>
   </si>
   <si>
+    <t>15:45:00</t>
+  </si>
+  <si>
     <t>16:00:00</t>
   </si>
   <si>
@@ -310,6 +322,9 @@
     <t>22:20:00</t>
   </si>
   <si>
+    <t>FC Minaj</t>
+  </si>
+  <si>
     <t>El Gounah</t>
   </si>
   <si>
@@ -319,6 +334,9 @@
     <t>Oleksandria</t>
   </si>
   <si>
+    <t>Ararat Armenia</t>
+  </si>
+  <si>
     <t>Brann</t>
   </si>
   <si>
@@ -343,15 +361,18 @@
     <t>Supersport Utd</t>
   </si>
   <si>
+    <t>Gateshead</t>
+  </si>
+  <si>
+    <t>Man City</t>
+  </si>
+  <si>
+    <t>Bayern Munich</t>
+  </si>
+  <si>
     <t>Dundee</t>
   </si>
   <si>
-    <t>Bayern Munich</t>
-  </si>
-  <si>
-    <t>Man City</t>
-  </si>
-  <si>
     <t>Palestino</t>
   </si>
   <si>
@@ -397,6 +418,9 @@
     <t>Atletico Nacional Medellin</t>
   </si>
   <si>
+    <t>Dynamo Kiev</t>
+  </si>
+  <si>
     <t>Smouha</t>
   </si>
   <si>
@@ -406,6 +430,9 @@
     <t>Obolon-Brovar Kiev</t>
   </si>
   <si>
+    <t>FC Urartu</t>
+  </si>
+  <si>
     <t>Ham-Kam</t>
   </si>
   <si>
@@ -430,15 +457,18 @@
     <t>Polokwane City</t>
   </si>
   <si>
+    <t>Aldershot</t>
+  </si>
+  <si>
+    <t>Real Madrid</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
     <t>Rangers</t>
   </si>
   <si>
-    <t>Arsenal</t>
-  </si>
-  <si>
-    <t>Real Madrid</t>
-  </si>
-  <si>
     <t>Huachipato</t>
   </si>
   <si>
@@ -484,6 +514,9 @@
     <t>Deportivo Pereira</t>
   </si>
   <si>
+    <t>33198265</t>
+  </si>
+  <si>
     <t>33190669</t>
   </si>
   <si>
@@ -493,6 +526,9 @@
     <t>33195824</t>
   </si>
   <si>
+    <t>33196607</t>
+  </si>
+  <si>
     <t>33192456</t>
   </si>
   <si>
@@ -517,15 +553,18 @@
     <t>33181273</t>
   </si>
   <si>
+    <t>33196300</t>
+  </si>
+  <si>
+    <t>33179885</t>
+  </si>
+  <si>
+    <t>33179884</t>
+  </si>
+  <si>
     <t>33182501</t>
   </si>
   <si>
-    <t>33179884</t>
-  </si>
-  <si>
-    <t>33179885</t>
-  </si>
-  <si>
     <t>33193722</t>
   </si>
   <si>
@@ -571,6 +610,9 @@
     <t>33191432</t>
   </si>
   <si>
+    <t>1.227715245</t>
+  </si>
+  <si>
     <t>1.227569624</t>
   </si>
   <si>
@@ -580,6 +622,9 @@
     <t>1.227677794</t>
   </si>
   <si>
+    <t>1.227686400</t>
+  </si>
+  <si>
     <t>1.227598814</t>
   </si>
   <si>
@@ -604,15 +649,18 @@
     <t>1.227416409</t>
   </si>
   <si>
+    <t>1.227681287</t>
+  </si>
+  <si>
+    <t>1.227394361</t>
+  </si>
+  <si>
+    <t>1.227394502</t>
+  </si>
+  <si>
     <t>1.227432865</t>
   </si>
   <si>
-    <t>1.227394502</t>
-  </si>
-  <si>
-    <t>1.227394361</t>
-  </si>
-  <si>
     <t>1.227625160</t>
   </si>
   <si>
@@ -658,6 +706,9 @@
     <t>1.227584804</t>
   </si>
   <si>
+    <t>1.227715248</t>
+  </si>
+  <si>
     <t>1.227569669</t>
   </si>
   <si>
@@ -667,6 +718,9 @@
     <t>1.227677839</t>
   </si>
   <si>
+    <t>1.227686445</t>
+  </si>
+  <si>
     <t>1.227598859</t>
   </si>
   <si>
@@ -691,15 +745,18 @@
     <t>1.227416454</t>
   </si>
   <si>
+    <t>1.227681332</t>
+  </si>
+  <si>
+    <t>1.227394300</t>
+  </si>
+  <si>
+    <t>1.227394441</t>
+  </si>
+  <si>
     <t>1.227432875</t>
   </si>
   <si>
-    <t>1.227394441</t>
-  </si>
-  <si>
-    <t>1.227394300</t>
-  </si>
-  <si>
     <t>1.227625205</t>
   </si>
   <si>
@@ -745,6 +802,9 @@
     <t>1.227584849</t>
   </si>
   <si>
+    <t>1.227715292</t>
+  </si>
+  <si>
     <t>1.227569708</t>
   </si>
   <si>
@@ -754,6 +814,9 @@
     <t>1.227677878</t>
   </si>
   <si>
+    <t>1.227686484</t>
+  </si>
+  <si>
     <t>1.227598898</t>
   </si>
   <si>
@@ -778,15 +841,30 @@
     <t>1.227416493</t>
   </si>
   <si>
+    <t>1.227681371</t>
+  </si>
+  <si>
+    <t>1.227394360</t>
+  </si>
+  <si>
     <t>1.227394501</t>
   </si>
   <si>
-    <t>1.227394360</t>
+    <t>1.227432864</t>
+  </si>
+  <si>
+    <t>1.227625244</t>
   </si>
   <si>
     <t>1.227649427</t>
   </si>
   <si>
+    <t>1.227625334</t>
+  </si>
+  <si>
+    <t>1.227632534</t>
+  </si>
+  <si>
     <t>1.227600178</t>
   </si>
   <si>
@@ -808,9 +886,21 @@
     <t>1.227599962</t>
   </si>
   <si>
+    <t>1.227617688</t>
+  </si>
+  <si>
+    <t>1.227569798</t>
+  </si>
+  <si>
     <t>1.227599854</t>
   </si>
   <si>
+    <t>1.227584888</t>
+  </si>
+  <si>
+    <t>1.227715293</t>
+  </si>
+  <si>
     <t>1.227569633</t>
   </si>
   <si>
@@ -820,6 +910,9 @@
     <t>1.227677803</t>
   </si>
   <si>
+    <t>1.227686409</t>
+  </si>
+  <si>
     <t>1.227598823</t>
   </si>
   <si>
@@ -844,15 +937,30 @@
     <t>1.227416418</t>
   </si>
   <si>
+    <t>1.227681296</t>
+  </si>
+  <si>
+    <t>1.227394371</t>
+  </si>
+  <si>
     <t>1.227394512</t>
   </si>
   <si>
-    <t>1.227394371</t>
+    <t>1.227432874</t>
+  </si>
+  <si>
+    <t>1.227625169</t>
   </si>
   <si>
     <t>1.227649437</t>
   </si>
   <si>
+    <t>1.227625259</t>
+  </si>
+  <si>
+    <t>1.227632459</t>
+  </si>
+  <si>
     <t>1.227600188</t>
   </si>
   <si>
@@ -874,7 +982,16 @@
     <t>1.227599972</t>
   </si>
   <si>
+    <t>1.227617613</t>
+  </si>
+  <si>
+    <t>1.227569723</t>
+  </si>
+  <si>
     <t>1.227599864</t>
+  </si>
+  <si>
+    <t>1.227584813</t>
   </si>
 </sst>
 </file>
@@ -1232,7 +1349,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BM30"/>
+  <dimension ref="A1:BM33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1440,196 +1557,196 @@
         <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F2">
-        <v>2.98</v>
+        <v>7.2</v>
       </c>
       <c r="G2">
-        <v>3.6</v>
+        <v>1000</v>
       </c>
       <c r="H2">
-        <v>2.46</v>
+        <v>1.12</v>
       </c>
       <c r="I2">
-        <v>2.84</v>
+        <v>1.41</v>
       </c>
       <c r="J2">
-        <v>3</v>
+        <v>6.6</v>
       </c>
       <c r="K2">
+        <v>950</v>
+      </c>
+      <c r="L2">
+        <v>1.83</v>
+      </c>
+      <c r="M2">
+        <v>3.85</v>
+      </c>
+      <c r="N2">
+        <v>1.35</v>
+      </c>
+      <c r="O2">
+        <v>2.2</v>
+      </c>
+      <c r="P2">
+        <v>1.12</v>
+      </c>
+      <c r="Q2">
+        <v>1000</v>
+      </c>
+      <c r="R2">
+        <v>1.12</v>
+      </c>
+      <c r="S2">
+        <v>1000</v>
+      </c>
+      <c r="T2">
+        <v>1.01</v>
+      </c>
+      <c r="U2">
+        <v>1000</v>
+      </c>
+      <c r="V2">
+        <v>1.01</v>
+      </c>
+      <c r="W2">
+        <v>1000</v>
+      </c>
+      <c r="X2">
+        <v>2.76</v>
+      </c>
+      <c r="Y2">
+        <v>1000</v>
+      </c>
+      <c r="Z2">
+        <v>1.03</v>
+      </c>
+      <c r="AA2">
+        <v>1000</v>
+      </c>
+      <c r="AB2">
+        <v>2.64</v>
+      </c>
+      <c r="AC2">
+        <v>1000</v>
+      </c>
+      <c r="AD2">
+        <v>1.01</v>
+      </c>
+      <c r="AE2">
+        <v>1000</v>
+      </c>
+      <c r="AF2">
+        <v>1.01</v>
+      </c>
+      <c r="AG2">
+        <v>1000</v>
+      </c>
+      <c r="AH2">
+        <v>7.8</v>
+      </c>
+      <c r="AI2">
+        <v>1000</v>
+      </c>
+      <c r="AJ2">
+        <v>4</v>
+      </c>
+      <c r="AK2">
+        <v>1000</v>
+      </c>
+      <c r="AL2">
         <v>3.75</v>
       </c>
-      <c r="L2">
-        <v>1.65</v>
-      </c>
-      <c r="M2">
-        <v>1.85</v>
-      </c>
-      <c r="N2">
-        <v>2.16</v>
-      </c>
-      <c r="O2">
-        <v>2.54</v>
-      </c>
-      <c r="P2">
-        <v>1.84</v>
-      </c>
-      <c r="Q2">
-        <v>2.16</v>
-      </c>
-      <c r="R2">
-        <v>1.87</v>
-      </c>
-      <c r="S2">
-        <v>2.2</v>
-      </c>
-      <c r="T2">
-        <v>8</v>
-      </c>
-      <c r="U2">
-        <v>980</v>
-      </c>
-      <c r="V2">
-        <v>7</v>
-      </c>
-      <c r="W2">
-        <v>980</v>
-      </c>
-      <c r="X2">
-        <v>3.5</v>
-      </c>
-      <c r="Y2">
-        <v>19</v>
-      </c>
-      <c r="Z2">
-        <v>3.9</v>
-      </c>
-      <c r="AA2">
-        <v>46</v>
-      </c>
-      <c r="AB2">
-        <v>8</v>
-      </c>
-      <c r="AC2">
-        <v>980</v>
-      </c>
-      <c r="AD2">
-        <v>5.7</v>
-      </c>
-      <c r="AE2">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AF2">
-        <v>9</v>
-      </c>
-      <c r="AG2">
-        <v>980</v>
-      </c>
-      <c r="AH2">
-        <v>3.85</v>
-      </c>
-      <c r="AI2">
-        <v>38</v>
-      </c>
-      <c r="AJ2">
-        <v>3.65</v>
-      </c>
-      <c r="AK2">
-        <v>25</v>
-      </c>
-      <c r="AL2">
-        <v>3.45</v>
-      </c>
       <c r="AM2">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AN2">
-        <v>3.65</v>
+        <v>7.4</v>
       </c>
       <c r="AO2">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AP2">
-        <v>4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AQ2">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AR2">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="AS2">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AT2">
-        <v>3.95</v>
+        <v>5.8</v>
       </c>
       <c r="AU2">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AV2">
-        <v>4</v>
+        <v>7.2</v>
       </c>
       <c r="AW2">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AX2">
-        <v>4.1</v>
+        <v>22</v>
       </c>
       <c r="AY2">
         <v>1000</v>
       </c>
       <c r="AZ2">
-        <v>3.95</v>
+        <v>1.01</v>
       </c>
       <c r="BA2">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="BB2">
-        <v>3.8</v>
+        <v>1.01</v>
       </c>
       <c r="BC2">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="BD2">
-        <v>4.3</v>
+        <v>1.03</v>
       </c>
       <c r="BE2">
         <v>1000</v>
       </c>
       <c r="BF2" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="BG2">
-        <v>5202561</v>
+        <v>20830749</v>
       </c>
       <c r="BH2">
-        <v>5170871</v>
+        <v>238549</v>
       </c>
       <c r="BI2">
         <v>58805</v>
       </c>
       <c r="BJ2" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="BK2" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="BL2" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="BM2" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:65">
@@ -1637,196 +1754,196 @@
         <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F3">
-        <v>1.19</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>1.23</v>
+        <v>3.5</v>
       </c>
       <c r="H3">
-        <v>13.5</v>
+        <v>2.5</v>
       </c>
       <c r="I3">
-        <v>26</v>
+        <v>2.74</v>
       </c>
       <c r="J3">
-        <v>6.8</v>
+        <v>2.86</v>
       </c>
       <c r="K3">
-        <v>13</v>
+        <v>3.3</v>
       </c>
       <c r="L3">
-        <v>2.38</v>
+        <v>1.64</v>
       </c>
       <c r="M3">
-        <v>2.9</v>
+        <v>1.82</v>
       </c>
       <c r="N3">
-        <v>1.52</v>
+        <v>2.2</v>
       </c>
       <c r="O3">
-        <v>1.72</v>
+        <v>2.58</v>
       </c>
       <c r="P3">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="Q3">
-        <v>2.8</v>
+        <v>2.14</v>
       </c>
       <c r="R3">
-        <v>1.62</v>
+        <v>1.88</v>
       </c>
       <c r="S3">
-        <v>1.94</v>
+        <v>2.18</v>
       </c>
       <c r="T3">
-        <v>2.74</v>
+        <v>8.6</v>
       </c>
       <c r="U3">
         <v>980</v>
       </c>
       <c r="V3">
-        <v>1.28</v>
+        <v>7.6</v>
       </c>
       <c r="W3">
         <v>980</v>
       </c>
       <c r="X3">
-        <v>2.06</v>
+        <v>12.5</v>
       </c>
       <c r="Y3">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z3">
-        <v>1.45</v>
+        <v>4.5</v>
       </c>
       <c r="AA3">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB3">
-        <v>3.25</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC3">
         <v>980</v>
       </c>
       <c r="AD3">
-        <v>3.75</v>
+        <v>6.2</v>
       </c>
       <c r="AE3">
         <v>980</v>
       </c>
       <c r="AF3">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG3">
+        <v>980</v>
+      </c>
+      <c r="AH3">
+        <v>4.6</v>
+      </c>
+      <c r="AI3">
+        <v>980</v>
+      </c>
+      <c r="AJ3">
+        <v>16.5</v>
+      </c>
+      <c r="AK3">
+        <v>980</v>
+      </c>
+      <c r="AL3">
+        <v>11.5</v>
+      </c>
+      <c r="AM3">
+        <v>980</v>
+      </c>
+      <c r="AN3">
+        <v>4.1</v>
+      </c>
+      <c r="AO3">
+        <v>980</v>
+      </c>
+      <c r="AP3">
+        <v>4.4</v>
+      </c>
+      <c r="AQ3">
+        <v>980</v>
+      </c>
+      <c r="AR3">
+        <v>4.5</v>
+      </c>
+      <c r="AS3">
+        <v>980</v>
+      </c>
+      <c r="AT3">
+        <v>4.8</v>
+      </c>
+      <c r="AU3">
+        <v>980</v>
+      </c>
+      <c r="AV3">
+        <v>4.5</v>
+      </c>
+      <c r="AW3">
+        <v>980</v>
+      </c>
+      <c r="AX3">
+        <v>4.6</v>
+      </c>
+      <c r="AY3">
+        <v>980</v>
+      </c>
+      <c r="AZ3">
+        <v>4.3</v>
+      </c>
+      <c r="BA3">
+        <v>980</v>
+      </c>
+      <c r="BB3">
         <v>4.2</v>
       </c>
-      <c r="AG3">
-        <v>980</v>
-      </c>
-      <c r="AH3">
-        <v>1.45</v>
-      </c>
-      <c r="AI3">
-        <v>1000</v>
-      </c>
-      <c r="AJ3">
-        <v>3</v>
-      </c>
-      <c r="AK3">
-        <v>9</v>
-      </c>
-      <c r="AL3">
-        <v>3.45</v>
-      </c>
-      <c r="AM3">
-        <v>980</v>
-      </c>
-      <c r="AN3">
-        <v>4.2</v>
-      </c>
-      <c r="AO3">
-        <v>980</v>
-      </c>
-      <c r="AP3">
-        <v>1.44</v>
-      </c>
-      <c r="AQ3">
-        <v>1000</v>
-      </c>
-      <c r="AR3">
-        <v>3.2</v>
-      </c>
-      <c r="AS3">
-        <v>11</v>
-      </c>
-      <c r="AT3">
-        <v>3.6</v>
-      </c>
-      <c r="AU3">
-        <v>17.5</v>
-      </c>
-      <c r="AV3">
-        <v>4.2</v>
-      </c>
-      <c r="AW3">
-        <v>1000</v>
-      </c>
-      <c r="AX3">
-        <v>1.45</v>
-      </c>
-      <c r="AY3">
-        <v>1000</v>
-      </c>
-      <c r="AZ3">
-        <v>2.34</v>
-      </c>
-      <c r="BA3">
-        <v>4.8</v>
-      </c>
-      <c r="BB3">
-        <v>1.19</v>
-      </c>
       <c r="BC3">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD3">
-        <v>1.19</v>
+        <v>4.7</v>
       </c>
       <c r="BE3">
         <v>1000</v>
       </c>
       <c r="BF3" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="BG3">
-        <v>52628041</v>
+        <v>5202561</v>
       </c>
       <c r="BH3">
-        <v>5611653</v>
+        <v>5170871</v>
       </c>
       <c r="BI3">
         <v>58805</v>
       </c>
       <c r="BJ3" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="BK3" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="BL3" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="BM3" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:65">
@@ -1834,393 +1951,393 @@
         <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F4">
-        <v>1.86</v>
+        <v>1.19</v>
       </c>
       <c r="G4">
-        <v>2.18</v>
+        <v>1.21</v>
       </c>
       <c r="H4">
-        <v>4.4</v>
+        <v>17.5</v>
       </c>
       <c r="I4">
-        <v>5.9</v>
+        <v>27</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K4">
-        <v>3.65</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L4">
-        <v>1.48</v>
+        <v>2.46</v>
       </c>
       <c r="M4">
-        <v>1.67</v>
+        <v>2.86</v>
       </c>
       <c r="N4">
-        <v>2.48</v>
+        <v>1.54</v>
       </c>
       <c r="O4">
-        <v>3.1</v>
+        <v>1.68</v>
       </c>
       <c r="P4">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="Q4">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="R4">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="S4">
-        <v>1.87</v>
+        <v>1.76</v>
       </c>
       <c r="T4">
-        <v>1.5</v>
+        <v>5.2</v>
       </c>
       <c r="U4">
-        <v>9.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="V4">
-        <v>2.58</v>
+        <v>5.3</v>
       </c>
       <c r="W4">
+        <v>980</v>
+      </c>
+      <c r="X4">
+        <v>5.6</v>
+      </c>
+      <c r="Y4">
+        <v>980</v>
+      </c>
+      <c r="Z4">
+        <v>5.7</v>
+      </c>
+      <c r="AA4">
+        <v>1000</v>
+      </c>
+      <c r="AB4">
+        <v>7.8</v>
+      </c>
+      <c r="AC4">
+        <v>11.5</v>
+      </c>
+      <c r="AD4">
         <v>14</v>
       </c>
-      <c r="X4">
-        <v>2.72</v>
-      </c>
-      <c r="Y4">
-        <v>1000</v>
-      </c>
-      <c r="Z4">
-        <v>4</v>
-      </c>
-      <c r="AA4">
-        <v>1000</v>
-      </c>
-      <c r="AB4">
-        <v>2.7</v>
-      </c>
-      <c r="AC4">
+      <c r="AE4">
+        <v>980</v>
+      </c>
+      <c r="AF4">
+        <v>5.4</v>
+      </c>
+      <c r="AG4">
+        <v>980</v>
+      </c>
+      <c r="AH4">
+        <v>5.6</v>
+      </c>
+      <c r="AI4">
+        <v>1000</v>
+      </c>
+      <c r="AJ4">
+        <v>6.4</v>
+      </c>
+      <c r="AK4">
+        <v>8</v>
+      </c>
+      <c r="AL4">
+        <v>10</v>
+      </c>
+      <c r="AM4">
+        <v>15</v>
+      </c>
+      <c r="AN4">
+        <v>5.2</v>
+      </c>
+      <c r="AO4">
+        <v>980</v>
+      </c>
+      <c r="AP4">
+        <v>5.6</v>
+      </c>
+      <c r="AQ4">
+        <v>1000</v>
+      </c>
+      <c r="AR4">
         <v>7.2</v>
       </c>
-      <c r="AD4">
-        <v>2.9</v>
-      </c>
-      <c r="AE4">
-        <v>8.4</v>
-      </c>
-      <c r="AF4">
-        <v>5.5</v>
-      </c>
-      <c r="AG4">
-        <v>25</v>
-      </c>
-      <c r="AH4">
-        <v>4.8</v>
-      </c>
-      <c r="AI4">
-        <v>1000</v>
-      </c>
-      <c r="AJ4">
-        <v>2.8</v>
-      </c>
-      <c r="AK4">
+      <c r="AS4">
+        <v>9.4</v>
+      </c>
+      <c r="AT4">
         <v>11.5</v>
       </c>
-      <c r="AL4">
-        <v>3.1</v>
-      </c>
-      <c r="AM4">
-        <v>13</v>
-      </c>
-      <c r="AN4">
-        <v>7.8</v>
-      </c>
-      <c r="AO4">
-        <v>1000</v>
-      </c>
-      <c r="AP4">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AQ4">
-        <v>1000</v>
-      </c>
-      <c r="AR4">
+      <c r="AU4">
+        <v>980</v>
+      </c>
+      <c r="AV4">
+        <v>5.3</v>
+      </c>
+      <c r="AW4">
+        <v>980</v>
+      </c>
+      <c r="AX4">
+        <v>5.6</v>
+      </c>
+      <c r="AY4">
+        <v>1000</v>
+      </c>
+      <c r="AZ4">
+        <v>2.42</v>
+      </c>
+      <c r="BA4">
         <v>4.2</v>
       </c>
-      <c r="AS4">
-        <v>1000</v>
-      </c>
-      <c r="AT4">
-        <v>4.4</v>
-      </c>
-      <c r="AU4">
-        <v>32</v>
-      </c>
-      <c r="AV4">
+      <c r="BB4">
+        <v>5.6</v>
+      </c>
+      <c r="BC4">
+        <v>1000</v>
+      </c>
+      <c r="BD4">
         <v>5.7</v>
       </c>
-      <c r="AW4">
-        <v>1000</v>
-      </c>
-      <c r="AX4">
-        <v>7.6</v>
-      </c>
-      <c r="AY4">
-        <v>1000</v>
-      </c>
-      <c r="AZ4">
-        <v>1.01</v>
-      </c>
-      <c r="BA4">
-        <v>1000</v>
-      </c>
-      <c r="BB4">
-        <v>1.01</v>
-      </c>
-      <c r="BC4">
-        <v>1000</v>
-      </c>
-      <c r="BD4">
-        <v>2.92</v>
-      </c>
       <c r="BE4">
         <v>1000</v>
       </c>
       <c r="BF4" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="BG4">
-        <v>5618507</v>
+        <v>52628041</v>
       </c>
       <c r="BH4">
-        <v>9460511</v>
+        <v>5611653</v>
       </c>
       <c r="BI4">
         <v>58805</v>
       </c>
       <c r="BJ4" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="BK4" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="BL4" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="BM4" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:65">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E5" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F5">
-        <v>1.34</v>
+        <v>1.88</v>
       </c>
       <c r="G5">
-        <v>1.37</v>
+        <v>2.04</v>
       </c>
       <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>5.7</v>
+      </c>
+      <c r="J5">
+        <v>3.15</v>
+      </c>
+      <c r="K5">
+        <v>3.45</v>
+      </c>
+      <c r="L5">
+        <v>1.51</v>
+      </c>
+      <c r="M5">
+        <v>1.64</v>
+      </c>
+      <c r="N5">
+        <v>2.56</v>
+      </c>
+      <c r="O5">
+        <v>2.98</v>
+      </c>
+      <c r="P5">
+        <v>2.2</v>
+      </c>
+      <c r="Q5">
+        <v>2.6</v>
+      </c>
+      <c r="R5">
+        <v>1.63</v>
+      </c>
+      <c r="S5">
+        <v>1.84</v>
+      </c>
+      <c r="T5">
+        <v>6.8</v>
+      </c>
+      <c r="U5">
+        <v>9</v>
+      </c>
+      <c r="V5">
+        <v>5.1</v>
+      </c>
+      <c r="W5">
+        <v>980</v>
+      </c>
+      <c r="X5">
+        <v>6.6</v>
+      </c>
+      <c r="Y5">
+        <v>980</v>
+      </c>
+      <c r="Z5">
+        <v>7.4</v>
+      </c>
+      <c r="AA5">
+        <v>1000</v>
+      </c>
+      <c r="AB5">
+        <v>5.4</v>
+      </c>
+      <c r="AC5">
+        <v>6.8</v>
+      </c>
+      <c r="AD5">
+        <v>6.4</v>
+      </c>
+      <c r="AE5">
+        <v>8.4</v>
+      </c>
+      <c r="AF5">
+        <v>6</v>
+      </c>
+      <c r="AG5">
+        <v>980</v>
+      </c>
+      <c r="AH5">
+        <v>7.2</v>
+      </c>
+      <c r="AI5">
+        <v>980</v>
+      </c>
+      <c r="AJ5">
+        <v>7.8</v>
+      </c>
+      <c r="AK5">
+        <v>10.5</v>
+      </c>
+      <c r="AL5">
         <v>9.4</v>
       </c>
-      <c r="I5">
-        <v>10.5</v>
-      </c>
-      <c r="J5">
-        <v>5.8</v>
-      </c>
-      <c r="K5">
-        <v>6.4</v>
-      </c>
-      <c r="L5">
-        <v>2.68</v>
-      </c>
-      <c r="M5">
-        <v>2.94</v>
-      </c>
-      <c r="N5">
-        <v>1.52</v>
-      </c>
-      <c r="O5">
-        <v>1.59</v>
-      </c>
-      <c r="P5">
-        <v>1.81</v>
-      </c>
-      <c r="Q5">
-        <v>2</v>
-      </c>
-      <c r="R5">
-        <v>2</v>
-      </c>
-      <c r="S5">
-        <v>2.24</v>
-      </c>
-      <c r="T5">
-        <v>23</v>
-      </c>
-      <c r="U5">
-        <v>28</v>
-      </c>
-      <c r="V5">
-        <v>34</v>
-      </c>
-      <c r="W5">
-        <v>42</v>
-      </c>
-      <c r="X5">
-        <v>11.5</v>
-      </c>
-      <c r="Y5">
-        <v>100</v>
-      </c>
-      <c r="Z5">
-        <v>12.5</v>
-      </c>
-      <c r="AA5">
-        <v>320</v>
-      </c>
-      <c r="AB5">
-        <v>10</v>
-      </c>
-      <c r="AC5">
-        <v>11.5</v>
-      </c>
-      <c r="AD5">
-        <v>12.5</v>
-      </c>
-      <c r="AE5">
-        <v>14</v>
-      </c>
-      <c r="AF5">
-        <v>30</v>
-      </c>
-      <c r="AG5">
-        <v>36</v>
-      </c>
-      <c r="AH5">
-        <v>11.5</v>
-      </c>
-      <c r="AI5">
-        <v>140</v>
-      </c>
-      <c r="AJ5">
-        <v>8.6</v>
-      </c>
-      <c r="AK5">
-        <v>9.6</v>
-      </c>
-      <c r="AL5">
-        <v>9.6</v>
-      </c>
       <c r="AM5">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AN5">
-        <v>22</v>
+        <v>6.2</v>
       </c>
       <c r="AO5">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AP5">
-        <v>11.5</v>
+        <v>7.4</v>
       </c>
       <c r="AQ5">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="AR5">
-        <v>10.5</v>
+        <v>6</v>
       </c>
       <c r="AS5">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AT5">
-        <v>12</v>
+        <v>6.2</v>
       </c>
       <c r="AU5">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AV5">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="AW5">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AX5">
-        <v>11.5</v>
+        <v>7.6</v>
       </c>
       <c r="AY5">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AZ5">
-        <v>3.55</v>
+        <v>6</v>
       </c>
       <c r="BA5">
-        <v>4.9</v>
+        <v>980</v>
       </c>
       <c r="BB5">
-        <v>11.5</v>
+        <v>7.4</v>
       </c>
       <c r="BC5">
-        <v>140</v>
+        <v>980</v>
       </c>
       <c r="BD5">
-        <v>12.5</v>
+        <v>7.8</v>
       </c>
       <c r="BE5">
-        <v>930</v>
+        <v>1000</v>
       </c>
       <c r="BF5" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="BG5">
-        <v>31317</v>
+        <v>5618507</v>
       </c>
       <c r="BH5">
-        <v>163203</v>
+        <v>9460511</v>
       </c>
       <c r="BI5">
         <v>58805</v>
       </c>
       <c r="BJ5" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="BK5" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="BL5" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="BM5" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:65">
@@ -2228,196 +2345,196 @@
         <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F6">
-        <v>1.33</v>
+        <v>1.64</v>
       </c>
       <c r="G6">
-        <v>1.38</v>
+        <v>1.87</v>
       </c>
       <c r="H6">
-        <v>9.6</v>
+        <v>4.5</v>
       </c>
       <c r="I6">
-        <v>12</v>
+        <v>7.2</v>
       </c>
       <c r="J6">
-        <v>5.8</v>
+        <v>3.55</v>
       </c>
       <c r="K6">
-        <v>6.6</v>
+        <v>5</v>
       </c>
       <c r="L6">
-        <v>2.64</v>
+        <v>1.83</v>
       </c>
       <c r="M6">
-        <v>3.05</v>
+        <v>2.12</v>
       </c>
       <c r="N6">
-        <v>1.5</v>
+        <v>1.89</v>
       </c>
       <c r="O6">
-        <v>1.61</v>
+        <v>2.22</v>
       </c>
       <c r="P6">
         <v>1.86</v>
       </c>
       <c r="Q6">
-        <v>1.99</v>
+        <v>2.2</v>
       </c>
       <c r="R6">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S6">
         <v>2.16</v>
       </c>
       <c r="T6">
-        <v>22</v>
+        <v>3.45</v>
       </c>
       <c r="U6">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="V6">
-        <v>34</v>
+        <v>1.5</v>
       </c>
       <c r="W6">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="X6">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="Y6">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="Z6">
-        <v>13.5</v>
+        <v>4.2</v>
       </c>
       <c r="AA6">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="AB6">
-        <v>10</v>
+        <v>3.05</v>
       </c>
       <c r="AC6">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AD6">
-        <v>12.5</v>
+        <v>3.1</v>
       </c>
       <c r="AE6">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AF6">
-        <v>30</v>
+        <v>1.16</v>
       </c>
       <c r="AG6">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AH6">
-        <v>13</v>
+        <v>4.2</v>
       </c>
       <c r="AI6">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AJ6">
-        <v>8.4</v>
+        <v>3.2</v>
       </c>
       <c r="AK6">
-        <v>9.6</v>
+        <v>980</v>
       </c>
       <c r="AL6">
-        <v>9.6</v>
+        <v>3.25</v>
       </c>
       <c r="AM6">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AN6">
-        <v>22</v>
+        <v>1.11</v>
       </c>
       <c r="AO6">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AP6">
-        <v>12.5</v>
+        <v>4.2</v>
       </c>
       <c r="AQ6">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AR6">
-        <v>10</v>
+        <v>1.64</v>
       </c>
       <c r="AS6">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AT6">
-        <v>12</v>
+        <v>1.16</v>
       </c>
       <c r="AU6">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AV6">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="AW6">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AX6">
-        <v>12.5</v>
+        <v>4.2</v>
       </c>
       <c r="AY6">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AZ6">
-        <v>3.4</v>
+        <v>1.55</v>
       </c>
       <c r="BA6">
-        <v>4.5</v>
+        <v>980</v>
       </c>
       <c r="BB6">
-        <v>13</v>
+        <v>1.55</v>
       </c>
       <c r="BC6">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="BD6">
-        <v>14</v>
+        <v>2.26</v>
       </c>
       <c r="BE6">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="BF6" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="BG6">
-        <v>31321</v>
+        <v>20740727</v>
       </c>
       <c r="BH6">
-        <v>10833201</v>
+        <v>25800263</v>
       </c>
       <c r="BI6">
         <v>58805</v>
       </c>
       <c r="BJ6" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="BK6" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="BL6" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="BM6" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:65">
@@ -2425,166 +2542,166 @@
         <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F7">
-        <v>1.06</v>
+        <v>1.32</v>
       </c>
       <c r="G7">
-        <v>480</v>
+        <v>1.35</v>
       </c>
       <c r="H7">
-        <v>1.06</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I7">
-        <v>870</v>
+        <v>12</v>
       </c>
       <c r="J7">
-        <v>1.22</v>
+        <v>6</v>
       </c>
       <c r="K7">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="L7">
-        <v>1.2</v>
+        <v>2.66</v>
       </c>
       <c r="M7">
+        <v>2.94</v>
+      </c>
+      <c r="N7">
+        <v>1.52</v>
+      </c>
+      <c r="O7">
+        <v>1.61</v>
+      </c>
+      <c r="P7">
+        <v>1.94</v>
+      </c>
+      <c r="Q7">
+        <v>2.04</v>
+      </c>
+      <c r="R7">
+        <v>1.97</v>
+      </c>
+      <c r="S7">
+        <v>2.06</v>
+      </c>
+      <c r="T7">
+        <v>23</v>
+      </c>
+      <c r="U7">
+        <v>28</v>
+      </c>
+      <c r="V7">
+        <v>36</v>
+      </c>
+      <c r="W7">
+        <v>46</v>
+      </c>
+      <c r="X7">
+        <v>14.5</v>
+      </c>
+      <c r="Y7">
         <v>110</v>
       </c>
-      <c r="N7">
-        <v>1.03</v>
-      </c>
-      <c r="O7">
-        <v>6</v>
-      </c>
-      <c r="P7">
-        <v>1.12</v>
-      </c>
-      <c r="Q7">
-        <v>20</v>
-      </c>
-      <c r="R7">
-        <v>1.12</v>
-      </c>
-      <c r="S7">
-        <v>20</v>
-      </c>
-      <c r="T7">
-        <v>1.49</v>
-      </c>
-      <c r="U7">
-        <v>1000</v>
-      </c>
-      <c r="V7">
-        <v>1.01</v>
-      </c>
-      <c r="W7">
-        <v>1000</v>
-      </c>
-      <c r="X7">
-        <v>1.01</v>
-      </c>
-      <c r="Y7">
-        <v>1000</v>
-      </c>
       <c r="Z7">
-        <v>1.01</v>
+        <v>16</v>
       </c>
       <c r="AA7">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AB7">
-        <v>1.01</v>
+        <v>10</v>
       </c>
       <c r="AC7">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD7">
-        <v>1.01</v>
+        <v>13</v>
       </c>
       <c r="AE7">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AF7">
-        <v>1.01</v>
+        <v>32</v>
       </c>
       <c r="AG7">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH7">
-        <v>1.01</v>
+        <v>15.5</v>
       </c>
       <c r="AI7">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ7">
-        <v>1.01</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AK7">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AL7">
-        <v>1.01</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AM7">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AN7">
-        <v>1.01</v>
+        <v>24</v>
       </c>
       <c r="AO7">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AP7">
-        <v>1.01</v>
+        <v>15</v>
       </c>
       <c r="AQ7">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AR7">
-        <v>1.01</v>
+        <v>10</v>
       </c>
       <c r="AS7">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AT7">
-        <v>1.01</v>
+        <v>12</v>
       </c>
       <c r="AU7">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AV7">
-        <v>1.01</v>
+        <v>25</v>
       </c>
       <c r="AW7">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AX7">
-        <v>1.01</v>
+        <v>28</v>
       </c>
       <c r="AY7">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AZ7">
-        <v>1.01</v>
+        <v>3.55</v>
       </c>
       <c r="BA7">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="BB7">
-        <v>1.01</v>
+        <v>15</v>
       </c>
       <c r="BC7">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD7">
         <v>15.5</v>
@@ -2593,66 +2710,66 @@
         <v>1000</v>
       </c>
       <c r="BF7" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="BG7">
-        <v>10748720</v>
+        <v>31317</v>
       </c>
       <c r="BH7">
-        <v>5407316</v>
+        <v>163203</v>
       </c>
       <c r="BI7">
         <v>58805</v>
       </c>
       <c r="BJ7" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="BK7" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="BL7" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="BM7" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:65">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E8" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F8">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="G8">
-        <v>480</v>
+        <v>1.36</v>
       </c>
       <c r="H8">
-        <v>1.58</v>
+        <v>10</v>
       </c>
       <c r="I8">
-        <v>870</v>
+        <v>11.5</v>
       </c>
       <c r="J8">
-        <v>1.21</v>
+        <v>6</v>
       </c>
       <c r="K8">
-        <v>330</v>
+        <v>6.6</v>
       </c>
       <c r="L8">
-        <v>1.51</v>
+        <v>2.7</v>
       </c>
       <c r="M8">
         <v>3.15</v>
@@ -2661,306 +2778,306 @@
         <v>1.47</v>
       </c>
       <c r="O8">
-        <v>2.98</v>
+        <v>1.59</v>
       </c>
       <c r="P8">
-        <v>1.12</v>
+        <v>1.88</v>
       </c>
       <c r="Q8">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="R8">
-        <v>1.12</v>
+        <v>2</v>
       </c>
       <c r="S8">
-        <v>20</v>
+        <v>2.14</v>
       </c>
       <c r="T8">
-        <v>12.5</v>
+        <v>24</v>
       </c>
       <c r="U8">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="V8">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="W8">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="X8">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="Y8">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="Z8">
-        <v>32</v>
+        <v>16.5</v>
       </c>
       <c r="AA8">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="AB8">
         <v>10</v>
       </c>
       <c r="AC8">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD8">
-        <v>6.8</v>
+        <v>13</v>
       </c>
       <c r="AE8">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AF8">
+        <v>32</v>
+      </c>
+      <c r="AG8">
+        <v>38</v>
+      </c>
+      <c r="AH8">
+        <v>15.5</v>
+      </c>
+      <c r="AI8">
+        <v>140</v>
+      </c>
+      <c r="AJ8">
+        <v>8.4</v>
+      </c>
+      <c r="AK8">
+        <v>9.4</v>
+      </c>
+      <c r="AL8">
+        <v>9.6</v>
+      </c>
+      <c r="AM8">
+        <v>10.5</v>
+      </c>
+      <c r="AN8">
+        <v>19.5</v>
+      </c>
+      <c r="AO8">
+        <v>27</v>
+      </c>
+      <c r="AP8">
+        <v>15</v>
+      </c>
+      <c r="AQ8">
+        <v>110</v>
+      </c>
+      <c r="AR8">
         <v>10</v>
       </c>
-      <c r="AG8">
-        <v>1000</v>
-      </c>
-      <c r="AH8">
-        <v>24</v>
-      </c>
-      <c r="AI8">
-        <v>1000</v>
-      </c>
-      <c r="AJ8">
-        <v>14.5</v>
-      </c>
-      <c r="AK8">
-        <v>1000</v>
-      </c>
-      <c r="AL8">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AM8">
-        <v>1000</v>
-      </c>
-      <c r="AN8">
+      <c r="AS8">
+        <v>11.5</v>
+      </c>
+      <c r="AT8">
+        <v>12</v>
+      </c>
+      <c r="AU8">
         <v>13.5</v>
       </c>
-      <c r="AO8">
-        <v>1000</v>
-      </c>
-      <c r="AP8">
-        <v>29</v>
-      </c>
-      <c r="AQ8">
-        <v>1000</v>
-      </c>
-      <c r="AR8">
-        <v>29</v>
-      </c>
-      <c r="AS8">
-        <v>1000</v>
-      </c>
-      <c r="AT8">
-        <v>21</v>
-      </c>
-      <c r="AU8">
-        <v>1000</v>
-      </c>
       <c r="AV8">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AW8">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AX8">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="AY8">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AZ8">
-        <v>1.01</v>
+        <v>3.5</v>
       </c>
       <c r="BA8">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="BB8">
-        <v>1.01</v>
+        <v>15.5</v>
       </c>
       <c r="BC8">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="BD8">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="BE8">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BF8" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="BG8">
-        <v>489147</v>
+        <v>31321</v>
       </c>
       <c r="BH8">
-        <v>44625</v>
+        <v>10833201</v>
       </c>
       <c r="BI8">
         <v>58805</v>
       </c>
       <c r="BJ8" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="BK8" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="BL8" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="BM8" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:65">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E9" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F9">
-        <v>1.74</v>
+        <v>1.26</v>
       </c>
       <c r="G9">
-        <v>1.84</v>
+        <v>980</v>
       </c>
       <c r="H9">
-        <v>6.8</v>
+        <v>1.29</v>
       </c>
       <c r="I9">
-        <v>9</v>
+        <v>980</v>
       </c>
       <c r="J9">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="K9">
-        <v>3.45</v>
+        <v>330</v>
       </c>
       <c r="L9">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="M9">
-        <v>1.47</v>
+        <v>110</v>
       </c>
       <c r="N9">
-        <v>3.15</v>
+        <v>1.03</v>
       </c>
       <c r="O9">
-        <v>3.75</v>
+        <v>4.6</v>
       </c>
       <c r="P9">
-        <v>2.98</v>
+        <v>1.12</v>
       </c>
       <c r="Q9">
-        <v>3.25</v>
+        <v>1000</v>
       </c>
       <c r="R9">
-        <v>1.44</v>
+        <v>1.12</v>
       </c>
       <c r="S9">
-        <v>1.51</v>
+        <v>1000</v>
       </c>
       <c r="T9">
-        <v>5.2</v>
+        <v>1.49</v>
       </c>
       <c r="U9">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="V9">
-        <v>12</v>
+        <v>1.01</v>
       </c>
       <c r="W9">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="X9">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="Y9">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="Z9">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AA9">
         <v>1000</v>
       </c>
       <c r="AB9">
-        <v>4.2</v>
+        <v>1.01</v>
       </c>
       <c r="AC9">
-        <v>5.2</v>
+        <v>1000</v>
       </c>
       <c r="AD9">
-        <v>7.8</v>
+        <v>1.01</v>
       </c>
       <c r="AE9">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AF9">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="AG9">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH9">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AI9">
         <v>1000</v>
       </c>
       <c r="AJ9">
-        <v>6.8</v>
+        <v>1.01</v>
       </c>
       <c r="AK9">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AL9">
-        <v>11</v>
+        <v>1.01</v>
       </c>
       <c r="AM9">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AN9">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="AO9">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AP9">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AQ9">
         <v>1000</v>
       </c>
       <c r="AR9">
-        <v>15</v>
+        <v>1.01</v>
       </c>
       <c r="AS9">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AT9">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="AU9">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AV9">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="AW9">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AX9">
         <v>1.01</v>
@@ -2972,7 +3089,7 @@
         <v>1.01</v>
       </c>
       <c r="BA9">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="BB9">
         <v>1.01</v>
@@ -2981,625 +3098,625 @@
         <v>1000</v>
       </c>
       <c r="BD9">
-        <v>1.1</v>
+        <v>15</v>
       </c>
       <c r="BE9">
         <v>1000</v>
       </c>
       <c r="BF9" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="BG9">
-        <v>5259327</v>
+        <v>10748720</v>
       </c>
       <c r="BH9">
-        <v>5907009</v>
+        <v>5407316</v>
       </c>
       <c r="BI9">
         <v>58805</v>
       </c>
       <c r="BJ9" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="BK9" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="BL9" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="BM9" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:65">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E10" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F10">
-        <v>2.64</v>
+        <v>2.3</v>
       </c>
       <c r="G10">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H10">
-        <v>3.05</v>
+        <v>2.6</v>
       </c>
       <c r="I10">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="J10">
-        <v>2.72</v>
+        <v>3.3</v>
       </c>
       <c r="K10">
-        <v>3.4</v>
+        <v>5.6</v>
       </c>
       <c r="L10">
-        <v>1.51</v>
+        <v>1.77</v>
       </c>
       <c r="M10">
-        <v>1.63</v>
+        <v>2.4</v>
       </c>
       <c r="N10">
-        <v>2.58</v>
+        <v>1.71</v>
       </c>
       <c r="O10">
-        <v>2.98</v>
+        <v>2.3</v>
       </c>
       <c r="P10">
-        <v>2.04</v>
+        <v>1.12</v>
       </c>
       <c r="Q10">
-        <v>2.42</v>
+        <v>1000</v>
       </c>
       <c r="R10">
-        <v>1.7</v>
+        <v>1.12</v>
       </c>
       <c r="S10">
-        <v>1.96</v>
+        <v>1000</v>
       </c>
       <c r="T10">
-        <v>6.6</v>
+        <v>1.48</v>
       </c>
       <c r="U10">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="V10">
-        <v>7.6</v>
+        <v>1.01</v>
       </c>
       <c r="W10">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="X10">
-        <v>16</v>
+        <v>1.01</v>
       </c>
       <c r="Y10">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Z10">
-        <v>6.2</v>
+        <v>1.01</v>
       </c>
       <c r="AA10">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB10">
-        <v>6.8</v>
+        <v>1.01</v>
       </c>
       <c r="AC10">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD10">
-        <v>5.9</v>
+        <v>1.01</v>
       </c>
       <c r="AE10">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AF10">
-        <v>12</v>
+        <v>1.01</v>
       </c>
       <c r="AG10">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AH10">
-        <v>6.2</v>
+        <v>1.01</v>
       </c>
       <c r="AI10">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ10">
-        <v>13</v>
+        <v>1.01</v>
       </c>
       <c r="AK10">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AL10">
-        <v>11</v>
+        <v>1.01</v>
       </c>
       <c r="AM10">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AN10">
-        <v>19</v>
+        <v>1.01</v>
       </c>
       <c r="AO10">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AP10">
-        <v>6.4</v>
+        <v>1.01</v>
       </c>
       <c r="AQ10">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AR10">
-        <v>6</v>
+        <v>1.01</v>
       </c>
       <c r="AS10">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AT10">
-        <v>6</v>
+        <v>1.01</v>
       </c>
       <c r="AU10">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AV10">
-        <v>6.4</v>
+        <v>1.01</v>
       </c>
       <c r="AW10">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AX10">
-        <v>6.8</v>
+        <v>1.01</v>
       </c>
       <c r="AY10">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AZ10">
-        <v>6</v>
+        <v>1.55</v>
       </c>
       <c r="BA10">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="BB10">
-        <v>6.2</v>
+        <v>1.55</v>
       </c>
       <c r="BC10">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="BD10">
-        <v>7</v>
+        <v>1.01</v>
       </c>
       <c r="BE10">
         <v>1000</v>
       </c>
       <c r="BF10" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="BG10">
-        <v>10492935</v>
+        <v>489147</v>
       </c>
       <c r="BH10">
-        <v>7024303</v>
+        <v>44625</v>
       </c>
       <c r="BI10">
         <v>58805</v>
       </c>
       <c r="BJ10" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="BK10" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="BL10" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="BM10" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:65">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E11" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F11">
+        <v>1.79</v>
+      </c>
+      <c r="G11">
+        <v>1.91</v>
+      </c>
+      <c r="H11">
+        <v>6.2</v>
+      </c>
+      <c r="I11">
+        <v>7.2</v>
+      </c>
+      <c r="J11">
+        <v>3.05</v>
+      </c>
+      <c r="K11">
+        <v>3.4</v>
+      </c>
+      <c r="L11">
+        <v>1.42</v>
+      </c>
+      <c r="M11">
+        <v>1.46</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11">
+        <v>3.4</v>
+      </c>
+      <c r="P11">
         <v>2.66</v>
       </c>
-      <c r="G11">
-        <v>3.8</v>
-      </c>
-      <c r="H11">
-        <v>2.66</v>
-      </c>
-      <c r="I11">
-        <v>3.8</v>
-      </c>
-      <c r="J11">
-        <v>2.78</v>
-      </c>
-      <c r="K11">
-        <v>4.1</v>
-      </c>
-      <c r="L11">
-        <v>1.33</v>
-      </c>
-      <c r="M11">
-        <v>1.82</v>
-      </c>
-      <c r="N11">
-        <v>2.2</v>
-      </c>
-      <c r="O11">
-        <v>3.95</v>
-      </c>
-      <c r="P11">
-        <v>1.12</v>
-      </c>
       <c r="Q11">
-        <v>20</v>
+        <v>2.92</v>
       </c>
       <c r="R11">
-        <v>1.12</v>
+        <v>1.52</v>
       </c>
       <c r="S11">
-        <v>20</v>
+        <v>1.61</v>
       </c>
       <c r="T11">
+        <v>5.8</v>
+      </c>
+      <c r="U11">
+        <v>7.2</v>
+      </c>
+      <c r="V11">
+        <v>11.5</v>
+      </c>
+      <c r="W11">
+        <v>16</v>
+      </c>
+      <c r="X11">
+        <v>6.4</v>
+      </c>
+      <c r="Y11">
+        <v>980</v>
+      </c>
+      <c r="Z11">
+        <v>7.2</v>
+      </c>
+      <c r="AA11">
+        <v>980</v>
+      </c>
+      <c r="AB11">
+        <v>4.8</v>
+      </c>
+      <c r="AC11">
+        <v>5.8</v>
+      </c>
+      <c r="AD11">
         <v>7</v>
       </c>
-      <c r="U11">
-        <v>11</v>
-      </c>
-      <c r="V11">
-        <v>1.1</v>
-      </c>
-      <c r="W11">
-        <v>1000</v>
-      </c>
-      <c r="X11">
-        <v>1.1</v>
-      </c>
-      <c r="Y11">
-        <v>1000</v>
-      </c>
-      <c r="Z11">
-        <v>1.1</v>
-      </c>
-      <c r="AA11">
-        <v>1000</v>
-      </c>
-      <c r="AB11">
-        <v>1.1</v>
-      </c>
-      <c r="AC11">
-        <v>1000</v>
-      </c>
-      <c r="AD11">
-        <v>1.1</v>
-      </c>
       <c r="AE11">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AF11">
-        <v>1.1</v>
+        <v>6</v>
       </c>
       <c r="AG11">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH11">
-        <v>1.1</v>
+        <v>7</v>
       </c>
       <c r="AI11">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ11">
-        <v>1.1</v>
+        <v>4.3</v>
       </c>
       <c r="AK11">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AL11">
-        <v>1.1</v>
+        <v>10</v>
       </c>
       <c r="AM11">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AN11">
-        <v>1.1</v>
+        <v>6.2</v>
       </c>
       <c r="AO11">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AP11">
-        <v>1.1</v>
+        <v>7.2</v>
       </c>
       <c r="AQ11">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR11">
-        <v>1.1</v>
+        <v>5.5</v>
       </c>
       <c r="AS11">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AT11">
-        <v>1.1</v>
+        <v>6</v>
       </c>
       <c r="AU11">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV11">
-        <v>1.1</v>
+        <v>6.8</v>
       </c>
       <c r="AW11">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX11">
-        <v>1.1</v>
+        <v>7.2</v>
       </c>
       <c r="AY11">
         <v>1000</v>
       </c>
       <c r="AZ11">
-        <v>1.1</v>
+        <v>5.8</v>
       </c>
       <c r="BA11">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB11">
-        <v>1.1</v>
+        <v>7.2</v>
       </c>
       <c r="BC11">
         <v>1000</v>
       </c>
       <c r="BD11">
-        <v>1.1</v>
+        <v>7.4</v>
       </c>
       <c r="BE11">
         <v>1000</v>
       </c>
       <c r="BF11" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="BG11">
-        <v>38281353</v>
+        <v>5259327</v>
       </c>
       <c r="BH11">
-        <v>12678248</v>
+        <v>5907009</v>
       </c>
       <c r="BI11">
         <v>58805</v>
       </c>
       <c r="BJ11" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="BK11" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="BL11" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="BM11" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="1:65">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E12" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F12">
-        <v>1.85</v>
+        <v>2.64</v>
       </c>
       <c r="G12">
-        <v>2.44</v>
+        <v>2.9</v>
       </c>
       <c r="H12">
-        <v>3.95</v>
+        <v>3.1</v>
       </c>
       <c r="I12">
+        <v>3.45</v>
+      </c>
+      <c r="J12">
+        <v>2.8</v>
+      </c>
+      <c r="K12">
+        <v>3.1</v>
+      </c>
+      <c r="L12">
+        <v>1.51</v>
+      </c>
+      <c r="M12">
+        <v>1.63</v>
+      </c>
+      <c r="N12">
+        <v>2.58</v>
+      </c>
+      <c r="O12">
+        <v>2.98</v>
+      </c>
+      <c r="P12">
+        <v>2.04</v>
+      </c>
+      <c r="Q12">
+        <v>2.42</v>
+      </c>
+      <c r="R12">
+        <v>1.7</v>
+      </c>
+      <c r="S12">
+        <v>1.96</v>
+      </c>
+      <c r="T12">
+        <v>7</v>
+      </c>
+      <c r="U12">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="V12">
+        <v>8</v>
+      </c>
+      <c r="W12">
+        <v>10.5</v>
+      </c>
+      <c r="X12">
+        <v>16</v>
+      </c>
+      <c r="Y12">
+        <v>980</v>
+      </c>
+      <c r="Z12">
+        <v>6.8</v>
+      </c>
+      <c r="AA12">
+        <v>980</v>
+      </c>
+      <c r="AB12">
+        <v>6.8</v>
+      </c>
+      <c r="AC12">
+        <v>8.6</v>
+      </c>
+      <c r="AD12">
+        <v>6.2</v>
+      </c>
+      <c r="AE12">
+        <v>7.4</v>
+      </c>
+      <c r="AF12">
+        <v>12.5</v>
+      </c>
+      <c r="AG12">
+        <v>16.5</v>
+      </c>
+      <c r="AH12">
+        <v>6.6</v>
+      </c>
+      <c r="AI12">
+        <v>980</v>
+      </c>
+      <c r="AJ12">
+        <v>13</v>
+      </c>
+      <c r="AK12">
+        <v>17.5</v>
+      </c>
+      <c r="AL12">
+        <v>11.5</v>
+      </c>
+      <c r="AM12">
+        <v>15</v>
+      </c>
+      <c r="AN12">
+        <v>19</v>
+      </c>
+      <c r="AO12">
+        <v>980</v>
+      </c>
+      <c r="AP12">
+        <v>6.8</v>
+      </c>
+      <c r="AQ12">
+        <v>980</v>
+      </c>
+      <c r="AR12">
+        <v>6.6</v>
+      </c>
+      <c r="AS12">
+        <v>980</v>
+      </c>
+      <c r="AT12">
+        <v>6.8</v>
+      </c>
+      <c r="AU12">
+        <v>980</v>
+      </c>
+      <c r="AV12">
+        <v>6.8</v>
+      </c>
+      <c r="AW12">
+        <v>980</v>
+      </c>
+      <c r="AX12">
         <v>7.2</v>
       </c>
-      <c r="J12">
-        <v>2.98</v>
-      </c>
-      <c r="K12">
-        <v>4.9</v>
-      </c>
-      <c r="L12">
-        <v>1.32</v>
-      </c>
-      <c r="M12">
-        <v>1.93</v>
-      </c>
-      <c r="N12">
-        <v>2.08</v>
-      </c>
-      <c r="O12">
-        <v>4.1</v>
-      </c>
-      <c r="P12">
-        <v>1.12</v>
-      </c>
-      <c r="Q12">
-        <v>20</v>
-      </c>
-      <c r="R12">
-        <v>1.12</v>
-      </c>
-      <c r="S12">
-        <v>20</v>
-      </c>
-      <c r="T12">
-        <v>1.1</v>
-      </c>
-      <c r="U12">
-        <v>980</v>
-      </c>
-      <c r="V12">
-        <v>1.1</v>
-      </c>
-      <c r="W12">
-        <v>980</v>
-      </c>
-      <c r="X12">
-        <v>2.6</v>
-      </c>
-      <c r="Y12">
-        <v>1000</v>
-      </c>
-      <c r="Z12">
-        <v>4.4</v>
-      </c>
-      <c r="AA12">
-        <v>1000</v>
-      </c>
-      <c r="AB12">
-        <v>1.1</v>
-      </c>
-      <c r="AC12">
-        <v>980</v>
-      </c>
-      <c r="AD12">
-        <v>1.1</v>
-      </c>
-      <c r="AE12">
-        <v>980</v>
-      </c>
-      <c r="AF12">
-        <v>5</v>
-      </c>
-      <c r="AG12">
-        <v>980</v>
-      </c>
-      <c r="AH12">
+      <c r="AY12">
+        <v>980</v>
+      </c>
+      <c r="AZ12">
+        <v>6.4</v>
+      </c>
+      <c r="BA12">
+        <v>980</v>
+      </c>
+      <c r="BB12">
+        <v>6.6</v>
+      </c>
+      <c r="BC12">
+        <v>980</v>
+      </c>
+      <c r="BD12">
         <v>7.4</v>
       </c>
-      <c r="AI12">
-        <v>1000</v>
-      </c>
-      <c r="AJ12">
-        <v>1.1</v>
-      </c>
-      <c r="AK12">
-        <v>1000</v>
-      </c>
-      <c r="AL12">
-        <v>1.1</v>
-      </c>
-      <c r="AM12">
-        <v>980</v>
-      </c>
-      <c r="AN12">
-        <v>5</v>
-      </c>
-      <c r="AO12">
-        <v>980</v>
-      </c>
-      <c r="AP12">
-        <v>13.5</v>
-      </c>
-      <c r="AQ12">
-        <v>1000</v>
-      </c>
-      <c r="AR12">
-        <v>4.9</v>
-      </c>
-      <c r="AS12">
-        <v>1000</v>
-      </c>
-      <c r="AT12">
-        <v>4</v>
-      </c>
-      <c r="AU12">
-        <v>1000</v>
-      </c>
-      <c r="AV12">
-        <v>14.5</v>
-      </c>
-      <c r="AW12">
-        <v>1000</v>
-      </c>
-      <c r="AX12">
-        <v>15</v>
-      </c>
-      <c r="AY12">
-        <v>1000</v>
-      </c>
-      <c r="AZ12">
-        <v>1.01</v>
-      </c>
-      <c r="BA12">
-        <v>1000</v>
-      </c>
-      <c r="BB12">
-        <v>1.01</v>
-      </c>
-      <c r="BC12">
-        <v>1000</v>
-      </c>
-      <c r="BD12">
-        <v>1.1</v>
-      </c>
       <c r="BE12">
         <v>1000</v>
       </c>
       <c r="BF12" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="BG12">
-        <v>364672</v>
+        <v>10492935</v>
       </c>
       <c r="BH12">
-        <v>7219493</v>
+        <v>7024303</v>
       </c>
       <c r="BI12">
         <v>58805</v>
       </c>
       <c r="BJ12" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="BK12" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="BL12" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="BM12" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:65">
@@ -3607,393 +3724,393 @@
         <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E13" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="F13">
-        <v>13.5</v>
+        <v>2.8</v>
       </c>
       <c r="G13">
-        <v>15</v>
+        <v>3.35</v>
       </c>
       <c r="H13">
-        <v>1.25</v>
+        <v>2.76</v>
       </c>
       <c r="I13">
-        <v>1.29</v>
+        <v>3.3</v>
       </c>
       <c r="J13">
-        <v>6.6</v>
+        <v>2.8</v>
       </c>
       <c r="K13">
-        <v>7.6</v>
+        <v>3.1</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>1.43</v>
       </c>
       <c r="M13">
-        <v>3.25</v>
+        <v>1.6</v>
       </c>
       <c r="N13">
-        <v>1.44</v>
+        <v>2.68</v>
       </c>
       <c r="O13">
-        <v>1.99</v>
+        <v>3.35</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ13">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AK13">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL13">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AM13">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AP13">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AU13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV13">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AW13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX13">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AY13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ13">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="BA13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB13">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="BC13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD13">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="BE13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF13" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="BG13">
-        <v>13133</v>
+        <v>38281353</v>
       </c>
       <c r="BH13">
-        <v>52458346</v>
+        <v>12678248</v>
       </c>
       <c r="BI13">
         <v>58805</v>
       </c>
       <c r="BJ13" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="BK13" t="s">
-        <v>225</v>
-      </c>
-      <c r="BL13">
-        <v>0</v>
-      </c>
-      <c r="BM13">
-        <v>0</v>
+        <v>241</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>273</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:65">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E14" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F14">
-        <v>2.46</v>
+        <v>1.89</v>
       </c>
       <c r="G14">
+        <v>2.2</v>
+      </c>
+      <c r="H14">
+        <v>4.2</v>
+      </c>
+      <c r="I14">
+        <v>6.6</v>
+      </c>
+      <c r="J14">
+        <v>3.1</v>
+      </c>
+      <c r="K14">
+        <v>4.1</v>
+      </c>
+      <c r="L14">
+        <v>1.52</v>
+      </c>
+      <c r="M14">
+        <v>1.66</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <v>4.6</v>
+      </c>
+      <c r="P14">
+        <v>2.2</v>
+      </c>
+      <c r="Q14">
+        <v>9.4</v>
+      </c>
+      <c r="R14">
+        <v>1.69</v>
+      </c>
+      <c r="S14">
+        <v>1.82</v>
+      </c>
+      <c r="T14">
+        <v>3.1</v>
+      </c>
+      <c r="U14">
+        <v>980</v>
+      </c>
+      <c r="V14">
+        <v>2.6</v>
+      </c>
+      <c r="W14">
+        <v>980</v>
+      </c>
+      <c r="X14">
+        <v>2.9</v>
+      </c>
+      <c r="Y14">
+        <v>980</v>
+      </c>
+      <c r="Z14">
+        <v>3.05</v>
+      </c>
+      <c r="AA14">
+        <v>1000</v>
+      </c>
+      <c r="AB14">
+        <v>3</v>
+      </c>
+      <c r="AC14">
+        <v>980</v>
+      </c>
+      <c r="AD14">
+        <v>3.15</v>
+      </c>
+      <c r="AE14">
+        <v>980</v>
+      </c>
+      <c r="AF14">
+        <v>2.8</v>
+      </c>
+      <c r="AG14">
+        <v>980</v>
+      </c>
+      <c r="AH14">
+        <v>3</v>
+      </c>
+      <c r="AI14">
+        <v>1000</v>
+      </c>
+      <c r="AJ14">
         <v>2.48</v>
       </c>
-      <c r="H14">
+      <c r="AK14">
+        <v>980</v>
+      </c>
+      <c r="AL14">
+        <v>2.54</v>
+      </c>
+      <c r="AM14">
+        <v>980</v>
+      </c>
+      <c r="AN14">
+        <v>2.84</v>
+      </c>
+      <c r="AO14">
+        <v>980</v>
+      </c>
+      <c r="AP14">
+        <v>3.05</v>
+      </c>
+      <c r="AQ14">
+        <v>1000</v>
+      </c>
+      <c r="AR14">
+        <v>2.8</v>
+      </c>
+      <c r="AS14">
+        <v>980</v>
+      </c>
+      <c r="AT14">
+        <v>2.84</v>
+      </c>
+      <c r="AU14">
+        <v>980</v>
+      </c>
+      <c r="AV14">
         <v>2.98</v>
       </c>
-      <c r="I14">
-        <v>3</v>
-      </c>
-      <c r="J14">
-        <v>3.85</v>
-      </c>
-      <c r="K14">
-        <v>3.9</v>
-      </c>
-      <c r="L14">
-        <v>2.4</v>
-      </c>
-      <c r="M14">
-        <v>2.5</v>
-      </c>
-      <c r="N14">
-        <v>1.67</v>
-      </c>
-      <c r="O14">
-        <v>1.72</v>
-      </c>
-      <c r="P14">
-        <v>1.59</v>
-      </c>
-      <c r="Q14">
-        <v>1.64</v>
-      </c>
-      <c r="R14">
-        <v>2.58</v>
-      </c>
-      <c r="S14">
-        <v>2.68</v>
-      </c>
-      <c r="T14">
-        <v>18.5</v>
-      </c>
-      <c r="U14">
-        <v>21</v>
-      </c>
-      <c r="V14">
-        <v>14.5</v>
-      </c>
-      <c r="W14">
-        <v>17</v>
-      </c>
-      <c r="X14">
-        <v>20</v>
-      </c>
-      <c r="Y14">
-        <v>28</v>
-      </c>
-      <c r="Z14">
-        <v>40</v>
-      </c>
-      <c r="AA14">
-        <v>55</v>
-      </c>
-      <c r="AB14">
-        <v>13</v>
-      </c>
-      <c r="AC14">
-        <v>15</v>
-      </c>
-      <c r="AD14">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AE14">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AF14">
-        <v>12</v>
-      </c>
-      <c r="AG14">
-        <v>13.5</v>
-      </c>
-      <c r="AH14">
-        <v>25</v>
-      </c>
-      <c r="AI14">
-        <v>30</v>
-      </c>
-      <c r="AJ14">
-        <v>16.5</v>
-      </c>
-      <c r="AK14">
-        <v>18.5</v>
-      </c>
-      <c r="AL14">
-        <v>10.5</v>
-      </c>
-      <c r="AM14">
-        <v>12</v>
-      </c>
-      <c r="AN14">
-        <v>13.5</v>
-      </c>
-      <c r="AO14">
-        <v>15</v>
-      </c>
-      <c r="AP14">
-        <v>30</v>
-      </c>
-      <c r="AQ14">
-        <v>36</v>
-      </c>
-      <c r="AR14">
-        <v>30</v>
-      </c>
-      <c r="AS14">
-        <v>38</v>
-      </c>
-      <c r="AT14">
-        <v>20</v>
-      </c>
-      <c r="AU14">
-        <v>28</v>
-      </c>
-      <c r="AV14">
-        <v>27</v>
-      </c>
       <c r="AW14">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AX14">
-        <v>46</v>
+        <v>3.05</v>
       </c>
       <c r="AY14">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AZ14">
-        <v>12</v>
+        <v>2.78</v>
       </c>
       <c r="BA14">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="BB14">
-        <v>15.5</v>
+        <v>3.05</v>
       </c>
       <c r="BC14">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="BD14">
-        <v>120</v>
+        <v>3.1</v>
       </c>
       <c r="BE14">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="BF14" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="BG14">
-        <v>5774350</v>
+        <v>364672</v>
       </c>
       <c r="BH14">
-        <v>1096</v>
+        <v>7219493</v>
       </c>
       <c r="BI14">
         <v>58805</v>
       </c>
       <c r="BJ14" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="BK14" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="BL14" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="BM14" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:65">
@@ -4001,196 +4118,196 @@
         <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E15" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="F15">
-        <v>1.69</v>
+        <v>1.81</v>
       </c>
       <c r="G15">
-        <v>1.7</v>
+        <v>1.92</v>
       </c>
       <c r="H15">
-        <v>5.2</v>
+        <v>4</v>
       </c>
       <c r="I15">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="J15">
+        <v>4.1</v>
+      </c>
+      <c r="K15">
         <v>4.5</v>
       </c>
-      <c r="K15">
-        <v>4.6</v>
-      </c>
       <c r="L15">
-        <v>2.52</v>
+        <v>2.72</v>
       </c>
       <c r="M15">
-        <v>2.62</v>
+        <v>3.5</v>
       </c>
       <c r="N15">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="O15">
-        <v>1.66</v>
+        <v>1.58</v>
       </c>
       <c r="P15">
-        <v>1.66</v>
+        <v>1.47</v>
       </c>
       <c r="Q15">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="R15">
-        <v>2.46</v>
+        <v>1.12</v>
       </c>
       <c r="S15">
-        <v>2.52</v>
+        <v>3.15</v>
       </c>
       <c r="T15">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="U15">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="V15">
-        <v>23</v>
+        <v>3.95</v>
       </c>
       <c r="W15">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="X15">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="Y15">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="Z15">
-        <v>90</v>
+        <v>4.2</v>
       </c>
       <c r="AA15">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB15">
-        <v>11</v>
+        <v>3.7</v>
       </c>
       <c r="AC15">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AD15">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AE15">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AF15">
-        <v>19</v>
+        <v>3.7</v>
       </c>
       <c r="AG15">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AH15">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="AI15">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AJ15">
-        <v>11</v>
+        <v>3.65</v>
       </c>
       <c r="AK15">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AL15">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AM15">
-        <v>9.6</v>
+        <v>980</v>
       </c>
       <c r="AN15">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="AO15">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AP15">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="AQ15">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AR15">
-        <v>16</v>
+        <v>3.8</v>
       </c>
       <c r="AS15">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AT15">
-        <v>14</v>
+        <v>3.6</v>
       </c>
       <c r="AU15">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AV15">
-        <v>23</v>
+        <v>3.85</v>
       </c>
       <c r="AW15">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AX15">
-        <v>60</v>
+        <v>4.1</v>
       </c>
       <c r="AY15">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AZ15">
-        <v>6.6</v>
+        <v>2.8</v>
       </c>
       <c r="BA15">
-        <v>7.2</v>
+        <v>980</v>
       </c>
       <c r="BB15">
-        <v>32</v>
+        <v>2.06</v>
       </c>
       <c r="BC15">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="BD15">
-        <v>55</v>
+        <v>4.4</v>
       </c>
       <c r="BE15">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="BF15" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="BG15">
-        <v>47999</v>
+        <v>18571</v>
       </c>
       <c r="BH15">
-        <v>2426</v>
+        <v>62504</v>
       </c>
       <c r="BI15">
         <v>58805</v>
       </c>
       <c r="BJ15" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="BK15" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="BL15" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="BM15" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16" spans="1:65">
@@ -4198,1073 +4315,1073 @@
         <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E16" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F16">
-        <v>2.12</v>
+        <v>1.68</v>
       </c>
       <c r="G16">
-        <v>2.64</v>
+        <v>1.69</v>
       </c>
       <c r="H16">
-        <v>3.2</v>
+        <v>5.4</v>
       </c>
       <c r="I16">
+        <v>5.5</v>
+      </c>
+      <c r="J16">
+        <v>4.5</v>
+      </c>
+      <c r="K16">
         <v>4.6</v>
       </c>
-      <c r="J16">
-        <v>3.15</v>
-      </c>
-      <c r="K16">
-        <v>4.7</v>
-      </c>
       <c r="L16">
-        <v>1.85</v>
+        <v>2.58</v>
       </c>
       <c r="M16">
-        <v>2.16</v>
+        <v>2.68</v>
       </c>
       <c r="N16">
-        <v>1.86</v>
+        <v>1.6</v>
       </c>
       <c r="O16">
-        <v>2.18</v>
+        <v>1.64</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ16">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AK16">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AL16">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AM16">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AN16">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AP16">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AQ16">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AR16">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AS16">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AT16">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AU16">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AV16">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AW16">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AX16">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AY16">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AZ16">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="BA16">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BB16">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="BC16">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="BD16">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="BE16">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="BF16" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="BG16">
-        <v>5129869</v>
+        <v>47999</v>
       </c>
       <c r="BH16">
-        <v>2019917</v>
+        <v>2426</v>
       </c>
       <c r="BI16">
         <v>58805</v>
       </c>
       <c r="BJ16" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="BK16" t="s">
-        <v>228</v>
-      </c>
-      <c r="BL16">
-        <v>0</v>
-      </c>
-      <c r="BM16">
-        <v>0</v>
+        <v>244</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>276</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:65">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E17" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="F17">
-        <v>1.05</v>
+        <v>2.44</v>
       </c>
       <c r="G17">
-        <v>900</v>
+        <v>2.46</v>
       </c>
       <c r="H17">
-        <v>1.04</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>1000</v>
+        <v>3.05</v>
       </c>
       <c r="J17">
-        <v>1.01</v>
+        <v>3.8</v>
       </c>
       <c r="K17">
-        <v>1000</v>
+        <v>3.85</v>
       </c>
       <c r="L17">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="M17">
-        <v>990</v>
+        <v>2.46</v>
       </c>
       <c r="N17">
-        <v>1.03</v>
+        <v>1.69</v>
       </c>
       <c r="O17">
-        <v>990</v>
+        <v>1.71</v>
       </c>
       <c r="P17">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="Q17">
-        <v>1000</v>
+        <v>1.63</v>
       </c>
       <c r="R17">
-        <v>1.01</v>
+        <v>2.6</v>
       </c>
       <c r="S17">
-        <v>1000</v>
+        <v>2.68</v>
       </c>
       <c r="T17">
-        <v>1.43</v>
+        <v>18.5</v>
       </c>
       <c r="U17">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="V17">
-        <v>1.01</v>
+        <v>15.5</v>
       </c>
       <c r="W17">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="X17">
-        <v>1.01</v>
+        <v>21</v>
       </c>
       <c r="Y17">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z17">
-        <v>1.01</v>
+        <v>42</v>
       </c>
       <c r="AA17">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AB17">
-        <v>1.01</v>
+        <v>13.5</v>
       </c>
       <c r="AC17">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD17">
-        <v>1.01</v>
+        <v>8.4</v>
       </c>
       <c r="AE17">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AF17">
-        <v>1.01</v>
+        <v>12</v>
       </c>
       <c r="AG17">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH17">
-        <v>1.01</v>
+        <v>27</v>
       </c>
       <c r="AI17">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AJ17">
-        <v>1.01</v>
+        <v>16.5</v>
       </c>
       <c r="AK17">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AL17">
-        <v>1.01</v>
+        <v>10.5</v>
       </c>
       <c r="AM17">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AN17">
-        <v>1.01</v>
+        <v>14</v>
       </c>
       <c r="AO17">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AP17">
-        <v>1.01</v>
+        <v>32</v>
       </c>
       <c r="AQ17">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AR17">
-        <v>1.01</v>
+        <v>30</v>
       </c>
       <c r="AS17">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AT17">
-        <v>1.01</v>
+        <v>21</v>
       </c>
       <c r="AU17">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AV17">
-        <v>1.01</v>
+        <v>28</v>
       </c>
       <c r="AW17">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AX17">
-        <v>1.01</v>
+        <v>55</v>
       </c>
       <c r="AY17">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AZ17">
-        <v>1.01</v>
+        <v>12.5</v>
       </c>
       <c r="BA17">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="BB17">
-        <v>1.01</v>
+        <v>19</v>
       </c>
       <c r="BC17">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="BD17">
-        <v>14.5</v>
+        <v>180</v>
       </c>
       <c r="BE17">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="BF17" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="BG17">
-        <v>5327095</v>
+        <v>5774350</v>
       </c>
       <c r="BH17">
-        <v>5336581</v>
+        <v>1096</v>
       </c>
       <c r="BI17">
         <v>58805</v>
       </c>
       <c r="BJ17" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="BK17" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="BL17" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="BM17" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:65">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E18" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F18">
-        <v>1.75</v>
+        <v>12.5</v>
       </c>
       <c r="G18">
-        <v>1.86</v>
+        <v>13.5</v>
       </c>
       <c r="H18">
-        <v>5.2</v>
+        <v>1.3</v>
       </c>
       <c r="I18">
-        <v>7.8</v>
+        <v>1.31</v>
       </c>
       <c r="J18">
-        <v>3.35</v>
+        <v>6.2</v>
       </c>
       <c r="K18">
-        <v>3.7</v>
+        <v>6.8</v>
       </c>
       <c r="L18">
+        <v>2.64</v>
+      </c>
+      <c r="M18">
+        <v>2.86</v>
+      </c>
+      <c r="N18">
+        <v>1.55</v>
+      </c>
+      <c r="O18">
         <v>1.61</v>
       </c>
-      <c r="M18">
-        <v>1.73</v>
-      </c>
-      <c r="N18">
-        <v>2.36</v>
-      </c>
-      <c r="O18">
-        <v>2.64</v>
-      </c>
       <c r="P18">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AJ18">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AK18">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AL18">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AM18">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AN18">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AO18">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AP18">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AQ18">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AR18">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AS18">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AT18">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AU18">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AV18">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AW18">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AX18">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AY18">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AZ18">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="BA18">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="BB18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC18">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="BD18">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="BE18">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF18" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="BG18">
-        <v>8717595</v>
+        <v>13133</v>
       </c>
       <c r="BH18">
-        <v>5615116</v>
+        <v>52458346</v>
       </c>
       <c r="BI18">
         <v>58805</v>
       </c>
       <c r="BJ18" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="BK18" t="s">
-        <v>230</v>
-      </c>
-      <c r="BL18">
-        <v>0</v>
-      </c>
-      <c r="BM18">
-        <v>0</v>
+        <v>246</v>
+      </c>
+      <c r="BL18" t="s">
+        <v>278</v>
+      </c>
+      <c r="BM18" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:65">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D19" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E19" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="F19">
-        <v>2.26</v>
+        <v>2.44</v>
       </c>
       <c r="G19">
-        <v>3.65</v>
+        <v>2.7</v>
       </c>
       <c r="H19">
-        <v>2.92</v>
+        <v>2.72</v>
       </c>
       <c r="I19">
-        <v>4.1</v>
+        <v>3.15</v>
       </c>
       <c r="J19">
-        <v>2.62</v>
+        <v>3.2</v>
       </c>
       <c r="K19">
+        <v>3.9</v>
+      </c>
+      <c r="L19">
+        <v>1.87</v>
+      </c>
+      <c r="M19">
+        <v>2.1</v>
+      </c>
+      <c r="N19">
+        <v>1.92</v>
+      </c>
+      <c r="O19">
+        <v>2.16</v>
+      </c>
+      <c r="P19">
+        <v>1.7</v>
+      </c>
+      <c r="Q19">
+        <v>1.96</v>
+      </c>
+      <c r="R19">
+        <v>2.04</v>
+      </c>
+      <c r="S19">
+        <v>2.42</v>
+      </c>
+      <c r="T19">
+        <v>11</v>
+      </c>
+      <c r="U19">
+        <v>16.5</v>
+      </c>
+      <c r="V19">
+        <v>10.5</v>
+      </c>
+      <c r="W19">
+        <v>15</v>
+      </c>
+      <c r="X19">
+        <v>17</v>
+      </c>
+      <c r="Y19">
+        <v>25</v>
+      </c>
+      <c r="Z19">
+        <v>4.4</v>
+      </c>
+      <c r="AA19">
+        <v>980</v>
+      </c>
+      <c r="AB19">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC19">
+        <v>13.5</v>
+      </c>
+      <c r="AD19">
+        <v>6.8</v>
+      </c>
+      <c r="AE19">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AF19">
+        <v>11</v>
+      </c>
+      <c r="AG19">
+        <v>16</v>
+      </c>
+      <c r="AH19">
         <v>4.7</v>
       </c>
-      <c r="L19">
-        <v>1.39</v>
-      </c>
-      <c r="M19">
-        <v>2.12</v>
-      </c>
-      <c r="N19">
-        <v>1.9</v>
-      </c>
-      <c r="O19">
-        <v>3.55</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
       <c r="AI19">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ19">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AK19">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM19">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AN19">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AO19">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AP19">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="AQ19">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AR19">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AS19">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AT19">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AU19">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AV19">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AW19">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AX19">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AY19">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AZ19">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="BA19">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="BB19">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="BC19">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="BD19">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="BE19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF19" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="BG19">
-        <v>25894882</v>
+        <v>5129869</v>
       </c>
       <c r="BH19">
-        <v>44232344</v>
+        <v>2019917</v>
       </c>
       <c r="BI19">
         <v>58805</v>
       </c>
       <c r="BJ19" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="BK19" t="s">
-        <v>231</v>
-      </c>
-      <c r="BL19">
-        <v>0</v>
-      </c>
-      <c r="BM19">
-        <v>0</v>
+        <v>247</v>
+      </c>
+      <c r="BL19" t="s">
+        <v>279</v>
+      </c>
+      <c r="BM19" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:65">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D20" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E20" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F20">
-        <v>2.34</v>
+        <v>1.05</v>
       </c>
       <c r="G20">
-        <v>2.48</v>
+        <v>900</v>
       </c>
       <c r="H20">
-        <v>3.25</v>
+        <v>1.04</v>
       </c>
       <c r="I20">
-        <v>3.65</v>
+        <v>1000</v>
       </c>
       <c r="J20">
-        <v>3.35</v>
+        <v>1.01</v>
       </c>
       <c r="K20">
-        <v>3.6</v>
+        <v>1000</v>
       </c>
       <c r="L20">
-        <v>1.82</v>
+        <v>1.2</v>
       </c>
       <c r="M20">
-        <v>1.98</v>
+        <v>990</v>
       </c>
       <c r="N20">
-        <v>2.02</v>
+        <v>1.03</v>
       </c>
       <c r="O20">
-        <v>2.22</v>
+        <v>990</v>
       </c>
       <c r="P20">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="Q20">
-        <v>1.99</v>
+        <v>1000</v>
       </c>
       <c r="R20">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="S20">
-        <v>2.3</v>
+        <v>1000</v>
       </c>
       <c r="T20">
-        <v>10</v>
+        <v>1.43</v>
       </c>
       <c r="U20">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="V20">
-        <v>10</v>
+        <v>1.01</v>
       </c>
       <c r="W20">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="X20">
-        <v>18.5</v>
+        <v>1.01</v>
       </c>
       <c r="Y20">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Z20">
-        <v>6.2</v>
+        <v>1.01</v>
       </c>
       <c r="AA20">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB20">
-        <v>8.199999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="AC20">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD20">
-        <v>6.4</v>
+        <v>1.01</v>
       </c>
       <c r="AE20">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AF20">
-        <v>11.5</v>
+        <v>1.01</v>
       </c>
       <c r="AG20">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH20">
-        <v>6</v>
+        <v>1.01</v>
       </c>
       <c r="AI20">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ20">
-        <v>12</v>
+        <v>1.01</v>
       </c>
       <c r="AK20">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AL20">
-        <v>9.6</v>
+        <v>1.01</v>
       </c>
       <c r="AM20">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AN20">
-        <v>15</v>
+        <v>1.01</v>
       </c>
       <c r="AO20">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AP20">
-        <v>6.2</v>
+        <v>1.01</v>
       </c>
       <c r="AQ20">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AR20">
-        <v>25</v>
+        <v>1.01</v>
       </c>
       <c r="AS20">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AT20">
-        <v>21</v>
+        <v>1.01</v>
       </c>
       <c r="AU20">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AV20">
-        <v>32</v>
+        <v>1.01</v>
       </c>
       <c r="AW20">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AX20">
-        <v>6.4</v>
+        <v>1.01</v>
       </c>
       <c r="AY20">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AZ20">
-        <v>5.3</v>
+        <v>1.01</v>
       </c>
       <c r="BA20">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="BB20">
-        <v>6</v>
+        <v>1.01</v>
       </c>
       <c r="BC20">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="BD20">
-        <v>6.8</v>
+        <v>14.5</v>
       </c>
       <c r="BE20">
         <v>1000</v>
       </c>
       <c r="BF20" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="BG20">
-        <v>198134</v>
+        <v>5327095</v>
       </c>
       <c r="BH20">
-        <v>36860494</v>
+        <v>5336581</v>
       </c>
       <c r="BI20">
         <v>58805</v>
       </c>
       <c r="BJ20" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="BK20" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="BL20" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="BM20" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:65">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D21" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E21" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F21">
-        <v>1.9</v>
+        <v>1.77</v>
       </c>
       <c r="G21">
-        <v>2.1</v>
+        <v>1.87</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>5.6</v>
       </c>
       <c r="I21">
-        <v>5.2</v>
+        <v>6.4</v>
       </c>
       <c r="J21">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K21">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="L21">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="M21">
-        <v>1.95</v>
+        <v>1.74</v>
       </c>
       <c r="N21">
-        <v>2.04</v>
+        <v>2.36</v>
       </c>
       <c r="O21">
-        <v>2.38</v>
+        <v>2.56</v>
       </c>
       <c r="P21">
-        <v>1.85</v>
+        <v>2.18</v>
       </c>
       <c r="Q21">
-        <v>2.12</v>
+        <v>2.36</v>
       </c>
       <c r="R21">
-        <v>1.9</v>
+        <v>1.74</v>
       </c>
       <c r="S21">
-        <v>2.18</v>
+        <v>1.84</v>
       </c>
       <c r="T21">
-        <v>10.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="U21">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="V21">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="W21">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="X21">
-        <v>4.6</v>
+        <v>6</v>
       </c>
       <c r="Y21">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="Z21">
-        <v>4.5</v>
+        <v>6.6</v>
       </c>
       <c r="AA21">
-        <v>130</v>
+        <v>980</v>
       </c>
       <c r="AB21">
-        <v>7.2</v>
+        <v>6</v>
       </c>
       <c r="AC21">
-        <v>9.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="AD21">
         <v>7.4</v>
@@ -5273,1288 +5390,1288 @@
         <v>9</v>
       </c>
       <c r="AF21">
-        <v>13.5</v>
+        <v>19</v>
       </c>
       <c r="AG21">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AH21">
-        <v>50</v>
+        <v>6.6</v>
       </c>
       <c r="AI21">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AJ21">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AK21">
+        <v>10.5</v>
+      </c>
+      <c r="AL21">
         <v>9.199999999999999</v>
       </c>
-      <c r="AK21">
-        <v>14</v>
-      </c>
-      <c r="AL21">
-        <v>8.800000000000001</v>
-      </c>
       <c r="AM21">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN21">
-        <v>17</v>
+        <v>5.9</v>
       </c>
       <c r="AO21">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AP21">
-        <v>50</v>
+        <v>6.6</v>
       </c>
       <c r="AQ21">
-        <v>90</v>
+        <v>980</v>
       </c>
       <c r="AR21">
         <v>16.5</v>
       </c>
       <c r="AS21">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AT21">
+        <v>5.9</v>
+      </c>
+      <c r="AU21">
+        <v>980</v>
+      </c>
+      <c r="AV21">
+        <v>6.2</v>
+      </c>
+      <c r="AW21">
+        <v>980</v>
+      </c>
+      <c r="AX21">
+        <v>6.8</v>
+      </c>
+      <c r="AY21">
+        <v>980</v>
+      </c>
+      <c r="AZ21">
+        <v>5</v>
+      </c>
+      <c r="BA21">
         <v>18</v>
       </c>
-      <c r="AU21">
-        <v>28</v>
-      </c>
-      <c r="AV21">
-        <v>34</v>
-      </c>
-      <c r="AW21">
-        <v>55</v>
-      </c>
-      <c r="AX21">
-        <v>4.8</v>
-      </c>
-      <c r="AY21">
-        <v>160</v>
-      </c>
-      <c r="AZ21">
-        <v>3.8</v>
-      </c>
-      <c r="BA21">
-        <v>19.5</v>
-      </c>
       <c r="BB21">
-        <v>4.5</v>
+        <v>6.6</v>
       </c>
       <c r="BC21">
-        <v>90</v>
+        <v>980</v>
       </c>
       <c r="BD21">
-        <v>4.7</v>
+        <v>7</v>
       </c>
       <c r="BE21">
         <v>1000</v>
       </c>
       <c r="BF21" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="BG21">
-        <v>4701919</v>
+        <v>8717595</v>
       </c>
       <c r="BH21">
-        <v>198124</v>
+        <v>5615116</v>
       </c>
       <c r="BI21">
         <v>58805</v>
       </c>
       <c r="BJ21" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="BK21" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="BL21" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="BM21" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:65">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D22" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E22" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="F22">
-        <v>1.8</v>
+        <v>2.36</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>980</v>
       </c>
       <c r="H22">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="I22">
-        <v>6.4</v>
+        <v>4.3</v>
       </c>
       <c r="J22">
-        <v>2.88</v>
+        <v>2.66</v>
       </c>
       <c r="K22">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L22">
-        <v>1.56</v>
+        <v>1.38</v>
       </c>
       <c r="M22">
-        <v>1.77</v>
+        <v>2.1</v>
       </c>
       <c r="N22">
-        <v>2.3</v>
+        <v>1.92</v>
       </c>
       <c r="O22">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="P22">
-        <v>2.08</v>
+        <v>1.12</v>
       </c>
       <c r="Q22">
-        <v>2.5</v>
+        <v>1000</v>
       </c>
       <c r="R22">
-        <v>1.67</v>
+        <v>1.12</v>
       </c>
       <c r="S22">
-        <v>1.92</v>
+        <v>1000</v>
       </c>
       <c r="T22">
-        <v>1.7</v>
+        <v>1.49</v>
       </c>
       <c r="U22">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="V22">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="W22">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="X22">
-        <v>2.4</v>
+        <v>1.01</v>
       </c>
       <c r="Y22">
         <v>1000</v>
       </c>
       <c r="Z22">
-        <v>3.1</v>
+        <v>1.01</v>
       </c>
       <c r="AA22">
         <v>1000</v>
       </c>
       <c r="AB22">
-        <v>2.7</v>
+        <v>1.01</v>
       </c>
       <c r="AC22">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD22">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="AE22">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF22">
-        <v>1.79</v>
+        <v>1.01</v>
       </c>
       <c r="AG22">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH22">
-        <v>6.4</v>
+        <v>1.01</v>
       </c>
       <c r="AI22">
         <v>1000</v>
       </c>
       <c r="AJ22">
-        <v>1.88</v>
+        <v>1.01</v>
       </c>
       <c r="AK22">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL22">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="AM22">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AN22">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="AO22">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AP22">
-        <v>6.6</v>
+        <v>1.01</v>
       </c>
       <c r="AQ22">
         <v>1000</v>
       </c>
       <c r="AR22">
-        <v>1.79</v>
+        <v>1.01</v>
       </c>
       <c r="AS22">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AT22">
-        <v>5.6</v>
+        <v>1.01</v>
       </c>
       <c r="AU22">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AV22">
-        <v>6.2</v>
+        <v>1.01</v>
       </c>
       <c r="AW22">
         <v>1000</v>
       </c>
       <c r="AX22">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="AY22">
         <v>1000</v>
       </c>
       <c r="AZ22">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="BA22">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="BB22">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="BC22">
         <v>1000</v>
       </c>
       <c r="BD22">
-        <v>7</v>
+        <v>1.01</v>
       </c>
       <c r="BE22">
         <v>1000</v>
       </c>
       <c r="BF22" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="BG22">
-        <v>220949</v>
+        <v>25894882</v>
       </c>
       <c r="BH22">
-        <v>5994579</v>
+        <v>44232344</v>
       </c>
       <c r="BI22">
         <v>58805</v>
       </c>
       <c r="BJ22" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="BK22" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="BL22" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="BM22" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:65">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E23" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="F23">
-        <v>1.4</v>
+        <v>2.46</v>
       </c>
       <c r="G23">
-        <v>1.45</v>
+        <v>2.54</v>
       </c>
       <c r="H23">
-        <v>7.4</v>
+        <v>3.05</v>
       </c>
       <c r="I23">
+        <v>3.3</v>
+      </c>
+      <c r="J23">
+        <v>3.45</v>
+      </c>
+      <c r="K23">
+        <v>3.55</v>
+      </c>
+      <c r="L23">
+        <v>1.87</v>
+      </c>
+      <c r="M23">
+        <v>2.02</v>
+      </c>
+      <c r="N23">
+        <v>1.98</v>
+      </c>
+      <c r="O23">
+        <v>2.16</v>
+      </c>
+      <c r="P23">
+        <v>1.81</v>
+      </c>
+      <c r="Q23">
+        <v>1.9</v>
+      </c>
+      <c r="R23">
+        <v>2.1</v>
+      </c>
+      <c r="S23">
+        <v>2.22</v>
+      </c>
+      <c r="T23">
+        <v>11</v>
+      </c>
+      <c r="U23">
+        <v>13</v>
+      </c>
+      <c r="V23">
+        <v>11</v>
+      </c>
+      <c r="W23">
+        <v>12.5</v>
+      </c>
+      <c r="X23">
+        <v>18</v>
+      </c>
+      <c r="Y23">
+        <v>24</v>
+      </c>
+      <c r="Z23">
+        <v>48</v>
+      </c>
+      <c r="AA23">
+        <v>980</v>
+      </c>
+      <c r="AB23">
+        <v>8.4</v>
+      </c>
+      <c r="AC23">
+        <v>10.5</v>
+      </c>
+      <c r="AD23">
+        <v>7</v>
+      </c>
+      <c r="AE23">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AF23">
+        <v>12.5</v>
+      </c>
+      <c r="AG23">
+        <v>15</v>
+      </c>
+      <c r="AH23">
+        <v>6.8</v>
+      </c>
+      <c r="AI23">
+        <v>40</v>
+      </c>
+      <c r="AJ23">
+        <v>13</v>
+      </c>
+      <c r="AK23">
+        <v>17</v>
+      </c>
+      <c r="AL23">
+        <v>10</v>
+      </c>
+      <c r="AM23">
+        <v>13</v>
+      </c>
+      <c r="AN23">
         <v>16</v>
       </c>
-      <c r="J23">
-        <v>4.5</v>
-      </c>
-      <c r="K23">
-        <v>6</v>
-      </c>
-      <c r="L23">
-        <v>1.98</v>
-      </c>
-      <c r="M23">
-        <v>2.22</v>
-      </c>
-      <c r="N23">
-        <v>1.81</v>
-      </c>
-      <c r="O23">
-        <v>2.04</v>
-      </c>
-      <c r="P23">
-        <v>1.12</v>
-      </c>
-      <c r="Q23">
-        <v>20</v>
-      </c>
-      <c r="R23">
-        <v>1.12</v>
-      </c>
-      <c r="S23">
-        <v>20</v>
-      </c>
-      <c r="T23">
-        <v>1.01</v>
-      </c>
-      <c r="U23">
-        <v>17.5</v>
-      </c>
-      <c r="V23">
-        <v>1.01</v>
-      </c>
-      <c r="W23">
-        <v>1000</v>
-      </c>
-      <c r="X23">
-        <v>2.94</v>
-      </c>
-      <c r="Y23">
-        <v>1000</v>
-      </c>
-      <c r="Z23">
-        <v>1.01</v>
-      </c>
-      <c r="AA23">
-        <v>1000</v>
-      </c>
-      <c r="AB23">
+      <c r="AO23">
+        <v>21</v>
+      </c>
+      <c r="AP23">
+        <v>7.2</v>
+      </c>
+      <c r="AQ23">
+        <v>980</v>
+      </c>
+      <c r="AR23">
+        <v>6.8</v>
+      </c>
+      <c r="AS23">
+        <v>38</v>
+      </c>
+      <c r="AT23">
+        <v>22</v>
+      </c>
+      <c r="AU23">
+        <v>30</v>
+      </c>
+      <c r="AV23">
+        <v>34</v>
+      </c>
+      <c r="AW23">
+        <v>48</v>
+      </c>
+      <c r="AX23">
+        <v>7.8</v>
+      </c>
+      <c r="AY23">
+        <v>980</v>
+      </c>
+      <c r="AZ23">
         <v>6.2</v>
       </c>
-      <c r="AC23">
+      <c r="BA23">
+        <v>25</v>
+      </c>
+      <c r="BB23">
+        <v>6.8</v>
+      </c>
+      <c r="BC23">
+        <v>40</v>
+      </c>
+      <c r="BD23">
         <v>8.199999999999999</v>
       </c>
-      <c r="AD23">
-        <v>1.01</v>
-      </c>
-      <c r="AE23">
-        <v>13</v>
-      </c>
-      <c r="AF23">
-        <v>30</v>
-      </c>
-      <c r="AG23">
-        <v>1000</v>
-      </c>
-      <c r="AH23">
-        <v>1.01</v>
-      </c>
-      <c r="AI23">
-        <v>1000</v>
-      </c>
-      <c r="AJ23">
-        <v>6.4</v>
-      </c>
-      <c r="AK23">
-        <v>8.4</v>
-      </c>
-      <c r="AL23">
-        <v>8.4</v>
-      </c>
-      <c r="AM23">
-        <v>11.5</v>
-      </c>
-      <c r="AN23">
-        <v>1.01</v>
-      </c>
-      <c r="AO23">
-        <v>1000</v>
-      </c>
-      <c r="AP23">
-        <v>1.01</v>
-      </c>
-      <c r="AQ23">
-        <v>1000</v>
-      </c>
-      <c r="AR23">
-        <v>1.01</v>
-      </c>
-      <c r="AS23">
-        <v>12.5</v>
-      </c>
-      <c r="AT23">
-        <v>12.5</v>
-      </c>
-      <c r="AU23">
-        <v>17.5</v>
-      </c>
-      <c r="AV23">
-        <v>30</v>
-      </c>
-      <c r="AW23">
-        <v>1000</v>
-      </c>
-      <c r="AX23">
-        <v>1.01</v>
-      </c>
-      <c r="AY23">
-        <v>1000</v>
-      </c>
-      <c r="AZ23">
-        <v>1.03</v>
-      </c>
-      <c r="BA23">
-        <v>7.4</v>
-      </c>
-      <c r="BB23">
-        <v>1.03</v>
-      </c>
-      <c r="BC23">
-        <v>1000</v>
-      </c>
-      <c r="BD23">
-        <v>1.18</v>
-      </c>
       <c r="BE23">
         <v>1000</v>
       </c>
       <c r="BF23" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="BG23">
-        <v>361329</v>
+        <v>198134</v>
       </c>
       <c r="BH23">
-        <v>356589</v>
+        <v>36860494</v>
       </c>
       <c r="BI23">
         <v>58805</v>
       </c>
       <c r="BJ23" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="BK23" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="BL23" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="BM23" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24" spans="1:65">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D24" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E24" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F24">
-        <v>1.71</v>
+        <v>1.91</v>
       </c>
       <c r="G24">
-        <v>1.77</v>
+        <v>2.02</v>
       </c>
       <c r="H24">
-        <v>5.8</v>
+        <v>4.4</v>
       </c>
       <c r="I24">
-        <v>6.4</v>
+        <v>4.8</v>
       </c>
       <c r="J24">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="K24">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="L24">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="M24">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="N24">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="O24">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="P24">
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
       <c r="Q24">
-        <v>2.26</v>
+        <v>2.08</v>
       </c>
       <c r="R24">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="S24">
-        <v>1.99</v>
+        <v>2.14</v>
       </c>
       <c r="T24">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="U24">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="V24">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="W24">
+        <v>16.5</v>
+      </c>
+      <c r="X24">
+        <v>7.2</v>
+      </c>
+      <c r="Y24">
+        <v>42</v>
+      </c>
+      <c r="Z24">
+        <v>7.4</v>
+      </c>
+      <c r="AA24">
+        <v>130</v>
+      </c>
+      <c r="AB24">
+        <v>6.8</v>
+      </c>
+      <c r="AC24">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD24">
+        <v>7.4</v>
+      </c>
+      <c r="AE24">
+        <v>8.6</v>
+      </c>
+      <c r="AF24">
+        <v>16</v>
+      </c>
+      <c r="AG24">
         <v>21</v>
       </c>
-      <c r="X24">
-        <v>4.1</v>
-      </c>
-      <c r="Y24">
-        <v>55</v>
-      </c>
-      <c r="Z24">
-        <v>4.4</v>
-      </c>
-      <c r="AA24">
-        <v>200</v>
-      </c>
-      <c r="AB24">
-        <v>6.2</v>
-      </c>
-      <c r="AC24">
-        <v>9</v>
-      </c>
-      <c r="AD24">
-        <v>7.2</v>
-      </c>
-      <c r="AE24">
-        <v>10.5</v>
-      </c>
-      <c r="AF24">
-        <v>17</v>
-      </c>
-      <c r="AG24">
-        <v>29</v>
-      </c>
       <c r="AH24">
-        <v>4.3</v>
+        <v>48</v>
       </c>
       <c r="AI24">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AJ24">
-        <v>7.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK24">
         <v>11.5</v>
       </c>
       <c r="AL24">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="AM24">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AN24">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AO24">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AP24">
-        <v>4.3</v>
+        <v>50</v>
       </c>
       <c r="AQ24">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="AR24">
-        <v>12.5</v>
+        <v>18.5</v>
       </c>
       <c r="AS24">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AT24">
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
       <c r="AU24">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV24">
-        <v>4.1</v>
+        <v>7</v>
       </c>
       <c r="AW24">
         <v>55</v>
       </c>
       <c r="AX24">
-        <v>4.4</v>
+        <v>8</v>
       </c>
       <c r="AY24">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="AZ24">
-        <v>3.45</v>
+        <v>5.3</v>
       </c>
       <c r="BA24">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="BB24">
-        <v>4.3</v>
+        <v>7.2</v>
       </c>
       <c r="BC24">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="BD24">
-        <v>4.5</v>
+        <v>7.8</v>
       </c>
       <c r="BE24">
         <v>1000</v>
       </c>
       <c r="BF24" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="BG24">
-        <v>22498185</v>
+        <v>4701919</v>
       </c>
       <c r="BH24">
-        <v>198137</v>
+        <v>198124</v>
       </c>
       <c r="BI24">
         <v>58805</v>
       </c>
       <c r="BJ24" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="BK24" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="BL24" t="s">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="BM24" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:65">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D25" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E25" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F25">
-        <v>1.94</v>
+        <v>1.78</v>
       </c>
       <c r="G25">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="H25">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="I25">
-        <v>5</v>
+        <v>6.6</v>
       </c>
       <c r="J25">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K25">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L25">
-        <v>1.64</v>
+        <v>1.51</v>
       </c>
       <c r="M25">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="N25">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="O25">
-        <v>2.58</v>
+        <v>2.96</v>
       </c>
       <c r="P25">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q25">
-        <v>2.38</v>
+        <v>2.54</v>
       </c>
       <c r="R25">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="S25">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="T25">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="U25">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="V25">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="W25">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="X25">
-        <v>25</v>
+        <v>6.2</v>
       </c>
       <c r="Y25">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="Z25">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="AA25">
-        <v>130</v>
+        <v>980</v>
       </c>
       <c r="AB25">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="AC25">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="AD25">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AE25">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AF25">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="AG25">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AH25">
-        <v>50</v>
+        <v>6.8</v>
       </c>
       <c r="AI25">
-        <v>85</v>
+        <v>980</v>
       </c>
       <c r="AJ25">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="AK25">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AL25">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AM25">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AN25">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AO25">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AP25">
-        <v>8.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="AQ25">
-        <v>100</v>
+        <v>980</v>
       </c>
       <c r="AR25">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AS25">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AT25">
         <v>20</v>
       </c>
       <c r="AU25">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AV25">
-        <v>44</v>
+        <v>6.6</v>
       </c>
       <c r="AW25">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AX25">
-        <v>8.6</v>
+        <v>7</v>
       </c>
       <c r="AY25">
-        <v>200</v>
+        <v>980</v>
       </c>
       <c r="AZ25">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
       <c r="BA25">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="BB25">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="BC25">
-        <v>120</v>
+        <v>980</v>
       </c>
       <c r="BD25">
-        <v>9</v>
+        <v>7.2</v>
       </c>
       <c r="BE25">
         <v>1000</v>
       </c>
       <c r="BF25" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="BG25">
-        <v>5287007</v>
+        <v>220949</v>
       </c>
       <c r="BH25">
-        <v>10901767</v>
+        <v>5994579</v>
       </c>
       <c r="BI25">
         <v>58805</v>
       </c>
       <c r="BJ25" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="BK25" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="BL25" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="BM25" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="1:65">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D26" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E26" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F26">
-        <v>3.05</v>
+        <v>1.37</v>
       </c>
       <c r="G26">
-        <v>3.3</v>
+        <v>1.42</v>
       </c>
       <c r="H26">
-        <v>2.68</v>
+        <v>9</v>
       </c>
       <c r="I26">
-        <v>2.9</v>
+        <v>12.5</v>
       </c>
       <c r="J26">
-        <v>3.05</v>
+        <v>4.9</v>
       </c>
       <c r="K26">
-        <v>3.35</v>
+        <v>5.6</v>
       </c>
       <c r="L26">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="M26">
-        <v>1.66</v>
+        <v>1.95</v>
       </c>
       <c r="N26">
-        <v>2.52</v>
+        <v>2.06</v>
       </c>
       <c r="O26">
-        <v>2.74</v>
+        <v>2.86</v>
       </c>
       <c r="P26">
-        <v>2.02</v>
+        <v>2.3</v>
       </c>
       <c r="Q26">
-        <v>2.22</v>
+        <v>2.62</v>
       </c>
       <c r="R26">
-        <v>1.81</v>
+        <v>1.62</v>
       </c>
       <c r="S26">
-        <v>1.97</v>
+        <v>1.77</v>
       </c>
       <c r="T26">
-        <v>7.2</v>
+        <v>11.5</v>
       </c>
       <c r="U26">
-        <v>9.6</v>
+        <v>14</v>
       </c>
       <c r="V26">
-        <v>7.2</v>
+        <v>24</v>
       </c>
       <c r="W26">
-        <v>9.6</v>
+        <v>30</v>
       </c>
       <c r="X26">
-        <v>13</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y26">
+        <v>980</v>
+      </c>
+      <c r="Z26">
+        <v>10</v>
+      </c>
+      <c r="AA26">
+        <v>980</v>
+      </c>
+      <c r="AB26">
+        <v>5.9</v>
+      </c>
+      <c r="AC26">
+        <v>7</v>
+      </c>
+      <c r="AD26">
+        <v>10</v>
+      </c>
+      <c r="AE26">
+        <v>11.5</v>
+      </c>
+      <c r="AF26">
+        <v>30</v>
+      </c>
+      <c r="AG26">
+        <v>44</v>
+      </c>
+      <c r="AH26">
+        <v>10</v>
+      </c>
+      <c r="AI26">
+        <v>980</v>
+      </c>
+      <c r="AJ26">
+        <v>6.4</v>
+      </c>
+      <c r="AK26">
+        <v>7.6</v>
+      </c>
+      <c r="AL26">
+        <v>9</v>
+      </c>
+      <c r="AM26">
+        <v>11</v>
+      </c>
+      <c r="AN26">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AO26">
+        <v>38</v>
+      </c>
+      <c r="AP26">
+        <v>10</v>
+      </c>
+      <c r="AQ26">
+        <v>980</v>
+      </c>
+      <c r="AR26">
+        <v>10</v>
+      </c>
+      <c r="AS26">
+        <v>12.5</v>
+      </c>
+      <c r="AT26">
+        <v>14</v>
+      </c>
+      <c r="AU26">
         <v>18</v>
       </c>
-      <c r="Z26">
-        <v>6.4</v>
-      </c>
-      <c r="AA26">
-        <v>48</v>
-      </c>
-      <c r="AB26">
-        <v>7.8</v>
-      </c>
-      <c r="AC26">
-        <v>10.5</v>
-      </c>
-      <c r="AD26">
-        <v>6</v>
-      </c>
-      <c r="AE26">
-        <v>7.8</v>
-      </c>
-      <c r="AF26">
-        <v>10.5</v>
-      </c>
-      <c r="AG26">
-        <v>14.5</v>
-      </c>
-      <c r="AH26">
-        <v>29</v>
-      </c>
-      <c r="AI26">
-        <v>40</v>
-      </c>
-      <c r="AJ26">
-        <v>15.5</v>
-      </c>
-      <c r="AK26">
-        <v>21</v>
-      </c>
-      <c r="AL26">
-        <v>11.5</v>
-      </c>
-      <c r="AM26">
-        <v>15.5</v>
-      </c>
-      <c r="AN26">
-        <v>18</v>
-      </c>
-      <c r="AO26">
-        <v>24</v>
-      </c>
-      <c r="AP26">
-        <v>46</v>
-      </c>
-      <c r="AQ26">
-        <v>70</v>
-      </c>
-      <c r="AR26">
-        <v>44</v>
-      </c>
-      <c r="AS26">
-        <v>60</v>
-      </c>
-      <c r="AT26">
-        <v>32</v>
-      </c>
-      <c r="AU26">
-        <v>48</v>
-      </c>
       <c r="AV26">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AW26">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AX26">
-        <v>7.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AY26">
-        <v>180</v>
+        <v>980</v>
       </c>
       <c r="AZ26">
-        <v>6.6</v>
+        <v>4.7</v>
       </c>
       <c r="BA26">
-        <v>55</v>
+        <v>8.6</v>
       </c>
       <c r="BB26">
-        <v>6.4</v>
+        <v>10</v>
       </c>
       <c r="BC26">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="BD26">
-        <v>7.6</v>
+        <v>10</v>
       </c>
       <c r="BE26">
         <v>1000</v>
       </c>
       <c r="BF26" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="BG26">
-        <v>198144</v>
+        <v>361329</v>
       </c>
       <c r="BH26">
-        <v>198136</v>
+        <v>356589</v>
       </c>
       <c r="BI26">
         <v>58805</v>
       </c>
       <c r="BJ26" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="BK26" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="BL26" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="BM26" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
     </row>
     <row r="27" spans="1:65">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E27" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F27">
-        <v>2.02</v>
+        <v>1.72</v>
       </c>
       <c r="G27">
-        <v>2.32</v>
+        <v>1.76</v>
       </c>
       <c r="H27">
-        <v>3.2</v>
+        <v>5.8</v>
       </c>
       <c r="I27">
-        <v>870</v>
+        <v>6.6</v>
       </c>
       <c r="J27">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="K27">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="L27">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="M27">
         <v>1.84</v>
       </c>
       <c r="N27">
+        <v>2.18</v>
+      </c>
+      <c r="O27">
+        <v>2.88</v>
+      </c>
+      <c r="P27">
+        <v>1.99</v>
+      </c>
+      <c r="Q27">
         <v>2.2</v>
       </c>
-      <c r="O27">
-        <v>2.58</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
       <c r="R27">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AJ27">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AK27">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AL27">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AM27">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AN27">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AO27">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AP27">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AQ27">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AR27">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AS27">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AT27">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AU27">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AV27">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AW27">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AX27">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AY27">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AZ27">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="BA27">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BB27">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="BC27">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="BD27">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BE27">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF27" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="BG27">
-        <v>900849</v>
+        <v>22498185</v>
       </c>
       <c r="BH27">
-        <v>22018255</v>
+        <v>198137</v>
       </c>
       <c r="BI27">
         <v>58805</v>
       </c>
       <c r="BJ27" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="BK27" t="s">
-        <v>239</v>
-      </c>
-      <c r="BL27">
-        <v>0</v>
-      </c>
-      <c r="BM27">
-        <v>0</v>
+        <v>255</v>
+      </c>
+      <c r="BL27" t="s">
+        <v>287</v>
+      </c>
+      <c r="BM27" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="28" spans="1:65">
@@ -6562,590 +6679,1181 @@
         <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E28" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="F28">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="G28">
-        <v>480</v>
+        <v>2.04</v>
       </c>
       <c r="H28">
-        <v>1.05</v>
+        <v>4.5</v>
       </c>
       <c r="I28">
-        <v>870</v>
+        <v>5</v>
       </c>
       <c r="J28">
-        <v>1.2</v>
+        <v>3.45</v>
       </c>
       <c r="K28">
-        <v>330</v>
+        <v>3.55</v>
       </c>
       <c r="L28">
-        <v>1.2</v>
+        <v>1.65</v>
       </c>
       <c r="M28">
-        <v>36</v>
+        <v>1.69</v>
       </c>
       <c r="N28">
-        <v>1.03</v>
+        <v>2.44</v>
       </c>
       <c r="O28">
-        <v>6</v>
+        <v>2.54</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AI28">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AJ28">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AK28">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AL28">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AM28">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AN28">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AO28">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AP28">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AQ28">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AR28">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AS28">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AT28">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AU28">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AV28">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AW28">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AX28">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AY28">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AZ28">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="BA28">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="BB28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BC28">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="BD28">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BE28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF28" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="BG28">
-        <v>6290900</v>
+        <v>5287007</v>
       </c>
       <c r="BH28">
-        <v>1067928</v>
+        <v>10901767</v>
       </c>
       <c r="BI28">
         <v>58805</v>
       </c>
       <c r="BJ28" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="BK28" t="s">
-        <v>240</v>
-      </c>
-      <c r="BL28">
-        <v>0</v>
-      </c>
-      <c r="BM28">
-        <v>0</v>
+        <v>256</v>
+      </c>
+      <c r="BL28" t="s">
+        <v>288</v>
+      </c>
+      <c r="BM28" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="29" spans="1:65">
       <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" t="s">
+        <v>161</v>
+      </c>
+      <c r="F29">
+        <v>3.05</v>
+      </c>
+      <c r="G29">
+        <v>3.2</v>
+      </c>
+      <c r="H29">
+        <v>2.64</v>
+      </c>
+      <c r="I29">
+        <v>2.72</v>
+      </c>
+      <c r="J29">
+        <v>3.25</v>
+      </c>
+      <c r="K29">
+        <v>3.35</v>
+      </c>
+      <c r="L29">
+        <v>1.54</v>
+      </c>
+      <c r="M29">
+        <v>1.59</v>
+      </c>
+      <c r="N29">
+        <v>2.66</v>
+      </c>
+      <c r="O29">
+        <v>2.86</v>
+      </c>
+      <c r="P29">
+        <v>2.12</v>
+      </c>
+      <c r="Q29">
+        <v>2.24</v>
+      </c>
+      <c r="R29">
+        <v>1.8</v>
+      </c>
+      <c r="S29">
+        <v>1.89</v>
+      </c>
+      <c r="T29">
+        <v>7.4</v>
+      </c>
+      <c r="U29">
+        <v>9</v>
+      </c>
+      <c r="V29">
+        <v>7.4</v>
+      </c>
+      <c r="W29">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="X29">
+        <v>14.5</v>
+      </c>
+      <c r="Y29">
+        <v>16</v>
+      </c>
+      <c r="Z29">
+        <v>7.8</v>
+      </c>
+      <c r="AA29">
+        <v>48</v>
+      </c>
+      <c r="AB29">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC29">
+        <v>10</v>
+      </c>
+      <c r="AD29">
+        <v>6.4</v>
+      </c>
+      <c r="AE29">
+        <v>7.2</v>
+      </c>
+      <c r="AF29">
+        <v>12</v>
+      </c>
+      <c r="AG29">
+        <v>14.5</v>
+      </c>
+      <c r="AH29">
+        <v>30</v>
+      </c>
+      <c r="AI29">
+        <v>42</v>
+      </c>
+      <c r="AJ29">
+        <v>16.5</v>
+      </c>
+      <c r="AK29">
+        <v>20</v>
+      </c>
+      <c r="AL29">
+        <v>12.5</v>
+      </c>
+      <c r="AM29">
+        <v>15.5</v>
+      </c>
+      <c r="AN29">
+        <v>19</v>
+      </c>
+      <c r="AO29">
+        <v>26</v>
+      </c>
+      <c r="AP29">
+        <v>48</v>
+      </c>
+      <c r="AQ29">
         <v>75</v>
       </c>
-      <c r="B29" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29" t="s">
-        <v>125</v>
-      </c>
-      <c r="E29" t="s">
-        <v>154</v>
-      </c>
-      <c r="F29">
-        <v>1.6</v>
-      </c>
-      <c r="G29">
-        <v>1.65</v>
-      </c>
-      <c r="H29">
-        <v>6.4</v>
-      </c>
-      <c r="I29">
+      <c r="AR29">
+        <v>46</v>
+      </c>
+      <c r="AS29">
+        <v>65</v>
+      </c>
+      <c r="AT29">
+        <v>36</v>
+      </c>
+      <c r="AU29">
+        <v>55</v>
+      </c>
+      <c r="AV29">
+        <v>55</v>
+      </c>
+      <c r="AW29">
+        <v>80</v>
+      </c>
+      <c r="AX29">
+        <v>9</v>
+      </c>
+      <c r="AY29">
+        <v>980</v>
+      </c>
+      <c r="AZ29">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BA29">
+        <v>60</v>
+      </c>
+      <c r="BB29">
         <v>7.8</v>
       </c>
-      <c r="J29">
-        <v>4</v>
-      </c>
-      <c r="K29">
-        <v>4.7</v>
-      </c>
-      <c r="L29">
-        <v>1.87</v>
-      </c>
-      <c r="M29">
-        <v>2</v>
-      </c>
-      <c r="N29">
-        <v>2</v>
-      </c>
-      <c r="O29">
-        <v>2.16</v>
-      </c>
-      <c r="P29">
-        <v>2.02</v>
-      </c>
-      <c r="Q29">
-        <v>2.22</v>
-      </c>
-      <c r="R29">
-        <v>1.81</v>
-      </c>
-      <c r="S29">
-        <v>1.98</v>
-      </c>
-      <c r="T29">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="U29">
-        <v>16</v>
-      </c>
-      <c r="V29">
-        <v>15</v>
-      </c>
-      <c r="W29">
-        <v>25</v>
-      </c>
-      <c r="X29">
-        <v>42</v>
-      </c>
-      <c r="Y29">
-        <v>70</v>
-      </c>
-      <c r="Z29">
-        <v>4.4</v>
-      </c>
-      <c r="AA29">
-        <v>250</v>
-      </c>
-      <c r="AB29">
-        <v>5.8</v>
-      </c>
-      <c r="AC29">
-        <v>9</v>
-      </c>
-      <c r="AD29">
-        <v>7.8</v>
-      </c>
-      <c r="AE29">
-        <v>11.5</v>
-      </c>
-      <c r="AF29">
-        <v>21</v>
-      </c>
-      <c r="AG29">
-        <v>34</v>
-      </c>
-      <c r="AH29">
-        <v>4.3</v>
-      </c>
-      <c r="AI29">
-        <v>140</v>
-      </c>
-      <c r="AJ29">
-        <v>6.6</v>
-      </c>
-      <c r="AK29">
-        <v>10.5</v>
-      </c>
-      <c r="AL29">
-        <v>8.4</v>
-      </c>
-      <c r="AM29">
-        <v>12.5</v>
-      </c>
-      <c r="AN29">
-        <v>20</v>
-      </c>
-      <c r="AO29">
-        <v>32</v>
-      </c>
-      <c r="AP29">
-        <v>4.3</v>
-      </c>
-      <c r="AQ29">
-        <v>140</v>
-      </c>
-      <c r="AR29">
-        <v>11</v>
-      </c>
-      <c r="AS29">
-        <v>18.5</v>
-      </c>
-      <c r="AT29">
-        <v>13</v>
-      </c>
-      <c r="AU29">
-        <v>22</v>
-      </c>
-      <c r="AV29">
-        <v>29</v>
-      </c>
-      <c r="AW29">
-        <v>55</v>
-      </c>
-      <c r="AX29">
-        <v>4.3</v>
-      </c>
-      <c r="AY29">
-        <v>200</v>
-      </c>
-      <c r="AZ29">
-        <v>3.3</v>
-      </c>
-      <c r="BA29">
-        <v>12.5</v>
-      </c>
-      <c r="BB29">
-        <v>4.3</v>
-      </c>
       <c r="BC29">
-        <v>190</v>
+        <v>46</v>
       </c>
       <c r="BD29">
-        <v>4.4</v>
+        <v>9.4</v>
       </c>
       <c r="BE29">
         <v>1000</v>
       </c>
       <c r="BF29" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="BG29">
-        <v>198138</v>
+        <v>198144</v>
       </c>
       <c r="BH29">
-        <v>198126</v>
+        <v>198136</v>
       </c>
       <c r="BI29">
         <v>58805</v>
       </c>
       <c r="BJ29" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="BK29" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="BL29" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="BM29" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="1:65">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D30" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E30" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="F30">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="G30">
-        <v>1.97</v>
+        <v>1.76</v>
       </c>
       <c r="H30">
+        <v>5.4</v>
+      </c>
+      <c r="I30">
+        <v>6.6</v>
+      </c>
+      <c r="J30">
+        <v>3.6</v>
+      </c>
+      <c r="K30">
+        <v>4.1</v>
+      </c>
+      <c r="L30">
+        <v>1.7</v>
+      </c>
+      <c r="M30">
+        <v>1.88</v>
+      </c>
+      <c r="N30">
+        <v>2.14</v>
+      </c>
+      <c r="O30">
+        <v>2.42</v>
+      </c>
+      <c r="P30">
+        <v>2.02</v>
+      </c>
+      <c r="Q30">
+        <v>2.38</v>
+      </c>
+      <c r="R30">
+        <v>1.72</v>
+      </c>
+      <c r="S30">
+        <v>1.98</v>
+      </c>
+      <c r="T30">
+        <v>8.4</v>
+      </c>
+      <c r="U30">
+        <v>14</v>
+      </c>
+      <c r="V30">
+        <v>12.5</v>
+      </c>
+      <c r="W30">
+        <v>21</v>
+      </c>
+      <c r="X30">
+        <v>4.6</v>
+      </c>
+      <c r="Y30">
+        <v>980</v>
+      </c>
+      <c r="Z30">
+        <v>4.4</v>
+      </c>
+      <c r="AA30">
+        <v>980</v>
+      </c>
+      <c r="AB30">
+        <v>6.4</v>
+      </c>
+      <c r="AC30">
+        <v>8.6</v>
+      </c>
+      <c r="AD30">
+        <v>7.2</v>
+      </c>
+      <c r="AE30">
+        <v>10.5</v>
+      </c>
+      <c r="AF30">
+        <v>18</v>
+      </c>
+      <c r="AG30">
+        <v>30</v>
+      </c>
+      <c r="AH30">
         <v>4.3</v>
       </c>
-      <c r="I30">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="J30">
-        <v>3.2</v>
-      </c>
-      <c r="K30">
-        <v>4.9</v>
-      </c>
-      <c r="L30">
-        <v>1.62</v>
-      </c>
-      <c r="M30">
-        <v>1.84</v>
-      </c>
-      <c r="N30">
-        <v>2.2</v>
-      </c>
-      <c r="O30">
-        <v>2.6</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="X30">
-        <v>0</v>
-      </c>
-      <c r="Y30">
-        <v>0</v>
-      </c>
-      <c r="Z30">
-        <v>0</v>
-      </c>
-      <c r="AA30">
-        <v>0</v>
-      </c>
-      <c r="AB30">
-        <v>0</v>
-      </c>
-      <c r="AC30">
-        <v>0</v>
-      </c>
-      <c r="AD30">
-        <v>0</v>
-      </c>
-      <c r="AE30">
-        <v>0</v>
-      </c>
-      <c r="AF30">
-        <v>0</v>
-      </c>
-      <c r="AG30">
-        <v>0</v>
-      </c>
-      <c r="AH30">
-        <v>0</v>
-      </c>
       <c r="AI30">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ30">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AK30">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AL30">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AM30">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AN30">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AO30">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AP30">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AQ30">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AR30">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AS30">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AT30">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AU30">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AV30">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AW30">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AX30">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AY30">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AZ30">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="BA30">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="BB30">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="BC30">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="BD30">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="BE30">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF30" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="BG30">
-        <v>10632891</v>
+        <v>900849</v>
       </c>
       <c r="BH30">
-        <v>5284708</v>
+        <v>22018255</v>
       </c>
       <c r="BI30">
         <v>58805</v>
       </c>
       <c r="BJ30" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="BK30" t="s">
-        <v>242</v>
-      </c>
-      <c r="BL30">
-        <v>0</v>
-      </c>
-      <c r="BM30">
-        <v>0</v>
+        <v>258</v>
+      </c>
+      <c r="BL30" t="s">
+        <v>290</v>
+      </c>
+      <c r="BM30" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="31" spans="1:65">
+      <c r="A31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E31" t="s">
+        <v>163</v>
+      </c>
+      <c r="F31">
+        <v>2.02</v>
+      </c>
+      <c r="G31">
+        <v>2.16</v>
+      </c>
+      <c r="H31">
+        <v>4.1</v>
+      </c>
+      <c r="I31">
+        <v>4.7</v>
+      </c>
+      <c r="J31">
+        <v>3.25</v>
+      </c>
+      <c r="K31">
+        <v>3.65</v>
+      </c>
+      <c r="L31">
+        <v>1.68</v>
+      </c>
+      <c r="M31">
+        <v>1.81</v>
+      </c>
+      <c r="N31">
+        <v>2.24</v>
+      </c>
+      <c r="O31">
+        <v>2.48</v>
+      </c>
+      <c r="P31">
+        <v>1.99</v>
+      </c>
+      <c r="Q31">
+        <v>2.16</v>
+      </c>
+      <c r="R31">
+        <v>1.86</v>
+      </c>
+      <c r="S31">
+        <v>2.02</v>
+      </c>
+      <c r="T31">
+        <v>4.5</v>
+      </c>
+      <c r="U31">
+        <v>980</v>
+      </c>
+      <c r="V31">
+        <v>5.3</v>
+      </c>
+      <c r="W31">
+        <v>980</v>
+      </c>
+      <c r="X31">
+        <v>6</v>
+      </c>
+      <c r="Y31">
+        <v>980</v>
+      </c>
+      <c r="Z31">
+        <v>6.8</v>
+      </c>
+      <c r="AA31">
+        <v>980</v>
+      </c>
+      <c r="AB31">
+        <v>7</v>
+      </c>
+      <c r="AC31">
+        <v>8.6</v>
+      </c>
+      <c r="AD31">
+        <v>6.6</v>
+      </c>
+      <c r="AE31">
+        <v>8.6</v>
+      </c>
+      <c r="AF31">
+        <v>5.4</v>
+      </c>
+      <c r="AG31">
+        <v>980</v>
+      </c>
+      <c r="AH31">
+        <v>6.6</v>
+      </c>
+      <c r="AI31">
+        <v>980</v>
+      </c>
+      <c r="AJ31">
+        <v>9.6</v>
+      </c>
+      <c r="AK31">
+        <v>980</v>
+      </c>
+      <c r="AL31">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AM31">
+        <v>980</v>
+      </c>
+      <c r="AN31">
+        <v>5.6</v>
+      </c>
+      <c r="AO31">
+        <v>980</v>
+      </c>
+      <c r="AP31">
+        <v>6.8</v>
+      </c>
+      <c r="AQ31">
+        <v>980</v>
+      </c>
+      <c r="AR31">
+        <v>5.8</v>
+      </c>
+      <c r="AS31">
+        <v>980</v>
+      </c>
+      <c r="AT31">
+        <v>5.8</v>
+      </c>
+      <c r="AU31">
+        <v>980</v>
+      </c>
+      <c r="AV31">
+        <v>6.4</v>
+      </c>
+      <c r="AW31">
+        <v>980</v>
+      </c>
+      <c r="AX31">
+        <v>7</v>
+      </c>
+      <c r="AY31">
+        <v>980</v>
+      </c>
+      <c r="AZ31">
+        <v>5.4</v>
+      </c>
+      <c r="BA31">
+        <v>980</v>
+      </c>
+      <c r="BB31">
+        <v>6.8</v>
+      </c>
+      <c r="BC31">
+        <v>980</v>
+      </c>
+      <c r="BD31">
+        <v>7.2</v>
+      </c>
+      <c r="BE31">
+        <v>1000</v>
+      </c>
+      <c r="BF31" t="s">
+        <v>195</v>
+      </c>
+      <c r="BG31">
+        <v>6290900</v>
+      </c>
+      <c r="BH31">
+        <v>1067928</v>
+      </c>
+      <c r="BI31">
+        <v>58805</v>
+      </c>
+      <c r="BJ31" t="s">
+        <v>227</v>
+      </c>
+      <c r="BK31" t="s">
+        <v>259</v>
+      </c>
+      <c r="BL31" t="s">
+        <v>291</v>
+      </c>
+      <c r="BM31" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="32" spans="1:65">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" t="s">
+        <v>132</v>
+      </c>
+      <c r="E32" t="s">
+        <v>164</v>
+      </c>
+      <c r="F32">
+        <v>1.58</v>
+      </c>
+      <c r="G32">
+        <v>1.64</v>
+      </c>
+      <c r="H32">
+        <v>6.2</v>
+      </c>
+      <c r="I32">
+        <v>7.4</v>
+      </c>
+      <c r="J32">
+        <v>4</v>
+      </c>
+      <c r="K32">
+        <v>4.4</v>
+      </c>
+      <c r="L32">
+        <v>1.92</v>
+      </c>
+      <c r="M32">
+        <v>2.08</v>
+      </c>
+      <c r="N32">
+        <v>1.92</v>
+      </c>
+      <c r="O32">
+        <v>2.1</v>
+      </c>
+      <c r="P32">
+        <v>2.04</v>
+      </c>
+      <c r="Q32">
+        <v>2.22</v>
+      </c>
+      <c r="R32">
+        <v>1.83</v>
+      </c>
+      <c r="S32">
+        <v>1.95</v>
+      </c>
+      <c r="T32">
+        <v>10</v>
+      </c>
+      <c r="U32">
+        <v>16.5</v>
+      </c>
+      <c r="V32">
+        <v>16.5</v>
+      </c>
+      <c r="W32">
+        <v>25</v>
+      </c>
+      <c r="X32">
+        <v>44</v>
+      </c>
+      <c r="Y32">
+        <v>70</v>
+      </c>
+      <c r="Z32">
+        <v>5.1</v>
+      </c>
+      <c r="AA32">
+        <v>980</v>
+      </c>
+      <c r="AB32">
+        <v>6.4</v>
+      </c>
+      <c r="AC32">
+        <v>8.4</v>
+      </c>
+      <c r="AD32">
+        <v>8.6</v>
+      </c>
+      <c r="AE32">
+        <v>11.5</v>
+      </c>
+      <c r="AF32">
+        <v>22</v>
+      </c>
+      <c r="AG32">
+        <v>34</v>
+      </c>
+      <c r="AH32">
+        <v>5.4</v>
+      </c>
+      <c r="AI32">
+        <v>980</v>
+      </c>
+      <c r="AJ32">
+        <v>8</v>
+      </c>
+      <c r="AK32">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AL32">
+        <v>8.4</v>
+      </c>
+      <c r="AM32">
+        <v>11.5</v>
+      </c>
+      <c r="AN32">
+        <v>21</v>
+      </c>
+      <c r="AO32">
+        <v>32</v>
+      </c>
+      <c r="AP32">
+        <v>5.4</v>
+      </c>
+      <c r="AQ32">
+        <v>980</v>
+      </c>
+      <c r="AR32">
+        <v>11</v>
+      </c>
+      <c r="AS32">
+        <v>18.5</v>
+      </c>
+      <c r="AT32">
+        <v>15</v>
+      </c>
+      <c r="AU32">
+        <v>22</v>
+      </c>
+      <c r="AV32">
+        <v>32</v>
+      </c>
+      <c r="AW32">
+        <v>55</v>
+      </c>
+      <c r="AX32">
+        <v>5.1</v>
+      </c>
+      <c r="AY32">
+        <v>980</v>
+      </c>
+      <c r="AZ32">
+        <v>3.55</v>
+      </c>
+      <c r="BA32">
+        <v>11</v>
+      </c>
+      <c r="BB32">
+        <v>5</v>
+      </c>
+      <c r="BC32">
+        <v>980</v>
+      </c>
+      <c r="BD32">
+        <v>5.2</v>
+      </c>
+      <c r="BE32">
+        <v>1000</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>196</v>
+      </c>
+      <c r="BG32">
+        <v>198138</v>
+      </c>
+      <c r="BH32">
+        <v>198126</v>
+      </c>
+      <c r="BI32">
+        <v>58805</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>228</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>260</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>292</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="33" spans="1:65">
+      <c r="A33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" t="s">
+        <v>133</v>
+      </c>
+      <c r="E33" t="s">
+        <v>165</v>
+      </c>
+      <c r="F33">
+        <v>2.14</v>
+      </c>
+      <c r="G33">
+        <v>2.38</v>
+      </c>
+      <c r="H33">
+        <v>3.7</v>
+      </c>
+      <c r="I33">
+        <v>4.4</v>
+      </c>
+      <c r="J33">
+        <v>3.2</v>
+      </c>
+      <c r="K33">
+        <v>3.55</v>
+      </c>
+      <c r="L33">
+        <v>1.35</v>
+      </c>
+      <c r="M33">
+        <v>2.22</v>
+      </c>
+      <c r="N33">
+        <v>1.82</v>
+      </c>
+      <c r="O33">
+        <v>3.9</v>
+      </c>
+      <c r="P33">
+        <v>1.91</v>
+      </c>
+      <c r="Q33">
+        <v>2.24</v>
+      </c>
+      <c r="R33">
+        <v>1.81</v>
+      </c>
+      <c r="S33">
+        <v>2.1</v>
+      </c>
+      <c r="T33">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="U33">
+        <v>11</v>
+      </c>
+      <c r="V33">
+        <v>9.6</v>
+      </c>
+      <c r="W33">
+        <v>13</v>
+      </c>
+      <c r="X33">
+        <v>19.5</v>
+      </c>
+      <c r="Y33">
+        <v>980</v>
+      </c>
+      <c r="Z33">
+        <v>7</v>
+      </c>
+      <c r="AA33">
+        <v>980</v>
+      </c>
+      <c r="AB33">
+        <v>6.8</v>
+      </c>
+      <c r="AC33">
+        <v>9</v>
+      </c>
+      <c r="AD33">
+        <v>6.6</v>
+      </c>
+      <c r="AE33">
+        <v>8.4</v>
+      </c>
+      <c r="AF33">
+        <v>5.4</v>
+      </c>
+      <c r="AG33">
+        <v>980</v>
+      </c>
+      <c r="AH33">
+        <v>6.8</v>
+      </c>
+      <c r="AI33">
+        <v>980</v>
+      </c>
+      <c r="AJ33">
+        <v>10.5</v>
+      </c>
+      <c r="AK33">
+        <v>980</v>
+      </c>
+      <c r="AL33">
+        <v>9.6</v>
+      </c>
+      <c r="AM33">
+        <v>12.5</v>
+      </c>
+      <c r="AN33">
+        <v>5.8</v>
+      </c>
+      <c r="AO33">
+        <v>980</v>
+      </c>
+      <c r="AP33">
+        <v>7</v>
+      </c>
+      <c r="AQ33">
+        <v>980</v>
+      </c>
+      <c r="AR33">
+        <v>6.2</v>
+      </c>
+      <c r="AS33">
+        <v>980</v>
+      </c>
+      <c r="AT33">
+        <v>6</v>
+      </c>
+      <c r="AU33">
+        <v>980</v>
+      </c>
+      <c r="AV33">
+        <v>6.8</v>
+      </c>
+      <c r="AW33">
+        <v>980</v>
+      </c>
+      <c r="AX33">
+        <v>7.4</v>
+      </c>
+      <c r="AY33">
+        <v>980</v>
+      </c>
+      <c r="AZ33">
+        <v>5.8</v>
+      </c>
+      <c r="BA33">
+        <v>980</v>
+      </c>
+      <c r="BB33">
+        <v>6.8</v>
+      </c>
+      <c r="BC33">
+        <v>980</v>
+      </c>
+      <c r="BD33">
+        <v>7.6</v>
+      </c>
+      <c r="BE33">
+        <v>1000</v>
+      </c>
+      <c r="BF33" t="s">
+        <v>197</v>
+      </c>
+      <c r="BG33">
+        <v>10632891</v>
+      </c>
+      <c r="BH33">
+        <v>5284708</v>
+      </c>
+      <c r="BI33">
+        <v>58805</v>
+      </c>
+      <c r="BJ33" t="s">
+        <v>229</v>
+      </c>
+      <c r="BK33" t="s">
+        <v>261</v>
+      </c>
+      <c r="BL33" t="s">
+        <v>293</v>
+      </c>
+      <c r="BM33" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-17.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="341">
   <si>
     <t>League</t>
   </si>
@@ -238,6 +238,9 @@
     <t>English National League</t>
   </si>
   <si>
+    <t>Bolivian Liga de Futbol Profesional</t>
+  </si>
+  <si>
     <t>UEFA Champions League</t>
   </si>
   <si>
@@ -364,15 +367,18 @@
     <t>Gateshead</t>
   </si>
   <si>
+    <t>Universitario de Vinto</t>
+  </si>
+  <si>
     <t>Man City</t>
   </si>
   <si>
+    <t>Dundee</t>
+  </si>
+  <si>
     <t>Bayern Munich</t>
   </si>
   <si>
-    <t>Dundee</t>
-  </si>
-  <si>
     <t>Palestino</t>
   </si>
   <si>
@@ -412,6 +418,9 @@
     <t>Tecnico Universitario</t>
   </si>
   <si>
+    <t>The Strongest</t>
+  </si>
+  <si>
     <t>Flamengo</t>
   </si>
   <si>
@@ -460,15 +469,18 @@
     <t>Aldershot</t>
   </si>
   <si>
+    <t>Nacional Potosi</t>
+  </si>
+  <si>
     <t>Real Madrid</t>
   </si>
   <si>
+    <t>Rangers</t>
+  </si>
+  <si>
     <t>Arsenal</t>
   </si>
   <si>
-    <t>Rangers</t>
-  </si>
-  <si>
     <t>Huachipato</t>
   </si>
   <si>
@@ -508,6 +520,9 @@
     <t>Deportivo Cuenca</t>
   </si>
   <si>
+    <t>CD Gualberto Villarroel</t>
+  </si>
+  <si>
     <t>Sao Paulo</t>
   </si>
   <si>
@@ -556,15 +571,18 @@
     <t>33196300</t>
   </si>
   <si>
+    <t>33198829</t>
+  </si>
+  <si>
     <t>33179885</t>
   </si>
   <si>
+    <t>33182501</t>
+  </si>
+  <si>
     <t>33179884</t>
   </si>
   <si>
-    <t>33182501</t>
-  </si>
-  <si>
     <t>33193722</t>
   </si>
   <si>
@@ -604,6 +622,9 @@
     <t>33190654</t>
   </si>
   <si>
+    <t>33198982</t>
+  </si>
+  <si>
     <t>33192506</t>
   </si>
   <si>
@@ -652,15 +673,18 @@
     <t>1.227681287</t>
   </si>
   <si>
+    <t>1.227718355</t>
+  </si>
+  <si>
     <t>1.227394361</t>
   </si>
   <si>
+    <t>1.227432865</t>
+  </si>
+  <si>
     <t>1.227394502</t>
   </si>
   <si>
-    <t>1.227432865</t>
-  </si>
-  <si>
     <t>1.227625160</t>
   </si>
   <si>
@@ -700,6 +724,9 @@
     <t>1.227569714</t>
   </si>
   <si>
+    <t>1.227718445</t>
+  </si>
+  <si>
     <t>1.227599855</t>
   </si>
   <si>
@@ -748,15 +775,18 @@
     <t>1.227681332</t>
   </si>
   <si>
+    <t>1.227718400</t>
+  </si>
+  <si>
     <t>1.227394300</t>
   </si>
   <si>
+    <t>1.227432875</t>
+  </si>
+  <si>
     <t>1.227394441</t>
   </si>
   <si>
-    <t>1.227432875</t>
-  </si>
-  <si>
     <t>1.227625205</t>
   </si>
   <si>
@@ -796,6 +826,9 @@
     <t>1.227569759</t>
   </si>
   <si>
+    <t>1.227718490</t>
+  </si>
+  <si>
     <t>1.227599865</t>
   </si>
   <si>
@@ -844,15 +877,18 @@
     <t>1.227681371</t>
   </si>
   <si>
+    <t>1.227718439</t>
+  </si>
+  <si>
     <t>1.227394360</t>
   </si>
   <si>
+    <t>1.227432864</t>
+  </si>
+  <si>
     <t>1.227394501</t>
   </si>
   <si>
-    <t>1.227432864</t>
-  </si>
-  <si>
     <t>1.227625244</t>
   </si>
   <si>
@@ -892,6 +928,9 @@
     <t>1.227569798</t>
   </si>
   <si>
+    <t>1.227718529</t>
+  </si>
+  <si>
     <t>1.227599854</t>
   </si>
   <si>
@@ -940,15 +979,18 @@
     <t>1.227681296</t>
   </si>
   <si>
+    <t>1.227718364</t>
+  </si>
+  <si>
     <t>1.227394371</t>
   </si>
   <si>
+    <t>1.227432874</t>
+  </si>
+  <si>
     <t>1.227394512</t>
   </si>
   <si>
-    <t>1.227432874</t>
-  </si>
-  <si>
     <t>1.227625169</t>
   </si>
   <si>
@@ -986,6 +1028,9 @@
   </si>
   <si>
     <t>1.227569723</t>
+  </si>
+  <si>
+    <t>1.227718454</t>
   </si>
   <si>
     <t>1.227599864</t>
@@ -1349,7 +1394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BM33"/>
+  <dimension ref="A1:BM35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1557,46 +1602,46 @@
         <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F2">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="G2">
         <v>1000</v>
       </c>
       <c r="H2">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="I2">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="J2">
-        <v>6.6</v>
+        <v>5</v>
       </c>
       <c r="K2">
-        <v>950</v>
+        <v>330</v>
       </c>
       <c r="L2">
-        <v>1.83</v>
+        <v>1.2</v>
       </c>
       <c r="M2">
-        <v>3.85</v>
+        <v>980</v>
       </c>
       <c r="N2">
-        <v>1.35</v>
+        <v>1.03</v>
       </c>
       <c r="O2">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="P2">
         <v>1.12</v>
@@ -1611,103 +1656,103 @@
         <v>1000</v>
       </c>
       <c r="T2">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="U2">
         <v>1000</v>
       </c>
       <c r="V2">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="W2">
         <v>1000</v>
       </c>
       <c r="X2">
-        <v>2.76</v>
+        <v>1.09</v>
       </c>
       <c r="Y2">
         <v>1000</v>
       </c>
       <c r="Z2">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="AA2">
         <v>1000</v>
       </c>
       <c r="AB2">
-        <v>2.64</v>
+        <v>1.09</v>
       </c>
       <c r="AC2">
         <v>1000</v>
       </c>
       <c r="AD2">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="AE2">
         <v>1000</v>
       </c>
       <c r="AF2">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="AG2">
         <v>1000</v>
       </c>
       <c r="AH2">
-        <v>7.8</v>
+        <v>1.09</v>
       </c>
       <c r="AI2">
         <v>1000</v>
       </c>
       <c r="AJ2">
-        <v>4</v>
+        <v>1.09</v>
       </c>
       <c r="AK2">
         <v>1000</v>
       </c>
       <c r="AL2">
-        <v>3.75</v>
+        <v>1.09</v>
       </c>
       <c r="AM2">
         <v>1000</v>
       </c>
       <c r="AN2">
-        <v>7.4</v>
+        <v>1.09</v>
       </c>
       <c r="AO2">
         <v>1000</v>
       </c>
       <c r="AP2">
-        <v>8.800000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="AQ2">
         <v>1000</v>
       </c>
       <c r="AR2">
-        <v>4.6</v>
+        <v>1.09</v>
       </c>
       <c r="AS2">
         <v>1000</v>
       </c>
       <c r="AT2">
-        <v>5.8</v>
+        <v>1.09</v>
       </c>
       <c r="AU2">
         <v>1000</v>
       </c>
       <c r="AV2">
-        <v>7.2</v>
+        <v>1.09</v>
       </c>
       <c r="AW2">
         <v>1000</v>
       </c>
       <c r="AX2">
-        <v>22</v>
+        <v>1.09</v>
       </c>
       <c r="AY2">
         <v>1000</v>
       </c>
       <c r="AZ2">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="BA2">
         <v>1000</v>
@@ -1716,16 +1761,16 @@
         <v>1.01</v>
       </c>
       <c r="BC2">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="BD2">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="BE2">
         <v>1000</v>
       </c>
       <c r="BF2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="BG2">
         <v>20830749</v>
@@ -1737,16 +1782,16 @@
         <v>58805</v>
       </c>
       <c r="BJ2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="BK2" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="BL2" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="BM2" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:65">
@@ -1754,46 +1799,46 @@
         <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F3">
+        <v>3.1</v>
+      </c>
+      <c r="G3">
+        <v>3.4</v>
+      </c>
+      <c r="H3">
+        <v>2.52</v>
+      </c>
+      <c r="I3">
+        <v>2.76</v>
+      </c>
+      <c r="J3">
         <v>3</v>
       </c>
-      <c r="G3">
-        <v>3.5</v>
-      </c>
-      <c r="H3">
-        <v>2.5</v>
-      </c>
-      <c r="I3">
-        <v>2.74</v>
-      </c>
-      <c r="J3">
-        <v>2.86</v>
-      </c>
       <c r="K3">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L3">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="M3">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="N3">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="O3">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="P3">
         <v>1.85</v>
@@ -1802,7 +1847,7 @@
         <v>2.14</v>
       </c>
       <c r="R3">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S3">
         <v>2.18</v>
@@ -1814,34 +1859,34 @@
         <v>980</v>
       </c>
       <c r="V3">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="W3">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="X3">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y3">
         <v>980</v>
       </c>
       <c r="Z3">
-        <v>4.5</v>
+        <v>28</v>
       </c>
       <c r="AA3">
         <v>980</v>
       </c>
       <c r="AB3">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC3">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AD3">
         <v>6.2</v>
       </c>
       <c r="AE3">
-        <v>980</v>
+        <v>7.8</v>
       </c>
       <c r="AF3">
         <v>9.800000000000001</v>
@@ -1850,79 +1895,79 @@
         <v>980</v>
       </c>
       <c r="AH3">
+        <v>24</v>
+      </c>
+      <c r="AI3">
+        <v>980</v>
+      </c>
+      <c r="AJ3">
+        <v>17</v>
+      </c>
+      <c r="AK3">
+        <v>980</v>
+      </c>
+      <c r="AL3">
+        <v>12</v>
+      </c>
+      <c r="AM3">
+        <v>980</v>
+      </c>
+      <c r="AN3">
+        <v>4.5</v>
+      </c>
+      <c r="AO3">
+        <v>980</v>
+      </c>
+      <c r="AP3">
+        <v>5</v>
+      </c>
+      <c r="AQ3">
+        <v>980</v>
+      </c>
+      <c r="AR3">
+        <v>5</v>
+      </c>
+      <c r="AS3">
+        <v>980</v>
+      </c>
+      <c r="AT3">
+        <v>5.1</v>
+      </c>
+      <c r="AU3">
+        <v>980</v>
+      </c>
+      <c r="AV3">
+        <v>5</v>
+      </c>
+      <c r="AW3">
+        <v>980</v>
+      </c>
+      <c r="AX3">
+        <v>5.2</v>
+      </c>
+      <c r="AY3">
+        <v>980</v>
+      </c>
+      <c r="AZ3">
+        <v>4.9</v>
+      </c>
+      <c r="BA3">
+        <v>980</v>
+      </c>
+      <c r="BB3">
         <v>4.6</v>
       </c>
-      <c r="AI3">
-        <v>980</v>
-      </c>
-      <c r="AJ3">
-        <v>16.5</v>
-      </c>
-      <c r="AK3">
-        <v>980</v>
-      </c>
-      <c r="AL3">
-        <v>11.5</v>
-      </c>
-      <c r="AM3">
-        <v>980</v>
-      </c>
-      <c r="AN3">
-        <v>4.1</v>
-      </c>
-      <c r="AO3">
-        <v>980</v>
-      </c>
-      <c r="AP3">
-        <v>4.4</v>
-      </c>
-      <c r="AQ3">
-        <v>980</v>
-      </c>
-      <c r="AR3">
-        <v>4.5</v>
-      </c>
-      <c r="AS3">
-        <v>980</v>
-      </c>
-      <c r="AT3">
-        <v>4.8</v>
-      </c>
-      <c r="AU3">
-        <v>980</v>
-      </c>
-      <c r="AV3">
-        <v>4.5</v>
-      </c>
-      <c r="AW3">
-        <v>980</v>
-      </c>
-      <c r="AX3">
-        <v>4.6</v>
-      </c>
-      <c r="AY3">
-        <v>980</v>
-      </c>
-      <c r="AZ3">
-        <v>4.3</v>
-      </c>
-      <c r="BA3">
-        <v>980</v>
-      </c>
-      <c r="BB3">
-        <v>4.2</v>
-      </c>
       <c r="BC3">
         <v>980</v>
       </c>
       <c r="BD3">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="BE3">
         <v>1000</v>
       </c>
       <c r="BF3" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="BG3">
         <v>5202561</v>
@@ -1934,16 +1979,16 @@
         <v>58805</v>
       </c>
       <c r="BJ3" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="BK3" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="BL3" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="BM3" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:65">
@@ -1951,37 +1996,37 @@
         <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F4">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="G4">
         <v>1.21</v>
       </c>
       <c r="H4">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="I4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K4">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L4">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="M4">
         <v>2.86</v>
@@ -1990,7 +2035,7 @@
         <v>1.54</v>
       </c>
       <c r="O4">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="P4">
         <v>2.32</v>
@@ -2005,49 +2050,49 @@
         <v>1.76</v>
       </c>
       <c r="T4">
-        <v>5.2</v>
+        <v>22</v>
       </c>
       <c r="U4">
         <v>980</v>
       </c>
       <c r="V4">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="W4">
         <v>980</v>
       </c>
       <c r="X4">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="Y4">
         <v>980</v>
       </c>
       <c r="Z4">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="AA4">
         <v>1000</v>
       </c>
       <c r="AB4">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC4">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AD4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE4">
         <v>980</v>
       </c>
       <c r="AF4">
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="AG4">
         <v>980</v>
       </c>
       <c r="AH4">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="AI4">
         <v>1000</v>
@@ -2065,16 +2110,16 @@
         <v>15</v>
       </c>
       <c r="AN4">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="AO4">
         <v>980</v>
       </c>
       <c r="AP4">
-        <v>5.6</v>
+        <v>6.6</v>
       </c>
       <c r="AQ4">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR4">
         <v>7.2</v>
@@ -2089,37 +2134,37 @@
         <v>980</v>
       </c>
       <c r="AV4">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="AW4">
         <v>980</v>
       </c>
       <c r="AX4">
-        <v>5.6</v>
+        <v>6.6</v>
       </c>
       <c r="AY4">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ4">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="BA4">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="BB4">
-        <v>5.6</v>
+        <v>15</v>
       </c>
       <c r="BC4">
         <v>1000</v>
       </c>
       <c r="BD4">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="BE4">
         <v>1000</v>
       </c>
       <c r="BF4" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="BG4">
         <v>52628041</v>
@@ -2131,16 +2176,16 @@
         <v>58805</v>
       </c>
       <c r="BJ4" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="BK4" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="BL4" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="BM4" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:65">
@@ -2148,175 +2193,175 @@
         <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F5">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="G5">
-        <v>2.04</v>
+        <v>2.28</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="I5">
-        <v>5.7</v>
+        <v>5.1</v>
       </c>
       <c r="J5">
+        <v>2.82</v>
+      </c>
+      <c r="K5">
+        <v>3.4</v>
+      </c>
+      <c r="L5">
+        <v>1.47</v>
+      </c>
+      <c r="M5">
+        <v>1.62</v>
+      </c>
+      <c r="N5">
+        <v>2.62</v>
+      </c>
+      <c r="O5">
         <v>3.15</v>
       </c>
-      <c r="K5">
-        <v>3.45</v>
-      </c>
-      <c r="L5">
-        <v>1.51</v>
-      </c>
-      <c r="M5">
+      <c r="P5">
+        <v>2.18</v>
+      </c>
+      <c r="Q5">
+        <v>2.56</v>
+      </c>
+      <c r="R5">
         <v>1.64</v>
       </c>
-      <c r="N5">
-        <v>2.56</v>
-      </c>
-      <c r="O5">
-        <v>2.98</v>
-      </c>
-      <c r="P5">
-        <v>2.2</v>
-      </c>
-      <c r="Q5">
+      <c r="S5">
+        <v>1.85</v>
+      </c>
+      <c r="T5">
+        <v>4.2</v>
+      </c>
+      <c r="U5">
+        <v>980</v>
+      </c>
+      <c r="V5">
+        <v>5.3</v>
+      </c>
+      <c r="W5">
+        <v>12.5</v>
+      </c>
+      <c r="X5">
+        <v>7.2</v>
+      </c>
+      <c r="Y5">
+        <v>980</v>
+      </c>
+      <c r="Z5">
+        <v>4.1</v>
+      </c>
+      <c r="AA5">
+        <v>980</v>
+      </c>
+      <c r="AB5">
+        <v>5.9</v>
+      </c>
+      <c r="AC5">
+        <v>980</v>
+      </c>
+      <c r="AD5">
+        <v>6.6</v>
+      </c>
+      <c r="AE5">
+        <v>8</v>
+      </c>
+      <c r="AF5">
+        <v>6.4</v>
+      </c>
+      <c r="AG5">
+        <v>980</v>
+      </c>
+      <c r="AH5">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AI5">
+        <v>980</v>
+      </c>
+      <c r="AJ5">
+        <v>9.6</v>
+      </c>
+      <c r="AK5">
+        <v>12</v>
+      </c>
+      <c r="AL5">
+        <v>10</v>
+      </c>
+      <c r="AM5">
+        <v>980</v>
+      </c>
+      <c r="AN5">
+        <v>7</v>
+      </c>
+      <c r="AO5">
+        <v>980</v>
+      </c>
+      <c r="AP5">
+        <v>4.1</v>
+      </c>
+      <c r="AQ5">
+        <v>980</v>
+      </c>
+      <c r="AR5">
+        <v>7</v>
+      </c>
+      <c r="AS5">
+        <v>980</v>
+      </c>
+      <c r="AT5">
+        <v>7.2</v>
+      </c>
+      <c r="AU5">
+        <v>980</v>
+      </c>
+      <c r="AV5">
+        <v>8</v>
+      </c>
+      <c r="AW5">
+        <v>980</v>
+      </c>
+      <c r="AX5">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AY5">
+        <v>1000</v>
+      </c>
+      <c r="AZ5">
+        <v>7</v>
+      </c>
+      <c r="BA5">
+        <v>980</v>
+      </c>
+      <c r="BB5">
         <v>2.6</v>
       </c>
-      <c r="R5">
-        <v>1.63</v>
-      </c>
-      <c r="S5">
-        <v>1.84</v>
-      </c>
-      <c r="T5">
-        <v>6.8</v>
-      </c>
-      <c r="U5">
+      <c r="BC5">
+        <v>980</v>
+      </c>
+      <c r="BD5">
         <v>9</v>
       </c>
-      <c r="V5">
-        <v>5.1</v>
-      </c>
-      <c r="W5">
-        <v>980</v>
-      </c>
-      <c r="X5">
-        <v>6.6</v>
-      </c>
-      <c r="Y5">
-        <v>980</v>
-      </c>
-      <c r="Z5">
-        <v>7.4</v>
-      </c>
-      <c r="AA5">
-        <v>1000</v>
-      </c>
-      <c r="AB5">
-        <v>5.4</v>
-      </c>
-      <c r="AC5">
-        <v>6.8</v>
-      </c>
-      <c r="AD5">
-        <v>6.4</v>
-      </c>
-      <c r="AE5">
-        <v>8.4</v>
-      </c>
-      <c r="AF5">
-        <v>6</v>
-      </c>
-      <c r="AG5">
-        <v>980</v>
-      </c>
-      <c r="AH5">
-        <v>7.2</v>
-      </c>
-      <c r="AI5">
-        <v>980</v>
-      </c>
-      <c r="AJ5">
-        <v>7.8</v>
-      </c>
-      <c r="AK5">
-        <v>10.5</v>
-      </c>
-      <c r="AL5">
-        <v>9.4</v>
-      </c>
-      <c r="AM5">
-        <v>980</v>
-      </c>
-      <c r="AN5">
-        <v>6.2</v>
-      </c>
-      <c r="AO5">
-        <v>980</v>
-      </c>
-      <c r="AP5">
-        <v>7.4</v>
-      </c>
-      <c r="AQ5">
-        <v>980</v>
-      </c>
-      <c r="AR5">
-        <v>6</v>
-      </c>
-      <c r="AS5">
-        <v>980</v>
-      </c>
-      <c r="AT5">
-        <v>6.2</v>
-      </c>
-      <c r="AU5">
-        <v>980</v>
-      </c>
-      <c r="AV5">
-        <v>7</v>
-      </c>
-      <c r="AW5">
-        <v>980</v>
-      </c>
-      <c r="AX5">
-        <v>7.6</v>
-      </c>
-      <c r="AY5">
-        <v>1000</v>
-      </c>
-      <c r="AZ5">
-        <v>6</v>
-      </c>
-      <c r="BA5">
-        <v>980</v>
-      </c>
-      <c r="BB5">
-        <v>7.4</v>
-      </c>
-      <c r="BC5">
-        <v>980</v>
-      </c>
-      <c r="BD5">
-        <v>7.8</v>
-      </c>
       <c r="BE5">
         <v>1000</v>
       </c>
       <c r="BF5" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="BG5">
         <v>5618507</v>
@@ -2328,16 +2373,16 @@
         <v>58805</v>
       </c>
       <c r="BJ5" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="BK5" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="BL5" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="BM5" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:65">
@@ -2345,175 +2390,175 @@
         <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F6">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="G6">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="H6">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="I6">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="J6">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="L6">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="M6">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="N6">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="O6">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="P6">
         <v>1.86</v>
       </c>
       <c r="Q6">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R6">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S6">
         <v>2.16</v>
       </c>
       <c r="T6">
-        <v>3.45</v>
+        <v>4.2</v>
       </c>
       <c r="U6">
         <v>980</v>
       </c>
       <c r="V6">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="W6">
         <v>980</v>
       </c>
       <c r="X6">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="Y6">
         <v>1000</v>
       </c>
       <c r="Z6">
+        <v>5.2</v>
+      </c>
+      <c r="AA6">
+        <v>1000</v>
+      </c>
+      <c r="AB6">
+        <v>6.8</v>
+      </c>
+      <c r="AC6">
+        <v>980</v>
+      </c>
+      <c r="AD6">
+        <v>3.6</v>
+      </c>
+      <c r="AE6">
+        <v>980</v>
+      </c>
+      <c r="AF6">
+        <v>4.7</v>
+      </c>
+      <c r="AG6">
+        <v>980</v>
+      </c>
+      <c r="AH6">
+        <v>5</v>
+      </c>
+      <c r="AI6">
+        <v>980</v>
+      </c>
+      <c r="AJ6">
+        <v>8.4</v>
+      </c>
+      <c r="AK6">
+        <v>980</v>
+      </c>
+      <c r="AL6">
+        <v>8.6</v>
+      </c>
+      <c r="AM6">
+        <v>980</v>
+      </c>
+      <c r="AN6">
+        <v>4.6</v>
+      </c>
+      <c r="AO6">
+        <v>980</v>
+      </c>
+      <c r="AP6">
+        <v>5.1</v>
+      </c>
+      <c r="AQ6">
+        <v>980</v>
+      </c>
+      <c r="AR6">
+        <v>4.6</v>
+      </c>
+      <c r="AS6">
+        <v>980</v>
+      </c>
+      <c r="AT6">
+        <v>14.5</v>
+      </c>
+      <c r="AU6">
+        <v>980</v>
+      </c>
+      <c r="AV6">
+        <v>4.9</v>
+      </c>
+      <c r="AW6">
+        <v>1000</v>
+      </c>
+      <c r="AX6">
+        <v>5.3</v>
+      </c>
+      <c r="AY6">
+        <v>1000</v>
+      </c>
+      <c r="AZ6">
+        <v>3.4</v>
+      </c>
+      <c r="BA6">
+        <v>55</v>
+      </c>
+      <c r="BB6">
         <v>4.2</v>
       </c>
-      <c r="AA6">
-        <v>1000</v>
-      </c>
-      <c r="AB6">
-        <v>3.05</v>
-      </c>
-      <c r="AC6">
-        <v>980</v>
-      </c>
-      <c r="AD6">
-        <v>3.1</v>
-      </c>
-      <c r="AE6">
-        <v>980</v>
-      </c>
-      <c r="AF6">
-        <v>1.16</v>
-      </c>
-      <c r="AG6">
-        <v>980</v>
-      </c>
-      <c r="AH6">
-        <v>4.2</v>
-      </c>
-      <c r="AI6">
-        <v>1000</v>
-      </c>
-      <c r="AJ6">
-        <v>3.2</v>
-      </c>
-      <c r="AK6">
-        <v>980</v>
-      </c>
-      <c r="AL6">
-        <v>3.25</v>
-      </c>
-      <c r="AM6">
-        <v>980</v>
-      </c>
-      <c r="AN6">
-        <v>1.11</v>
-      </c>
-      <c r="AO6">
-        <v>980</v>
-      </c>
-      <c r="AP6">
-        <v>4.2</v>
-      </c>
-      <c r="AQ6">
-        <v>1000</v>
-      </c>
-      <c r="AR6">
-        <v>1.64</v>
-      </c>
-      <c r="AS6">
-        <v>980</v>
-      </c>
-      <c r="AT6">
-        <v>1.16</v>
-      </c>
-      <c r="AU6">
-        <v>980</v>
-      </c>
-      <c r="AV6">
-        <v>4</v>
-      </c>
-      <c r="AW6">
-        <v>1000</v>
-      </c>
-      <c r="AX6">
-        <v>4.2</v>
-      </c>
-      <c r="AY6">
-        <v>1000</v>
-      </c>
-      <c r="AZ6">
-        <v>1.55</v>
-      </c>
-      <c r="BA6">
-        <v>980</v>
-      </c>
-      <c r="BB6">
-        <v>1.55</v>
-      </c>
       <c r="BC6">
         <v>1000</v>
       </c>
       <c r="BD6">
-        <v>2.26</v>
+        <v>5.3</v>
       </c>
       <c r="BE6">
         <v>1000</v>
       </c>
       <c r="BF6" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="BG6">
         <v>20740727</v>
@@ -2525,16 +2570,16 @@
         <v>58805</v>
       </c>
       <c r="BJ6" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="BK6" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="BL6" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BM6" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:65">
@@ -2542,34 +2587,34 @@
         <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F7">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="G7">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="H7">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="I7">
         <v>12</v>
       </c>
       <c r="J7">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="K7">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="L7">
         <v>2.66</v>
@@ -2584,13 +2629,13 @@
         <v>1.61</v>
       </c>
       <c r="P7">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q7">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R7">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="S7">
         <v>2.06</v>
@@ -2605,49 +2650,49 @@
         <v>36</v>
       </c>
       <c r="W7">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="X7">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y7">
         <v>110</v>
       </c>
       <c r="Z7">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AA7">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="AB7">
         <v>10</v>
       </c>
       <c r="AC7">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD7">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE7">
         <v>14.5</v>
       </c>
       <c r="AF7">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AG7">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AH7">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI7">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AJ7">
         <v>8.199999999999999</v>
       </c>
       <c r="AK7">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AL7">
         <v>9.800000000000001</v>
@@ -2659,16 +2704,16 @@
         <v>24</v>
       </c>
       <c r="AO7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP7">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AQ7">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AR7">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AS7">
         <v>11</v>
@@ -2677,40 +2722,40 @@
         <v>12</v>
       </c>
       <c r="AU7">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AV7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW7">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AX7">
-        <v>28</v>
+        <v>18.5</v>
       </c>
       <c r="AY7">
         <v>140</v>
       </c>
       <c r="AZ7">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="BA7">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="BB7">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="BC7">
-        <v>980</v>
+        <v>180</v>
       </c>
       <c r="BD7">
-        <v>15.5</v>
+        <v>19.5</v>
       </c>
       <c r="BE7">
         <v>1000</v>
       </c>
       <c r="BF7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="BG7">
         <v>31317</v>
@@ -2722,16 +2767,16 @@
         <v>58805</v>
       </c>
       <c r="BJ7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="BK7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="BL7" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="BM7" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:65">
@@ -2739,34 +2784,34 @@
         <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E8" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F8">
         <v>1.33</v>
       </c>
       <c r="G8">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="H8">
         <v>10</v>
       </c>
       <c r="I8">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="J8">
         <v>6</v>
       </c>
       <c r="K8">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L8">
         <v>2.7</v>
@@ -2775,49 +2820,49 @@
         <v>3.15</v>
       </c>
       <c r="N8">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="O8">
         <v>1.59</v>
       </c>
       <c r="P8">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R8">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S8">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="T8">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="U8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V8">
-        <v>36</v>
+        <v>15.5</v>
       </c>
       <c r="W8">
         <v>42</v>
       </c>
       <c r="X8">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y8">
         <v>100</v>
       </c>
       <c r="Z8">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AA8">
-        <v>700</v>
+        <v>440</v>
       </c>
       <c r="AB8">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC8">
         <v>11.5</v>
@@ -2835,13 +2880,13 @@
         <v>38</v>
       </c>
       <c r="AH8">
-        <v>15.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI8">
         <v>140</v>
       </c>
       <c r="AJ8">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AK8">
         <v>9.4</v>
@@ -2853,13 +2898,13 @@
         <v>10.5</v>
       </c>
       <c r="AN8">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AO8">
         <v>27</v>
       </c>
       <c r="AP8">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="AQ8">
         <v>110</v>
@@ -2874,40 +2919,40 @@
         <v>12</v>
       </c>
       <c r="AU8">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AV8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW8">
         <v>32</v>
       </c>
       <c r="AX8">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AY8">
+        <v>120</v>
+      </c>
+      <c r="AZ8">
+        <v>3.6</v>
+      </c>
+      <c r="BA8">
+        <v>4.3</v>
+      </c>
+      <c r="BB8">
+        <v>19</v>
+      </c>
+      <c r="BC8">
         <v>130</v>
       </c>
-      <c r="AZ8">
-        <v>3.5</v>
-      </c>
-      <c r="BA8">
-        <v>4.4</v>
-      </c>
-      <c r="BB8">
-        <v>15.5</v>
-      </c>
-      <c r="BC8">
-        <v>400</v>
-      </c>
       <c r="BD8">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="BE8">
         <v>980</v>
       </c>
       <c r="BF8" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="BG8">
         <v>31321</v>
@@ -2919,16 +2964,16 @@
         <v>58805</v>
       </c>
       <c r="BJ8" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="BK8" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="BL8" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="BM8" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:65">
@@ -2936,40 +2981,40 @@
         <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E9" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F9">
-        <v>1.26</v>
+        <v>1.89</v>
       </c>
       <c r="G9">
         <v>980</v>
       </c>
       <c r="H9">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="I9">
-        <v>980</v>
+        <v>3.1</v>
       </c>
       <c r="J9">
         <v>3.5</v>
       </c>
       <c r="K9">
-        <v>330</v>
+        <v>150</v>
       </c>
       <c r="L9">
         <v>1.27</v>
       </c>
       <c r="M9">
-        <v>110</v>
+        <v>970</v>
       </c>
       <c r="N9">
         <v>1.03</v>
@@ -3086,7 +3131,7 @@
         <v>1000</v>
       </c>
       <c r="AZ9">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="BA9">
         <v>1000</v>
@@ -3104,7 +3149,7 @@
         <v>1000</v>
       </c>
       <c r="BF9" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="BG9">
         <v>10748720</v>
@@ -3116,16 +3161,16 @@
         <v>58805</v>
       </c>
       <c r="BJ9" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="BK9" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="BL9" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BM9" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:65">
@@ -3133,37 +3178,37 @@
         <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E10" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F10">
         <v>2.3</v>
       </c>
       <c r="G10">
-        <v>3.25</v>
+        <v>2.96</v>
       </c>
       <c r="H10">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="I10">
-        <v>3.85</v>
+        <v>3.35</v>
       </c>
       <c r="J10">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K10">
-        <v>5.6</v>
+        <v>4</v>
       </c>
       <c r="L10">
-        <v>1.77</v>
+        <v>2.14</v>
       </c>
       <c r="M10">
         <v>2.4</v>
@@ -3172,7 +3217,7 @@
         <v>1.71</v>
       </c>
       <c r="O10">
-        <v>2.3</v>
+        <v>1.88</v>
       </c>
       <c r="P10">
         <v>1.12</v>
@@ -3187,91 +3232,91 @@
         <v>1000</v>
       </c>
       <c r="T10">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="U10">
         <v>1000</v>
       </c>
       <c r="V10">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W10">
         <v>1000</v>
       </c>
       <c r="X10">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="Y10">
         <v>1000</v>
       </c>
       <c r="Z10">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AA10">
         <v>1000</v>
       </c>
       <c r="AB10">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AC10">
         <v>1000</v>
       </c>
       <c r="AD10">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AE10">
         <v>1000</v>
       </c>
       <c r="AF10">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AG10">
         <v>1000</v>
       </c>
       <c r="AH10">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AI10">
         <v>1000</v>
       </c>
       <c r="AJ10">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AK10">
         <v>1000</v>
       </c>
       <c r="AL10">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AM10">
         <v>1000</v>
       </c>
       <c r="AN10">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AO10">
         <v>1000</v>
       </c>
       <c r="AP10">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AQ10">
         <v>1000</v>
       </c>
       <c r="AR10">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AS10">
         <v>1000</v>
       </c>
       <c r="AT10">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AU10">
         <v>1000</v>
       </c>
       <c r="AV10">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AW10">
         <v>1000</v>
@@ -3280,7 +3325,7 @@
         <v>1.01</v>
       </c>
       <c r="AY10">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ10">
         <v>1.55</v>
@@ -3295,13 +3340,13 @@
         <v>1000</v>
       </c>
       <c r="BD10">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="BE10">
         <v>1000</v>
       </c>
       <c r="BF10" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="BG10">
         <v>489147</v>
@@ -3313,16 +3358,16 @@
         <v>58805</v>
       </c>
       <c r="BJ10" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="BK10" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="BL10" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="BM10" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:65">
@@ -3330,112 +3375,112 @@
         <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E11" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F11">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="G11">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="H11">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="I11">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J11">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K11">
         <v>3.4</v>
       </c>
       <c r="L11">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="M11">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="N11">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O11">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P11">
-        <v>2.66</v>
+        <v>2.78</v>
       </c>
       <c r="Q11">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="R11">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S11">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="T11">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="U11">
+        <v>7</v>
+      </c>
+      <c r="V11">
+        <v>5.7</v>
+      </c>
+      <c r="W11">
+        <v>15.5</v>
+      </c>
+      <c r="X11">
+        <v>8</v>
+      </c>
+      <c r="Y11">
+        <v>980</v>
+      </c>
+      <c r="Z11">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AA11">
+        <v>980</v>
+      </c>
+      <c r="AB11">
+        <v>4.6</v>
+      </c>
+      <c r="AC11">
+        <v>5.5</v>
+      </c>
+      <c r="AD11">
         <v>7.2</v>
       </c>
-      <c r="V11">
-        <v>11.5</v>
-      </c>
-      <c r="W11">
-        <v>16</v>
-      </c>
-      <c r="X11">
-        <v>6.4</v>
-      </c>
-      <c r="Y11">
-        <v>980</v>
-      </c>
-      <c r="Z11">
+      <c r="AE11">
+        <v>8.6</v>
+      </c>
+      <c r="AF11">
         <v>7.2</v>
       </c>
-      <c r="AA11">
-        <v>980</v>
-      </c>
-      <c r="AB11">
-        <v>4.8</v>
-      </c>
-      <c r="AC11">
-        <v>5.8</v>
-      </c>
-      <c r="AD11">
-        <v>7</v>
-      </c>
-      <c r="AE11">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AF11">
-        <v>6</v>
-      </c>
       <c r="AG11">
         <v>980</v>
       </c>
       <c r="AH11">
-        <v>7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AI11">
         <v>980</v>
       </c>
       <c r="AJ11">
-        <v>4.3</v>
+        <v>7.2</v>
       </c>
       <c r="AK11">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AL11">
         <v>10</v>
@@ -3444,61 +3489,61 @@
         <v>13.5</v>
       </c>
       <c r="AN11">
-        <v>6.2</v>
+        <v>7.4</v>
       </c>
       <c r="AO11">
         <v>980</v>
       </c>
       <c r="AP11">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AQ11">
+        <v>1000</v>
+      </c>
+      <c r="AR11">
+        <v>6.4</v>
+      </c>
+      <c r="AS11">
+        <v>980</v>
+      </c>
+      <c r="AT11">
         <v>7.2</v>
       </c>
-      <c r="AQ11">
-        <v>980</v>
-      </c>
-      <c r="AR11">
-        <v>5.5</v>
-      </c>
-      <c r="AS11">
-        <v>22</v>
-      </c>
-      <c r="AT11">
-        <v>6</v>
-      </c>
       <c r="AU11">
         <v>980</v>
       </c>
       <c r="AV11">
+        <v>8.4</v>
+      </c>
+      <c r="AW11">
+        <v>980</v>
+      </c>
+      <c r="AX11">
+        <v>9</v>
+      </c>
+      <c r="AY11">
+        <v>1000</v>
+      </c>
+      <c r="AZ11">
         <v>6.8</v>
       </c>
-      <c r="AW11">
-        <v>980</v>
-      </c>
-      <c r="AX11">
-        <v>7.2</v>
-      </c>
-      <c r="AY11">
-        <v>1000</v>
-      </c>
-      <c r="AZ11">
-        <v>5.8</v>
-      </c>
       <c r="BA11">
         <v>980</v>
       </c>
       <c r="BB11">
-        <v>7.2</v>
+        <v>9</v>
       </c>
       <c r="BC11">
         <v>1000</v>
       </c>
       <c r="BD11">
-        <v>7.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BE11">
         <v>1000</v>
       </c>
       <c r="BF11" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="BG11">
         <v>5259327</v>
@@ -3510,16 +3555,16 @@
         <v>58805</v>
       </c>
       <c r="BJ11" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="BK11" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="BL11" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="BM11" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:65">
@@ -3527,175 +3572,175 @@
         <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E12" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F12">
-        <v>2.64</v>
+        <v>2.3</v>
       </c>
       <c r="G12">
-        <v>2.9</v>
+        <v>980</v>
       </c>
       <c r="H12">
-        <v>3.1</v>
+        <v>2.94</v>
       </c>
       <c r="I12">
-        <v>3.45</v>
+        <v>870</v>
       </c>
       <c r="J12">
-        <v>2.8</v>
+        <v>2.38</v>
       </c>
       <c r="K12">
         <v>3.1</v>
       </c>
       <c r="L12">
-        <v>1.51</v>
+        <v>1.35</v>
       </c>
       <c r="M12">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="N12">
-        <v>2.58</v>
+        <v>2.4</v>
       </c>
       <c r="O12">
-        <v>2.98</v>
+        <v>3.95</v>
       </c>
       <c r="P12">
-        <v>2.04</v>
+        <v>1.7</v>
       </c>
       <c r="Q12">
-        <v>2.42</v>
+        <v>13.5</v>
       </c>
       <c r="R12">
-        <v>1.7</v>
+        <v>1.42</v>
       </c>
       <c r="S12">
-        <v>1.96</v>
+        <v>2.44</v>
       </c>
       <c r="T12">
-        <v>7</v>
+        <v>1.46</v>
       </c>
       <c r="U12">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="V12">
-        <v>8</v>
+        <v>1.01</v>
       </c>
       <c r="W12">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="X12">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Y12">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z12">
-        <v>6.8</v>
+        <v>1.01</v>
       </c>
       <c r="AA12">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB12">
-        <v>6.8</v>
+        <v>1.01</v>
       </c>
       <c r="AC12">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD12">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AE12">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AF12">
+        <v>12</v>
+      </c>
+      <c r="AG12">
+        <v>1000</v>
+      </c>
+      <c r="AH12">
+        <v>1.01</v>
+      </c>
+      <c r="AI12">
+        <v>1000</v>
+      </c>
+      <c r="AJ12">
         <v>12.5</v>
       </c>
-      <c r="AG12">
-        <v>16.5</v>
-      </c>
-      <c r="AH12">
-        <v>6.6</v>
-      </c>
-      <c r="AI12">
-        <v>980</v>
-      </c>
-      <c r="AJ12">
-        <v>13</v>
-      </c>
       <c r="AK12">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AL12">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AM12">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AN12">
-        <v>19</v>
+        <v>1.01</v>
       </c>
       <c r="AO12">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AP12">
-        <v>6.8</v>
+        <v>1.01</v>
       </c>
       <c r="AQ12">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AR12">
-        <v>6.6</v>
+        <v>1.01</v>
       </c>
       <c r="AS12">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AT12">
-        <v>6.8</v>
+        <v>1.01</v>
       </c>
       <c r="AU12">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AV12">
-        <v>6.8</v>
+        <v>1.01</v>
       </c>
       <c r="AW12">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AX12">
-        <v>7.2</v>
+        <v>1.01</v>
       </c>
       <c r="AY12">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AZ12">
-        <v>6.4</v>
+        <v>1.55</v>
       </c>
       <c r="BA12">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="BB12">
-        <v>6.6</v>
+        <v>1.55</v>
       </c>
       <c r="BC12">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="BD12">
-        <v>7.4</v>
+        <v>1.01</v>
       </c>
       <c r="BE12">
         <v>1000</v>
       </c>
       <c r="BF12" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="BG12">
         <v>10492935</v>
@@ -3707,16 +3752,16 @@
         <v>58805</v>
       </c>
       <c r="BJ12" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="BK12" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="BL12" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="BM12" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:65">
@@ -3724,28 +3769,28 @@
         <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E13" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F13">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="G13">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H13">
         <v>2.76</v>
       </c>
       <c r="I13">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J13">
         <v>2.8</v>
@@ -3757,16 +3802,16 @@
         <v>1.43</v>
       </c>
       <c r="M13">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="N13">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="O13">
         <v>3.35</v>
       </c>
       <c r="P13">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q13">
         <v>2.52</v>
@@ -3778,121 +3823,121 @@
         <v>1.91</v>
       </c>
       <c r="T13">
-        <v>2.94</v>
+        <v>3.25</v>
       </c>
       <c r="U13">
-        <v>980</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="V13">
-        <v>3.05</v>
+        <v>3.55</v>
       </c>
       <c r="W13">
         <v>980</v>
       </c>
       <c r="X13">
+        <v>4.5</v>
+      </c>
+      <c r="Y13">
+        <v>980</v>
+      </c>
+      <c r="Z13">
+        <v>3.75</v>
+      </c>
+      <c r="AA13">
+        <v>1000</v>
+      </c>
+      <c r="AB13">
+        <v>3.45</v>
+      </c>
+      <c r="AC13">
+        <v>10</v>
+      </c>
+      <c r="AD13">
+        <v>3.2</v>
+      </c>
+      <c r="AE13">
+        <v>980</v>
+      </c>
+      <c r="AF13">
+        <v>3.25</v>
+      </c>
+      <c r="AG13">
+        <v>980</v>
+      </c>
+      <c r="AH13">
+        <v>3.75</v>
+      </c>
+      <c r="AI13">
+        <v>980</v>
+      </c>
+      <c r="AJ13">
+        <v>4.5</v>
+      </c>
+      <c r="AK13">
+        <v>980</v>
+      </c>
+      <c r="AL13">
+        <v>4</v>
+      </c>
+      <c r="AM13">
+        <v>980</v>
+      </c>
+      <c r="AN13">
+        <v>4.1</v>
+      </c>
+      <c r="AO13">
+        <v>980</v>
+      </c>
+      <c r="AP13">
         <v>3.65</v>
       </c>
-      <c r="Y13">
-        <v>980</v>
-      </c>
-      <c r="Z13">
-        <v>4.1</v>
-      </c>
-      <c r="AA13">
-        <v>1000</v>
-      </c>
-      <c r="AB13">
+      <c r="AQ13">
+        <v>1000</v>
+      </c>
+      <c r="AR13">
+        <v>3.75</v>
+      </c>
+      <c r="AS13">
+        <v>1000</v>
+      </c>
+      <c r="AT13">
+        <v>3.75</v>
+      </c>
+      <c r="AU13">
+        <v>1000</v>
+      </c>
+      <c r="AV13">
+        <v>3.65</v>
+      </c>
+      <c r="AW13">
+        <v>980</v>
+      </c>
+      <c r="AX13">
+        <v>3.95</v>
+      </c>
+      <c r="AY13">
+        <v>1000</v>
+      </c>
+      <c r="AZ13">
         <v>3.1</v>
       </c>
-      <c r="AC13">
-        <v>980</v>
-      </c>
-      <c r="AD13">
-        <v>2.88</v>
-      </c>
-      <c r="AE13">
-        <v>980</v>
-      </c>
-      <c r="AF13">
-        <v>3.5</v>
-      </c>
-      <c r="AG13">
-        <v>980</v>
-      </c>
-      <c r="AH13">
-        <v>4.1</v>
-      </c>
-      <c r="AI13">
-        <v>980</v>
-      </c>
-      <c r="AJ13">
-        <v>3.65</v>
-      </c>
-      <c r="AK13">
-        <v>980</v>
-      </c>
-      <c r="AL13">
-        <v>3.5</v>
-      </c>
-      <c r="AM13">
-        <v>980</v>
-      </c>
-      <c r="AN13">
-        <v>3.85</v>
-      </c>
-      <c r="AO13">
-        <v>980</v>
-      </c>
-      <c r="AP13">
-        <v>2.14</v>
-      </c>
-      <c r="AQ13">
-        <v>1000</v>
-      </c>
-      <c r="AR13">
-        <v>4.1</v>
-      </c>
-      <c r="AS13">
-        <v>1000</v>
-      </c>
-      <c r="AT13">
-        <v>4.1</v>
-      </c>
-      <c r="AU13">
-        <v>1000</v>
-      </c>
-      <c r="AV13">
-        <v>2.14</v>
-      </c>
-      <c r="AW13">
-        <v>1000</v>
-      </c>
-      <c r="AX13">
-        <v>4.3</v>
-      </c>
-      <c r="AY13">
-        <v>1000</v>
-      </c>
-      <c r="AZ13">
-        <v>1.55</v>
-      </c>
       <c r="BA13">
         <v>1000</v>
       </c>
       <c r="BB13">
-        <v>1.55</v>
+        <v>3.1</v>
       </c>
       <c r="BC13">
         <v>1000</v>
       </c>
       <c r="BD13">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="BE13">
         <v>1000</v>
       </c>
       <c r="BF13" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="BG13">
         <v>38281353</v>
@@ -3904,16 +3949,16 @@
         <v>58805</v>
       </c>
       <c r="BJ13" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="BK13" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="BL13" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="BM13" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:65">
@@ -3921,25 +3966,25 @@
         <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E14" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F14">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="G14">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="H14">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="I14">
         <v>6.6</v>
@@ -3948,7 +3993,7 @@
         <v>3.1</v>
       </c>
       <c r="K14">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="L14">
         <v>1.52</v>
@@ -3957,16 +4002,16 @@
         <v>1.66</v>
       </c>
       <c r="N14">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="O14">
-        <v>4.6</v>
+        <v>3.95</v>
       </c>
       <c r="P14">
         <v>2.2</v>
       </c>
       <c r="Q14">
-        <v>9.4</v>
+        <v>2.46</v>
       </c>
       <c r="R14">
         <v>1.69</v>
@@ -3975,121 +4020,121 @@
         <v>1.82</v>
       </c>
       <c r="T14">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="U14">
         <v>980</v>
       </c>
       <c r="V14">
-        <v>2.6</v>
+        <v>4.4</v>
       </c>
       <c r="W14">
         <v>980</v>
       </c>
       <c r="X14">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="Y14">
         <v>980</v>
       </c>
       <c r="Z14">
-        <v>3.05</v>
+        <v>2.68</v>
       </c>
       <c r="AA14">
         <v>1000</v>
       </c>
       <c r="AB14">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="AC14">
         <v>980</v>
       </c>
       <c r="AD14">
+        <v>3.55</v>
+      </c>
+      <c r="AE14">
+        <v>980</v>
+      </c>
+      <c r="AF14">
         <v>3.15</v>
       </c>
-      <c r="AE14">
-        <v>980</v>
-      </c>
-      <c r="AF14">
-        <v>2.8</v>
-      </c>
       <c r="AG14">
         <v>980</v>
       </c>
       <c r="AH14">
-        <v>3</v>
+        <v>2.66</v>
       </c>
       <c r="AI14">
         <v>1000</v>
       </c>
       <c r="AJ14">
-        <v>2.48</v>
+        <v>4.2</v>
       </c>
       <c r="AK14">
         <v>980</v>
       </c>
       <c r="AL14">
-        <v>2.54</v>
+        <v>4.2</v>
       </c>
       <c r="AM14">
         <v>980</v>
       </c>
       <c r="AN14">
-        <v>2.84</v>
+        <v>3.2</v>
       </c>
       <c r="AO14">
         <v>980</v>
       </c>
       <c r="AP14">
-        <v>3.05</v>
+        <v>2.68</v>
       </c>
       <c r="AQ14">
         <v>1000</v>
       </c>
       <c r="AR14">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="AS14">
         <v>980</v>
       </c>
       <c r="AT14">
-        <v>2.84</v>
+        <v>3.2</v>
       </c>
       <c r="AU14">
         <v>980</v>
       </c>
       <c r="AV14">
-        <v>2.98</v>
+        <v>3.4</v>
       </c>
       <c r="AW14">
         <v>1000</v>
       </c>
       <c r="AX14">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="AY14">
         <v>1000</v>
       </c>
       <c r="AZ14">
-        <v>2.78</v>
+        <v>3.15</v>
       </c>
       <c r="BA14">
         <v>980</v>
       </c>
       <c r="BB14">
-        <v>3.05</v>
+        <v>2.66</v>
       </c>
       <c r="BC14">
         <v>1000</v>
       </c>
       <c r="BD14">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="BE14">
         <v>1000</v>
       </c>
       <c r="BF14" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="BG14">
         <v>364672</v>
@@ -4101,16 +4146,16 @@
         <v>58805</v>
       </c>
       <c r="BJ14" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BK14" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="BL14" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="BM14" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:65">
@@ -4118,175 +4163,175 @@
         <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E15" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F15">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="G15">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="I15">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="J15">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="L15">
+        <v>2.88</v>
+      </c>
+      <c r="M15">
+        <v>3.4</v>
+      </c>
+      <c r="N15">
+        <v>1.41</v>
+      </c>
+      <c r="O15">
+        <v>1.53</v>
+      </c>
+      <c r="P15">
+        <v>1.49</v>
+      </c>
+      <c r="Q15">
+        <v>1.57</v>
+      </c>
+      <c r="R15">
+        <v>2.76</v>
+      </c>
+      <c r="S15">
+        <v>3.05</v>
+      </c>
+      <c r="T15">
+        <v>4.7</v>
+      </c>
+      <c r="U15">
+        <v>980</v>
+      </c>
+      <c r="V15">
+        <v>4.6</v>
+      </c>
+      <c r="W15">
+        <v>980</v>
+      </c>
+      <c r="X15">
+        <v>4.8</v>
+      </c>
+      <c r="Y15">
+        <v>980</v>
+      </c>
+      <c r="Z15">
+        <v>5.1</v>
+      </c>
+      <c r="AA15">
+        <v>980</v>
+      </c>
+      <c r="AB15">
+        <v>4.3</v>
+      </c>
+      <c r="AC15">
+        <v>980</v>
+      </c>
+      <c r="AD15">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE15">
+        <v>14</v>
+      </c>
+      <c r="AF15">
+        <v>4.3</v>
+      </c>
+      <c r="AG15">
+        <v>980</v>
+      </c>
+      <c r="AH15">
+        <v>4.8</v>
+      </c>
+      <c r="AI15">
+        <v>980</v>
+      </c>
+      <c r="AJ15">
+        <v>4.4</v>
+      </c>
+      <c r="AK15">
+        <v>980</v>
+      </c>
+      <c r="AL15">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AM15">
+        <v>13.5</v>
+      </c>
+      <c r="AN15">
         <v>4.5</v>
       </c>
-      <c r="L15">
-        <v>2.72</v>
-      </c>
-      <c r="M15">
-        <v>3.5</v>
-      </c>
-      <c r="N15">
-        <v>1.4</v>
-      </c>
-      <c r="O15">
-        <v>1.58</v>
-      </c>
-      <c r="P15">
-        <v>1.47</v>
-      </c>
-      <c r="Q15">
-        <v>1.55</v>
-      </c>
-      <c r="R15">
-        <v>1.12</v>
-      </c>
-      <c r="S15">
-        <v>3.15</v>
-      </c>
-      <c r="T15">
-        <v>4</v>
-      </c>
-      <c r="U15">
-        <v>980</v>
-      </c>
-      <c r="V15">
-        <v>3.95</v>
-      </c>
-      <c r="W15">
-        <v>980</v>
-      </c>
-      <c r="X15">
-        <v>4</v>
-      </c>
-      <c r="Y15">
-        <v>980</v>
-      </c>
-      <c r="Z15">
-        <v>4.2</v>
-      </c>
-      <c r="AA15">
-        <v>1000</v>
-      </c>
-      <c r="AB15">
-        <v>3.7</v>
-      </c>
-      <c r="AC15">
-        <v>980</v>
-      </c>
-      <c r="AD15">
-        <v>9</v>
-      </c>
-      <c r="AE15">
-        <v>980</v>
-      </c>
-      <c r="AF15">
-        <v>3.7</v>
-      </c>
-      <c r="AG15">
-        <v>980</v>
-      </c>
-      <c r="AH15">
-        <v>4</v>
-      </c>
-      <c r="AI15">
-        <v>980</v>
-      </c>
-      <c r="AJ15">
-        <v>3.65</v>
-      </c>
-      <c r="AK15">
-        <v>980</v>
-      </c>
-      <c r="AL15">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AM15">
-        <v>980</v>
-      </c>
-      <c r="AN15">
-        <v>11.5</v>
-      </c>
       <c r="AO15">
         <v>980</v>
       </c>
       <c r="AP15">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="AQ15">
         <v>980</v>
       </c>
       <c r="AR15">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="AS15">
         <v>980</v>
       </c>
       <c r="AT15">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="AU15">
         <v>980</v>
       </c>
       <c r="AV15">
-        <v>3.85</v>
+        <v>4.5</v>
       </c>
       <c r="AW15">
         <v>980</v>
       </c>
       <c r="AX15">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="AY15">
         <v>980</v>
       </c>
       <c r="AZ15">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="BA15">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="BB15">
-        <v>2.06</v>
+        <v>4.4</v>
       </c>
       <c r="BC15">
         <v>980</v>
       </c>
       <c r="BD15">
-        <v>4.4</v>
+        <v>5.3</v>
       </c>
       <c r="BE15">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BF15" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="BG15">
         <v>18571</v>
@@ -4298,16 +4343,16 @@
         <v>58805</v>
       </c>
       <c r="BJ15" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="BK15" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="BL15" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="BM15" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
     </row>
     <row r="16" spans="1:65">
@@ -4315,410 +4360,410 @@
         <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E16" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F16">
-        <v>1.68</v>
+        <v>1.21</v>
       </c>
       <c r="G16">
-        <v>1.69</v>
+        <v>980</v>
       </c>
       <c r="H16">
-        <v>5.4</v>
+        <v>1.21</v>
       </c>
       <c r="I16">
-        <v>5.5</v>
+        <v>990</v>
       </c>
       <c r="J16">
-        <v>4.5</v>
+        <v>1.25</v>
       </c>
       <c r="K16">
-        <v>4.6</v>
+        <v>980</v>
       </c>
       <c r="L16">
-        <v>2.58</v>
+        <v>1.5</v>
       </c>
       <c r="M16">
-        <v>2.68</v>
+        <v>36</v>
       </c>
       <c r="N16">
-        <v>1.6</v>
+        <v>1.03</v>
       </c>
       <c r="O16">
-        <v>1.64</v>
+        <v>3</v>
       </c>
       <c r="P16">
-        <v>1.64</v>
+        <v>1.12</v>
       </c>
       <c r="Q16">
-        <v>1.67</v>
+        <v>1000</v>
       </c>
       <c r="R16">
-        <v>2.5</v>
+        <v>1.12</v>
       </c>
       <c r="S16">
-        <v>2.56</v>
+        <v>1000</v>
       </c>
       <c r="T16">
-        <v>21</v>
+        <v>1.1</v>
       </c>
       <c r="U16">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="V16">
-        <v>24</v>
+        <v>1.1</v>
       </c>
       <c r="W16">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="X16">
-        <v>42</v>
+        <v>1.1</v>
       </c>
       <c r="Y16">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="Z16">
-        <v>100</v>
+        <v>1.03</v>
       </c>
       <c r="AA16">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB16">
-        <v>12</v>
+        <v>1.1</v>
       </c>
       <c r="AC16">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AD16">
-        <v>9.800000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AE16">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AF16">
-        <v>19.5</v>
+        <v>1.1</v>
       </c>
       <c r="AG16">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AH16">
-        <v>50</v>
+        <v>1.03</v>
       </c>
       <c r="AI16">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ16">
-        <v>11</v>
+        <v>1.1</v>
       </c>
       <c r="AK16">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AL16">
-        <v>9.4</v>
+        <v>1.1</v>
       </c>
       <c r="AM16">
-        <v>9.6</v>
+        <v>980</v>
       </c>
       <c r="AN16">
-        <v>16.5</v>
+        <v>1.1</v>
       </c>
       <c r="AO16">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AP16">
-        <v>46</v>
+        <v>1.03</v>
       </c>
       <c r="AQ16">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AR16">
-        <v>17</v>
+        <v>1.03</v>
       </c>
       <c r="AS16">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AT16">
-        <v>13</v>
+        <v>1.1</v>
       </c>
       <c r="AU16">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AV16">
-        <v>24</v>
+        <v>1.03</v>
       </c>
       <c r="AW16">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AX16">
-        <v>55</v>
+        <v>1.03</v>
       </c>
       <c r="AY16">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AZ16">
-        <v>6.6</v>
+        <v>1.01</v>
       </c>
       <c r="BA16">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="BB16">
-        <v>40</v>
+        <v>1.01</v>
       </c>
       <c r="BC16">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="BD16">
-        <v>170</v>
+        <v>1.1</v>
       </c>
       <c r="BE16">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="BF16" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="BG16">
-        <v>47999</v>
+        <v>21094424</v>
       </c>
       <c r="BH16">
-        <v>2426</v>
+        <v>5885611</v>
       </c>
       <c r="BI16">
         <v>58805</v>
       </c>
       <c r="BJ16" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="BK16" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="BL16" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="BM16" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="1:65">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E17" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F17">
-        <v>2.44</v>
+        <v>1.69</v>
       </c>
       <c r="G17">
-        <v>2.46</v>
+        <v>1.71</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>5.1</v>
       </c>
       <c r="I17">
-        <v>3.05</v>
+        <v>5.3</v>
       </c>
       <c r="J17">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="K17">
-        <v>3.85</v>
+        <v>4.6</v>
       </c>
       <c r="L17">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="M17">
-        <v>2.46</v>
+        <v>2.76</v>
       </c>
       <c r="N17">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="O17">
-        <v>1.71</v>
+        <v>1.59</v>
       </c>
       <c r="P17">
+        <v>1.58</v>
+      </c>
+      <c r="Q17">
         <v>1.59</v>
       </c>
-      <c r="Q17">
-        <v>1.63</v>
-      </c>
       <c r="R17">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S17">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="T17">
+        <v>24</v>
+      </c>
+      <c r="U17">
+        <v>25</v>
+      </c>
+      <c r="V17">
+        <v>25</v>
+      </c>
+      <c r="W17">
+        <v>27</v>
+      </c>
+      <c r="X17">
+        <v>40</v>
+      </c>
+      <c r="Y17">
+        <v>44</v>
+      </c>
+      <c r="Z17">
+        <v>100</v>
+      </c>
+      <c r="AA17">
+        <v>120</v>
+      </c>
+      <c r="AB17">
+        <v>12.5</v>
+      </c>
+      <c r="AC17">
+        <v>13</v>
+      </c>
+      <c r="AD17">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE17">
+        <v>10.5</v>
+      </c>
+      <c r="AF17">
         <v>18.5</v>
       </c>
-      <c r="U17">
-        <v>19.5</v>
-      </c>
-      <c r="V17">
+      <c r="AG17">
+        <v>19</v>
+      </c>
+      <c r="AH17">
+        <v>48</v>
+      </c>
+      <c r="AI17">
+        <v>55</v>
+      </c>
+      <c r="AJ17">
+        <v>11.5</v>
+      </c>
+      <c r="AK17">
+        <v>12</v>
+      </c>
+      <c r="AL17">
+        <v>9.4</v>
+      </c>
+      <c r="AM17">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AN17">
         <v>15.5</v>
       </c>
-      <c r="W17">
-        <v>16</v>
-      </c>
-      <c r="X17">
-        <v>21</v>
-      </c>
-      <c r="Y17">
+      <c r="AO17">
+        <v>16.5</v>
+      </c>
+      <c r="AP17">
+        <v>42</v>
+      </c>
+      <c r="AQ17">
+        <v>46</v>
+      </c>
+      <c r="AR17">
+        <v>18</v>
+      </c>
+      <c r="AS17">
+        <v>19</v>
+      </c>
+      <c r="AT17">
+        <v>13</v>
+      </c>
+      <c r="AU17">
+        <v>13.5</v>
+      </c>
+      <c r="AV17">
+        <v>22</v>
+      </c>
+      <c r="AW17">
         <v>23</v>
       </c>
-      <c r="Z17">
-        <v>42</v>
-      </c>
-      <c r="AA17">
-        <v>48</v>
-      </c>
-      <c r="AB17">
-        <v>13.5</v>
-      </c>
-      <c r="AC17">
-        <v>14</v>
-      </c>
-      <c r="AD17">
-        <v>8.4</v>
-      </c>
-      <c r="AE17">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AF17">
-        <v>12</v>
-      </c>
-      <c r="AG17">
-        <v>13</v>
-      </c>
-      <c r="AH17">
-        <v>27</v>
-      </c>
-      <c r="AI17">
-        <v>29</v>
-      </c>
-      <c r="AJ17">
-        <v>16.5</v>
-      </c>
-      <c r="AK17">
-        <v>17</v>
-      </c>
-      <c r="AL17">
-        <v>10.5</v>
-      </c>
-      <c r="AM17">
-        <v>11</v>
-      </c>
-      <c r="AN17">
-        <v>14</v>
-      </c>
-      <c r="AO17">
-        <v>15</v>
-      </c>
-      <c r="AP17">
-        <v>32</v>
-      </c>
-      <c r="AQ17">
-        <v>34</v>
-      </c>
-      <c r="AR17">
-        <v>30</v>
-      </c>
-      <c r="AS17">
-        <v>34</v>
-      </c>
-      <c r="AT17">
-        <v>21</v>
-      </c>
-      <c r="AU17">
-        <v>22</v>
-      </c>
-      <c r="AV17">
-        <v>28</v>
-      </c>
-      <c r="AW17">
-        <v>30</v>
-      </c>
       <c r="AX17">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AY17">
         <v>60</v>
       </c>
       <c r="AZ17">
-        <v>12.5</v>
+        <v>6.8</v>
       </c>
       <c r="BA17">
-        <v>14</v>
+        <v>7.2</v>
       </c>
       <c r="BB17">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="BC17">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="BD17">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="BE17">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="BF17" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="BG17">
-        <v>5774350</v>
+        <v>47999</v>
       </c>
       <c r="BH17">
-        <v>1096</v>
+        <v>2426</v>
       </c>
       <c r="BI17">
         <v>58805</v>
       </c>
       <c r="BJ17" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="BK17" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="BL17" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="BM17" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:65">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E18" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F18">
         <v>12.5</v>
@@ -4727,157 +4772,157 @@
         <v>13.5</v>
       </c>
       <c r="H18">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="I18">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="J18">
         <v>6.2</v>
       </c>
       <c r="K18">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="L18">
+        <v>2.54</v>
+      </c>
+      <c r="M18">
         <v>2.64</v>
       </c>
-      <c r="M18">
-        <v>2.86</v>
-      </c>
       <c r="N18">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="O18">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="P18">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="Q18">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="R18">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="S18">
-        <v>2.06</v>
+        <v>1.97</v>
       </c>
       <c r="T18">
         <v>23</v>
       </c>
       <c r="U18">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V18">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="W18">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X18">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="Y18">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Z18">
         <v>9.6</v>
-      </c>
-      <c r="Z18">
-        <v>9.800000000000001</v>
       </c>
       <c r="AA18">
         <v>10.5</v>
       </c>
       <c r="AB18">
-        <v>13.5</v>
+        <v>38</v>
       </c>
       <c r="AC18">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AD18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE18">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF18">
         <v>9.800000000000001</v>
       </c>
       <c r="AG18">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH18">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AI18">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AJ18">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AK18">
         <v>120</v>
       </c>
       <c r="AL18">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="AM18">
         <v>44</v>
       </c>
       <c r="AN18">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO18">
         <v>30</v>
       </c>
       <c r="AP18">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ18">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AR18">
-        <v>18.5</v>
+        <v>42</v>
       </c>
       <c r="AS18">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AT18">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AU18">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AV18">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AW18">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AX18">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AY18">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="AZ18">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="BA18">
-        <v>980</v>
+        <v>220</v>
       </c>
       <c r="BB18">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="BC18">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="BD18">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="BE18">
         <v>1000</v>
       </c>
       <c r="BF18" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="BG18">
         <v>13133</v>
@@ -4889,213 +4934,213 @@
         <v>58805</v>
       </c>
       <c r="BJ18" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="BK18" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="BL18" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="BM18" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:65">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
         <v>91</v>
       </c>
       <c r="D19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E19" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F19">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="G19">
+        <v>2.5</v>
+      </c>
+      <c r="H19">
+        <v>2.96</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>3.75</v>
+      </c>
+      <c r="K19">
+        <v>3.8</v>
+      </c>
+      <c r="L19">
+        <v>2.5</v>
+      </c>
+      <c r="M19">
+        <v>2.56</v>
+      </c>
+      <c r="N19">
+        <v>1.64</v>
+      </c>
+      <c r="O19">
+        <v>1.67</v>
+      </c>
+      <c r="P19">
+        <v>1.56</v>
+      </c>
+      <c r="Q19">
+        <v>1.59</v>
+      </c>
+      <c r="R19">
         <v>2.7</v>
       </c>
-      <c r="H19">
-        <v>2.72</v>
-      </c>
-      <c r="I19">
-        <v>3.15</v>
-      </c>
-      <c r="J19">
-        <v>3.2</v>
-      </c>
-      <c r="K19">
-        <v>3.9</v>
-      </c>
-      <c r="L19">
-        <v>1.87</v>
-      </c>
-      <c r="M19">
-        <v>2.1</v>
-      </c>
-      <c r="N19">
-        <v>1.92</v>
-      </c>
-      <c r="O19">
-        <v>2.16</v>
-      </c>
-      <c r="P19">
-        <v>1.7</v>
-      </c>
-      <c r="Q19">
-        <v>1.96</v>
-      </c>
-      <c r="R19">
-        <v>2.04</v>
-      </c>
       <c r="S19">
-        <v>2.42</v>
+        <v>2.8</v>
       </c>
       <c r="T19">
+        <v>20</v>
+      </c>
+      <c r="U19">
+        <v>21</v>
+      </c>
+      <c r="V19">
+        <v>15.5</v>
+      </c>
+      <c r="W19">
+        <v>16</v>
+      </c>
+      <c r="X19">
+        <v>22</v>
+      </c>
+      <c r="Y19">
+        <v>23</v>
+      </c>
+      <c r="Z19">
+        <v>42</v>
+      </c>
+      <c r="AA19">
+        <v>46</v>
+      </c>
+      <c r="AB19">
+        <v>14.5</v>
+      </c>
+      <c r="AC19">
+        <v>15.5</v>
+      </c>
+      <c r="AD19">
+        <v>8.6</v>
+      </c>
+      <c r="AE19">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AF19">
+        <v>12</v>
+      </c>
+      <c r="AG19">
+        <v>12.5</v>
+      </c>
+      <c r="AH19">
+        <v>25</v>
+      </c>
+      <c r="AI19">
+        <v>27</v>
+      </c>
+      <c r="AJ19">
+        <v>17.5</v>
+      </c>
+      <c r="AK19">
+        <v>18.5</v>
+      </c>
+      <c r="AL19">
+        <v>10.5</v>
+      </c>
+      <c r="AM19">
         <v>11</v>
       </c>
-      <c r="U19">
-        <v>16.5</v>
-      </c>
-      <c r="V19">
-        <v>10.5</v>
-      </c>
-      <c r="W19">
-        <v>15</v>
-      </c>
-      <c r="X19">
+      <c r="AN19">
+        <v>13.5</v>
+      </c>
+      <c r="AO19">
+        <v>14</v>
+      </c>
+      <c r="AP19">
+        <v>30</v>
+      </c>
+      <c r="AQ19">
+        <v>32</v>
+      </c>
+      <c r="AR19">
+        <v>32</v>
+      </c>
+      <c r="AS19">
+        <v>34</v>
+      </c>
+      <c r="AT19">
+        <v>21</v>
+      </c>
+      <c r="AU19">
+        <v>22</v>
+      </c>
+      <c r="AV19">
+        <v>27</v>
+      </c>
+      <c r="AW19">
+        <v>28</v>
+      </c>
+      <c r="AX19">
+        <v>46</v>
+      </c>
+      <c r="AY19">
+        <v>55</v>
+      </c>
+      <c r="AZ19">
+        <v>12.5</v>
+      </c>
+      <c r="BA19">
+        <v>13.5</v>
+      </c>
+      <c r="BB19">
         <v>17</v>
       </c>
-      <c r="Y19">
-        <v>25</v>
-      </c>
-      <c r="Z19">
-        <v>4.4</v>
-      </c>
-      <c r="AA19">
-        <v>980</v>
-      </c>
-      <c r="AB19">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC19">
-        <v>13.5</v>
-      </c>
-      <c r="AD19">
-        <v>6.8</v>
-      </c>
-      <c r="AE19">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AF19">
-        <v>11</v>
-      </c>
-      <c r="AG19">
-        <v>16</v>
-      </c>
-      <c r="AH19">
-        <v>4.7</v>
-      </c>
-      <c r="AI19">
-        <v>50</v>
-      </c>
-      <c r="AJ19">
-        <v>12.5</v>
-      </c>
-      <c r="AK19">
-        <v>21</v>
-      </c>
-      <c r="AL19">
-        <v>10</v>
-      </c>
-      <c r="AM19">
-        <v>15</v>
-      </c>
-      <c r="AN19">
-        <v>14.5</v>
-      </c>
-      <c r="AO19">
-        <v>22</v>
-      </c>
-      <c r="AP19">
-        <v>4.9</v>
-      </c>
-      <c r="AQ19">
-        <v>980</v>
-      </c>
-      <c r="AR19">
-        <v>27</v>
-      </c>
-      <c r="AS19">
-        <v>980</v>
-      </c>
-      <c r="AT19">
-        <v>22</v>
-      </c>
-      <c r="AU19">
-        <v>36</v>
-      </c>
-      <c r="AV19">
-        <v>4.2</v>
-      </c>
-      <c r="AW19">
-        <v>980</v>
-      </c>
-      <c r="AX19">
-        <v>4.4</v>
-      </c>
-      <c r="AY19">
-        <v>980</v>
-      </c>
-      <c r="AZ19">
-        <v>3.7</v>
-      </c>
-      <c r="BA19">
-        <v>28</v>
-      </c>
-      <c r="BB19">
-        <v>3.8</v>
-      </c>
       <c r="BC19">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="BD19">
-        <v>4.2</v>
+        <v>160</v>
       </c>
       <c r="BE19">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="BF19" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="BG19">
-        <v>5129869</v>
+        <v>5774350</v>
       </c>
       <c r="BH19">
-        <v>2019917</v>
+        <v>1096</v>
       </c>
       <c r="BI19">
         <v>58805</v>
       </c>
       <c r="BJ19" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="BK19" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="BL19" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="BM19" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:65">
@@ -5103,196 +5148,196 @@
         <v>77</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
         <v>92</v>
       </c>
       <c r="D20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E20" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F20">
-        <v>1.05</v>
+        <v>2.44</v>
       </c>
       <c r="G20">
-        <v>900</v>
+        <v>2.68</v>
       </c>
       <c r="H20">
-        <v>1.04</v>
+        <v>2.9</v>
       </c>
       <c r="I20">
-        <v>1000</v>
+        <v>3.1</v>
       </c>
       <c r="J20">
-        <v>1.01</v>
+        <v>3.25</v>
       </c>
       <c r="K20">
-        <v>1000</v>
+        <v>3.75</v>
       </c>
       <c r="L20">
-        <v>1.2</v>
+        <v>1.88</v>
       </c>
       <c r="M20">
-        <v>990</v>
+        <v>2.1</v>
       </c>
       <c r="N20">
-        <v>1.03</v>
+        <v>1.91</v>
       </c>
       <c r="O20">
-        <v>990</v>
+        <v>2.14</v>
       </c>
       <c r="P20">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="Q20">
-        <v>1000</v>
+        <v>1.88</v>
       </c>
       <c r="R20">
-        <v>1.01</v>
+        <v>2.14</v>
       </c>
       <c r="S20">
-        <v>1000</v>
+        <v>2.3</v>
       </c>
       <c r="T20">
-        <v>1.43</v>
+        <v>11</v>
       </c>
       <c r="U20">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="V20">
-        <v>1.01</v>
+        <v>10.5</v>
       </c>
       <c r="W20">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="X20">
-        <v>1.01</v>
+        <v>17</v>
       </c>
       <c r="Y20">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Z20">
-        <v>1.01</v>
+        <v>4.4</v>
       </c>
       <c r="AA20">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB20">
-        <v>1.01</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC20">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD20">
-        <v>1.01</v>
+        <v>7.2</v>
       </c>
       <c r="AE20">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AF20">
-        <v>1.01</v>
+        <v>11</v>
       </c>
       <c r="AG20">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH20">
-        <v>1.01</v>
+        <v>4.5</v>
       </c>
       <c r="AI20">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ20">
-        <v>1.01</v>
+        <v>12.5</v>
       </c>
       <c r="AK20">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL20">
-        <v>1.01</v>
+        <v>10</v>
       </c>
       <c r="AM20">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AN20">
-        <v>1.01</v>
+        <v>14.5</v>
       </c>
       <c r="AO20">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AP20">
-        <v>1.01</v>
+        <v>4.7</v>
       </c>
       <c r="AQ20">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR20">
-        <v>1.01</v>
+        <v>27</v>
       </c>
       <c r="AS20">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT20">
-        <v>1.01</v>
+        <v>22</v>
       </c>
       <c r="AU20">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AV20">
-        <v>1.01</v>
+        <v>4.4</v>
       </c>
       <c r="AW20">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX20">
-        <v>1.01</v>
+        <v>4.6</v>
       </c>
       <c r="AY20">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ20">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="BA20">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="BB20">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="BC20">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="BD20">
-        <v>14.5</v>
+        <v>4.8</v>
       </c>
       <c r="BE20">
         <v>1000</v>
       </c>
       <c r="BF20" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="BG20">
-        <v>5327095</v>
+        <v>5129869</v>
       </c>
       <c r="BH20">
-        <v>5336581</v>
+        <v>2019917</v>
       </c>
       <c r="BI20">
         <v>58805</v>
       </c>
       <c r="BJ20" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="BK20" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="BL20" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="BM20" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:65">
@@ -5300,196 +5345,196 @@
         <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
         <v>93</v>
       </c>
       <c r="D21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E21" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F21">
-        <v>1.77</v>
+        <v>1.05</v>
       </c>
       <c r="G21">
-        <v>1.87</v>
+        <v>900</v>
       </c>
       <c r="H21">
-        <v>5.6</v>
+        <v>1.04</v>
       </c>
       <c r="I21">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="J21">
-        <v>3.4</v>
+        <v>1.01</v>
       </c>
       <c r="K21">
-        <v>3.65</v>
+        <v>1000</v>
       </c>
       <c r="L21">
-        <v>1.64</v>
+        <v>1.2</v>
       </c>
       <c r="M21">
-        <v>1.74</v>
+        <v>990</v>
       </c>
       <c r="N21">
-        <v>2.36</v>
+        <v>1.03</v>
       </c>
       <c r="O21">
-        <v>2.56</v>
+        <v>990</v>
       </c>
       <c r="P21">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="Q21">
-        <v>2.36</v>
+        <v>1000</v>
       </c>
       <c r="R21">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="S21">
-        <v>1.84</v>
+        <v>1000</v>
       </c>
       <c r="T21">
-        <v>8.199999999999999</v>
+        <v>1.43</v>
       </c>
       <c r="U21">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="V21">
-        <v>13</v>
+        <v>1.01</v>
       </c>
       <c r="W21">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="X21">
-        <v>6</v>
+        <v>1.01</v>
       </c>
       <c r="Y21">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z21">
-        <v>6.6</v>
+        <v>1.01</v>
       </c>
       <c r="AA21">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB21">
-        <v>6</v>
+        <v>1.01</v>
       </c>
       <c r="AC21">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AD21">
-        <v>7.4</v>
+        <v>1.01</v>
       </c>
       <c r="AE21">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AF21">
-        <v>19</v>
+        <v>1.01</v>
       </c>
       <c r="AG21">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH21">
-        <v>6.6</v>
+        <v>1.01</v>
       </c>
       <c r="AI21">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ21">
-        <v>8.199999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="AK21">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AL21">
-        <v>9.199999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="AM21">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AN21">
-        <v>5.9</v>
+        <v>1.01</v>
       </c>
       <c r="AO21">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AP21">
-        <v>6.6</v>
+        <v>1.01</v>
       </c>
       <c r="AQ21">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AR21">
-        <v>16.5</v>
+        <v>1.01</v>
       </c>
       <c r="AS21">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AT21">
-        <v>5.9</v>
+        <v>1.01</v>
       </c>
       <c r="AU21">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AV21">
-        <v>6.2</v>
+        <v>1.01</v>
       </c>
       <c r="AW21">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AX21">
-        <v>6.8</v>
+        <v>1.01</v>
       </c>
       <c r="AY21">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AZ21">
-        <v>5</v>
+        <v>1.01</v>
       </c>
       <c r="BA21">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="BB21">
-        <v>6.6</v>
+        <v>1.01</v>
       </c>
       <c r="BC21">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="BD21">
-        <v>7</v>
+        <v>14.5</v>
       </c>
       <c r="BE21">
         <v>1000</v>
       </c>
       <c r="BF21" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="BG21">
-        <v>8717595</v>
+        <v>5327095</v>
       </c>
       <c r="BH21">
-        <v>5615116</v>
+        <v>5336581</v>
       </c>
       <c r="BI21">
         <v>58805</v>
       </c>
       <c r="BJ21" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="BK21" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="BL21" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="BM21" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22" spans="1:65">
@@ -5497,1300 +5542,1300 @@
         <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
         <v>94</v>
       </c>
       <c r="D22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E22" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F22">
+        <v>1.77</v>
+      </c>
+      <c r="G22">
+        <v>1.83</v>
+      </c>
+      <c r="H22">
+        <v>5.7</v>
+      </c>
+      <c r="I22">
+        <v>6.4</v>
+      </c>
+      <c r="J22">
+        <v>3.45</v>
+      </c>
+      <c r="K22">
+        <v>3.65</v>
+      </c>
+      <c r="L22">
+        <v>1.65</v>
+      </c>
+      <c r="M22">
+        <v>1.77</v>
+      </c>
+      <c r="N22">
+        <v>2.3</v>
+      </c>
+      <c r="O22">
+        <v>2.54</v>
+      </c>
+      <c r="P22">
+        <v>2.18</v>
+      </c>
+      <c r="Q22">
         <v>2.36</v>
       </c>
-      <c r="G22">
-        <v>980</v>
-      </c>
-      <c r="H22">
-        <v>3.2</v>
-      </c>
-      <c r="I22">
-        <v>4.3</v>
-      </c>
-      <c r="J22">
-        <v>2.66</v>
-      </c>
-      <c r="K22">
-        <v>3.8</v>
-      </c>
-      <c r="L22">
-        <v>1.38</v>
-      </c>
-      <c r="M22">
-        <v>2.1</v>
-      </c>
-      <c r="N22">
-        <v>1.92</v>
-      </c>
-      <c r="O22">
-        <v>3.6</v>
-      </c>
-      <c r="P22">
-        <v>1.12</v>
-      </c>
-      <c r="Q22">
-        <v>1000</v>
-      </c>
       <c r="R22">
-        <v>1.12</v>
+        <v>1.73</v>
       </c>
       <c r="S22">
-        <v>1000</v>
+        <v>1.85</v>
       </c>
       <c r="T22">
-        <v>1.49</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="U22">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="V22">
-        <v>1.01</v>
+        <v>13.5</v>
       </c>
       <c r="W22">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="X22">
-        <v>1.01</v>
+        <v>7.2</v>
       </c>
       <c r="Y22">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z22">
-        <v>1.01</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA22">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB22">
-        <v>1.01</v>
+        <v>6</v>
       </c>
       <c r="AC22">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AD22">
-        <v>1.01</v>
+        <v>7.4</v>
       </c>
       <c r="AE22">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AF22">
-        <v>1.01</v>
+        <v>19</v>
       </c>
       <c r="AG22">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH22">
-        <v>1.01</v>
+        <v>8</v>
       </c>
       <c r="AI22">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ22">
-        <v>1.01</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AK22">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AL22">
-        <v>1.01</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AM22">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AN22">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="AO22">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AP22">
-        <v>1.01</v>
+        <v>8</v>
       </c>
       <c r="AQ22">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR22">
-        <v>1.01</v>
+        <v>16</v>
       </c>
       <c r="AS22">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AT22">
-        <v>1.01</v>
+        <v>19</v>
       </c>
       <c r="AU22">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV22">
-        <v>1.01</v>
+        <v>7.4</v>
       </c>
       <c r="AW22">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX22">
-        <v>1.01</v>
+        <v>26</v>
       </c>
       <c r="AY22">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ22">
-        <v>1.01</v>
+        <v>5.7</v>
       </c>
       <c r="BA22">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="BB22">
-        <v>1.01</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BC22">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD22">
-        <v>1.01</v>
+        <v>8.4</v>
       </c>
       <c r="BE22">
         <v>1000</v>
       </c>
       <c r="BF22" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="BG22">
-        <v>25894882</v>
+        <v>8717595</v>
       </c>
       <c r="BH22">
-        <v>44232344</v>
+        <v>5615116</v>
       </c>
       <c r="BI22">
         <v>58805</v>
       </c>
       <c r="BJ22" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="BK22" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="BL22" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="BM22" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23" spans="1:65">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
         <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E23" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F23">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="G23">
-        <v>2.54</v>
+        <v>980</v>
       </c>
       <c r="H23">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="I23">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="J23">
-        <v>3.45</v>
+        <v>2.48</v>
       </c>
       <c r="K23">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="L23">
-        <v>1.87</v>
+        <v>1.27</v>
       </c>
       <c r="M23">
-        <v>2.02</v>
+        <v>2.74</v>
       </c>
       <c r="N23">
-        <v>1.98</v>
+        <v>1.58</v>
       </c>
       <c r="O23">
-        <v>2.16</v>
+        <v>4.6</v>
       </c>
       <c r="P23">
-        <v>1.81</v>
+        <v>1.12</v>
       </c>
       <c r="Q23">
-        <v>1.9</v>
+        <v>1000</v>
       </c>
       <c r="R23">
-        <v>2.1</v>
+        <v>1.12</v>
       </c>
       <c r="S23">
-        <v>2.22</v>
+        <v>1000</v>
       </c>
       <c r="T23">
-        <v>11</v>
+        <v>1.49</v>
       </c>
       <c r="U23">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="V23">
-        <v>11</v>
+        <v>1.01</v>
       </c>
       <c r="W23">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="X23">
-        <v>18</v>
+        <v>1.01</v>
       </c>
       <c r="Y23">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Z23">
-        <v>48</v>
+        <v>1.01</v>
       </c>
       <c r="AA23">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB23">
-        <v>8.4</v>
+        <v>1.01</v>
       </c>
       <c r="AC23">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD23">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="AE23">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AF23">
-        <v>12.5</v>
+        <v>1.02</v>
       </c>
       <c r="AG23">
+        <v>1000</v>
+      </c>
+      <c r="AH23">
+        <v>1.01</v>
+      </c>
+      <c r="AI23">
+        <v>1000</v>
+      </c>
+      <c r="AJ23">
+        <v>1.01</v>
+      </c>
+      <c r="AK23">
+        <v>1000</v>
+      </c>
+      <c r="AL23">
+        <v>1.02</v>
+      </c>
+      <c r="AM23">
+        <v>1000</v>
+      </c>
+      <c r="AN23">
+        <v>1.01</v>
+      </c>
+      <c r="AO23">
+        <v>1000</v>
+      </c>
+      <c r="AP23">
+        <v>1.01</v>
+      </c>
+      <c r="AQ23">
+        <v>1000</v>
+      </c>
+      <c r="AR23">
+        <v>1.01</v>
+      </c>
+      <c r="AS23">
+        <v>1000</v>
+      </c>
+      <c r="AT23">
+        <v>1.01</v>
+      </c>
+      <c r="AU23">
+        <v>1000</v>
+      </c>
+      <c r="AV23">
+        <v>1.01</v>
+      </c>
+      <c r="AW23">
+        <v>1000</v>
+      </c>
+      <c r="AX23">
+        <v>1.01</v>
+      </c>
+      <c r="AY23">
+        <v>1000</v>
+      </c>
+      <c r="AZ23">
+        <v>1.55</v>
+      </c>
+      <c r="BA23">
+        <v>1000</v>
+      </c>
+      <c r="BB23">
+        <v>1.55</v>
+      </c>
+      <c r="BC23">
+        <v>1000</v>
+      </c>
+      <c r="BD23">
         <v>15</v>
       </c>
-      <c r="AH23">
-        <v>6.8</v>
-      </c>
-      <c r="AI23">
-        <v>40</v>
-      </c>
-      <c r="AJ23">
-        <v>13</v>
-      </c>
-      <c r="AK23">
-        <v>17</v>
-      </c>
-      <c r="AL23">
-        <v>10</v>
-      </c>
-      <c r="AM23">
-        <v>13</v>
-      </c>
-      <c r="AN23">
-        <v>16</v>
-      </c>
-      <c r="AO23">
-        <v>21</v>
-      </c>
-      <c r="AP23">
-        <v>7.2</v>
-      </c>
-      <c r="AQ23">
-        <v>980</v>
-      </c>
-      <c r="AR23">
-        <v>6.8</v>
-      </c>
-      <c r="AS23">
-        <v>38</v>
-      </c>
-      <c r="AT23">
-        <v>22</v>
-      </c>
-      <c r="AU23">
-        <v>30</v>
-      </c>
-      <c r="AV23">
-        <v>34</v>
-      </c>
-      <c r="AW23">
-        <v>48</v>
-      </c>
-      <c r="AX23">
-        <v>7.8</v>
-      </c>
-      <c r="AY23">
-        <v>980</v>
-      </c>
-      <c r="AZ23">
-        <v>6.2</v>
-      </c>
-      <c r="BA23">
-        <v>25</v>
-      </c>
-      <c r="BB23">
-        <v>6.8</v>
-      </c>
-      <c r="BC23">
-        <v>40</v>
-      </c>
-      <c r="BD23">
-        <v>8.199999999999999</v>
-      </c>
       <c r="BE23">
         <v>1000</v>
       </c>
       <c r="BF23" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="BG23">
-        <v>198134</v>
+        <v>25894882</v>
       </c>
       <c r="BH23">
-        <v>36860494</v>
+        <v>44232344</v>
       </c>
       <c r="BI23">
         <v>58805</v>
       </c>
       <c r="BJ23" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="BK23" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="BL23" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="BM23" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
     </row>
     <row r="24" spans="1:65">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E24" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F24">
-        <v>1.91</v>
+        <v>2.42</v>
       </c>
       <c r="G24">
-        <v>2.02</v>
+        <v>2.52</v>
       </c>
       <c r="H24">
-        <v>4.4</v>
+        <v>3.15</v>
       </c>
       <c r="I24">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="J24">
+        <v>3.45</v>
+      </c>
+      <c r="K24">
         <v>3.5</v>
       </c>
-      <c r="K24">
-        <v>3.7</v>
-      </c>
       <c r="L24">
-        <v>1.73</v>
+        <v>1.9</v>
       </c>
       <c r="M24">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="N24">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="O24">
-        <v>2.38</v>
+        <v>2.12</v>
       </c>
       <c r="P24">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="Q24">
-        <v>2.08</v>
+        <v>1.9</v>
       </c>
       <c r="R24">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="S24">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="T24">
+        <v>11</v>
+      </c>
+      <c r="U24">
+        <v>14</v>
+      </c>
+      <c r="V24">
+        <v>11</v>
+      </c>
+      <c r="W24">
+        <v>12.5</v>
+      </c>
+      <c r="X24">
+        <v>18</v>
+      </c>
+      <c r="Y24">
+        <v>24</v>
+      </c>
+      <c r="Z24">
+        <v>48</v>
+      </c>
+      <c r="AA24">
+        <v>980</v>
+      </c>
+      <c r="AB24">
+        <v>8.4</v>
+      </c>
+      <c r="AC24">
         <v>10.5</v>
       </c>
-      <c r="U24">
+      <c r="AD24">
+        <v>7</v>
+      </c>
+      <c r="AE24">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AF24">
         <v>12.5</v>
       </c>
-      <c r="V24">
+      <c r="AG24">
+        <v>15.5</v>
+      </c>
+      <c r="AH24">
+        <v>6.6</v>
+      </c>
+      <c r="AI24">
+        <v>42</v>
+      </c>
+      <c r="AJ24">
         <v>13</v>
       </c>
-      <c r="W24">
-        <v>16.5</v>
-      </c>
-      <c r="X24">
-        <v>7.2</v>
-      </c>
-      <c r="Y24">
-        <v>42</v>
-      </c>
-      <c r="Z24">
-        <v>7.4</v>
-      </c>
-      <c r="AA24">
-        <v>130</v>
-      </c>
-      <c r="AB24">
+      <c r="AK24">
+        <v>17</v>
+      </c>
+      <c r="AL24">
+        <v>10.5</v>
+      </c>
+      <c r="AM24">
+        <v>13</v>
+      </c>
+      <c r="AN24">
+        <v>16</v>
+      </c>
+      <c r="AO24">
+        <v>21</v>
+      </c>
+      <c r="AP24">
         <v>6.8</v>
       </c>
-      <c r="AC24">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD24">
-        <v>7.4</v>
-      </c>
-      <c r="AE24">
-        <v>8.6</v>
-      </c>
-      <c r="AF24">
-        <v>16</v>
-      </c>
-      <c r="AG24">
-        <v>21</v>
-      </c>
-      <c r="AH24">
+      <c r="AQ24">
+        <v>980</v>
+      </c>
+      <c r="AR24">
+        <v>7.8</v>
+      </c>
+      <c r="AS24">
+        <v>38</v>
+      </c>
+      <c r="AT24">
+        <v>22</v>
+      </c>
+      <c r="AU24">
+        <v>30</v>
+      </c>
+      <c r="AV24">
+        <v>34</v>
+      </c>
+      <c r="AW24">
         <v>48</v>
       </c>
-      <c r="AI24">
-        <v>80</v>
-      </c>
-      <c r="AJ24">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AK24">
-        <v>11.5</v>
-      </c>
-      <c r="AL24">
-        <v>9.4</v>
-      </c>
-      <c r="AM24">
-        <v>12</v>
-      </c>
-      <c r="AN24">
-        <v>18</v>
-      </c>
-      <c r="AO24">
-        <v>22</v>
-      </c>
-      <c r="AP24">
-        <v>50</v>
-      </c>
-      <c r="AQ24">
-        <v>95</v>
-      </c>
-      <c r="AR24">
-        <v>18.5</v>
-      </c>
-      <c r="AS24">
-        <v>24</v>
-      </c>
-      <c r="AT24">
-        <v>19.5</v>
-      </c>
-      <c r="AU24">
-        <v>24</v>
-      </c>
-      <c r="AV24">
-        <v>7</v>
-      </c>
-      <c r="AW24">
-        <v>55</v>
-      </c>
       <c r="AX24">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="AY24">
-        <v>170</v>
+        <v>980</v>
       </c>
       <c r="AZ24">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="BA24">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="BB24">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="BC24">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="BD24">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="BE24">
         <v>1000</v>
       </c>
       <c r="BF24" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="BG24">
-        <v>4701919</v>
+        <v>198134</v>
       </c>
       <c r="BH24">
-        <v>198124</v>
+        <v>36860494</v>
       </c>
       <c r="BI24">
         <v>58805</v>
       </c>
       <c r="BJ24" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="BK24" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="BL24" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="BM24" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:65">
       <c r="A25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
         <v>96</v>
       </c>
       <c r="D25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E25" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F25">
-        <v>1.78</v>
+        <v>1.93</v>
       </c>
       <c r="G25">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="H25">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="I25">
-        <v>6.6</v>
+        <v>4.9</v>
       </c>
       <c r="J25">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K25">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L25">
-        <v>1.51</v>
+        <v>1.76</v>
       </c>
       <c r="M25">
-        <v>1.7</v>
+        <v>1.97</v>
       </c>
       <c r="N25">
-        <v>2.44</v>
+        <v>2.04</v>
       </c>
       <c r="O25">
-        <v>2.96</v>
+        <v>2.32</v>
       </c>
       <c r="P25">
-        <v>2.2</v>
+        <v>1.88</v>
       </c>
       <c r="Q25">
-        <v>2.54</v>
+        <v>2.08</v>
       </c>
       <c r="R25">
-        <v>1.65</v>
+        <v>1.93</v>
       </c>
       <c r="S25">
-        <v>1.84</v>
+        <v>2.14</v>
       </c>
       <c r="T25">
-        <v>7.8</v>
+        <v>10.5</v>
       </c>
       <c r="U25">
-        <v>9.6</v>
+        <v>12.5</v>
       </c>
       <c r="V25">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="W25">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="X25">
-        <v>6.2</v>
+        <v>7.4</v>
       </c>
       <c r="Y25">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="Z25">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AA25">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AB25">
-        <v>5.4</v>
+        <v>6.8</v>
       </c>
       <c r="AC25">
-        <v>6.8</v>
+        <v>8.4</v>
       </c>
       <c r="AD25">
+        <v>7.4</v>
+      </c>
+      <c r="AE25">
+        <v>8.6</v>
+      </c>
+      <c r="AF25">
+        <v>16</v>
+      </c>
+      <c r="AG25">
+        <v>21</v>
+      </c>
+      <c r="AH25">
+        <v>48</v>
+      </c>
+      <c r="AI25">
+        <v>80</v>
+      </c>
+      <c r="AJ25">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AK25">
+        <v>11.5</v>
+      </c>
+      <c r="AL25">
+        <v>9.4</v>
+      </c>
+      <c r="AM25">
+        <v>12</v>
+      </c>
+      <c r="AN25">
+        <v>18</v>
+      </c>
+      <c r="AO25">
+        <v>22</v>
+      </c>
+      <c r="AP25">
+        <v>50</v>
+      </c>
+      <c r="AQ25">
+        <v>90</v>
+      </c>
+      <c r="AR25">
+        <v>18.5</v>
+      </c>
+      <c r="AS25">
+        <v>24</v>
+      </c>
+      <c r="AT25">
+        <v>19.5</v>
+      </c>
+      <c r="AU25">
+        <v>24</v>
+      </c>
+      <c r="AV25">
         <v>7.2</v>
       </c>
-      <c r="AE25">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AF25">
-        <v>19.5</v>
-      </c>
-      <c r="AG25">
-        <v>27</v>
-      </c>
-      <c r="AH25">
-        <v>6.8</v>
-      </c>
-      <c r="AI25">
-        <v>980</v>
-      </c>
-      <c r="AJ25">
-        <v>8.6</v>
-      </c>
-      <c r="AK25">
-        <v>10.5</v>
-      </c>
-      <c r="AL25">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AM25">
-        <v>12.5</v>
-      </c>
-      <c r="AN25">
-        <v>22</v>
-      </c>
-      <c r="AO25">
-        <v>32</v>
-      </c>
-      <c r="AP25">
-        <v>6.8</v>
-      </c>
-      <c r="AQ25">
-        <v>980</v>
-      </c>
-      <c r="AR25">
-        <v>17.5</v>
-      </c>
-      <c r="AS25">
-        <v>980</v>
-      </c>
-      <c r="AT25">
-        <v>20</v>
-      </c>
-      <c r="AU25">
-        <v>980</v>
-      </c>
-      <c r="AV25">
-        <v>6.6</v>
-      </c>
       <c r="AW25">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AX25">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="AY25">
-        <v>980</v>
+        <v>170</v>
       </c>
       <c r="AZ25">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="BA25">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="BB25">
         <v>7</v>
       </c>
       <c r="BC25">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="BD25">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="BE25">
         <v>1000</v>
       </c>
       <c r="BF25" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="BG25">
-        <v>220949</v>
+        <v>4701919</v>
       </c>
       <c r="BH25">
-        <v>5994579</v>
+        <v>198124</v>
       </c>
       <c r="BI25">
         <v>58805</v>
       </c>
       <c r="BJ25" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="BK25" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="BL25" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="BM25" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="1:65">
       <c r="A26" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s">
         <v>97</v>
       </c>
       <c r="D26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E26" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F26">
-        <v>1.37</v>
+        <v>1.83</v>
       </c>
       <c r="G26">
-        <v>1.42</v>
+        <v>1.93</v>
       </c>
       <c r="H26">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I26">
+        <v>6</v>
+      </c>
+      <c r="J26">
+        <v>3.3</v>
+      </c>
+      <c r="K26">
+        <v>3.55</v>
+      </c>
+      <c r="L26">
+        <v>1.55</v>
+      </c>
+      <c r="M26">
+        <v>1.69</v>
+      </c>
+      <c r="N26">
+        <v>2.46</v>
+      </c>
+      <c r="O26">
+        <v>2.82</v>
+      </c>
+      <c r="P26">
+        <v>2.22</v>
+      </c>
+      <c r="Q26">
+        <v>2.5</v>
+      </c>
+      <c r="R26">
+        <v>1.67</v>
+      </c>
+      <c r="S26">
+        <v>1.82</v>
+      </c>
+      <c r="T26">
+        <v>7.8</v>
+      </c>
+      <c r="U26">
+        <v>9.6</v>
+      </c>
+      <c r="V26">
         <v>12.5</v>
       </c>
-      <c r="J26">
-        <v>4.9</v>
-      </c>
-      <c r="K26">
+      <c r="W26">
+        <v>980</v>
+      </c>
+      <c r="X26">
+        <v>6.4</v>
+      </c>
+      <c r="Y26">
+        <v>980</v>
+      </c>
+      <c r="Z26">
+        <v>7</v>
+      </c>
+      <c r="AA26">
+        <v>980</v>
+      </c>
+      <c r="AB26">
         <v>5.6</v>
       </c>
-      <c r="L26">
-        <v>1.54</v>
-      </c>
-      <c r="M26">
-        <v>1.95</v>
-      </c>
-      <c r="N26">
-        <v>2.06</v>
-      </c>
-      <c r="O26">
-        <v>2.86</v>
-      </c>
-      <c r="P26">
-        <v>2.3</v>
-      </c>
-      <c r="Q26">
-        <v>2.62</v>
-      </c>
-      <c r="R26">
-        <v>1.62</v>
-      </c>
-      <c r="S26">
-        <v>1.77</v>
-      </c>
-      <c r="T26">
-        <v>11.5</v>
-      </c>
-      <c r="U26">
-        <v>14</v>
-      </c>
-      <c r="V26">
-        <v>24</v>
-      </c>
-      <c r="W26">
-        <v>30</v>
-      </c>
-      <c r="X26">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Y26">
-        <v>980</v>
-      </c>
-      <c r="Z26">
+      <c r="AC26">
+        <v>6.8</v>
+      </c>
+      <c r="AD26">
+        <v>7.2</v>
+      </c>
+      <c r="AE26">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AF26">
+        <v>19.5</v>
+      </c>
+      <c r="AG26">
+        <v>27</v>
+      </c>
+      <c r="AH26">
+        <v>6.8</v>
+      </c>
+      <c r="AI26">
+        <v>980</v>
+      </c>
+      <c r="AJ26">
+        <v>8.6</v>
+      </c>
+      <c r="AK26">
+        <v>10.5</v>
+      </c>
+      <c r="AL26">
         <v>10</v>
       </c>
-      <c r="AA26">
-        <v>980</v>
-      </c>
-      <c r="AB26">
-        <v>5.9</v>
-      </c>
-      <c r="AC26">
+      <c r="AM26">
+        <v>12.5</v>
+      </c>
+      <c r="AN26">
+        <v>22</v>
+      </c>
+      <c r="AO26">
+        <v>32</v>
+      </c>
+      <c r="AP26">
         <v>7</v>
       </c>
-      <c r="AD26">
-        <v>10</v>
-      </c>
-      <c r="AE26">
-        <v>11.5</v>
-      </c>
-      <c r="AF26">
-        <v>30</v>
-      </c>
-      <c r="AG26">
-        <v>44</v>
-      </c>
-      <c r="AH26">
-        <v>10</v>
-      </c>
-      <c r="AI26">
-        <v>980</v>
-      </c>
-      <c r="AJ26">
-        <v>6.4</v>
-      </c>
-      <c r="AK26">
-        <v>7.6</v>
-      </c>
-      <c r="AL26">
-        <v>9</v>
-      </c>
-      <c r="AM26">
-        <v>11</v>
-      </c>
-      <c r="AN26">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AO26">
-        <v>38</v>
-      </c>
-      <c r="AP26">
-        <v>10</v>
-      </c>
       <c r="AQ26">
         <v>980</v>
       </c>
       <c r="AR26">
-        <v>10</v>
+        <v>17.5</v>
       </c>
       <c r="AS26">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AT26">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AU26">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AV26">
-        <v>38</v>
+        <v>6.6</v>
       </c>
       <c r="AW26">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AX26">
-        <v>9.800000000000001</v>
+        <v>7</v>
       </c>
       <c r="AY26">
         <v>980</v>
       </c>
       <c r="AZ26">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="BA26">
-        <v>8.6</v>
+        <v>980</v>
       </c>
       <c r="BB26">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BC26">
         <v>980</v>
       </c>
       <c r="BD26">
-        <v>10</v>
+        <v>7.4</v>
       </c>
       <c r="BE26">
         <v>1000</v>
       </c>
       <c r="BF26" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="BG26">
-        <v>361329</v>
+        <v>220949</v>
       </c>
       <c r="BH26">
-        <v>356589</v>
+        <v>5994579</v>
       </c>
       <c r="BI26">
         <v>58805</v>
       </c>
       <c r="BJ26" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="BK26" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="BL26" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="BM26" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" spans="1:65">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E27" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F27">
-        <v>1.72</v>
+        <v>1.4</v>
       </c>
       <c r="G27">
-        <v>1.76</v>
+        <v>1.43</v>
       </c>
       <c r="H27">
-        <v>5.8</v>
+        <v>9.6</v>
       </c>
       <c r="I27">
-        <v>6.6</v>
+        <v>12</v>
       </c>
       <c r="J27">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="K27">
-        <v>3.85</v>
+        <v>5.2</v>
       </c>
       <c r="L27">
-        <v>1.53</v>
+        <v>1.85</v>
       </c>
       <c r="M27">
-        <v>1.84</v>
+        <v>2.06</v>
       </c>
       <c r="N27">
+        <v>1.96</v>
+      </c>
+      <c r="O27">
         <v>2.18</v>
       </c>
-      <c r="O27">
-        <v>2.88</v>
-      </c>
       <c r="P27">
-        <v>1.99</v>
+        <v>2.3</v>
       </c>
       <c r="Q27">
-        <v>2.2</v>
+        <v>2.62</v>
       </c>
       <c r="R27">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="S27">
-        <v>2.02</v>
+        <v>1.77</v>
       </c>
       <c r="T27">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="U27">
+        <v>15.5</v>
+      </c>
+      <c r="V27">
+        <v>24</v>
+      </c>
+      <c r="W27">
+        <v>32</v>
+      </c>
+      <c r="X27">
+        <v>8</v>
+      </c>
+      <c r="Y27">
+        <v>980</v>
+      </c>
+      <c r="Z27">
+        <v>7</v>
+      </c>
+      <c r="AA27">
+        <v>980</v>
+      </c>
+      <c r="AB27">
+        <v>6.2</v>
+      </c>
+      <c r="AC27">
+        <v>7.2</v>
+      </c>
+      <c r="AD27">
+        <v>10</v>
+      </c>
+      <c r="AE27">
+        <v>13</v>
+      </c>
+      <c r="AF27">
+        <v>30</v>
+      </c>
+      <c r="AG27">
+        <v>46</v>
+      </c>
+      <c r="AH27">
+        <v>6.8</v>
+      </c>
+      <c r="AI27">
+        <v>980</v>
+      </c>
+      <c r="AJ27">
+        <v>6.4</v>
+      </c>
+      <c r="AK27">
+        <v>8</v>
+      </c>
+      <c r="AL27">
+        <v>9</v>
+      </c>
+      <c r="AM27">
         <v>12</v>
       </c>
-      <c r="V27">
-        <v>15.5</v>
-      </c>
-      <c r="W27">
-        <v>18</v>
-      </c>
-      <c r="X27">
+      <c r="AN27">
+        <v>29</v>
+      </c>
+      <c r="AO27">
         <v>40</v>
       </c>
-      <c r="Y27">
-        <v>46</v>
-      </c>
-      <c r="Z27">
+      <c r="AP27">
+        <v>6.8</v>
+      </c>
+      <c r="AQ27">
+        <v>980</v>
+      </c>
+      <c r="AR27">
+        <v>10</v>
+      </c>
+      <c r="AS27">
+        <v>12.5</v>
+      </c>
+      <c r="AT27">
         <v>14</v>
       </c>
-      <c r="AA27">
-        <v>190</v>
-      </c>
-      <c r="AB27">
-        <v>6.6</v>
-      </c>
-      <c r="AC27">
-        <v>7.4</v>
-      </c>
-      <c r="AD27">
-        <v>7.8</v>
-      </c>
-      <c r="AE27">
-        <v>8.4</v>
-      </c>
-      <c r="AF27">
-        <v>21</v>
-      </c>
-      <c r="AG27">
-        <v>24</v>
-      </c>
-      <c r="AH27">
-        <v>70</v>
-      </c>
-      <c r="AI27">
-        <v>110</v>
-      </c>
-      <c r="AJ27">
-        <v>8.4</v>
-      </c>
-      <c r="AK27">
-        <v>9.4</v>
-      </c>
-      <c r="AL27">
-        <v>9.4</v>
-      </c>
-      <c r="AM27">
-        <v>10.5</v>
-      </c>
-      <c r="AN27">
-        <v>21</v>
-      </c>
-      <c r="AO27">
-        <v>25</v>
-      </c>
-      <c r="AP27">
-        <v>80</v>
-      </c>
-      <c r="AQ27">
-        <v>120</v>
-      </c>
-      <c r="AR27">
-        <v>15.5</v>
-      </c>
-      <c r="AS27">
-        <v>17.5</v>
-      </c>
-      <c r="AT27">
-        <v>18</v>
-      </c>
       <c r="AU27">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV27">
         <v>38</v>
       </c>
       <c r="AW27">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AX27">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AY27">
-        <v>190</v>
+        <v>980</v>
       </c>
       <c r="AZ27">
-        <v>10.5</v>
+        <v>3.9</v>
       </c>
       <c r="BA27">
-        <v>14</v>
+        <v>8.6</v>
       </c>
       <c r="BB27">
-        <v>13.5</v>
+        <v>6.8</v>
       </c>
       <c r="BC27">
-        <v>160</v>
+        <v>980</v>
       </c>
       <c r="BD27">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="BE27">
         <v>1000</v>
       </c>
       <c r="BF27" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="BG27">
-        <v>22498185</v>
+        <v>361329</v>
       </c>
       <c r="BH27">
-        <v>198137</v>
+        <v>356589</v>
       </c>
       <c r="BI27">
         <v>58805</v>
       </c>
       <c r="BJ27" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="BK27" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="BL27" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="BM27" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" spans="1:65">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E28" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F28">
-        <v>1.94</v>
+        <v>1.74</v>
       </c>
       <c r="G28">
-        <v>2.04</v>
+        <v>1.78</v>
       </c>
       <c r="H28">
-        <v>4.5</v>
+        <v>5.8</v>
       </c>
       <c r="I28">
-        <v>5</v>
+        <v>6.4</v>
       </c>
       <c r="J28">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="K28">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="L28">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="M28">
-        <v>1.69</v>
+        <v>1.84</v>
       </c>
       <c r="N28">
-        <v>2.44</v>
+        <v>2.18</v>
       </c>
       <c r="O28">
-        <v>2.54</v>
+        <v>2.46</v>
       </c>
       <c r="P28">
-        <v>2.1</v>
+        <v>1.99</v>
       </c>
       <c r="Q28">
-        <v>2.22</v>
+        <v>2.36</v>
       </c>
       <c r="R28">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="S28">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="T28">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="U28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V28">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="W28">
+        <v>17</v>
+      </c>
+      <c r="X28">
+        <v>38</v>
+      </c>
+      <c r="Y28">
+        <v>46</v>
+      </c>
+      <c r="Z28">
         <v>13.5</v>
       </c>
-      <c r="X28">
-        <v>27</v>
-      </c>
-      <c r="Y28">
-        <v>38</v>
-      </c>
-      <c r="Z28">
-        <v>10.5</v>
-      </c>
       <c r="AA28">
-        <v>980</v>
+        <v>190</v>
       </c>
       <c r="AB28">
         <v>6.6</v>
       </c>
       <c r="AC28">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD28">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="AE28">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AF28">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AG28">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AH28">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI28">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AJ28">
+        <v>8.6</v>
+      </c>
+      <c r="AK28">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AL28">
         <v>9.6</v>
       </c>
-      <c r="AK28">
-        <v>11</v>
-      </c>
-      <c r="AL28">
-        <v>9.800000000000001</v>
-      </c>
       <c r="AM28">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AN28">
         <v>21</v>
@@ -6799,273 +6844,273 @@
         <v>27</v>
       </c>
       <c r="AP28">
+        <v>70</v>
+      </c>
+      <c r="AQ28">
+        <v>120</v>
+      </c>
+      <c r="AR28">
+        <v>16</v>
+      </c>
+      <c r="AS28">
+        <v>17.5</v>
+      </c>
+      <c r="AT28">
+        <v>18.5</v>
+      </c>
+      <c r="AU28">
+        <v>22</v>
+      </c>
+      <c r="AV28">
+        <v>40</v>
+      </c>
+      <c r="AW28">
+        <v>50</v>
+      </c>
+      <c r="AX28">
+        <v>13.5</v>
+      </c>
+      <c r="AY28">
+        <v>440</v>
+      </c>
+      <c r="AZ28">
         <v>11</v>
       </c>
-      <c r="AQ28">
-        <v>980</v>
-      </c>
-      <c r="AR28">
-        <v>20</v>
-      </c>
-      <c r="AS28">
-        <v>25</v>
-      </c>
-      <c r="AT28">
-        <v>20</v>
-      </c>
-      <c r="AU28">
-        <v>27</v>
-      </c>
-      <c r="AV28">
-        <v>44</v>
-      </c>
-      <c r="AW28">
-        <v>60</v>
-      </c>
-      <c r="AX28">
-        <v>10.5</v>
-      </c>
-      <c r="AY28">
-        <v>980</v>
-      </c>
-      <c r="AZ28">
-        <v>7.2</v>
-      </c>
       <c r="BA28">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="BB28">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BC28">
-        <v>980</v>
+        <v>420</v>
       </c>
       <c r="BD28">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BE28">
         <v>1000</v>
       </c>
       <c r="BF28" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="BG28">
-        <v>5287007</v>
+        <v>22498185</v>
       </c>
       <c r="BH28">
-        <v>10901767</v>
+        <v>198137</v>
       </c>
       <c r="BI28">
         <v>58805</v>
       </c>
       <c r="BJ28" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="BK28" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="BL28" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="BM28" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
     </row>
     <row r="29" spans="1:65">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E29" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F29">
-        <v>3.05</v>
+        <v>1.96</v>
       </c>
       <c r="G29">
-        <v>3.2</v>
+        <v>2.02</v>
       </c>
       <c r="H29">
-        <v>2.64</v>
+        <v>4.6</v>
       </c>
       <c r="I29">
-        <v>2.72</v>
+        <v>5</v>
       </c>
       <c r="J29">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="K29">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="L29">
-        <v>1.54</v>
+        <v>1.65</v>
       </c>
       <c r="M29">
-        <v>1.59</v>
+        <v>1.73</v>
       </c>
       <c r="N29">
-        <v>2.66</v>
+        <v>2.36</v>
       </c>
       <c r="O29">
-        <v>2.86</v>
+        <v>2.54</v>
       </c>
       <c r="P29">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q29">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R29">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="S29">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="T29">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="U29">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="V29">
-        <v>7.4</v>
+        <v>12</v>
       </c>
       <c r="W29">
-        <v>8.800000000000001</v>
+        <v>15</v>
       </c>
       <c r="X29">
-        <v>14.5</v>
+        <v>27</v>
       </c>
       <c r="Y29">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="Z29">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="AA29">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AB29">
+        <v>6.6</v>
+      </c>
+      <c r="AC29">
+        <v>8</v>
+      </c>
+      <c r="AD29">
+        <v>7</v>
+      </c>
+      <c r="AE29">
+        <v>8.6</v>
+      </c>
+      <c r="AF29">
+        <v>17.5</v>
+      </c>
+      <c r="AG29">
+        <v>22</v>
+      </c>
+      <c r="AH29">
+        <v>55</v>
+      </c>
+      <c r="AI29">
+        <v>85</v>
+      </c>
+      <c r="AJ29">
+        <v>9.6</v>
+      </c>
+      <c r="AK29">
+        <v>12</v>
+      </c>
+      <c r="AL29">
+        <v>10</v>
+      </c>
+      <c r="AM29">
+        <v>12</v>
+      </c>
+      <c r="AN29">
+        <v>21</v>
+      </c>
+      <c r="AO29">
+        <v>27</v>
+      </c>
+      <c r="AP29">
         <v>8.199999999999999</v>
       </c>
-      <c r="AC29">
-        <v>10</v>
-      </c>
-      <c r="AD29">
-        <v>6.4</v>
-      </c>
-      <c r="AE29">
-        <v>7.2</v>
-      </c>
-      <c r="AF29">
-        <v>12</v>
-      </c>
-      <c r="AG29">
-        <v>14.5</v>
-      </c>
-      <c r="AH29">
-        <v>30</v>
-      </c>
-      <c r="AI29">
-        <v>42</v>
-      </c>
-      <c r="AJ29">
-        <v>16.5</v>
-      </c>
-      <c r="AK29">
+      <c r="AQ29">
+        <v>110</v>
+      </c>
+      <c r="AR29">
         <v>20</v>
       </c>
-      <c r="AL29">
-        <v>12.5</v>
-      </c>
-      <c r="AM29">
-        <v>15.5</v>
-      </c>
-      <c r="AN29">
-        <v>19</v>
-      </c>
-      <c r="AO29">
-        <v>26</v>
-      </c>
-      <c r="AP29">
-        <v>48</v>
-      </c>
-      <c r="AQ29">
-        <v>75</v>
-      </c>
-      <c r="AR29">
-        <v>46</v>
-      </c>
       <c r="AS29">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="AT29">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="AU29">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="AV29">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AW29">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AX29">
-        <v>9</v>
+        <v>6.6</v>
       </c>
       <c r="AY29">
         <v>980</v>
       </c>
       <c r="AZ29">
-        <v>8.199999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="BA29">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="BB29">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="BC29">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="BD29">
-        <v>9.4</v>
+        <v>6.8</v>
       </c>
       <c r="BE29">
         <v>1000</v>
       </c>
       <c r="BF29" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="BG29">
-        <v>198144</v>
+        <v>5287007</v>
       </c>
       <c r="BH29">
-        <v>198136</v>
+        <v>10901767</v>
       </c>
       <c r="BI29">
         <v>58805</v>
       </c>
       <c r="BJ29" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="BK29" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="BL29" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="BM29" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
     </row>
     <row r="30" spans="1:65">
@@ -7073,196 +7118,196 @@
         <v>78</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
         <v>98</v>
       </c>
       <c r="D30" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E30" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F30">
-        <v>1.71</v>
+        <v>3.1</v>
       </c>
       <c r="G30">
-        <v>1.76</v>
+        <v>3.3</v>
       </c>
       <c r="H30">
-        <v>5.4</v>
+        <v>2.66</v>
       </c>
       <c r="I30">
-        <v>6.6</v>
+        <v>2.78</v>
       </c>
       <c r="J30">
-        <v>3.6</v>
+        <v>3.05</v>
       </c>
       <c r="K30">
-        <v>4.1</v>
+        <v>3.25</v>
       </c>
       <c r="L30">
-        <v>1.7</v>
+        <v>1.54</v>
       </c>
       <c r="M30">
-        <v>1.88</v>
+        <v>1.59</v>
       </c>
       <c r="N30">
-        <v>2.14</v>
+        <v>2.66</v>
       </c>
       <c r="O30">
-        <v>2.42</v>
+        <v>2.86</v>
       </c>
       <c r="P30">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="Q30">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="R30">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="S30">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="T30">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="U30">
+        <v>8.6</v>
+      </c>
+      <c r="V30">
+        <v>7.4</v>
+      </c>
+      <c r="W30">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="X30">
         <v>14</v>
       </c>
-      <c r="V30">
+      <c r="Y30">
+        <v>16</v>
+      </c>
+      <c r="Z30">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AA30">
+        <v>48</v>
+      </c>
+      <c r="AB30">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC30">
+        <v>10</v>
+      </c>
+      <c r="AD30">
+        <v>6.4</v>
+      </c>
+      <c r="AE30">
+        <v>7.2</v>
+      </c>
+      <c r="AF30">
+        <v>12</v>
+      </c>
+      <c r="AG30">
+        <v>14.5</v>
+      </c>
+      <c r="AH30">
+        <v>30</v>
+      </c>
+      <c r="AI30">
+        <v>42</v>
+      </c>
+      <c r="AJ30">
+        <v>16.5</v>
+      </c>
+      <c r="AK30">
+        <v>20</v>
+      </c>
+      <c r="AL30">
         <v>12.5</v>
       </c>
-      <c r="W30">
-        <v>21</v>
-      </c>
-      <c r="X30">
-        <v>4.6</v>
-      </c>
-      <c r="Y30">
-        <v>980</v>
-      </c>
-      <c r="Z30">
-        <v>4.4</v>
-      </c>
-      <c r="AA30">
-        <v>980</v>
-      </c>
-      <c r="AB30">
-        <v>6.4</v>
-      </c>
-      <c r="AC30">
-        <v>8.6</v>
-      </c>
-      <c r="AD30">
-        <v>7.2</v>
-      </c>
-      <c r="AE30">
+      <c r="AM30">
+        <v>15.5</v>
+      </c>
+      <c r="AN30">
+        <v>19</v>
+      </c>
+      <c r="AO30">
+        <v>26</v>
+      </c>
+      <c r="AP30">
+        <v>48</v>
+      </c>
+      <c r="AQ30">
+        <v>75</v>
+      </c>
+      <c r="AR30">
+        <v>46</v>
+      </c>
+      <c r="AS30">
+        <v>65</v>
+      </c>
+      <c r="AT30">
+        <v>36</v>
+      </c>
+      <c r="AU30">
+        <v>55</v>
+      </c>
+      <c r="AV30">
+        <v>55</v>
+      </c>
+      <c r="AW30">
+        <v>80</v>
+      </c>
+      <c r="AX30">
         <v>10.5</v>
       </c>
-      <c r="AF30">
-        <v>18</v>
-      </c>
-      <c r="AG30">
-        <v>30</v>
-      </c>
-      <c r="AH30">
-        <v>4.3</v>
-      </c>
-      <c r="AI30">
-        <v>980</v>
-      </c>
-      <c r="AJ30">
-        <v>8</v>
-      </c>
-      <c r="AK30">
-        <v>11</v>
-      </c>
-      <c r="AL30">
-        <v>7.8</v>
-      </c>
-      <c r="AM30">
-        <v>13</v>
-      </c>
-      <c r="AN30">
-        <v>18.5</v>
-      </c>
-      <c r="AO30">
-        <v>32</v>
-      </c>
-      <c r="AP30">
-        <v>4.3</v>
-      </c>
-      <c r="AQ30">
-        <v>980</v>
-      </c>
-      <c r="AR30">
-        <v>14.5</v>
-      </c>
-      <c r="AS30">
-        <v>21</v>
-      </c>
-      <c r="AT30">
-        <v>17.5</v>
-      </c>
-      <c r="AU30">
-        <v>25</v>
-      </c>
-      <c r="AV30">
-        <v>4.1</v>
-      </c>
-      <c r="AW30">
-        <v>980</v>
-      </c>
-      <c r="AX30">
-        <v>4.4</v>
-      </c>
       <c r="AY30">
         <v>980</v>
       </c>
       <c r="AZ30">
-        <v>3.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BA30">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="BB30">
-        <v>4.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BC30">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="BD30">
-        <v>4.4</v>
+        <v>10.5</v>
       </c>
       <c r="BE30">
         <v>1000</v>
       </c>
       <c r="BF30" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="BG30">
-        <v>900849</v>
+        <v>198144</v>
       </c>
       <c r="BH30">
-        <v>22018255</v>
+        <v>198136</v>
       </c>
       <c r="BI30">
         <v>58805</v>
       </c>
       <c r="BJ30" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="BK30" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="BL30" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="BM30" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
     </row>
     <row r="31" spans="1:65">
@@ -7270,590 +7315,984 @@
         <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C31" t="s">
         <v>99</v>
       </c>
       <c r="D31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E31" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F31">
-        <v>2.02</v>
+        <v>1.76</v>
       </c>
       <c r="G31">
-        <v>2.16</v>
+        <v>1.77</v>
       </c>
       <c r="H31">
+        <v>5.4</v>
+      </c>
+      <c r="I31">
+        <v>6.4</v>
+      </c>
+      <c r="J31">
+        <v>3.6</v>
+      </c>
+      <c r="K31">
         <v>4.1</v>
       </c>
-      <c r="I31">
+      <c r="L31">
+        <v>1.72</v>
+      </c>
+      <c r="M31">
+        <v>1.93</v>
+      </c>
+      <c r="N31">
+        <v>2.08</v>
+      </c>
+      <c r="O31">
+        <v>2.4</v>
+      </c>
+      <c r="P31">
+        <v>2</v>
+      </c>
+      <c r="Q31">
+        <v>2.38</v>
+      </c>
+      <c r="R31">
+        <v>1.72</v>
+      </c>
+      <c r="S31">
+        <v>1.99</v>
+      </c>
+      <c r="T31">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="U31">
+        <v>12.5</v>
+      </c>
+      <c r="V31">
+        <v>12</v>
+      </c>
+      <c r="W31">
+        <v>21</v>
+      </c>
+      <c r="X31">
         <v>4.7</v>
       </c>
-      <c r="J31">
-        <v>3.25</v>
-      </c>
-      <c r="K31">
-        <v>3.65</v>
-      </c>
-      <c r="L31">
-        <v>1.68</v>
-      </c>
-      <c r="M31">
-        <v>1.81</v>
-      </c>
-      <c r="N31">
-        <v>2.24</v>
-      </c>
-      <c r="O31">
-        <v>2.48</v>
-      </c>
-      <c r="P31">
-        <v>1.99</v>
-      </c>
-      <c r="Q31">
-        <v>2.16</v>
-      </c>
-      <c r="R31">
-        <v>1.86</v>
-      </c>
-      <c r="S31">
-        <v>2.02</v>
-      </c>
-      <c r="T31">
-        <v>4.5</v>
-      </c>
-      <c r="U31">
-        <v>980</v>
-      </c>
-      <c r="V31">
-        <v>5.3</v>
-      </c>
-      <c r="W31">
-        <v>980</v>
-      </c>
-      <c r="X31">
-        <v>6</v>
-      </c>
       <c r="Y31">
         <v>980</v>
       </c>
       <c r="Z31">
-        <v>6.8</v>
+        <v>4.9</v>
       </c>
       <c r="AA31">
         <v>980</v>
       </c>
       <c r="AB31">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="AC31">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AD31">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="AE31">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="AF31">
-        <v>5.4</v>
+        <v>17.5</v>
       </c>
       <c r="AG31">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AH31">
-        <v>6.6</v>
+        <v>4.8</v>
       </c>
       <c r="AI31">
         <v>980</v>
       </c>
       <c r="AJ31">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AK31">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AL31">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AM31">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AN31">
-        <v>5.6</v>
+        <v>18</v>
       </c>
       <c r="AO31">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AP31">
-        <v>6.8</v>
+        <v>4.8</v>
       </c>
       <c r="AQ31">
         <v>980</v>
       </c>
       <c r="AR31">
-        <v>5.8</v>
+        <v>14.5</v>
       </c>
       <c r="AS31">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AT31">
-        <v>5.8</v>
+        <v>17.5</v>
       </c>
       <c r="AU31">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AV31">
-        <v>6.4</v>
+        <v>4.6</v>
       </c>
       <c r="AW31">
         <v>980</v>
       </c>
       <c r="AX31">
-        <v>7</v>
+        <v>4.9</v>
       </c>
       <c r="AY31">
         <v>980</v>
       </c>
       <c r="AZ31">
-        <v>5.4</v>
+        <v>3.85</v>
       </c>
       <c r="BA31">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="BB31">
-        <v>6.8</v>
+        <v>4.9</v>
       </c>
       <c r="BC31">
         <v>980</v>
       </c>
       <c r="BD31">
-        <v>7.2</v>
+        <v>5</v>
       </c>
       <c r="BE31">
         <v>1000</v>
       </c>
       <c r="BF31" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="BG31">
-        <v>6290900</v>
+        <v>900849</v>
       </c>
       <c r="BH31">
-        <v>1067928</v>
+        <v>22018255</v>
       </c>
       <c r="BI31">
         <v>58805</v>
       </c>
       <c r="BJ31" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="BK31" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="BL31" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="BM31" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
     </row>
     <row r="32" spans="1:65">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
         <v>100</v>
       </c>
       <c r="D32" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E32" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F32">
-        <v>1.58</v>
+        <v>2.02</v>
       </c>
       <c r="G32">
-        <v>1.64</v>
+        <v>2.16</v>
       </c>
       <c r="H32">
-        <v>6.2</v>
+        <v>4.1</v>
       </c>
       <c r="I32">
+        <v>4.6</v>
+      </c>
+      <c r="J32">
+        <v>3.25</v>
+      </c>
+      <c r="K32">
+        <v>3.65</v>
+      </c>
+      <c r="L32">
+        <v>1.68</v>
+      </c>
+      <c r="M32">
+        <v>1.81</v>
+      </c>
+      <c r="N32">
+        <v>2.24</v>
+      </c>
+      <c r="O32">
+        <v>2.48</v>
+      </c>
+      <c r="P32">
+        <v>1.99</v>
+      </c>
+      <c r="Q32">
+        <v>2.16</v>
+      </c>
+      <c r="R32">
+        <v>1.86</v>
+      </c>
+      <c r="S32">
+        <v>2.02</v>
+      </c>
+      <c r="T32">
+        <v>4.6</v>
+      </c>
+      <c r="U32">
+        <v>980</v>
+      </c>
+      <c r="V32">
+        <v>5.1</v>
+      </c>
+      <c r="W32">
+        <v>980</v>
+      </c>
+      <c r="X32">
+        <v>6.4</v>
+      </c>
+      <c r="Y32">
+        <v>980</v>
+      </c>
+      <c r="Z32">
         <v>7.4</v>
       </c>
-      <c r="J32">
-        <v>4</v>
-      </c>
-      <c r="K32">
-        <v>4.4</v>
-      </c>
-      <c r="L32">
-        <v>1.92</v>
-      </c>
-      <c r="M32">
-        <v>2.08</v>
-      </c>
-      <c r="N32">
-        <v>1.92</v>
-      </c>
-      <c r="O32">
-        <v>2.1</v>
-      </c>
-      <c r="P32">
-        <v>2.04</v>
-      </c>
-      <c r="Q32">
-        <v>2.22</v>
-      </c>
-      <c r="R32">
-        <v>1.83</v>
-      </c>
-      <c r="S32">
-        <v>1.95</v>
-      </c>
-      <c r="T32">
-        <v>10</v>
-      </c>
-      <c r="U32">
-        <v>16.5</v>
-      </c>
-      <c r="V32">
-        <v>16.5</v>
-      </c>
-      <c r="W32">
-        <v>25</v>
-      </c>
-      <c r="X32">
-        <v>44</v>
-      </c>
-      <c r="Y32">
-        <v>70</v>
-      </c>
-      <c r="Z32">
-        <v>5.1</v>
-      </c>
       <c r="AA32">
         <v>980</v>
       </c>
       <c r="AB32">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="AC32">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD32">
-        <v>8.6</v>
+        <v>6.6</v>
       </c>
       <c r="AE32">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AF32">
-        <v>22</v>
+        <v>5.6</v>
       </c>
       <c r="AG32">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AH32">
-        <v>5.4</v>
+        <v>7</v>
       </c>
       <c r="AI32">
         <v>980</v>
       </c>
       <c r="AJ32">
-        <v>8</v>
+        <v>9.6</v>
       </c>
       <c r="AK32">
-        <v>9.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="AL32">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="AM32">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AN32">
-        <v>21</v>
+        <v>5.9</v>
       </c>
       <c r="AO32">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AP32">
-        <v>5.4</v>
+        <v>7.2</v>
       </c>
       <c r="AQ32">
         <v>980</v>
       </c>
       <c r="AR32">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AS32">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AT32">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AU32">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AV32">
-        <v>32</v>
+        <v>6.8</v>
       </c>
       <c r="AW32">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AX32">
-        <v>5.1</v>
+        <v>7.4</v>
       </c>
       <c r="AY32">
         <v>980</v>
       </c>
       <c r="AZ32">
-        <v>3.55</v>
+        <v>5.7</v>
       </c>
       <c r="BA32">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="BB32">
-        <v>5</v>
+        <v>6.8</v>
       </c>
       <c r="BC32">
         <v>980</v>
       </c>
       <c r="BD32">
-        <v>5.2</v>
+        <v>7</v>
       </c>
       <c r="BE32">
         <v>1000</v>
       </c>
       <c r="BF32" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="BG32">
-        <v>198138</v>
+        <v>6290900</v>
       </c>
       <c r="BH32">
-        <v>198126</v>
+        <v>1067928</v>
       </c>
       <c r="BI32">
         <v>58805</v>
       </c>
       <c r="BJ32" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="BK32" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="BL32" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="BM32" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
     </row>
     <row r="33" spans="1:65">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E33" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F33">
-        <v>2.14</v>
+        <v>1.08</v>
       </c>
       <c r="G33">
-        <v>2.38</v>
+        <v>1.48</v>
       </c>
       <c r="H33">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="I33">
-        <v>4.4</v>
+        <v>870</v>
       </c>
       <c r="J33">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="K33">
-        <v>3.55</v>
+        <v>950</v>
       </c>
       <c r="L33">
-        <v>1.35</v>
+        <v>2.56</v>
       </c>
       <c r="M33">
-        <v>2.22</v>
+        <v>110</v>
       </c>
       <c r="N33">
-        <v>1.82</v>
+        <v>1.03</v>
       </c>
       <c r="O33">
-        <v>3.9</v>
+        <v>1.64</v>
       </c>
       <c r="P33">
-        <v>1.91</v>
+        <v>1.12</v>
       </c>
       <c r="Q33">
-        <v>2.24</v>
+        <v>1000</v>
       </c>
       <c r="R33">
-        <v>1.81</v>
+        <v>1.12</v>
       </c>
       <c r="S33">
-        <v>2.1</v>
+        <v>1000</v>
       </c>
       <c r="T33">
-        <v>8.199999999999999</v>
+        <v>1.49</v>
       </c>
       <c r="U33">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="V33">
-        <v>9.6</v>
+        <v>2.4</v>
       </c>
       <c r="W33">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="X33">
-        <v>19.5</v>
+        <v>2.58</v>
       </c>
       <c r="Y33">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z33">
-        <v>7</v>
+        <v>3.65</v>
       </c>
       <c r="AA33">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB33">
-        <v>6.8</v>
+        <v>1.1</v>
       </c>
       <c r="AC33">
-        <v>9</v>
+        <v>980</v>
       </c>
       <c r="AD33">
-        <v>6.6</v>
+        <v>1.1</v>
       </c>
       <c r="AE33">
-        <v>8.4</v>
+        <v>980</v>
       </c>
       <c r="AF33">
-        <v>5.4</v>
+        <v>3.95</v>
       </c>
       <c r="AG33">
         <v>980</v>
       </c>
       <c r="AH33">
-        <v>6.8</v>
+        <v>5.5</v>
       </c>
       <c r="AI33">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ33">
-        <v>10.5</v>
+        <v>1.1</v>
       </c>
       <c r="AK33">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL33">
-        <v>9.6</v>
+        <v>1.1</v>
       </c>
       <c r="AM33">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AN33">
-        <v>5.8</v>
+        <v>3.95</v>
       </c>
       <c r="AO33">
         <v>980</v>
       </c>
       <c r="AP33">
-        <v>7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AQ33">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AR33">
-        <v>6.2</v>
+        <v>1.1</v>
       </c>
       <c r="AS33">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AT33">
-        <v>6</v>
+        <v>1.1</v>
       </c>
       <c r="AU33">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AV33">
-        <v>6.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AW33">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AX33">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AY33">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AZ33">
-        <v>5.8</v>
+        <v>1.01</v>
       </c>
       <c r="BA33">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="BB33">
-        <v>6.8</v>
+        <v>1.01</v>
       </c>
       <c r="BC33">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="BD33">
-        <v>7.6</v>
+        <v>1.1</v>
       </c>
       <c r="BE33">
         <v>1000</v>
       </c>
       <c r="BF33" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="BG33">
-        <v>10632891</v>
+        <v>328205</v>
       </c>
       <c r="BH33">
-        <v>5284708</v>
+        <v>61511713</v>
       </c>
       <c r="BI33">
         <v>58805</v>
       </c>
       <c r="BJ33" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="BK33" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="BL33" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="BM33" t="s">
-        <v>325</v>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="34" spans="1:65">
+      <c r="A34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" t="s">
+        <v>135</v>
+      </c>
+      <c r="E34" t="s">
+        <v>169</v>
+      </c>
+      <c r="F34">
+        <v>1.6</v>
+      </c>
+      <c r="G34">
+        <v>1.64</v>
+      </c>
+      <c r="H34">
+        <v>6.8</v>
+      </c>
+      <c r="I34">
+        <v>7.6</v>
+      </c>
+      <c r="J34">
+        <v>4</v>
+      </c>
+      <c r="K34">
+        <v>4.3</v>
+      </c>
+      <c r="L34">
+        <v>1.85</v>
+      </c>
+      <c r="M34">
+        <v>1.93</v>
+      </c>
+      <c r="N34">
+        <v>2.06</v>
+      </c>
+      <c r="O34">
+        <v>2.18</v>
+      </c>
+      <c r="P34">
+        <v>2.04</v>
+      </c>
+      <c r="Q34">
+        <v>2.2</v>
+      </c>
+      <c r="R34">
+        <v>1.84</v>
+      </c>
+      <c r="S34">
+        <v>1.95</v>
+      </c>
+      <c r="T34">
+        <v>11</v>
+      </c>
+      <c r="U34">
+        <v>13</v>
+      </c>
+      <c r="V34">
+        <v>19</v>
+      </c>
+      <c r="W34">
+        <v>22</v>
+      </c>
+      <c r="X34">
+        <v>48</v>
+      </c>
+      <c r="Y34">
+        <v>60</v>
+      </c>
+      <c r="Z34">
+        <v>12.5</v>
+      </c>
+      <c r="AA34">
+        <v>240</v>
+      </c>
+      <c r="AB34">
+        <v>6.8</v>
+      </c>
+      <c r="AC34">
+        <v>7.6</v>
+      </c>
+      <c r="AD34">
+        <v>8.6</v>
+      </c>
+      <c r="AE34">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AF34">
+        <v>24</v>
+      </c>
+      <c r="AG34">
+        <v>28</v>
+      </c>
+      <c r="AH34">
+        <v>80</v>
+      </c>
+      <c r="AI34">
+        <v>120</v>
+      </c>
+      <c r="AJ34">
+        <v>8</v>
+      </c>
+      <c r="AK34">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AL34">
+        <v>9.4</v>
+      </c>
+      <c r="AM34">
+        <v>10.5</v>
+      </c>
+      <c r="AN34">
+        <v>22</v>
+      </c>
+      <c r="AO34">
+        <v>27</v>
+      </c>
+      <c r="AP34">
+        <v>80</v>
+      </c>
+      <c r="AQ34">
+        <v>130</v>
+      </c>
+      <c r="AR34">
+        <v>13.5</v>
+      </c>
+      <c r="AS34">
+        <v>15</v>
+      </c>
+      <c r="AT34">
+        <v>16.5</v>
+      </c>
+      <c r="AU34">
+        <v>18</v>
+      </c>
+      <c r="AV34">
+        <v>36</v>
+      </c>
+      <c r="AW34">
+        <v>44</v>
+      </c>
+      <c r="AX34">
+        <v>12.5</v>
+      </c>
+      <c r="AY34">
+        <v>180</v>
+      </c>
+      <c r="AZ34">
+        <v>8</v>
+      </c>
+      <c r="BA34">
+        <v>11.5</v>
+      </c>
+      <c r="BB34">
+        <v>12.5</v>
+      </c>
+      <c r="BC34">
+        <v>170</v>
+      </c>
+      <c r="BD34">
+        <v>13.5</v>
+      </c>
+      <c r="BE34">
+        <v>1000</v>
+      </c>
+      <c r="BF34" t="s">
+        <v>203</v>
+      </c>
+      <c r="BG34">
+        <v>198138</v>
+      </c>
+      <c r="BH34">
+        <v>198126</v>
+      </c>
+      <c r="BI34">
+        <v>58805</v>
+      </c>
+      <c r="BJ34" t="s">
+        <v>237</v>
+      </c>
+      <c r="BK34" t="s">
+        <v>271</v>
+      </c>
+      <c r="BL34" t="s">
+        <v>305</v>
+      </c>
+      <c r="BM34" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="35" spans="1:65">
+      <c r="A35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" t="s">
+        <v>136</v>
+      </c>
+      <c r="E35" t="s">
+        <v>170</v>
+      </c>
+      <c r="F35">
+        <v>2.14</v>
+      </c>
+      <c r="G35">
+        <v>2.32</v>
+      </c>
+      <c r="H35">
+        <v>3.75</v>
+      </c>
+      <c r="I35">
+        <v>4.3</v>
+      </c>
+      <c r="J35">
+        <v>3.2</v>
+      </c>
+      <c r="K35">
+        <v>3.55</v>
+      </c>
+      <c r="L35">
+        <v>1.63</v>
+      </c>
+      <c r="M35">
+        <v>1.84</v>
+      </c>
+      <c r="N35">
+        <v>2.18</v>
+      </c>
+      <c r="O35">
+        <v>2.6</v>
+      </c>
+      <c r="P35">
+        <v>1.91</v>
+      </c>
+      <c r="Q35">
+        <v>2.24</v>
+      </c>
+      <c r="R35">
+        <v>1.81</v>
+      </c>
+      <c r="S35">
+        <v>2.1</v>
+      </c>
+      <c r="T35">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="U35">
+        <v>11</v>
+      </c>
+      <c r="V35">
+        <v>9.6</v>
+      </c>
+      <c r="W35">
+        <v>13</v>
+      </c>
+      <c r="X35">
+        <v>19.5</v>
+      </c>
+      <c r="Y35">
+        <v>980</v>
+      </c>
+      <c r="Z35">
+        <v>7</v>
+      </c>
+      <c r="AA35">
+        <v>980</v>
+      </c>
+      <c r="AB35">
+        <v>6.8</v>
+      </c>
+      <c r="AC35">
+        <v>9</v>
+      </c>
+      <c r="AD35">
+        <v>6.6</v>
+      </c>
+      <c r="AE35">
+        <v>8.4</v>
+      </c>
+      <c r="AF35">
+        <v>5.4</v>
+      </c>
+      <c r="AG35">
+        <v>980</v>
+      </c>
+      <c r="AH35">
+        <v>6.8</v>
+      </c>
+      <c r="AI35">
+        <v>980</v>
+      </c>
+      <c r="AJ35">
+        <v>10.5</v>
+      </c>
+      <c r="AK35">
+        <v>980</v>
+      </c>
+      <c r="AL35">
+        <v>9.6</v>
+      </c>
+      <c r="AM35">
+        <v>12.5</v>
+      </c>
+      <c r="AN35">
+        <v>5.8</v>
+      </c>
+      <c r="AO35">
+        <v>980</v>
+      </c>
+      <c r="AP35">
+        <v>7</v>
+      </c>
+      <c r="AQ35">
+        <v>980</v>
+      </c>
+      <c r="AR35">
+        <v>6.2</v>
+      </c>
+      <c r="AS35">
+        <v>980</v>
+      </c>
+      <c r="AT35">
+        <v>6</v>
+      </c>
+      <c r="AU35">
+        <v>980</v>
+      </c>
+      <c r="AV35">
+        <v>6.8</v>
+      </c>
+      <c r="AW35">
+        <v>980</v>
+      </c>
+      <c r="AX35">
+        <v>7.4</v>
+      </c>
+      <c r="AY35">
+        <v>980</v>
+      </c>
+      <c r="AZ35">
+        <v>5.8</v>
+      </c>
+      <c r="BA35">
+        <v>980</v>
+      </c>
+      <c r="BB35">
+        <v>6.8</v>
+      </c>
+      <c r="BC35">
+        <v>980</v>
+      </c>
+      <c r="BD35">
+        <v>7.6</v>
+      </c>
+      <c r="BE35">
+        <v>1000</v>
+      </c>
+      <c r="BF35" t="s">
+        <v>204</v>
+      </c>
+      <c r="BG35">
+        <v>10632891</v>
+      </c>
+      <c r="BH35">
+        <v>5284708</v>
+      </c>
+      <c r="BI35">
+        <v>58805</v>
+      </c>
+      <c r="BJ35" t="s">
+        <v>238</v>
+      </c>
+      <c r="BK35" t="s">
+        <v>272</v>
+      </c>
+      <c r="BL35" t="s">
+        <v>306</v>
+      </c>
+      <c r="BM35" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-17.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="271">
   <si>
     <t>League</t>
   </si>
@@ -529,48 +529,6 @@
     <t>Deportivo Pereira</t>
   </si>
   <si>
-    <t>33198265</t>
-  </si>
-  <si>
-    <t>33190669</t>
-  </si>
-  <si>
-    <t>33190957</t>
-  </si>
-  <si>
-    <t>33195824</t>
-  </si>
-  <si>
-    <t>33196607</t>
-  </si>
-  <si>
-    <t>33192456</t>
-  </si>
-  <si>
-    <t>33192457</t>
-  </si>
-  <si>
-    <t>33195401</t>
-  </si>
-  <si>
-    <t>33195282</t>
-  </si>
-  <si>
-    <t>33188348</t>
-  </si>
-  <si>
-    <t>33183061</t>
-  </si>
-  <si>
-    <t>33181274</t>
-  </si>
-  <si>
-    <t>33181273</t>
-  </si>
-  <si>
-    <t>33196300</t>
-  </si>
-  <si>
     <t>33198829</t>
   </si>
   <si>
@@ -631,48 +589,6 @@
     <t>33191432</t>
   </si>
   <si>
-    <t>1.227715245</t>
-  </si>
-  <si>
-    <t>1.227569624</t>
-  </si>
-  <si>
-    <t>1.227573964</t>
-  </si>
-  <si>
-    <t>1.227677794</t>
-  </si>
-  <si>
-    <t>1.227686400</t>
-  </si>
-  <si>
-    <t>1.227598814</t>
-  </si>
-  <si>
-    <t>1.227598724</t>
-  </si>
-  <si>
-    <t>1.227657737</t>
-  </si>
-  <si>
-    <t>1.227657422</t>
-  </si>
-  <si>
-    <t>1.227523635</t>
-  </si>
-  <si>
-    <t>1.227439534</t>
-  </si>
-  <si>
-    <t>1.227416319</t>
-  </si>
-  <si>
-    <t>1.227416409</t>
-  </si>
-  <si>
-    <t>1.227681287</t>
-  </si>
-  <si>
     <t>1.227718355</t>
   </si>
   <si>
@@ -733,48 +649,6 @@
     <t>1.227584804</t>
   </si>
   <si>
-    <t>1.227715248</t>
-  </si>
-  <si>
-    <t>1.227569669</t>
-  </si>
-  <si>
-    <t>1.227574009</t>
-  </si>
-  <si>
-    <t>1.227677839</t>
-  </si>
-  <si>
-    <t>1.227686445</t>
-  </si>
-  <si>
-    <t>1.227598859</t>
-  </si>
-  <si>
-    <t>1.227598769</t>
-  </si>
-  <si>
-    <t>1.227657782</t>
-  </si>
-  <si>
-    <t>1.227657467</t>
-  </si>
-  <si>
-    <t>1.227523680</t>
-  </si>
-  <si>
-    <t>1.227439579</t>
-  </si>
-  <si>
-    <t>1.227416364</t>
-  </si>
-  <si>
-    <t>1.227416454</t>
-  </si>
-  <si>
-    <t>1.227681332</t>
-  </si>
-  <si>
     <t>1.227718400</t>
   </si>
   <si>
@@ -835,48 +709,6 @@
     <t>1.227584849</t>
   </si>
   <si>
-    <t>1.227715292</t>
-  </si>
-  <si>
-    <t>1.227569708</t>
-  </si>
-  <si>
-    <t>1.227574048</t>
-  </si>
-  <si>
-    <t>1.227677878</t>
-  </si>
-  <si>
-    <t>1.227686484</t>
-  </si>
-  <si>
-    <t>1.227598898</t>
-  </si>
-  <si>
-    <t>1.227598808</t>
-  </si>
-  <si>
-    <t>1.227657821</t>
-  </si>
-  <si>
-    <t>1.227657506</t>
-  </si>
-  <si>
-    <t>1.227523719</t>
-  </si>
-  <si>
-    <t>1.227439618</t>
-  </si>
-  <si>
-    <t>1.227416403</t>
-  </si>
-  <si>
-    <t>1.227416493</t>
-  </si>
-  <si>
-    <t>1.227681371</t>
-  </si>
-  <si>
     <t>1.227718439</t>
   </si>
   <si>
@@ -935,48 +767,6 @@
   </si>
   <si>
     <t>1.227584888</t>
-  </si>
-  <si>
-    <t>1.227715293</t>
-  </si>
-  <si>
-    <t>1.227569633</t>
-  </si>
-  <si>
-    <t>1.227573973</t>
-  </si>
-  <si>
-    <t>1.227677803</t>
-  </si>
-  <si>
-    <t>1.227686409</t>
-  </si>
-  <si>
-    <t>1.227598823</t>
-  </si>
-  <si>
-    <t>1.227598733</t>
-  </si>
-  <si>
-    <t>1.227657746</t>
-  </si>
-  <si>
-    <t>1.227657431</t>
-  </si>
-  <si>
-    <t>1.227523644</t>
-  </si>
-  <si>
-    <t>1.227439543</t>
-  </si>
-  <si>
-    <t>1.227416328</t>
-  </si>
-  <si>
-    <t>1.227416418</t>
-  </si>
-  <si>
-    <t>1.227681296</t>
   </si>
   <si>
     <t>1.227718364</t>
@@ -1769,8 +1559,8 @@
       <c r="BE2">
         <v>1000</v>
       </c>
-      <c r="BF2" t="s">
-        <v>171</v>
+      <c r="BF2">
+        <v>33198265</v>
       </c>
       <c r="BG2">
         <v>20830749</v>
@@ -1781,17 +1571,17 @@
       <c r="BI2">
         <v>58805</v>
       </c>
-      <c r="BJ2" t="s">
-        <v>205</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>239</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>273</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>307</v>
+      <c r="BJ2">
+        <v>1.227715245</v>
+      </c>
+      <c r="BK2">
+        <v>1.227715248</v>
+      </c>
+      <c r="BL2">
+        <v>1.227715292</v>
+      </c>
+      <c r="BM2">
+        <v>1.227715293</v>
       </c>
     </row>
     <row r="3" spans="1:65">
@@ -1966,8 +1756,8 @@
       <c r="BE3">
         <v>1000</v>
       </c>
-      <c r="BF3" t="s">
-        <v>172</v>
+      <c r="BF3">
+        <v>33190669</v>
       </c>
       <c r="BG3">
         <v>5202561</v>
@@ -1978,17 +1768,17 @@
       <c r="BI3">
         <v>58805</v>
       </c>
-      <c r="BJ3" t="s">
-        <v>206</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>240</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>274</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>308</v>
+      <c r="BJ3">
+        <v>1.227569624</v>
+      </c>
+      <c r="BK3">
+        <v>1.227569669</v>
+      </c>
+      <c r="BL3">
+        <v>1.227569708</v>
+      </c>
+      <c r="BM3">
+        <v>1.227569633</v>
       </c>
     </row>
     <row r="4" spans="1:65">
@@ -2163,8 +1953,8 @@
       <c r="BE4">
         <v>1000</v>
       </c>
-      <c r="BF4" t="s">
-        <v>173</v>
+      <c r="BF4">
+        <v>33190957</v>
       </c>
       <c r="BG4">
         <v>52628041</v>
@@ -2175,17 +1965,17 @@
       <c r="BI4">
         <v>58805</v>
       </c>
-      <c r="BJ4" t="s">
-        <v>207</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>241</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>275</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>309</v>
+      <c r="BJ4">
+        <v>1.227573964</v>
+      </c>
+      <c r="BK4">
+        <v>1.227574009</v>
+      </c>
+      <c r="BL4">
+        <v>1.227574048</v>
+      </c>
+      <c r="BM4">
+        <v>1.227573973</v>
       </c>
     </row>
     <row r="5" spans="1:65">
@@ -2360,8 +2150,8 @@
       <c r="BE5">
         <v>1000</v>
       </c>
-      <c r="BF5" t="s">
-        <v>174</v>
+      <c r="BF5">
+        <v>33195824</v>
       </c>
       <c r="BG5">
         <v>5618507</v>
@@ -2372,17 +2162,17 @@
       <c r="BI5">
         <v>58805</v>
       </c>
-      <c r="BJ5" t="s">
-        <v>208</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>242</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>276</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>310</v>
+      <c r="BJ5">
+        <v>1.227677794</v>
+      </c>
+      <c r="BK5">
+        <v>1.227677839</v>
+      </c>
+      <c r="BL5">
+        <v>1.227677878</v>
+      </c>
+      <c r="BM5">
+        <v>1.227677803</v>
       </c>
     </row>
     <row r="6" spans="1:65">
@@ -2557,8 +2347,8 @@
       <c r="BE6">
         <v>1000</v>
       </c>
-      <c r="BF6" t="s">
-        <v>175</v>
+      <c r="BF6">
+        <v>33196607</v>
       </c>
       <c r="BG6">
         <v>20740727</v>
@@ -2569,17 +2359,17 @@
       <c r="BI6">
         <v>58805</v>
       </c>
-      <c r="BJ6" t="s">
-        <v>209</v>
-      </c>
-      <c r="BK6" t="s">
-        <v>243</v>
-      </c>
-      <c r="BL6" t="s">
-        <v>277</v>
-      </c>
-      <c r="BM6" t="s">
-        <v>311</v>
+      <c r="BJ6">
+        <v>1.2276864</v>
+      </c>
+      <c r="BK6">
+        <v>1.227686445</v>
+      </c>
+      <c r="BL6">
+        <v>1.227686484</v>
+      </c>
+      <c r="BM6">
+        <v>1.227686409</v>
       </c>
     </row>
     <row r="7" spans="1:65">
@@ -2754,8 +2544,8 @@
       <c r="BE7">
         <v>1000</v>
       </c>
-      <c r="BF7" t="s">
-        <v>176</v>
+      <c r="BF7">
+        <v>33192456</v>
       </c>
       <c r="BG7">
         <v>31317</v>
@@ -2766,17 +2556,17 @@
       <c r="BI7">
         <v>58805</v>
       </c>
-      <c r="BJ7" t="s">
-        <v>210</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>244</v>
-      </c>
-      <c r="BL7" t="s">
-        <v>278</v>
-      </c>
-      <c r="BM7" t="s">
-        <v>312</v>
+      <c r="BJ7">
+        <v>1.227598814</v>
+      </c>
+      <c r="BK7">
+        <v>1.227598859</v>
+      </c>
+      <c r="BL7">
+        <v>1.227598898</v>
+      </c>
+      <c r="BM7">
+        <v>1.227598823</v>
       </c>
     </row>
     <row r="8" spans="1:65">
@@ -2951,8 +2741,8 @@
       <c r="BE8">
         <v>980</v>
       </c>
-      <c r="BF8" t="s">
-        <v>177</v>
+      <c r="BF8">
+        <v>33192457</v>
       </c>
       <c r="BG8">
         <v>31321</v>
@@ -2963,17 +2753,17 @@
       <c r="BI8">
         <v>58805</v>
       </c>
-      <c r="BJ8" t="s">
-        <v>211</v>
-      </c>
-      <c r="BK8" t="s">
-        <v>245</v>
-      </c>
-      <c r="BL8" t="s">
-        <v>279</v>
-      </c>
-      <c r="BM8" t="s">
-        <v>313</v>
+      <c r="BJ8">
+        <v>1.227598724</v>
+      </c>
+      <c r="BK8">
+        <v>1.227598769</v>
+      </c>
+      <c r="BL8">
+        <v>1.227598808</v>
+      </c>
+      <c r="BM8">
+        <v>1.227598733</v>
       </c>
     </row>
     <row r="9" spans="1:65">
@@ -3148,8 +2938,8 @@
       <c r="BE9">
         <v>1000</v>
       </c>
-      <c r="BF9" t="s">
-        <v>178</v>
+      <c r="BF9">
+        <v>33195401</v>
       </c>
       <c r="BG9">
         <v>10748720</v>
@@ -3160,17 +2950,17 @@
       <c r="BI9">
         <v>58805</v>
       </c>
-      <c r="BJ9" t="s">
-        <v>212</v>
-      </c>
-      <c r="BK9" t="s">
-        <v>246</v>
-      </c>
-      <c r="BL9" t="s">
-        <v>280</v>
-      </c>
-      <c r="BM9" t="s">
-        <v>314</v>
+      <c r="BJ9">
+        <v>1.227657737</v>
+      </c>
+      <c r="BK9">
+        <v>1.227657782</v>
+      </c>
+      <c r="BL9">
+        <v>1.227657821</v>
+      </c>
+      <c r="BM9">
+        <v>1.227657746</v>
       </c>
     </row>
     <row r="10" spans="1:65">
@@ -3345,8 +3135,8 @@
       <c r="BE10">
         <v>1000</v>
       </c>
-      <c r="BF10" t="s">
-        <v>179</v>
+      <c r="BF10">
+        <v>33195282</v>
       </c>
       <c r="BG10">
         <v>489147</v>
@@ -3357,17 +3147,17 @@
       <c r="BI10">
         <v>58805</v>
       </c>
-      <c r="BJ10" t="s">
-        <v>213</v>
-      </c>
-      <c r="BK10" t="s">
-        <v>247</v>
-      </c>
-      <c r="BL10" t="s">
-        <v>281</v>
-      </c>
-      <c r="BM10" t="s">
-        <v>315</v>
+      <c r="BJ10">
+        <v>1.227657422</v>
+      </c>
+      <c r="BK10">
+        <v>1.227657467</v>
+      </c>
+      <c r="BL10">
+        <v>1.227657506</v>
+      </c>
+      <c r="BM10">
+        <v>1.227657431</v>
       </c>
     </row>
     <row r="11" spans="1:65">
@@ -3542,8 +3332,8 @@
       <c r="BE11">
         <v>1000</v>
       </c>
-      <c r="BF11" t="s">
-        <v>180</v>
+      <c r="BF11">
+        <v>33188348</v>
       </c>
       <c r="BG11">
         <v>5259327</v>
@@ -3554,17 +3344,17 @@
       <c r="BI11">
         <v>58805</v>
       </c>
-      <c r="BJ11" t="s">
-        <v>214</v>
-      </c>
-      <c r="BK11" t="s">
-        <v>248</v>
-      </c>
-      <c r="BL11" t="s">
-        <v>282</v>
-      </c>
-      <c r="BM11" t="s">
-        <v>316</v>
+      <c r="BJ11">
+        <v>1.227523635</v>
+      </c>
+      <c r="BK11">
+        <v>1.22752368</v>
+      </c>
+      <c r="BL11">
+        <v>1.227523719</v>
+      </c>
+      <c r="BM11">
+        <v>1.227523644</v>
       </c>
     </row>
     <row r="12" spans="1:65">
@@ -3739,8 +3529,8 @@
       <c r="BE12">
         <v>1000</v>
       </c>
-      <c r="BF12" t="s">
-        <v>181</v>
+      <c r="BF12">
+        <v>33183061</v>
       </c>
       <c r="BG12">
         <v>10492935</v>
@@ -3751,17 +3541,17 @@
       <c r="BI12">
         <v>58805</v>
       </c>
-      <c r="BJ12" t="s">
-        <v>215</v>
-      </c>
-      <c r="BK12" t="s">
-        <v>249</v>
-      </c>
-      <c r="BL12" t="s">
-        <v>283</v>
-      </c>
-      <c r="BM12" t="s">
-        <v>317</v>
+      <c r="BJ12">
+        <v>1.227439534</v>
+      </c>
+      <c r="BK12">
+        <v>1.227439579</v>
+      </c>
+      <c r="BL12">
+        <v>1.227439618</v>
+      </c>
+      <c r="BM12">
+        <v>1.227439543</v>
       </c>
     </row>
     <row r="13" spans="1:65">
@@ -3936,8 +3726,8 @@
       <c r="BE13">
         <v>1000</v>
       </c>
-      <c r="BF13" t="s">
-        <v>182</v>
+      <c r="BF13">
+        <v>33181274</v>
       </c>
       <c r="BG13">
         <v>38281353</v>
@@ -3948,17 +3738,17 @@
       <c r="BI13">
         <v>58805</v>
       </c>
-      <c r="BJ13" t="s">
-        <v>216</v>
-      </c>
-      <c r="BK13" t="s">
-        <v>250</v>
-      </c>
-      <c r="BL13" t="s">
-        <v>284</v>
-      </c>
-      <c r="BM13" t="s">
-        <v>318</v>
+      <c r="BJ13">
+        <v>1.227416319</v>
+      </c>
+      <c r="BK13">
+        <v>1.227416364</v>
+      </c>
+      <c r="BL13">
+        <v>1.227416403</v>
+      </c>
+      <c r="BM13">
+        <v>1.227416328</v>
       </c>
     </row>
     <row r="14" spans="1:65">
@@ -4133,8 +3923,8 @@
       <c r="BE14">
         <v>1000</v>
       </c>
-      <c r="BF14" t="s">
-        <v>183</v>
+      <c r="BF14">
+        <v>33181273</v>
       </c>
       <c r="BG14">
         <v>364672</v>
@@ -4145,17 +3935,17 @@
       <c r="BI14">
         <v>58805</v>
       </c>
-      <c r="BJ14" t="s">
-        <v>217</v>
-      </c>
-      <c r="BK14" t="s">
-        <v>251</v>
-      </c>
-      <c r="BL14" t="s">
-        <v>285</v>
-      </c>
-      <c r="BM14" t="s">
-        <v>319</v>
+      <c r="BJ14">
+        <v>1.227416409</v>
+      </c>
+      <c r="BK14">
+        <v>1.227416454</v>
+      </c>
+      <c r="BL14">
+        <v>1.227416493</v>
+      </c>
+      <c r="BM14">
+        <v>1.227416418</v>
       </c>
     </row>
     <row r="15" spans="1:65">
@@ -4330,8 +4120,8 @@
       <c r="BE15">
         <v>980</v>
       </c>
-      <c r="BF15" t="s">
-        <v>184</v>
+      <c r="BF15">
+        <v>33196300</v>
       </c>
       <c r="BG15">
         <v>18571</v>
@@ -4342,17 +4132,17 @@
       <c r="BI15">
         <v>58805</v>
       </c>
-      <c r="BJ15" t="s">
-        <v>218</v>
-      </c>
-      <c r="BK15" t="s">
-        <v>252</v>
-      </c>
-      <c r="BL15" t="s">
-        <v>286</v>
-      </c>
-      <c r="BM15" t="s">
-        <v>320</v>
+      <c r="BJ15">
+        <v>1.227681287</v>
+      </c>
+      <c r="BK15">
+        <v>1.227681332</v>
+      </c>
+      <c r="BL15">
+        <v>1.227681371</v>
+      </c>
+      <c r="BM15">
+        <v>1.227681296</v>
       </c>
     </row>
     <row r="16" spans="1:65">
@@ -4372,163 +4162,163 @@
         <v>151</v>
       </c>
       <c r="F16">
-        <v>1.21</v>
+        <v>1.92</v>
       </c>
       <c r="G16">
-        <v>980</v>
+        <v>2</v>
       </c>
       <c r="H16">
-        <v>1.21</v>
+        <v>3.9</v>
       </c>
       <c r="I16">
-        <v>990</v>
+        <v>4.5</v>
       </c>
       <c r="J16">
-        <v>1.25</v>
+        <v>3.7</v>
       </c>
       <c r="K16">
-        <v>980</v>
+        <v>4.2</v>
       </c>
       <c r="L16">
-        <v>1.5</v>
+        <v>2.04</v>
       </c>
       <c r="M16">
-        <v>36</v>
+        <v>2.12</v>
       </c>
       <c r="N16">
-        <v>1.03</v>
+        <v>1.89</v>
       </c>
       <c r="O16">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="P16">
-        <v>1.12</v>
+        <v>1.74</v>
       </c>
       <c r="Q16">
-        <v>1000</v>
+        <v>1.88</v>
       </c>
       <c r="R16">
-        <v>1.12</v>
+        <v>2.14</v>
       </c>
       <c r="S16">
-        <v>1000</v>
+        <v>2.34</v>
       </c>
       <c r="T16">
-        <v>1.1</v>
+        <v>13.5</v>
       </c>
       <c r="U16">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="V16">
-        <v>1.1</v>
+        <v>14</v>
       </c>
       <c r="W16">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="X16">
-        <v>1.1</v>
+        <v>5.1</v>
       </c>
       <c r="Y16">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Z16">
-        <v>1.03</v>
+        <v>4.9</v>
       </c>
       <c r="AA16">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB16">
-        <v>1.1</v>
+        <v>9</v>
       </c>
       <c r="AC16">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AD16">
-        <v>1.1</v>
+        <v>7.8</v>
       </c>
       <c r="AE16">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="AF16">
-        <v>1.1</v>
+        <v>14.5</v>
       </c>
       <c r="AG16">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AH16">
-        <v>1.03</v>
+        <v>4.9</v>
       </c>
       <c r="AI16">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ16">
-        <v>1.1</v>
+        <v>11</v>
       </c>
       <c r="AK16">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AL16">
-        <v>1.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AM16">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AN16">
-        <v>1.1</v>
+        <v>14.5</v>
       </c>
       <c r="AO16">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AP16">
-        <v>1.03</v>
+        <v>4.9</v>
       </c>
       <c r="AQ16">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR16">
-        <v>1.03</v>
+        <v>5</v>
       </c>
       <c r="AS16">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AT16">
-        <v>1.1</v>
+        <v>17</v>
       </c>
       <c r="AU16">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AV16">
-        <v>1.03</v>
+        <v>4.7</v>
       </c>
       <c r="AW16">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AX16">
-        <v>1.03</v>
+        <v>5</v>
       </c>
       <c r="AY16">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ16">
-        <v>1.01</v>
+        <v>3.7</v>
       </c>
       <c r="BA16">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="BB16">
-        <v>1.01</v>
+        <v>4.8</v>
       </c>
       <c r="BC16">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="BD16">
-        <v>1.1</v>
+        <v>5.2</v>
       </c>
       <c r="BE16">
         <v>1000</v>
       </c>
       <c r="BF16" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="BG16">
         <v>21094424</v>
@@ -4540,16 +4330,16 @@
         <v>58805</v>
       </c>
       <c r="BJ16" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="BK16" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="BL16" t="s">
-        <v>287</v>
+        <v>231</v>
       </c>
       <c r="BM16" t="s">
-        <v>321</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:65">
@@ -4569,70 +4359,70 @@
         <v>152</v>
       </c>
       <c r="F17">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="G17">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="H17">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="I17">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="J17">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="K17">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="L17">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="M17">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="N17">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="O17">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="P17">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="Q17">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="R17">
-        <v>2.7</v>
+        <v>2.58</v>
       </c>
       <c r="S17">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="T17">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="U17">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="V17">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="W17">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="X17">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="Y17">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Z17">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AA17">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB17">
         <v>12.5</v>
@@ -4641,58 +4431,58 @@
         <v>13</v>
       </c>
       <c r="AD17">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AE17">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AF17">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AG17">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH17">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AI17">
         <v>55</v>
       </c>
       <c r="AJ17">
+        <v>11</v>
+      </c>
+      <c r="AK17">
         <v>11.5</v>
       </c>
-      <c r="AK17">
-        <v>12</v>
-      </c>
       <c r="AL17">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AM17">
         <v>9.800000000000001</v>
       </c>
       <c r="AN17">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AO17">
         <v>16.5</v>
       </c>
       <c r="AP17">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AQ17">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AR17">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AS17">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AT17">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AU17">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AV17">
         <v>22</v>
@@ -4701,31 +4491,31 @@
         <v>23</v>
       </c>
       <c r="AX17">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AY17">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AZ17">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="BA17">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="BB17">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="BC17">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="BD17">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="BE17">
-        <v>320</v>
+        <v>210</v>
       </c>
       <c r="BF17" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="BG17">
         <v>47999</v>
@@ -4737,16 +4527,16 @@
         <v>58805</v>
       </c>
       <c r="BJ17" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="BK17" t="s">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="BL17" t="s">
-        <v>288</v>
+        <v>232</v>
       </c>
       <c r="BM17" t="s">
-        <v>322</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:65">
@@ -4769,160 +4559,160 @@
         <v>12.5</v>
       </c>
       <c r="G18">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="H18">
+        <v>1.3</v>
+      </c>
+      <c r="I18">
         <v>1.31</v>
       </c>
-      <c r="I18">
-        <v>1.32</v>
-      </c>
       <c r="J18">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="K18">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="L18">
-        <v>2.54</v>
+        <v>2.9</v>
       </c>
       <c r="M18">
-        <v>2.64</v>
+        <v>2.98</v>
       </c>
       <c r="N18">
-        <v>1.61</v>
+        <v>1.51</v>
       </c>
       <c r="O18">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="P18">
+        <v>1.97</v>
+      </c>
+      <c r="Q18">
+        <v>2.02</v>
+      </c>
+      <c r="R18">
+        <v>1.99</v>
+      </c>
+      <c r="S18">
         <v>2.04</v>
       </c>
-      <c r="Q18">
-        <v>2.16</v>
-      </c>
-      <c r="R18">
-        <v>1.87</v>
-      </c>
-      <c r="S18">
-        <v>1.97</v>
-      </c>
       <c r="T18">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="U18">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="V18">
+        <v>10.5</v>
+      </c>
+      <c r="W18">
+        <v>11</v>
+      </c>
+      <c r="X18">
+        <v>8.4</v>
+      </c>
+      <c r="Y18">
         <v>9</v>
       </c>
-      <c r="W18">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="X18">
-        <v>7.4</v>
-      </c>
-      <c r="Y18">
-        <v>8.199999999999999</v>
-      </c>
       <c r="Z18">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA18">
         <v>10.5</v>
       </c>
       <c r="AB18">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AC18">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AD18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF18">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AG18">
         <v>10.5</v>
       </c>
       <c r="AH18">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AI18">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AJ18">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AK18">
         <v>120</v>
       </c>
       <c r="AL18">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM18">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AN18">
         <v>27</v>
       </c>
       <c r="AO18">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AP18">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ18">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AR18">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="AS18">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT18">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AU18">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="AV18">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AW18">
+        <v>140</v>
+      </c>
+      <c r="AX18">
+        <v>100</v>
+      </c>
+      <c r="AY18">
+        <v>110</v>
+      </c>
+      <c r="AZ18">
+        <v>100</v>
+      </c>
+      <c r="BA18">
         <v>160</v>
       </c>
-      <c r="AX18">
-        <v>26</v>
-      </c>
-      <c r="AY18">
-        <v>170</v>
-      </c>
-      <c r="AZ18">
-        <v>23</v>
-      </c>
-      <c r="BA18">
-        <v>220</v>
-      </c>
       <c r="BB18">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="BC18">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="BD18">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="BE18">
         <v>1000</v>
       </c>
       <c r="BF18" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="BG18">
         <v>13133</v>
@@ -4934,16 +4724,16 @@
         <v>58805</v>
       </c>
       <c r="BJ18" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="BK18" t="s">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="BL18" t="s">
-        <v>289</v>
+        <v>233</v>
       </c>
       <c r="BM18" t="s">
-        <v>323</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:65">
@@ -4963,82 +4753,82 @@
         <v>154</v>
       </c>
       <c r="F19">
-        <v>2.48</v>
+        <v>2.6</v>
       </c>
       <c r="G19">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="H19">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="J19">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="K19">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L19">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="M19">
-        <v>2.56</v>
+        <v>2.22</v>
       </c>
       <c r="N19">
+        <v>1.81</v>
+      </c>
+      <c r="O19">
+        <v>1.82</v>
+      </c>
+      <c r="P19">
         <v>1.64</v>
       </c>
-      <c r="O19">
-        <v>1.67</v>
-      </c>
-      <c r="P19">
-        <v>1.56</v>
-      </c>
       <c r="Q19">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="R19">
-        <v>2.7</v>
+        <v>2.52</v>
       </c>
       <c r="S19">
-        <v>2.8</v>
+        <v>2.58</v>
       </c>
       <c r="T19">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="U19">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="V19">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="W19">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="X19">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Y19">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="Z19">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AA19">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AB19">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC19">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AD19">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="AE19">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AF19">
         <v>12</v>
@@ -5047,79 +4837,79 @@
         <v>12.5</v>
       </c>
       <c r="AH19">
+        <v>26</v>
+      </c>
+      <c r="AI19">
+        <v>28</v>
+      </c>
+      <c r="AJ19">
+        <v>16.5</v>
+      </c>
+      <c r="AK19">
+        <v>17.5</v>
+      </c>
+      <c r="AL19">
+        <v>11</v>
+      </c>
+      <c r="AM19">
+        <v>11.5</v>
+      </c>
+      <c r="AN19">
+        <v>14</v>
+      </c>
+      <c r="AO19">
+        <v>14.5</v>
+      </c>
+      <c r="AP19">
+        <v>34</v>
+      </c>
+      <c r="AQ19">
+        <v>36</v>
+      </c>
+      <c r="AR19">
+        <v>38</v>
+      </c>
+      <c r="AS19">
+        <v>40</v>
+      </c>
+      <c r="AT19">
+        <v>23</v>
+      </c>
+      <c r="AU19">
         <v>25</v>
       </c>
-      <c r="AI19">
-        <v>27</v>
-      </c>
-      <c r="AJ19">
-        <v>17.5</v>
-      </c>
-      <c r="AK19">
+      <c r="AV19">
+        <v>30</v>
+      </c>
+      <c r="AW19">
+        <v>32</v>
+      </c>
+      <c r="AX19">
+        <v>60</v>
+      </c>
+      <c r="AY19">
+        <v>65</v>
+      </c>
+      <c r="AZ19">
+        <v>17</v>
+      </c>
+      <c r="BA19">
         <v>18.5</v>
       </c>
-      <c r="AL19">
-        <v>10.5</v>
-      </c>
-      <c r="AM19">
-        <v>11</v>
-      </c>
-      <c r="AN19">
-        <v>13.5</v>
-      </c>
-      <c r="AO19">
-        <v>14</v>
-      </c>
-      <c r="AP19">
-        <v>30</v>
-      </c>
-      <c r="AQ19">
-        <v>32</v>
-      </c>
-      <c r="AR19">
-        <v>32</v>
-      </c>
-      <c r="AS19">
-        <v>34</v>
-      </c>
-      <c r="AT19">
+      <c r="BB19">
         <v>21</v>
       </c>
-      <c r="AU19">
-        <v>22</v>
-      </c>
-      <c r="AV19">
-        <v>27</v>
-      </c>
-      <c r="AW19">
-        <v>28</v>
-      </c>
-      <c r="AX19">
-        <v>46</v>
-      </c>
-      <c r="AY19">
-        <v>55</v>
-      </c>
-      <c r="AZ19">
-        <v>12.5</v>
-      </c>
-      <c r="BA19">
-        <v>13.5</v>
-      </c>
-      <c r="BB19">
-        <v>17</v>
-      </c>
       <c r="BC19">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="BD19">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="BE19">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="BF19" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="BG19">
         <v>5774350</v>
@@ -5131,16 +4921,16 @@
         <v>58805</v>
       </c>
       <c r="BJ19" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="BK19" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="BL19" t="s">
-        <v>290</v>
+        <v>234</v>
       </c>
       <c r="BM19" t="s">
-        <v>324</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:65">
@@ -5160,163 +4950,163 @@
         <v>155</v>
       </c>
       <c r="F20">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="G20">
-        <v>2.68</v>
+        <v>2.48</v>
       </c>
       <c r="H20">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="I20">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J20">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="K20">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L20">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="M20">
+        <v>1.95</v>
+      </c>
+      <c r="N20">
+        <v>2.04</v>
+      </c>
+      <c r="O20">
         <v>2.1</v>
       </c>
-      <c r="N20">
+      <c r="P20">
+        <v>1.79</v>
+      </c>
+      <c r="Q20">
         <v>1.91</v>
       </c>
-      <c r="O20">
-        <v>2.14</v>
-      </c>
-      <c r="P20">
-        <v>1.76</v>
-      </c>
-      <c r="Q20">
-        <v>1.88</v>
-      </c>
       <c r="R20">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="S20">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="T20">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U20">
+        <v>13</v>
+      </c>
+      <c r="V20">
+        <v>11.5</v>
+      </c>
+      <c r="W20">
+        <v>15.5</v>
+      </c>
+      <c r="X20">
+        <v>18.5</v>
+      </c>
+      <c r="Y20">
+        <v>22</v>
+      </c>
+      <c r="Z20">
+        <v>42</v>
+      </c>
+      <c r="AA20">
+        <v>55</v>
+      </c>
+      <c r="AB20">
+        <v>9.4</v>
+      </c>
+      <c r="AC20">
+        <v>10.5</v>
+      </c>
+      <c r="AD20">
+        <v>7.4</v>
+      </c>
+      <c r="AE20">
+        <v>8</v>
+      </c>
+      <c r="AF20">
+        <v>12.5</v>
+      </c>
+      <c r="AG20">
+        <v>13.5</v>
+      </c>
+      <c r="AH20">
+        <v>32</v>
+      </c>
+      <c r="AI20">
+        <v>38</v>
+      </c>
+      <c r="AJ20">
+        <v>13.5</v>
+      </c>
+      <c r="AK20">
+        <v>15.5</v>
+      </c>
+      <c r="AL20">
+        <v>10.5</v>
+      </c>
+      <c r="AM20">
+        <v>11.5</v>
+      </c>
+      <c r="AN20">
         <v>16.5</v>
       </c>
-      <c r="V20">
-        <v>10.5</v>
-      </c>
-      <c r="W20">
+      <c r="AO20">
+        <v>18</v>
+      </c>
+      <c r="AP20">
+        <v>42</v>
+      </c>
+      <c r="AQ20">
+        <v>50</v>
+      </c>
+      <c r="AR20">
+        <v>29</v>
+      </c>
+      <c r="AS20">
+        <v>55</v>
+      </c>
+      <c r="AT20">
+        <v>23</v>
+      </c>
+      <c r="AU20">
+        <v>32</v>
+      </c>
+      <c r="AV20">
+        <v>36</v>
+      </c>
+      <c r="AW20">
+        <v>42</v>
+      </c>
+      <c r="AX20">
         <v>15</v>
       </c>
-      <c r="X20">
-        <v>17</v>
-      </c>
-      <c r="Y20">
-        <v>25</v>
-      </c>
-      <c r="Z20">
-        <v>4.4</v>
-      </c>
-      <c r="AA20">
-        <v>980</v>
-      </c>
-      <c r="AB20">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC20">
-        <v>12.5</v>
-      </c>
-      <c r="AD20">
-        <v>7.2</v>
-      </c>
-      <c r="AE20">
-        <v>8.4</v>
-      </c>
-      <c r="AF20">
-        <v>11</v>
-      </c>
-      <c r="AG20">
-        <v>16</v>
-      </c>
-      <c r="AH20">
-        <v>4.5</v>
-      </c>
-      <c r="AI20">
-        <v>48</v>
-      </c>
-      <c r="AJ20">
-        <v>12.5</v>
-      </c>
-      <c r="AK20">
-        <v>21</v>
-      </c>
-      <c r="AL20">
-        <v>10</v>
-      </c>
-      <c r="AM20">
-        <v>15</v>
-      </c>
-      <c r="AN20">
-        <v>14.5</v>
-      </c>
-      <c r="AO20">
+      <c r="AY20">
+        <v>110</v>
+      </c>
+      <c r="AZ20">
+        <v>19</v>
+      </c>
+      <c r="BA20">
         <v>22</v>
       </c>
-      <c r="AP20">
-        <v>4.7</v>
-      </c>
-      <c r="AQ20">
-        <v>980</v>
-      </c>
-      <c r="AR20">
-        <v>27</v>
-      </c>
-      <c r="AS20">
-        <v>980</v>
-      </c>
-      <c r="AT20">
-        <v>22</v>
-      </c>
-      <c r="AU20">
-        <v>34</v>
-      </c>
-      <c r="AV20">
-        <v>4.4</v>
-      </c>
-      <c r="AW20">
-        <v>980</v>
-      </c>
-      <c r="AX20">
-        <v>4.6</v>
-      </c>
-      <c r="AY20">
-        <v>980</v>
-      </c>
-      <c r="AZ20">
-        <v>4.1</v>
-      </c>
-      <c r="BA20">
-        <v>27</v>
-      </c>
       <c r="BB20">
-        <v>4.2</v>
+        <v>11.5</v>
       </c>
       <c r="BC20">
         <v>36</v>
       </c>
       <c r="BD20">
-        <v>4.8</v>
+        <v>12.5</v>
       </c>
       <c r="BE20">
         <v>1000</v>
       </c>
       <c r="BF20" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="BG20">
         <v>5129869</v>
@@ -5328,16 +5118,16 @@
         <v>58805</v>
       </c>
       <c r="BJ20" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="BK20" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="BL20" t="s">
-        <v>291</v>
+        <v>235</v>
       </c>
       <c r="BM20" t="s">
-        <v>325</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:65">
@@ -5513,7 +5303,7 @@
         <v>1000</v>
       </c>
       <c r="BF21" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="BG21">
         <v>5327095</v>
@@ -5525,16 +5315,16 @@
         <v>58805</v>
       </c>
       <c r="BJ21" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="BK21" t="s">
-        <v>258</v>
+        <v>216</v>
       </c>
       <c r="BL21" t="s">
-        <v>292</v>
+        <v>236</v>
       </c>
       <c r="BM21" t="s">
-        <v>326</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="1:65">
@@ -5554,46 +5344,46 @@
         <v>157</v>
       </c>
       <c r="F22">
-        <v>1.77</v>
+        <v>1.69</v>
       </c>
       <c r="G22">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="H22">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="I22">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="J22">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="K22">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="L22">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="M22">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="N22">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="O22">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="P22">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="Q22">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="R22">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="S22">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="T22">
         <v>8.800000000000001</v>
@@ -5602,19 +5392,19 @@
         <v>10.5</v>
       </c>
       <c r="V22">
-        <v>13.5</v>
+        <v>6.4</v>
       </c>
       <c r="W22">
         <v>17.5</v>
       </c>
       <c r="X22">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="Y22">
         <v>980</v>
       </c>
       <c r="Z22">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA22">
         <v>980</v>
@@ -5623,64 +5413,64 @@
         <v>6</v>
       </c>
       <c r="AC22">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD22">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AE22">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AF22">
-        <v>19</v>
+        <v>7.2</v>
       </c>
       <c r="AG22">
         <v>980</v>
       </c>
       <c r="AH22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI22">
         <v>980</v>
       </c>
       <c r="AJ22">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AK22">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AL22">
         <v>9.199999999999999</v>
       </c>
       <c r="AM22">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AN22">
+        <v>7.4</v>
+      </c>
+      <c r="AO22">
+        <v>980</v>
+      </c>
+      <c r="AP22">
+        <v>9</v>
+      </c>
+      <c r="AQ22">
+        <v>980</v>
+      </c>
+      <c r="AR22">
         <v>6.6</v>
       </c>
-      <c r="AO22">
-        <v>980</v>
-      </c>
-      <c r="AP22">
-        <v>8</v>
-      </c>
-      <c r="AQ22">
-        <v>980</v>
-      </c>
-      <c r="AR22">
-        <v>16</v>
-      </c>
       <c r="AS22">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AT22">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="AU22">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AV22">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AW22">
         <v>980</v>
@@ -5692,25 +5482,25 @@
         <v>980</v>
       </c>
       <c r="AZ22">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="BA22">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="BB22">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BC22">
         <v>980</v>
       </c>
       <c r="BD22">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
       <c r="BE22">
         <v>1000</v>
       </c>
       <c r="BF22" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="BG22">
         <v>8717595</v>
@@ -5722,16 +5512,16 @@
         <v>58805</v>
       </c>
       <c r="BJ22" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="BK22" t="s">
-        <v>259</v>
+        <v>217</v>
       </c>
       <c r="BL22" t="s">
-        <v>293</v>
+        <v>237</v>
       </c>
       <c r="BM22" t="s">
-        <v>327</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:65">
@@ -5751,154 +5541,154 @@
         <v>158</v>
       </c>
       <c r="F23">
-        <v>2.56</v>
+        <v>2.48</v>
       </c>
       <c r="G23">
-        <v>980</v>
+        <v>2.66</v>
       </c>
       <c r="H23">
         <v>3.2</v>
       </c>
       <c r="I23">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>3.4</v>
+      </c>
+      <c r="L23">
+        <v>1.67</v>
+      </c>
+      <c r="M23">
+        <v>1.75</v>
+      </c>
+      <c r="N23">
+        <v>2.32</v>
+      </c>
+      <c r="O23">
         <v>2.48</v>
       </c>
-      <c r="K23">
-        <v>3.35</v>
-      </c>
-      <c r="L23">
-        <v>1.27</v>
-      </c>
-      <c r="M23">
-        <v>2.74</v>
-      </c>
-      <c r="N23">
-        <v>1.58</v>
-      </c>
-      <c r="O23">
-        <v>4.6</v>
-      </c>
       <c r="P23">
-        <v>1.12</v>
+        <v>1.93</v>
       </c>
       <c r="Q23">
-        <v>1000</v>
+        <v>2.1</v>
       </c>
       <c r="R23">
-        <v>1.12</v>
+        <v>1.92</v>
       </c>
       <c r="S23">
-        <v>1000</v>
+        <v>2.08</v>
       </c>
       <c r="T23">
-        <v>1.49</v>
+        <v>8.4</v>
       </c>
       <c r="U23">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="V23">
-        <v>1.01</v>
+        <v>9.6</v>
       </c>
       <c r="W23">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="X23">
-        <v>1.01</v>
+        <v>18</v>
       </c>
       <c r="Y23">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z23">
-        <v>1.01</v>
+        <v>7.2</v>
       </c>
       <c r="AA23">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB23">
-        <v>1.01</v>
+        <v>8</v>
       </c>
       <c r="AC23">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD23">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AE23">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AF23">
-        <v>1.02</v>
+        <v>12.5</v>
       </c>
       <c r="AG23">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH23">
-        <v>1.01</v>
+        <v>6.8</v>
       </c>
       <c r="AI23">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ23">
-        <v>1.01</v>
+        <v>13.5</v>
       </c>
       <c r="AK23">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AL23">
-        <v>1.02</v>
+        <v>10.5</v>
       </c>
       <c r="AM23">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AN23">
-        <v>1.01</v>
+        <v>17</v>
       </c>
       <c r="AO23">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AP23">
-        <v>1.01</v>
+        <v>7.2</v>
       </c>
       <c r="AQ23">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR23">
-        <v>1.01</v>
+        <v>6.8</v>
       </c>
       <c r="AS23">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT23">
-        <v>1.01</v>
+        <v>7</v>
       </c>
       <c r="AU23">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV23">
-        <v>1.01</v>
+        <v>7.2</v>
       </c>
       <c r="AW23">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX23">
-        <v>1.01</v>
+        <v>7.6</v>
       </c>
       <c r="AY23">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ23">
-        <v>1.55</v>
+        <v>6.4</v>
       </c>
       <c r="BA23">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="BB23">
-        <v>1.55</v>
+        <v>6.8</v>
       </c>
       <c r="BC23">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD23">
         <v>15</v>
@@ -5907,7 +5697,7 @@
         <v>1000</v>
       </c>
       <c r="BF23" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="BG23">
         <v>25894882</v>
@@ -5919,16 +5709,16 @@
         <v>58805</v>
       </c>
       <c r="BJ23" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="BK23" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="BL23" t="s">
-        <v>294</v>
+        <v>238</v>
       </c>
       <c r="BM23" t="s">
-        <v>328</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:65">
@@ -5948,52 +5738,52 @@
         <v>159</v>
       </c>
       <c r="F24">
-        <v>2.42</v>
+        <v>2.54</v>
       </c>
       <c r="G24">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="H24">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I24">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J24">
+        <v>3.35</v>
+      </c>
+      <c r="K24">
         <v>3.45</v>
       </c>
-      <c r="K24">
-        <v>3.5</v>
-      </c>
       <c r="L24">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="M24">
+        <v>1.86</v>
+      </c>
+      <c r="N24">
+        <v>2.16</v>
+      </c>
+      <c r="O24">
+        <v>2.24</v>
+      </c>
+      <c r="P24">
+        <v>1.87</v>
+      </c>
+      <c r="Q24">
+        <v>1.95</v>
+      </c>
+      <c r="R24">
         <v>2.06</v>
       </c>
-      <c r="N24">
-        <v>1.95</v>
-      </c>
-      <c r="O24">
-        <v>2.12</v>
-      </c>
-      <c r="P24">
-        <v>1.81</v>
-      </c>
-      <c r="Q24">
-        <v>1.9</v>
-      </c>
-      <c r="R24">
-        <v>2.1</v>
-      </c>
       <c r="S24">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="T24">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="U24">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="V24">
         <v>11</v>
@@ -6002,109 +5792,109 @@
         <v>12.5</v>
       </c>
       <c r="X24">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y24">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z24">
         <v>48</v>
       </c>
       <c r="AA24">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AB24">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC24">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD24">
         <v>7</v>
       </c>
       <c r="AE24">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="AF24">
         <v>12.5</v>
       </c>
       <c r="AG24">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH24">
-        <v>6.6</v>
+        <v>34</v>
       </c>
       <c r="AI24">
         <v>42</v>
       </c>
       <c r="AJ24">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AK24">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AL24">
         <v>10.5</v>
       </c>
       <c r="AM24">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AN24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO24">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP24">
-        <v>6.8</v>
+        <v>48</v>
       </c>
       <c r="AQ24">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AR24">
-        <v>7.8</v>
+        <v>30</v>
       </c>
       <c r="AS24">
+        <v>36</v>
+      </c>
+      <c r="AT24">
+        <v>24</v>
+      </c>
+      <c r="AU24">
+        <v>29</v>
+      </c>
+      <c r="AV24">
         <v>38</v>
       </c>
-      <c r="AT24">
+      <c r="AW24">
+        <v>46</v>
+      </c>
+      <c r="AX24">
+        <v>85</v>
+      </c>
+      <c r="AY24">
+        <v>110</v>
+      </c>
+      <c r="AZ24">
         <v>22</v>
-      </c>
-      <c r="AU24">
-        <v>30</v>
-      </c>
-      <c r="AV24">
-        <v>34</v>
-      </c>
-      <c r="AW24">
-        <v>48</v>
-      </c>
-      <c r="AX24">
-        <v>28</v>
-      </c>
-      <c r="AY24">
-        <v>980</v>
-      </c>
-      <c r="AZ24">
-        <v>5.9</v>
       </c>
       <c r="BA24">
         <v>25</v>
       </c>
       <c r="BB24">
-        <v>6.4</v>
+        <v>32</v>
       </c>
       <c r="BC24">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="BD24">
-        <v>7.6</v>
+        <v>15.5</v>
       </c>
       <c r="BE24">
         <v>1000</v>
       </c>
       <c r="BF24" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="BG24">
         <v>198134</v>
@@ -6116,16 +5906,16 @@
         <v>58805</v>
       </c>
       <c r="BJ24" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="BK24" t="s">
-        <v>261</v>
+        <v>219</v>
       </c>
       <c r="BL24" t="s">
-        <v>295</v>
+        <v>239</v>
       </c>
       <c r="BM24" t="s">
-        <v>329</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:65">
@@ -6145,163 +5935,163 @@
         <v>160</v>
       </c>
       <c r="F25">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="G25">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="H25">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="I25">
         <v>4.9</v>
       </c>
       <c r="J25">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K25">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L25">
-        <v>1.76</v>
+        <v>1.88</v>
       </c>
       <c r="M25">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="N25">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="O25">
-        <v>2.32</v>
+        <v>2.14</v>
       </c>
       <c r="P25">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="Q25">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="R25">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="S25">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="T25">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="U25">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="V25">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="W25">
+        <v>15.5</v>
+      </c>
+      <c r="X25">
+        <v>29</v>
+      </c>
+      <c r="Y25">
+        <v>34</v>
+      </c>
+      <c r="Z25">
+        <v>70</v>
+      </c>
+      <c r="AA25">
+        <v>110</v>
+      </c>
+      <c r="AB25">
+        <v>8</v>
+      </c>
+      <c r="AC25">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD25">
+        <v>7.6</v>
+      </c>
+      <c r="AE25">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AF25">
         <v>16.5</v>
       </c>
-      <c r="X25">
-        <v>7.4</v>
-      </c>
-      <c r="Y25">
-        <v>42</v>
-      </c>
-      <c r="Z25">
-        <v>7.2</v>
-      </c>
-      <c r="AA25">
-        <v>130</v>
-      </c>
-      <c r="AB25">
-        <v>6.8</v>
-      </c>
-      <c r="AC25">
-        <v>8.4</v>
-      </c>
-      <c r="AD25">
-        <v>7.4</v>
-      </c>
-      <c r="AE25">
-        <v>8.6</v>
-      </c>
-      <c r="AF25">
-        <v>16</v>
-      </c>
       <c r="AG25">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AH25">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AI25">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AJ25">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AK25">
         <v>11.5</v>
       </c>
       <c r="AL25">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AM25">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN25">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AO25">
+        <v>21</v>
+      </c>
+      <c r="AP25">
+        <v>55</v>
+      </c>
+      <c r="AQ25">
+        <v>75</v>
+      </c>
+      <c r="AR25">
+        <v>19.5</v>
+      </c>
+      <c r="AS25">
         <v>22</v>
       </c>
-      <c r="AP25">
-        <v>50</v>
-      </c>
-      <c r="AQ25">
-        <v>90</v>
-      </c>
-      <c r="AR25">
-        <v>18.5</v>
-      </c>
-      <c r="AS25">
-        <v>24</v>
-      </c>
       <c r="AT25">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AU25">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AV25">
-        <v>7.2</v>
+        <v>36</v>
       </c>
       <c r="AW25">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AX25">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="AY25">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="AZ25">
-        <v>5.3</v>
+        <v>13.5</v>
       </c>
       <c r="BA25">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="BB25">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="BC25">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="BD25">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BE25">
         <v>1000</v>
       </c>
       <c r="BF25" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="BG25">
         <v>4701919</v>
@@ -6313,16 +6103,16 @@
         <v>58805</v>
       </c>
       <c r="BJ25" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="BK25" t="s">
-        <v>262</v>
+        <v>220</v>
       </c>
       <c r="BL25" t="s">
-        <v>296</v>
+        <v>240</v>
       </c>
       <c r="BM25" t="s">
-        <v>330</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:65">
@@ -6342,64 +6132,64 @@
         <v>161</v>
       </c>
       <c r="F26">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="G26">
         <v>1.93</v>
       </c>
       <c r="H26">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="I26">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="J26">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K26">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L26">
         <v>1.55</v>
       </c>
       <c r="M26">
-        <v>1.69</v>
+        <v>1.58</v>
       </c>
       <c r="N26">
-        <v>2.46</v>
+        <v>2.72</v>
       </c>
       <c r="O26">
         <v>2.82</v>
       </c>
       <c r="P26">
-        <v>2.22</v>
+        <v>2.36</v>
       </c>
       <c r="Q26">
-        <v>2.5</v>
+        <v>2.64</v>
       </c>
       <c r="R26">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="S26">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
       <c r="T26">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="U26">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="V26">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="W26">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="X26">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="Y26">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="Z26">
         <v>7</v>
@@ -6408,43 +6198,43 @@
         <v>980</v>
       </c>
       <c r="AB26">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AC26">
         <v>6.8</v>
       </c>
       <c r="AD26">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AE26">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AF26">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AG26">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH26">
         <v>6.8</v>
       </c>
       <c r="AI26">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AJ26">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AK26">
         <v>10.5</v>
       </c>
       <c r="AL26">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AM26">
         <v>12.5</v>
       </c>
       <c r="AN26">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="AO26">
         <v>32</v>
@@ -6459,19 +6249,19 @@
         <v>17.5</v>
       </c>
       <c r="AS26">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AT26">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU26">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AV26">
         <v>6.6</v>
       </c>
       <c r="AW26">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AX26">
         <v>7</v>
@@ -6480,10 +6270,10 @@
         <v>980</v>
       </c>
       <c r="AZ26">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="BA26">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="BB26">
         <v>7</v>
@@ -6492,13 +6282,13 @@
         <v>980</v>
       </c>
       <c r="BD26">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="BE26">
         <v>1000</v>
       </c>
       <c r="BF26" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="BG26">
         <v>220949</v>
@@ -6510,16 +6300,16 @@
         <v>58805</v>
       </c>
       <c r="BJ26" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="BK26" t="s">
-        <v>263</v>
+        <v>221</v>
       </c>
       <c r="BL26" t="s">
-        <v>297</v>
+        <v>241</v>
       </c>
       <c r="BM26" t="s">
-        <v>331</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:65">
@@ -6539,163 +6329,163 @@
         <v>162</v>
       </c>
       <c r="F27">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="G27">
         <v>1.43</v>
       </c>
       <c r="H27">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="I27">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="J27">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K27">
         <v>5.2</v>
       </c>
       <c r="L27">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="M27">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="N27">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="O27">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="P27">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="Q27">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="R27">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="S27">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="T27">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="U27">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="V27">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="W27">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="X27">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="Y27">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="Z27">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AA27">
-        <v>980</v>
+        <v>460</v>
       </c>
       <c r="AB27">
         <v>6.2</v>
       </c>
       <c r="AC27">
+        <v>7</v>
+      </c>
+      <c r="AD27">
+        <v>10.5</v>
+      </c>
+      <c r="AE27">
+        <v>11.5</v>
+      </c>
+      <c r="AF27">
+        <v>36</v>
+      </c>
+      <c r="AG27">
+        <v>42</v>
+      </c>
+      <c r="AH27">
+        <v>20</v>
+      </c>
+      <c r="AI27">
+        <v>220</v>
+      </c>
+      <c r="AJ27">
+        <v>6.6</v>
+      </c>
+      <c r="AK27">
         <v>7.2</v>
       </c>
-      <c r="AD27">
-        <v>10</v>
-      </c>
-      <c r="AE27">
-        <v>13</v>
-      </c>
-      <c r="AF27">
+      <c r="AL27">
+        <v>9.6</v>
+      </c>
+      <c r="AM27">
+        <v>10.5</v>
+      </c>
+      <c r="AN27">
         <v>30</v>
       </c>
-      <c r="AG27">
-        <v>46</v>
-      </c>
-      <c r="AH27">
-        <v>6.8</v>
-      </c>
-      <c r="AI27">
-        <v>980</v>
-      </c>
-      <c r="AJ27">
-        <v>6.4</v>
-      </c>
-      <c r="AK27">
-        <v>8</v>
-      </c>
-      <c r="AL27">
-        <v>9</v>
-      </c>
-      <c r="AM27">
-        <v>12</v>
-      </c>
-      <c r="AN27">
-        <v>29</v>
-      </c>
       <c r="AO27">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AP27">
-        <v>6.8</v>
+        <v>20</v>
       </c>
       <c r="AQ27">
-        <v>980</v>
+        <v>200</v>
       </c>
       <c r="AR27">
         <v>10</v>
       </c>
       <c r="AS27">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AT27">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AU27">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AV27">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AW27">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AX27">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="AY27">
-        <v>980</v>
+        <v>250</v>
       </c>
       <c r="AZ27">
-        <v>3.9</v>
+        <v>7.2</v>
       </c>
       <c r="BA27">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="BB27">
-        <v>6.8</v>
+        <v>21</v>
       </c>
       <c r="BC27">
-        <v>980</v>
+        <v>380</v>
       </c>
       <c r="BD27">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="BE27">
         <v>1000</v>
       </c>
       <c r="BF27" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="BG27">
         <v>361329</v>
@@ -6707,16 +6497,16 @@
         <v>58805</v>
       </c>
       <c r="BJ27" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="BK27" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="BL27" t="s">
-        <v>298</v>
+        <v>242</v>
       </c>
       <c r="BM27" t="s">
-        <v>332</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:65">
@@ -6739,94 +6529,94 @@
         <v>1.74</v>
       </c>
       <c r="G28">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="H28">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="I28">
         <v>6.4</v>
       </c>
       <c r="J28">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K28">
         <v>3.85</v>
       </c>
       <c r="L28">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="M28">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="N28">
+        <v>2.28</v>
+      </c>
+      <c r="O28">
+        <v>2.36</v>
+      </c>
+      <c r="P28">
         <v>2.18</v>
       </c>
-      <c r="O28">
-        <v>2.46</v>
-      </c>
-      <c r="P28">
-        <v>1.99</v>
-      </c>
       <c r="Q28">
-        <v>2.36</v>
+        <v>2.26</v>
       </c>
       <c r="R28">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="S28">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="T28">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="U28">
         <v>11</v>
       </c>
       <c r="V28">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="W28">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="X28">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y28">
         <v>46</v>
       </c>
       <c r="Z28">
-        <v>13.5</v>
+        <v>22</v>
       </c>
       <c r="AA28">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AB28">
         <v>6.6</v>
       </c>
       <c r="AC28">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD28">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AE28">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AF28">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG28">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH28">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI28">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ28">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK28">
         <v>9.199999999999999</v>
@@ -6835,64 +6625,64 @@
         <v>9.6</v>
       </c>
       <c r="AM28">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AN28">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO28">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AP28">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AQ28">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AR28">
         <v>16</v>
       </c>
       <c r="AS28">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AT28">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AU28">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV28">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AW28">
         <v>50</v>
       </c>
       <c r="AX28">
-        <v>13.5</v>
+        <v>22</v>
       </c>
       <c r="AY28">
-        <v>440</v>
+        <v>190</v>
       </c>
       <c r="AZ28">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA28">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="BB28">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="BC28">
-        <v>420</v>
+        <v>150</v>
       </c>
       <c r="BD28">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="BE28">
         <v>1000</v>
       </c>
       <c r="BF28" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="BG28">
         <v>22498185</v>
@@ -6904,16 +6694,16 @@
         <v>58805</v>
       </c>
       <c r="BJ28" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="BK28" t="s">
-        <v>265</v>
+        <v>223</v>
       </c>
       <c r="BL28" t="s">
-        <v>299</v>
+        <v>243</v>
       </c>
       <c r="BM28" t="s">
-        <v>333</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" spans="1:65">
@@ -6936,160 +6726,160 @@
         <v>1.96</v>
       </c>
       <c r="G29">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="H29">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="I29">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J29">
         <v>3.45</v>
       </c>
       <c r="K29">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L29">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="M29">
         <v>1.73</v>
       </c>
       <c r="N29">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="O29">
-        <v>2.54</v>
+        <v>2.42</v>
       </c>
       <c r="P29">
         <v>2.1</v>
       </c>
       <c r="Q29">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R29">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="S29">
         <v>1.9</v>
       </c>
       <c r="T29">
-        <v>8.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="U29">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="V29">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="W29">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X29">
+        <v>30</v>
+      </c>
+      <c r="Y29">
+        <v>36</v>
+      </c>
+      <c r="Z29">
         <v>27</v>
       </c>
-      <c r="Y29">
-        <v>38</v>
-      </c>
-      <c r="Z29">
-        <v>6.6</v>
-      </c>
       <c r="AA29">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AB29">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AC29">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="AD29">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AE29">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="AF29">
         <v>17.5</v>
       </c>
       <c r="AG29">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AH29">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AI29">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AJ29">
         <v>9.6</v>
       </c>
       <c r="AK29">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AL29">
         <v>10</v>
       </c>
       <c r="AM29">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN29">
         <v>21</v>
       </c>
       <c r="AO29">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AP29">
-        <v>8.199999999999999</v>
+        <v>50</v>
       </c>
       <c r="AQ29">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AR29">
         <v>20</v>
       </c>
       <c r="AS29">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AT29">
         <v>21</v>
       </c>
       <c r="AU29">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AV29">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AW29">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AX29">
-        <v>6.6</v>
+        <v>29</v>
       </c>
       <c r="AY29">
-        <v>980</v>
+        <v>170</v>
       </c>
       <c r="AZ29">
-        <v>5.2</v>
+        <v>17</v>
       </c>
       <c r="BA29">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="BB29">
-        <v>6.6</v>
+        <v>50</v>
       </c>
       <c r="BC29">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="BD29">
-        <v>6.8</v>
+        <v>30</v>
       </c>
       <c r="BE29">
         <v>1000</v>
       </c>
       <c r="BF29" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="BG29">
         <v>5287007</v>
@@ -7101,16 +6891,16 @@
         <v>58805</v>
       </c>
       <c r="BJ29" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="BK29" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="BL29" t="s">
-        <v>300</v>
+        <v>244</v>
       </c>
       <c r="BM29" t="s">
-        <v>334</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" spans="1:65">
@@ -7130,163 +6920,163 @@
         <v>165</v>
       </c>
       <c r="F30">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="G30">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H30">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="I30">
-        <v>2.78</v>
+        <v>2.64</v>
       </c>
       <c r="J30">
+        <v>2.98</v>
+      </c>
+      <c r="K30">
         <v>3.05</v>
       </c>
-      <c r="K30">
-        <v>3.25</v>
-      </c>
       <c r="L30">
-        <v>1.54</v>
+        <v>1.47</v>
       </c>
       <c r="M30">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="N30">
-        <v>2.66</v>
+        <v>3</v>
       </c>
       <c r="O30">
-        <v>2.86</v>
+        <v>3.15</v>
       </c>
       <c r="P30">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="Q30">
-        <v>2.24</v>
+        <v>2.44</v>
       </c>
       <c r="R30">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="S30">
-        <v>1.89</v>
+        <v>1.76</v>
       </c>
       <c r="T30">
+        <v>6.6</v>
+      </c>
+      <c r="U30">
         <v>7.4</v>
       </c>
-      <c r="U30">
-        <v>8.6</v>
-      </c>
       <c r="V30">
+        <v>6.6</v>
+      </c>
+      <c r="W30">
         <v>7.4</v>
       </c>
-      <c r="W30">
-        <v>8.199999999999999</v>
-      </c>
       <c r="X30">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y30">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="Z30">
-        <v>9.199999999999999</v>
+        <v>36</v>
       </c>
       <c r="AA30">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AB30">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC30">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD30">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AE30">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AF30">
         <v>12</v>
       </c>
       <c r="AG30">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH30">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AI30">
         <v>42</v>
       </c>
       <c r="AJ30">
+        <v>19.5</v>
+      </c>
+      <c r="AK30">
+        <v>21</v>
+      </c>
+      <c r="AL30">
+        <v>15</v>
+      </c>
+      <c r="AM30">
         <v>16.5</v>
       </c>
-      <c r="AK30">
-        <v>20</v>
-      </c>
-      <c r="AL30">
-        <v>12.5</v>
-      </c>
-      <c r="AM30">
-        <v>15.5</v>
-      </c>
       <c r="AN30">
+        <v>24</v>
+      </c>
+      <c r="AO30">
+        <v>28</v>
+      </c>
+      <c r="AP30">
+        <v>55</v>
+      </c>
+      <c r="AQ30">
+        <v>80</v>
+      </c>
+      <c r="AR30">
+        <v>65</v>
+      </c>
+      <c r="AS30">
+        <v>75</v>
+      </c>
+      <c r="AT30">
+        <v>46</v>
+      </c>
+      <c r="AU30">
+        <v>65</v>
+      </c>
+      <c r="AV30">
+        <v>65</v>
+      </c>
+      <c r="AW30">
+        <v>100</v>
+      </c>
+      <c r="AX30">
         <v>19</v>
       </c>
-      <c r="AO30">
-        <v>26</v>
-      </c>
-      <c r="AP30">
+      <c r="AY30">
+        <v>240</v>
+      </c>
+      <c r="AZ30">
+        <v>17.5</v>
+      </c>
+      <c r="BA30">
+        <v>90</v>
+      </c>
+      <c r="BB30">
+        <v>36</v>
+      </c>
+      <c r="BC30">
         <v>48</v>
       </c>
-      <c r="AQ30">
-        <v>75</v>
-      </c>
-      <c r="AR30">
-        <v>46</v>
-      </c>
-      <c r="AS30">
-        <v>65</v>
-      </c>
-      <c r="AT30">
-        <v>36</v>
-      </c>
-      <c r="AU30">
-        <v>55</v>
-      </c>
-      <c r="AV30">
-        <v>55</v>
-      </c>
-      <c r="AW30">
-        <v>80</v>
-      </c>
-      <c r="AX30">
-        <v>10.5</v>
-      </c>
-      <c r="AY30">
-        <v>980</v>
-      </c>
-      <c r="AZ30">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="BA30">
-        <v>60</v>
-      </c>
-      <c r="BB30">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="BC30">
-        <v>46</v>
-      </c>
       <c r="BD30">
-        <v>10.5</v>
+        <v>18.5</v>
       </c>
       <c r="BE30">
         <v>1000</v>
       </c>
       <c r="BF30" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="BG30">
         <v>198144</v>
@@ -7298,16 +7088,16 @@
         <v>58805</v>
       </c>
       <c r="BJ30" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="BK30" t="s">
-        <v>267</v>
+        <v>225</v>
       </c>
       <c r="BL30" t="s">
-        <v>301</v>
+        <v>245</v>
       </c>
       <c r="BM30" t="s">
-        <v>335</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:65">
@@ -7327,67 +7117,67 @@
         <v>166</v>
       </c>
       <c r="F31">
-        <v>1.76</v>
+        <v>1.62</v>
       </c>
       <c r="G31">
-        <v>1.77</v>
+        <v>1.65</v>
       </c>
       <c r="H31">
-        <v>5.4</v>
+        <v>6.8</v>
       </c>
       <c r="I31">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="J31">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="K31">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L31">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="M31">
+        <v>1.85</v>
+      </c>
+      <c r="N31">
+        <v>2.16</v>
+      </c>
+      <c r="O31">
+        <v>2.26</v>
+      </c>
+      <c r="P31">
+        <v>2.08</v>
+      </c>
+      <c r="Q31">
+        <v>2.36</v>
+      </c>
+      <c r="R31">
+        <v>1.74</v>
+      </c>
+      <c r="S31">
         <v>1.93</v>
       </c>
-      <c r="N31">
-        <v>2.08</v>
-      </c>
-      <c r="O31">
-        <v>2.4</v>
-      </c>
-      <c r="P31">
-        <v>2</v>
-      </c>
-      <c r="Q31">
-        <v>2.38</v>
-      </c>
-      <c r="R31">
-        <v>1.72</v>
-      </c>
-      <c r="S31">
-        <v>1.99</v>
-      </c>
       <c r="T31">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="U31">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="V31">
-        <v>12</v>
+        <v>17.5</v>
       </c>
       <c r="W31">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="X31">
-        <v>4.7</v>
+        <v>15.5</v>
       </c>
       <c r="Y31">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="Z31">
-        <v>4.9</v>
+        <v>13.5</v>
       </c>
       <c r="AA31">
         <v>980</v>
@@ -7396,94 +7186,94 @@
         <v>6.4</v>
       </c>
       <c r="AC31">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD31">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="AE31">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AF31">
+        <v>24</v>
+      </c>
+      <c r="AG31">
+        <v>980</v>
+      </c>
+      <c r="AH31">
+        <v>12.5</v>
+      </c>
+      <c r="AI31">
+        <v>130</v>
+      </c>
+      <c r="AJ31">
+        <v>7.4</v>
+      </c>
+      <c r="AK31">
+        <v>8.4</v>
+      </c>
+      <c r="AL31">
         <v>9.6</v>
       </c>
-      <c r="AF31">
-        <v>17.5</v>
-      </c>
-      <c r="AG31">
-        <v>29</v>
-      </c>
-      <c r="AH31">
-        <v>4.8</v>
-      </c>
-      <c r="AI31">
-        <v>980</v>
-      </c>
-      <c r="AJ31">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AK31">
-        <v>11.5</v>
-      </c>
-      <c r="AL31">
-        <v>9</v>
-      </c>
       <c r="AM31">
+        <v>10.5</v>
+      </c>
+      <c r="AN31">
+        <v>23</v>
+      </c>
+      <c r="AO31">
+        <v>980</v>
+      </c>
+      <c r="AP31">
         <v>13</v>
       </c>
-      <c r="AN31">
-        <v>18</v>
-      </c>
-      <c r="AO31">
-        <v>32</v>
-      </c>
-      <c r="AP31">
-        <v>4.8</v>
-      </c>
       <c r="AQ31">
-        <v>980</v>
+        <v>140</v>
       </c>
       <c r="AR31">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AS31">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AT31">
         <v>17.5</v>
       </c>
       <c r="AU31">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AV31">
-        <v>4.6</v>
+        <v>38</v>
       </c>
       <c r="AW31">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AX31">
-        <v>4.9</v>
+        <v>13</v>
       </c>
       <c r="AY31">
-        <v>980</v>
+        <v>200</v>
       </c>
       <c r="AZ31">
-        <v>3.85</v>
+        <v>10.5</v>
       </c>
       <c r="BA31">
-        <v>16.5</v>
+        <v>11.5</v>
       </c>
       <c r="BB31">
-        <v>4.9</v>
+        <v>5.9</v>
       </c>
       <c r="BC31">
-        <v>980</v>
+        <v>200</v>
       </c>
       <c r="BD31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BE31">
         <v>1000</v>
       </c>
       <c r="BF31" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="BG31">
         <v>900849</v>
@@ -7495,16 +7285,16 @@
         <v>58805</v>
       </c>
       <c r="BJ31" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="BK31" t="s">
-        <v>268</v>
+        <v>226</v>
       </c>
       <c r="BL31" t="s">
-        <v>302</v>
+        <v>246</v>
       </c>
       <c r="BM31" t="s">
-        <v>336</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32" spans="1:65">
@@ -7524,67 +7314,67 @@
         <v>167</v>
       </c>
       <c r="F32">
-        <v>2.02</v>
+        <v>2.28</v>
       </c>
       <c r="G32">
-        <v>2.16</v>
+        <v>2.44</v>
       </c>
       <c r="H32">
+        <v>3.6</v>
+      </c>
+      <c r="I32">
         <v>4.1</v>
       </c>
-      <c r="I32">
-        <v>4.6</v>
-      </c>
       <c r="J32">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="K32">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="L32">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="M32">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="N32">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="O32">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
       <c r="P32">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="Q32">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R32">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="S32">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="T32">
-        <v>4.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="U32">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="V32">
-        <v>5.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="W32">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="X32">
-        <v>6.4</v>
+        <v>19</v>
       </c>
       <c r="Y32">
         <v>980</v>
       </c>
       <c r="Z32">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="AA32">
         <v>980</v>
@@ -7596,91 +7386,91 @@
         <v>8.6</v>
       </c>
       <c r="AD32">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AE32">
-        <v>980</v>
+        <v>7.4</v>
       </c>
       <c r="AF32">
-        <v>5.6</v>
+        <v>13.5</v>
       </c>
       <c r="AG32">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AH32">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="AI32">
         <v>980</v>
       </c>
       <c r="AJ32">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="AK32">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AL32">
+        <v>10</v>
+      </c>
+      <c r="AM32">
+        <v>12</v>
+      </c>
+      <c r="AN32">
+        <v>17.5</v>
+      </c>
+      <c r="AO32">
+        <v>980</v>
+      </c>
+      <c r="AP32">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AQ32">
+        <v>980</v>
+      </c>
+      <c r="AR32">
+        <v>7.8</v>
+      </c>
+      <c r="AS32">
+        <v>980</v>
+      </c>
+      <c r="AT32">
+        <v>7.4</v>
+      </c>
+      <c r="AU32">
+        <v>980</v>
+      </c>
+      <c r="AV32">
+        <v>8.4</v>
+      </c>
+      <c r="AW32">
+        <v>980</v>
+      </c>
+      <c r="AX32">
         <v>9.4</v>
       </c>
-      <c r="AM32">
-        <v>980</v>
-      </c>
-      <c r="AN32">
-        <v>5.9</v>
-      </c>
-      <c r="AO32">
-        <v>980</v>
-      </c>
-      <c r="AP32">
+      <c r="AY32">
+        <v>980</v>
+      </c>
+      <c r="AZ32">
         <v>7.2</v>
       </c>
-      <c r="AQ32">
-        <v>980</v>
-      </c>
-      <c r="AR32">
-        <v>6</v>
-      </c>
-      <c r="AS32">
-        <v>980</v>
-      </c>
-      <c r="AT32">
-        <v>6</v>
-      </c>
-      <c r="AU32">
-        <v>980</v>
-      </c>
-      <c r="AV32">
-        <v>6.8</v>
-      </c>
-      <c r="AW32">
-        <v>980</v>
-      </c>
-      <c r="AX32">
-        <v>7.4</v>
-      </c>
-      <c r="AY32">
-        <v>980</v>
-      </c>
-      <c r="AZ32">
-        <v>5.7</v>
-      </c>
       <c r="BA32">
         <v>980</v>
       </c>
       <c r="BB32">
-        <v>6.8</v>
+        <v>8.6</v>
       </c>
       <c r="BC32">
         <v>980</v>
       </c>
       <c r="BD32">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BE32">
         <v>1000</v>
       </c>
       <c r="BF32" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="BG32">
         <v>6290900</v>
@@ -7692,16 +7482,16 @@
         <v>58805</v>
       </c>
       <c r="BJ32" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="BK32" t="s">
-        <v>269</v>
+        <v>227</v>
       </c>
       <c r="BL32" t="s">
-        <v>303</v>
+        <v>247</v>
       </c>
       <c r="BM32" t="s">
-        <v>337</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33" spans="1:65">
@@ -7721,163 +7511,163 @@
         <v>168</v>
       </c>
       <c r="F33">
-        <v>1.08</v>
+        <v>1.27</v>
       </c>
       <c r="G33">
-        <v>1.48</v>
+        <v>1.32</v>
       </c>
       <c r="H33">
-        <v>3.1</v>
+        <v>11</v>
       </c>
       <c r="I33">
-        <v>870</v>
+        <v>14</v>
       </c>
       <c r="J33">
-        <v>3.05</v>
+        <v>6</v>
       </c>
       <c r="K33">
-        <v>950</v>
+        <v>7.4</v>
       </c>
       <c r="L33">
-        <v>2.56</v>
+        <v>2.68</v>
       </c>
       <c r="M33">
-        <v>110</v>
+        <v>3.15</v>
       </c>
       <c r="N33">
-        <v>1.03</v>
+        <v>1.46</v>
       </c>
       <c r="O33">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="P33">
-        <v>1.12</v>
+        <v>1.89</v>
       </c>
       <c r="Q33">
-        <v>1000</v>
+        <v>2.1</v>
       </c>
       <c r="R33">
-        <v>1.12</v>
+        <v>1.91</v>
       </c>
       <c r="S33">
-        <v>1000</v>
+        <v>2.14</v>
       </c>
       <c r="T33">
-        <v>1.49</v>
+        <v>6.2</v>
       </c>
       <c r="U33">
         <v>980</v>
       </c>
       <c r="V33">
-        <v>2.4</v>
+        <v>6.6</v>
       </c>
       <c r="W33">
         <v>980</v>
       </c>
       <c r="X33">
-        <v>2.58</v>
+        <v>7.2</v>
       </c>
       <c r="Y33">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="Z33">
-        <v>3.65</v>
+        <v>7.4</v>
       </c>
       <c r="AA33">
         <v>1000</v>
       </c>
       <c r="AB33">
-        <v>1.1</v>
+        <v>8.4</v>
       </c>
       <c r="AC33">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AD33">
-        <v>1.1</v>
+        <v>12.5</v>
       </c>
       <c r="AE33">
         <v>980</v>
       </c>
       <c r="AF33">
-        <v>3.95</v>
+        <v>6.6</v>
       </c>
       <c r="AG33">
         <v>980</v>
       </c>
       <c r="AH33">
-        <v>5.5</v>
+        <v>7.2</v>
       </c>
       <c r="AI33">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ33">
-        <v>1.1</v>
+        <v>7.8</v>
       </c>
       <c r="AK33">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AL33">
-        <v>1.1</v>
+        <v>9</v>
       </c>
       <c r="AM33">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AN33">
-        <v>3.95</v>
+        <v>21</v>
       </c>
       <c r="AO33">
         <v>980</v>
       </c>
       <c r="AP33">
-        <v>9.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="AQ33">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AR33">
-        <v>1.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AS33">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AT33">
-        <v>1.1</v>
+        <v>11</v>
       </c>
       <c r="AU33">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AV33">
-        <v>9.800000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="AW33">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AX33">
         <v>7.2</v>
       </c>
       <c r="AY33">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AZ33">
-        <v>1.01</v>
+        <v>2.8</v>
       </c>
       <c r="BA33">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="BB33">
-        <v>1.01</v>
+        <v>7.2</v>
       </c>
       <c r="BC33">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="BD33">
-        <v>1.1</v>
+        <v>7.6</v>
       </c>
       <c r="BE33">
         <v>1000</v>
       </c>
       <c r="BF33" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="BG33">
         <v>328205</v>
@@ -7889,16 +7679,16 @@
         <v>58805</v>
       </c>
       <c r="BJ33" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="BK33" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="BL33" t="s">
-        <v>304</v>
+        <v>248</v>
       </c>
       <c r="BM33" t="s">
-        <v>338</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34" spans="1:65">
@@ -7918,163 +7708,163 @@
         <v>169</v>
       </c>
       <c r="F34">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="G34">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="H34">
+        <v>6.2</v>
+      </c>
+      <c r="I34">
+        <v>6.6</v>
+      </c>
+      <c r="J34">
+        <v>3.8</v>
+      </c>
+      <c r="K34">
+        <v>3.9</v>
+      </c>
+      <c r="L34">
+        <v>1.74</v>
+      </c>
+      <c r="M34">
+        <v>1.79</v>
+      </c>
+      <c r="N34">
+        <v>2.26</v>
+      </c>
+      <c r="O34">
+        <v>2.36</v>
+      </c>
+      <c r="P34">
+        <v>2.16</v>
+      </c>
+      <c r="Q34">
+        <v>2.3</v>
+      </c>
+      <c r="R34">
+        <v>1.77</v>
+      </c>
+      <c r="S34">
+        <v>1.87</v>
+      </c>
+      <c r="T34">
+        <v>10</v>
+      </c>
+      <c r="U34">
+        <v>11.5</v>
+      </c>
+      <c r="V34">
+        <v>16</v>
+      </c>
+      <c r="W34">
+        <v>17.5</v>
+      </c>
+      <c r="X34">
+        <v>44</v>
+      </c>
+      <c r="Y34">
+        <v>55</v>
+      </c>
+      <c r="Z34">
+        <v>19</v>
+      </c>
+      <c r="AA34">
+        <v>200</v>
+      </c>
+      <c r="AB34">
+        <v>6.4</v>
+      </c>
+      <c r="AC34">
         <v>6.8</v>
       </c>
-      <c r="I34">
-        <v>7.6</v>
-      </c>
-      <c r="J34">
-        <v>4</v>
-      </c>
-      <c r="K34">
-        <v>4.3</v>
-      </c>
-      <c r="L34">
-        <v>1.85</v>
-      </c>
-      <c r="M34">
-        <v>1.93</v>
-      </c>
-      <c r="N34">
-        <v>2.06</v>
-      </c>
-      <c r="O34">
-        <v>2.18</v>
-      </c>
-      <c r="P34">
-        <v>2.04</v>
-      </c>
-      <c r="Q34">
-        <v>2.2</v>
-      </c>
-      <c r="R34">
-        <v>1.84</v>
-      </c>
-      <c r="S34">
-        <v>1.95</v>
-      </c>
-      <c r="T34">
-        <v>11</v>
-      </c>
-      <c r="U34">
-        <v>13</v>
-      </c>
-      <c r="V34">
-        <v>19</v>
-      </c>
-      <c r="W34">
-        <v>22</v>
-      </c>
-      <c r="X34">
-        <v>48</v>
-      </c>
-      <c r="Y34">
-        <v>60</v>
-      </c>
-      <c r="Z34">
-        <v>12.5</v>
-      </c>
-      <c r="AA34">
-        <v>240</v>
-      </c>
-      <c r="AB34">
-        <v>6.8</v>
-      </c>
-      <c r="AC34">
-        <v>7.6</v>
-      </c>
       <c r="AD34">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE34">
         <v>8.6</v>
       </c>
-      <c r="AE34">
-        <v>9.199999999999999</v>
-      </c>
       <c r="AF34">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG34">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AH34">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AI34">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ34">
         <v>8</v>
       </c>
       <c r="AK34">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AL34">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AM34">
         <v>10.5</v>
       </c>
       <c r="AN34">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO34">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP34">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="AQ34">
         <v>130</v>
       </c>
       <c r="AR34">
+        <v>15</v>
+      </c>
+      <c r="AS34">
+        <v>16.5</v>
+      </c>
+      <c r="AT34">
+        <v>19.5</v>
+      </c>
+      <c r="AU34">
+        <v>20</v>
+      </c>
+      <c r="AV34">
+        <v>44</v>
+      </c>
+      <c r="AW34">
+        <v>48</v>
+      </c>
+      <c r="AX34">
+        <v>19</v>
+      </c>
+      <c r="AY34">
+        <v>190</v>
+      </c>
+      <c r="AZ34">
+        <v>13</v>
+      </c>
+      <c r="BA34">
         <v>13.5</v>
       </c>
-      <c r="AS34">
-        <v>15</v>
-      </c>
-      <c r="AT34">
-        <v>16.5</v>
-      </c>
-      <c r="AU34">
-        <v>18</v>
-      </c>
-      <c r="AV34">
-        <v>36</v>
-      </c>
-      <c r="AW34">
-        <v>44</v>
-      </c>
-      <c r="AX34">
-        <v>12.5</v>
-      </c>
-      <c r="AY34">
-        <v>180</v>
-      </c>
-      <c r="AZ34">
-        <v>8</v>
-      </c>
-      <c r="BA34">
-        <v>11.5</v>
-      </c>
       <c r="BB34">
-        <v>12.5</v>
+        <v>18.5</v>
       </c>
       <c r="BC34">
         <v>170</v>
       </c>
       <c r="BD34">
-        <v>13.5</v>
+        <v>21</v>
       </c>
       <c r="BE34">
         <v>1000</v>
       </c>
       <c r="BF34" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="BG34">
         <v>198138</v>
@@ -8086,16 +7876,16 @@
         <v>58805</v>
       </c>
       <c r="BJ34" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="BK34" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="BL34" t="s">
-        <v>305</v>
+        <v>249</v>
       </c>
       <c r="BM34" t="s">
-        <v>339</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35" spans="1:65">
@@ -8115,25 +7905,25 @@
         <v>170</v>
       </c>
       <c r="F35">
-        <v>2.14</v>
+        <v>1.68</v>
       </c>
       <c r="G35">
-        <v>2.32</v>
+        <v>1.77</v>
       </c>
       <c r="H35">
-        <v>3.75</v>
+        <v>5.9</v>
       </c>
       <c r="I35">
-        <v>4.3</v>
+        <v>6.8</v>
       </c>
       <c r="J35">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="K35">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="L35">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="M35">
         <v>1.84</v>
@@ -8142,136 +7932,136 @@
         <v>2.18</v>
       </c>
       <c r="O35">
-        <v>2.6</v>
+        <v>2.46</v>
       </c>
       <c r="P35">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="Q35">
-        <v>2.24</v>
+        <v>2.4</v>
       </c>
       <c r="R35">
-        <v>1.81</v>
+        <v>1.72</v>
       </c>
       <c r="S35">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T35">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="U35">
+        <v>12.5</v>
+      </c>
+      <c r="V35">
+        <v>13.5</v>
+      </c>
+      <c r="W35">
+        <v>980</v>
+      </c>
+      <c r="X35">
+        <v>32</v>
+      </c>
+      <c r="Y35">
+        <v>980</v>
+      </c>
+      <c r="Z35">
         <v>8.199999999999999</v>
       </c>
-      <c r="U35">
-        <v>11</v>
-      </c>
-      <c r="V35">
-        <v>9.6</v>
-      </c>
-      <c r="W35">
-        <v>13</v>
-      </c>
-      <c r="X35">
-        <v>19.5</v>
-      </c>
-      <c r="Y35">
-        <v>980</v>
-      </c>
-      <c r="Z35">
-        <v>7</v>
-      </c>
       <c r="AA35">
         <v>980</v>
       </c>
       <c r="AB35">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="AC35">
-        <v>9</v>
+        <v>7.2</v>
       </c>
       <c r="AD35">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="AE35">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AF35">
-        <v>5.4</v>
+        <v>20</v>
       </c>
       <c r="AG35">
         <v>980</v>
       </c>
       <c r="AH35">
-        <v>6.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AI35">
         <v>980</v>
       </c>
       <c r="AJ35">
-        <v>10.5</v>
+        <v>7.8</v>
       </c>
       <c r="AK35">
-        <v>980</v>
+        <v>9.4</v>
       </c>
       <c r="AL35">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="AM35">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AN35">
-        <v>5.8</v>
+        <v>23</v>
       </c>
       <c r="AO35">
         <v>980</v>
       </c>
       <c r="AP35">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="AQ35">
         <v>980</v>
       </c>
       <c r="AR35">
-        <v>6.2</v>
+        <v>13.5</v>
       </c>
       <c r="AS35">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AT35">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="AU35">
         <v>980</v>
       </c>
       <c r="AV35">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="AW35">
         <v>980</v>
       </c>
       <c r="AX35">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AY35">
         <v>980</v>
       </c>
       <c r="AZ35">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="BA35">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="BB35">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="BC35">
         <v>980</v>
       </c>
       <c r="BD35">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BE35">
         <v>1000</v>
       </c>
       <c r="BF35" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="BG35">
         <v>10632891</v>
@@ -8283,16 +8073,16 @@
         <v>58805</v>
       </c>
       <c r="BJ35" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="BK35" t="s">
-        <v>272</v>
+        <v>230</v>
       </c>
       <c r="BL35" t="s">
-        <v>306</v>
+        <v>250</v>
       </c>
       <c r="BM35" t="s">
-        <v>340</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-17.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="171">
   <si>
     <t>League</t>
   </si>
@@ -527,306 +527,6 @@
   </si>
   <si>
     <t>Deportivo Pereira</t>
-  </si>
-  <si>
-    <t>33198829</t>
-  </si>
-  <si>
-    <t>33179885</t>
-  </si>
-  <si>
-    <t>33182501</t>
-  </si>
-  <si>
-    <t>33179884</t>
-  </si>
-  <si>
-    <t>33193722</t>
-  </si>
-  <si>
-    <t>33194882</t>
-  </si>
-  <si>
-    <t>33193683</t>
-  </si>
-  <si>
-    <t>33194042</t>
-  </si>
-  <si>
-    <t>33192483</t>
-  </si>
-  <si>
-    <t>33191361</t>
-  </si>
-  <si>
-    <t>33179093</t>
-  </si>
-  <si>
-    <t>33192458</t>
-  </si>
-  <si>
-    <t>33192508</t>
-  </si>
-  <si>
-    <t>33192498</t>
-  </si>
-  <si>
-    <t>33192501</t>
-  </si>
-  <si>
-    <t>33193384</t>
-  </si>
-  <si>
-    <t>33190654</t>
-  </si>
-  <si>
-    <t>33198982</t>
-  </si>
-  <si>
-    <t>33192506</t>
-  </si>
-  <si>
-    <t>33191432</t>
-  </si>
-  <si>
-    <t>1.227718355</t>
-  </si>
-  <si>
-    <t>1.227394361</t>
-  </si>
-  <si>
-    <t>1.227432865</t>
-  </si>
-  <si>
-    <t>1.227394502</t>
-  </si>
-  <si>
-    <t>1.227625160</t>
-  </si>
-  <si>
-    <t>1.227649428</t>
-  </si>
-  <si>
-    <t>1.227625250</t>
-  </si>
-  <si>
-    <t>1.227632450</t>
-  </si>
-  <si>
-    <t>1.227600179</t>
-  </si>
-  <si>
-    <t>1.227583319</t>
-  </si>
-  <si>
-    <t>1.227382475</t>
-  </si>
-  <si>
-    <t>1.227598979</t>
-  </si>
-  <si>
-    <t>1.227599747</t>
-  </si>
-  <si>
-    <t>1.227600071</t>
-  </si>
-  <si>
-    <t>1.227599963</t>
-  </si>
-  <si>
-    <t>1.227617604</t>
-  </si>
-  <si>
-    <t>1.227569714</t>
-  </si>
-  <si>
-    <t>1.227718445</t>
-  </si>
-  <si>
-    <t>1.227599855</t>
-  </si>
-  <si>
-    <t>1.227584804</t>
-  </si>
-  <si>
-    <t>1.227718400</t>
-  </si>
-  <si>
-    <t>1.227394300</t>
-  </si>
-  <si>
-    <t>1.227432875</t>
-  </si>
-  <si>
-    <t>1.227394441</t>
-  </si>
-  <si>
-    <t>1.227625205</t>
-  </si>
-  <si>
-    <t>1.227649412</t>
-  </si>
-  <si>
-    <t>1.227625295</t>
-  </si>
-  <si>
-    <t>1.227632495</t>
-  </si>
-  <si>
-    <t>1.227600189</t>
-  </si>
-  <si>
-    <t>1.227583303</t>
-  </si>
-  <si>
-    <t>1.227382520</t>
-  </si>
-  <si>
-    <t>1.227598989</t>
-  </si>
-  <si>
-    <t>1.227599757</t>
-  </si>
-  <si>
-    <t>1.227600081</t>
-  </si>
-  <si>
-    <t>1.227599973</t>
-  </si>
-  <si>
-    <t>1.227617649</t>
-  </si>
-  <si>
-    <t>1.227569759</t>
-  </si>
-  <si>
-    <t>1.227718490</t>
-  </si>
-  <si>
-    <t>1.227599865</t>
-  </si>
-  <si>
-    <t>1.227584849</t>
-  </si>
-  <si>
-    <t>1.227718439</t>
-  </si>
-  <si>
-    <t>1.227394360</t>
-  </si>
-  <si>
-    <t>1.227432864</t>
-  </si>
-  <si>
-    <t>1.227394501</t>
-  </si>
-  <si>
-    <t>1.227625244</t>
-  </si>
-  <si>
-    <t>1.227649427</t>
-  </si>
-  <si>
-    <t>1.227625334</t>
-  </si>
-  <si>
-    <t>1.227632534</t>
-  </si>
-  <si>
-    <t>1.227600178</t>
-  </si>
-  <si>
-    <t>1.227583318</t>
-  </si>
-  <si>
-    <t>1.227382559</t>
-  </si>
-  <si>
-    <t>1.227598978</t>
-  </si>
-  <si>
-    <t>1.227599746</t>
-  </si>
-  <si>
-    <t>1.227600070</t>
-  </si>
-  <si>
-    <t>1.227599962</t>
-  </si>
-  <si>
-    <t>1.227617688</t>
-  </si>
-  <si>
-    <t>1.227569798</t>
-  </si>
-  <si>
-    <t>1.227718529</t>
-  </si>
-  <si>
-    <t>1.227599854</t>
-  </si>
-  <si>
-    <t>1.227584888</t>
-  </si>
-  <si>
-    <t>1.227718364</t>
-  </si>
-  <si>
-    <t>1.227394371</t>
-  </si>
-  <si>
-    <t>1.227432874</t>
-  </si>
-  <si>
-    <t>1.227394512</t>
-  </si>
-  <si>
-    <t>1.227625169</t>
-  </si>
-  <si>
-    <t>1.227649437</t>
-  </si>
-  <si>
-    <t>1.227625259</t>
-  </si>
-  <si>
-    <t>1.227632459</t>
-  </si>
-  <si>
-    <t>1.227600188</t>
-  </si>
-  <si>
-    <t>1.227583328</t>
-  </si>
-  <si>
-    <t>1.227382484</t>
-  </si>
-  <si>
-    <t>1.227598988</t>
-  </si>
-  <si>
-    <t>1.227599756</t>
-  </si>
-  <si>
-    <t>1.227600080</t>
-  </si>
-  <si>
-    <t>1.227599972</t>
-  </si>
-  <si>
-    <t>1.227617613</t>
-  </si>
-  <si>
-    <t>1.227569723</t>
-  </si>
-  <si>
-    <t>1.227718454</t>
-  </si>
-  <si>
-    <t>1.227599864</t>
-  </si>
-  <si>
-    <t>1.227584813</t>
   </si>
 </sst>
 </file>
@@ -4317,8 +4017,8 @@
       <c r="BE16">
         <v>1000</v>
       </c>
-      <c r="BF16" t="s">
-        <v>171</v>
+      <c r="BF16">
+        <v>33198829</v>
       </c>
       <c r="BG16">
         <v>21094424</v>
@@ -4329,17 +4029,17 @@
       <c r="BI16">
         <v>58805</v>
       </c>
-      <c r="BJ16" t="s">
-        <v>191</v>
-      </c>
-      <c r="BK16" t="s">
-        <v>211</v>
-      </c>
-      <c r="BL16" t="s">
-        <v>231</v>
-      </c>
-      <c r="BM16" t="s">
-        <v>251</v>
+      <c r="BJ16">
+        <v>1.227718355</v>
+      </c>
+      <c r="BK16">
+        <v>1.2277184</v>
+      </c>
+      <c r="BL16">
+        <v>1.227718439</v>
+      </c>
+      <c r="BM16">
+        <v>1.227718364</v>
       </c>
     </row>
     <row r="17" spans="1:65">
@@ -4514,8 +4214,8 @@
       <c r="BE17">
         <v>210</v>
       </c>
-      <c r="BF17" t="s">
-        <v>172</v>
+      <c r="BF17">
+        <v>33179885</v>
       </c>
       <c r="BG17">
         <v>47999</v>
@@ -4526,17 +4226,17 @@
       <c r="BI17">
         <v>58805</v>
       </c>
-      <c r="BJ17" t="s">
-        <v>192</v>
-      </c>
-      <c r="BK17" t="s">
-        <v>212</v>
-      </c>
-      <c r="BL17" t="s">
-        <v>232</v>
-      </c>
-      <c r="BM17" t="s">
-        <v>252</v>
+      <c r="BJ17">
+        <v>1.227394361</v>
+      </c>
+      <c r="BK17">
+        <v>1.2273943</v>
+      </c>
+      <c r="BL17">
+        <v>1.22739436</v>
+      </c>
+      <c r="BM17">
+        <v>1.227394371</v>
       </c>
     </row>
     <row r="18" spans="1:65">
@@ -4711,8 +4411,8 @@
       <c r="BE18">
         <v>1000</v>
       </c>
-      <c r="BF18" t="s">
-        <v>173</v>
+      <c r="BF18">
+        <v>33182501</v>
       </c>
       <c r="BG18">
         <v>13133</v>
@@ -4723,17 +4423,17 @@
       <c r="BI18">
         <v>58805</v>
       </c>
-      <c r="BJ18" t="s">
-        <v>193</v>
-      </c>
-      <c r="BK18" t="s">
-        <v>213</v>
-      </c>
-      <c r="BL18" t="s">
-        <v>233</v>
-      </c>
-      <c r="BM18" t="s">
-        <v>253</v>
+      <c r="BJ18">
+        <v>1.227432865</v>
+      </c>
+      <c r="BK18">
+        <v>1.227432875</v>
+      </c>
+      <c r="BL18">
+        <v>1.227432864</v>
+      </c>
+      <c r="BM18">
+        <v>1.227432874</v>
       </c>
     </row>
     <row r="19" spans="1:65">
@@ -4908,8 +4608,8 @@
       <c r="BE19">
         <v>210</v>
       </c>
-      <c r="BF19" t="s">
-        <v>174</v>
+      <c r="BF19">
+        <v>33179884</v>
       </c>
       <c r="BG19">
         <v>5774350</v>
@@ -4920,17 +4620,17 @@
       <c r="BI19">
         <v>58805</v>
       </c>
-      <c r="BJ19" t="s">
-        <v>194</v>
-      </c>
-      <c r="BK19" t="s">
-        <v>214</v>
-      </c>
-      <c r="BL19" t="s">
-        <v>234</v>
-      </c>
-      <c r="BM19" t="s">
-        <v>254</v>
+      <c r="BJ19">
+        <v>1.227394502</v>
+      </c>
+      <c r="BK19">
+        <v>1.227394441</v>
+      </c>
+      <c r="BL19">
+        <v>1.227394501</v>
+      </c>
+      <c r="BM19">
+        <v>1.227394512</v>
       </c>
     </row>
     <row r="20" spans="1:65">
@@ -5105,8 +4805,8 @@
       <c r="BE20">
         <v>1000</v>
       </c>
-      <c r="BF20" t="s">
-        <v>175</v>
+      <c r="BF20">
+        <v>33193722</v>
       </c>
       <c r="BG20">
         <v>5129869</v>
@@ -5117,17 +4817,17 @@
       <c r="BI20">
         <v>58805</v>
       </c>
-      <c r="BJ20" t="s">
-        <v>195</v>
-      </c>
-      <c r="BK20" t="s">
-        <v>215</v>
-      </c>
-      <c r="BL20" t="s">
-        <v>235</v>
-      </c>
-      <c r="BM20" t="s">
-        <v>255</v>
+      <c r="BJ20">
+        <v>1.22762516</v>
+      </c>
+      <c r="BK20">
+        <v>1.227625205</v>
+      </c>
+      <c r="BL20">
+        <v>1.227625244</v>
+      </c>
+      <c r="BM20">
+        <v>1.227625169</v>
       </c>
     </row>
     <row r="21" spans="1:65">
@@ -5302,8 +5002,8 @@
       <c r="BE21">
         <v>1000</v>
       </c>
-      <c r="BF21" t="s">
-        <v>176</v>
+      <c r="BF21">
+        <v>33194882</v>
       </c>
       <c r="BG21">
         <v>5327095</v>
@@ -5314,17 +5014,17 @@
       <c r="BI21">
         <v>58805</v>
       </c>
-      <c r="BJ21" t="s">
-        <v>196</v>
-      </c>
-      <c r="BK21" t="s">
-        <v>216</v>
-      </c>
-      <c r="BL21" t="s">
-        <v>236</v>
-      </c>
-      <c r="BM21" t="s">
-        <v>256</v>
+      <c r="BJ21">
+        <v>1.227649428</v>
+      </c>
+      <c r="BK21">
+        <v>1.227649412</v>
+      </c>
+      <c r="BL21">
+        <v>1.227649427</v>
+      </c>
+      <c r="BM21">
+        <v>1.227649437</v>
       </c>
     </row>
     <row r="22" spans="1:65">
@@ -5499,8 +5199,8 @@
       <c r="BE22">
         <v>1000</v>
       </c>
-      <c r="BF22" t="s">
-        <v>177</v>
+      <c r="BF22">
+        <v>33193683</v>
       </c>
       <c r="BG22">
         <v>8717595</v>
@@ -5511,17 +5211,17 @@
       <c r="BI22">
         <v>58805</v>
       </c>
-      <c r="BJ22" t="s">
-        <v>197</v>
-      </c>
-      <c r="BK22" t="s">
-        <v>217</v>
-      </c>
-      <c r="BL22" t="s">
-        <v>237</v>
-      </c>
-      <c r="BM22" t="s">
-        <v>257</v>
+      <c r="BJ22">
+        <v>1.22762525</v>
+      </c>
+      <c r="BK22">
+        <v>1.227625295</v>
+      </c>
+      <c r="BL22">
+        <v>1.227625334</v>
+      </c>
+      <c r="BM22">
+        <v>1.227625259</v>
       </c>
     </row>
     <row r="23" spans="1:65">
@@ -5696,8 +5396,8 @@
       <c r="BE23">
         <v>1000</v>
       </c>
-      <c r="BF23" t="s">
-        <v>178</v>
+      <c r="BF23">
+        <v>33194042</v>
       </c>
       <c r="BG23">
         <v>25894882</v>
@@ -5708,17 +5408,17 @@
       <c r="BI23">
         <v>58805</v>
       </c>
-      <c r="BJ23" t="s">
-        <v>198</v>
-      </c>
-      <c r="BK23" t="s">
-        <v>218</v>
-      </c>
-      <c r="BL23" t="s">
-        <v>238</v>
-      </c>
-      <c r="BM23" t="s">
-        <v>258</v>
+      <c r="BJ23">
+        <v>1.22763245</v>
+      </c>
+      <c r="BK23">
+        <v>1.227632495</v>
+      </c>
+      <c r="BL23">
+        <v>1.227632534</v>
+      </c>
+      <c r="BM23">
+        <v>1.227632459</v>
       </c>
     </row>
     <row r="24" spans="1:65">
@@ -5893,8 +5593,8 @@
       <c r="BE24">
         <v>1000</v>
       </c>
-      <c r="BF24" t="s">
-        <v>179</v>
+      <c r="BF24">
+        <v>33192483</v>
       </c>
       <c r="BG24">
         <v>198134</v>
@@ -5905,17 +5605,17 @@
       <c r="BI24">
         <v>58805</v>
       </c>
-      <c r="BJ24" t="s">
-        <v>199</v>
-      </c>
-      <c r="BK24" t="s">
-        <v>219</v>
-      </c>
-      <c r="BL24" t="s">
-        <v>239</v>
-      </c>
-      <c r="BM24" t="s">
-        <v>259</v>
+      <c r="BJ24">
+        <v>1.227600179</v>
+      </c>
+      <c r="BK24">
+        <v>1.227600189</v>
+      </c>
+      <c r="BL24">
+        <v>1.227600178</v>
+      </c>
+      <c r="BM24">
+        <v>1.227600188</v>
       </c>
     </row>
     <row r="25" spans="1:65">
@@ -6090,8 +5790,8 @@
       <c r="BE25">
         <v>1000</v>
       </c>
-      <c r="BF25" t="s">
-        <v>180</v>
+      <c r="BF25">
+        <v>33191361</v>
       </c>
       <c r="BG25">
         <v>4701919</v>
@@ -6102,17 +5802,17 @@
       <c r="BI25">
         <v>58805</v>
       </c>
-      <c r="BJ25" t="s">
-        <v>200</v>
-      </c>
-      <c r="BK25" t="s">
-        <v>220</v>
-      </c>
-      <c r="BL25" t="s">
-        <v>240</v>
-      </c>
-      <c r="BM25" t="s">
-        <v>260</v>
+      <c r="BJ25">
+        <v>1.227583319</v>
+      </c>
+      <c r="BK25">
+        <v>1.227583303</v>
+      </c>
+      <c r="BL25">
+        <v>1.227583318</v>
+      </c>
+      <c r="BM25">
+        <v>1.227583328</v>
       </c>
     </row>
     <row r="26" spans="1:65">
@@ -6287,8 +5987,8 @@
       <c r="BE26">
         <v>1000</v>
       </c>
-      <c r="BF26" t="s">
-        <v>181</v>
+      <c r="BF26">
+        <v>33179093</v>
       </c>
       <c r="BG26">
         <v>220949</v>
@@ -6299,17 +5999,17 @@
       <c r="BI26">
         <v>58805</v>
       </c>
-      <c r="BJ26" t="s">
-        <v>201</v>
-      </c>
-      <c r="BK26" t="s">
-        <v>221</v>
-      </c>
-      <c r="BL26" t="s">
-        <v>241</v>
-      </c>
-      <c r="BM26" t="s">
-        <v>261</v>
+      <c r="BJ26">
+        <v>1.227382475</v>
+      </c>
+      <c r="BK26">
+        <v>1.22738252</v>
+      </c>
+      <c r="BL26">
+        <v>1.227382559</v>
+      </c>
+      <c r="BM26">
+        <v>1.227382484</v>
       </c>
     </row>
     <row r="27" spans="1:65">
@@ -6484,8 +6184,8 @@
       <c r="BE27">
         <v>1000</v>
       </c>
-      <c r="BF27" t="s">
-        <v>182</v>
+      <c r="BF27">
+        <v>33192458</v>
       </c>
       <c r="BG27">
         <v>361329</v>
@@ -6496,17 +6196,17 @@
       <c r="BI27">
         <v>58805</v>
       </c>
-      <c r="BJ27" t="s">
-        <v>202</v>
-      </c>
-      <c r="BK27" t="s">
-        <v>222</v>
-      </c>
-      <c r="BL27" t="s">
-        <v>242</v>
-      </c>
-      <c r="BM27" t="s">
-        <v>262</v>
+      <c r="BJ27">
+        <v>1.227598979</v>
+      </c>
+      <c r="BK27">
+        <v>1.227598989</v>
+      </c>
+      <c r="BL27">
+        <v>1.227598978</v>
+      </c>
+      <c r="BM27">
+        <v>1.227598988</v>
       </c>
     </row>
     <row r="28" spans="1:65">
@@ -6681,8 +6381,8 @@
       <c r="BE28">
         <v>1000</v>
       </c>
-      <c r="BF28" t="s">
-        <v>183</v>
+      <c r="BF28">
+        <v>33192508</v>
       </c>
       <c r="BG28">
         <v>22498185</v>
@@ -6693,17 +6393,17 @@
       <c r="BI28">
         <v>58805</v>
       </c>
-      <c r="BJ28" t="s">
-        <v>203</v>
-      </c>
-      <c r="BK28" t="s">
-        <v>223</v>
-      </c>
-      <c r="BL28" t="s">
-        <v>243</v>
-      </c>
-      <c r="BM28" t="s">
-        <v>263</v>
+      <c r="BJ28">
+        <v>1.227599747</v>
+      </c>
+      <c r="BK28">
+        <v>1.227599757</v>
+      </c>
+      <c r="BL28">
+        <v>1.227599746</v>
+      </c>
+      <c r="BM28">
+        <v>1.227599756</v>
       </c>
     </row>
     <row r="29" spans="1:65">
@@ -6878,8 +6578,8 @@
       <c r="BE29">
         <v>1000</v>
       </c>
-      <c r="BF29" t="s">
-        <v>184</v>
+      <c r="BF29">
+        <v>33192498</v>
       </c>
       <c r="BG29">
         <v>5287007</v>
@@ -6890,17 +6590,17 @@
       <c r="BI29">
         <v>58805</v>
       </c>
-      <c r="BJ29" t="s">
-        <v>204</v>
-      </c>
-      <c r="BK29" t="s">
-        <v>224</v>
-      </c>
-      <c r="BL29" t="s">
-        <v>244</v>
-      </c>
-      <c r="BM29" t="s">
-        <v>264</v>
+      <c r="BJ29">
+        <v>1.227600071</v>
+      </c>
+      <c r="BK29">
+        <v>1.227600081</v>
+      </c>
+      <c r="BL29">
+        <v>1.22760007</v>
+      </c>
+      <c r="BM29">
+        <v>1.22760008</v>
       </c>
     </row>
     <row r="30" spans="1:65">
@@ -7075,8 +6775,8 @@
       <c r="BE30">
         <v>1000</v>
       </c>
-      <c r="BF30" t="s">
-        <v>185</v>
+      <c r="BF30">
+        <v>33192501</v>
       </c>
       <c r="BG30">
         <v>198144</v>
@@ -7087,17 +6787,17 @@
       <c r="BI30">
         <v>58805</v>
       </c>
-      <c r="BJ30" t="s">
-        <v>205</v>
-      </c>
-      <c r="BK30" t="s">
-        <v>225</v>
-      </c>
-      <c r="BL30" t="s">
-        <v>245</v>
-      </c>
-      <c r="BM30" t="s">
-        <v>265</v>
+      <c r="BJ30">
+        <v>1.227599963</v>
+      </c>
+      <c r="BK30">
+        <v>1.227599973</v>
+      </c>
+      <c r="BL30">
+        <v>1.227599962</v>
+      </c>
+      <c r="BM30">
+        <v>1.227599972</v>
       </c>
     </row>
     <row r="31" spans="1:65">
@@ -7272,8 +6972,8 @@
       <c r="BE31">
         <v>1000</v>
       </c>
-      <c r="BF31" t="s">
-        <v>186</v>
+      <c r="BF31">
+        <v>33193384</v>
       </c>
       <c r="BG31">
         <v>900849</v>
@@ -7284,17 +6984,17 @@
       <c r="BI31">
         <v>58805</v>
       </c>
-      <c r="BJ31" t="s">
-        <v>206</v>
-      </c>
-      <c r="BK31" t="s">
-        <v>226</v>
-      </c>
-      <c r="BL31" t="s">
-        <v>246</v>
-      </c>
-      <c r="BM31" t="s">
-        <v>266</v>
+      <c r="BJ31">
+        <v>1.227617604</v>
+      </c>
+      <c r="BK31">
+        <v>1.227617649</v>
+      </c>
+      <c r="BL31">
+        <v>1.227617688</v>
+      </c>
+      <c r="BM31">
+        <v>1.227617613</v>
       </c>
     </row>
     <row r="32" spans="1:65">
@@ -7469,8 +7169,8 @@
       <c r="BE32">
         <v>1000</v>
       </c>
-      <c r="BF32" t="s">
-        <v>187</v>
+      <c r="BF32">
+        <v>33190654</v>
       </c>
       <c r="BG32">
         <v>6290900</v>
@@ -7481,17 +7181,17 @@
       <c r="BI32">
         <v>58805</v>
       </c>
-      <c r="BJ32" t="s">
-        <v>207</v>
-      </c>
-      <c r="BK32" t="s">
-        <v>227</v>
-      </c>
-      <c r="BL32" t="s">
-        <v>247</v>
-      </c>
-      <c r="BM32" t="s">
-        <v>267</v>
+      <c r="BJ32">
+        <v>1.227569714</v>
+      </c>
+      <c r="BK32">
+        <v>1.227569759</v>
+      </c>
+      <c r="BL32">
+        <v>1.227569798</v>
+      </c>
+      <c r="BM32">
+        <v>1.227569723</v>
       </c>
     </row>
     <row r="33" spans="1:65">
@@ -7666,8 +7366,8 @@
       <c r="BE33">
         <v>1000</v>
       </c>
-      <c r="BF33" t="s">
-        <v>188</v>
+      <c r="BF33">
+        <v>33198982</v>
       </c>
       <c r="BG33">
         <v>328205</v>
@@ -7678,17 +7378,17 @@
       <c r="BI33">
         <v>58805</v>
       </c>
-      <c r="BJ33" t="s">
-        <v>208</v>
-      </c>
-      <c r="BK33" t="s">
-        <v>228</v>
-      </c>
-      <c r="BL33" t="s">
-        <v>248</v>
-      </c>
-      <c r="BM33" t="s">
-        <v>268</v>
+      <c r="BJ33">
+        <v>1.227718445</v>
+      </c>
+      <c r="BK33">
+        <v>1.22771849</v>
+      </c>
+      <c r="BL33">
+        <v>1.227718529</v>
+      </c>
+      <c r="BM33">
+        <v>1.227718454</v>
       </c>
     </row>
     <row r="34" spans="1:65">
@@ -7863,8 +7563,8 @@
       <c r="BE34">
         <v>1000</v>
       </c>
-      <c r="BF34" t="s">
-        <v>189</v>
+      <c r="BF34">
+        <v>33192506</v>
       </c>
       <c r="BG34">
         <v>198138</v>
@@ -7875,17 +7575,17 @@
       <c r="BI34">
         <v>58805</v>
       </c>
-      <c r="BJ34" t="s">
-        <v>209</v>
-      </c>
-      <c r="BK34" t="s">
-        <v>229</v>
-      </c>
-      <c r="BL34" t="s">
-        <v>249</v>
-      </c>
-      <c r="BM34" t="s">
-        <v>269</v>
+      <c r="BJ34">
+        <v>1.227599855</v>
+      </c>
+      <c r="BK34">
+        <v>1.227599865</v>
+      </c>
+      <c r="BL34">
+        <v>1.227599854</v>
+      </c>
+      <c r="BM34">
+        <v>1.227599864</v>
       </c>
     </row>
     <row r="35" spans="1:65">
@@ -8060,8 +7760,8 @@
       <c r="BE35">
         <v>1000</v>
       </c>
-      <c r="BF35" t="s">
-        <v>190</v>
+      <c r="BF35">
+        <v>33191432</v>
       </c>
       <c r="BG35">
         <v>10632891</v>
@@ -8072,17 +7772,17 @@
       <c r="BI35">
         <v>58805</v>
       </c>
-      <c r="BJ35" t="s">
-        <v>210</v>
-      </c>
-      <c r="BK35" t="s">
-        <v>230</v>
-      </c>
-      <c r="BL35" t="s">
-        <v>250</v>
-      </c>
-      <c r="BM35" t="s">
-        <v>270</v>
+      <c r="BJ35">
+        <v>1.227584804</v>
+      </c>
+      <c r="BK35">
+        <v>1.227584849</v>
+      </c>
+      <c r="BL35">
+        <v>1.227584888</v>
+      </c>
+      <c r="BM35">
+        <v>1.227584813</v>
       </c>
     </row>
   </sheetData>
